--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,20 +14,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <x:si>
+    <x:t>2020年10月09日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>本部長</x:t>
+  </x:si>
+  <x:si>
+    <x:t>副住職</x:t>
+  </x:si>
+  <x:si>
+    <x:t>係</x:t>
+  </x:si>
+  <x:si>
+    <x:t>金種</x:t>
+  </x:si>
+  <x:si>
+    <x:t>数量</x:t>
+  </x:si>
+  <x:si>
+    <x:t>金額</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1万円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5千円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1千円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>束金種</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500円束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100円束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50円束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10円束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5円束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1円束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>合計　16,666 円</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="165" formatCode="@"/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ ゴシック"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="20"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ ゴシック"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -39,7 +158,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="2">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -51,6 +170,23 @@
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -58,14 +194,54 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -363,15 +539,311 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:G20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:cols>
+    <x:col min="8" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="11.090625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="7.590625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="15.090625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="11.090625" style="1" customWidth="1"/>
+    <x:col min="5" max="7" width="7.460625" style="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s"/>
+      <x:c r="C1" s="3" t="s"/>
+      <x:c r="D1" s="3" t="s"/>
+      <x:c r="E1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7" customFormat="1" ht="41.25" customHeight="1">
+      <x:c r="A2" s="3" t="s"/>
+      <x:c r="B2" s="3" t="s"/>
+      <x:c r="C2" s="3" t="s"/>
+      <x:c r="D2" s="3" t="s"/>
+      <x:c r="E2" s="5" t="s"/>
+      <x:c r="F2" s="5" t="s"/>
+      <x:c r="G2" s="5" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A3" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D3" s="3" t="s"/>
+      <x:c r="E3" s="3" t="s"/>
+      <x:c r="F3" s="3" t="s"/>
+      <x:c r="G3" s="3" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A4" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C4" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D4" s="3" t="s"/>
+      <x:c r="E4" s="3" t="s"/>
+      <x:c r="F4" s="3" t="s"/>
+      <x:c r="G4" s="3" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A5" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s"/>
+      <x:c r="E5" s="3" t="s"/>
+      <x:c r="F5" s="3" t="s"/>
+      <x:c r="G5" s="3" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A6" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C6" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D6" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F6" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G6" s="5" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A7" s="6" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B7" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D7" s="6" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E7" s="5" t="s"/>
+      <x:c r="F7" s="5" t="s"/>
+      <x:c r="G7" s="5" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A8" s="6" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B8" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C8" s="6" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D8" s="6" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E8" s="5" t="s"/>
+      <x:c r="F8" s="5" t="s"/>
+      <x:c r="G8" s="5" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A9" s="6" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B9" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C9" s="6" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D9" s="6" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E9" s="5" t="s"/>
+      <x:c r="F9" s="5" t="s"/>
+      <x:c r="G9" s="5" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A10" s="6" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B10" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C10" s="6" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D10" s="6" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E10" s="5" t="s"/>
+      <x:c r="F10" s="5" t="s"/>
+      <x:c r="G10" s="5" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A11" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B11" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C11" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D11" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E11" s="5" t="s"/>
+      <x:c r="F11" s="5" t="s"/>
+      <x:c r="G11" s="5" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A12" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B12" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C12" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D12" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E12" s="5" t="s"/>
+      <x:c r="F12" s="5" t="s"/>
+      <x:c r="G12" s="5" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A13" s="3" t="s"/>
+      <x:c r="B13" s="3" t="s"/>
+      <x:c r="C13" s="3" t="s"/>
+      <x:c r="D13" s="3" t="s"/>
+      <x:c r="E13" s="3" t="s"/>
+      <x:c r="F13" s="3" t="s"/>
+      <x:c r="G13" s="3" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A14" s="3" t="s"/>
+      <x:c r="B14" s="3" t="s"/>
+      <x:c r="C14" s="3" t="s"/>
+      <x:c r="D14" s="3" t="s"/>
+      <x:c r="E14" s="3" t="s"/>
+      <x:c r="F14" s="3" t="s"/>
+      <x:c r="G14" s="3" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A15" s="5" t="s"/>
+      <x:c r="B15" s="5" t="s"/>
+      <x:c r="C15" s="5" t="s"/>
+      <x:c r="D15" s="5" t="s"/>
+      <x:c r="E15" s="5" t="s"/>
+      <x:c r="F15" s="5" t="s"/>
+      <x:c r="G15" s="5" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A16" s="5" t="s"/>
+      <x:c r="B16" s="5" t="s"/>
+      <x:c r="C16" s="5" t="s"/>
+      <x:c r="D16" s="5" t="s"/>
+      <x:c r="E16" s="5" t="s"/>
+      <x:c r="F16" s="5" t="s"/>
+      <x:c r="G16" s="5" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A17" s="5" t="s"/>
+      <x:c r="B17" s="5" t="s"/>
+      <x:c r="C17" s="5" t="s"/>
+      <x:c r="D17" s="5" t="s"/>
+      <x:c r="E17" s="5" t="s"/>
+      <x:c r="F17" s="5" t="s"/>
+      <x:c r="G17" s="5" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A18" s="5" t="s"/>
+      <x:c r="B18" s="5" t="s"/>
+      <x:c r="C18" s="5" t="s"/>
+      <x:c r="D18" s="5" t="s"/>
+      <x:c r="E18" s="5" t="s"/>
+      <x:c r="F18" s="5" t="s"/>
+      <x:c r="G18" s="5" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A19" s="3" t="s"/>
+      <x:c r="B19" s="3" t="s"/>
+      <x:c r="C19" s="3" t="s"/>
+      <x:c r="D19" s="3" t="s"/>
+      <x:c r="E19" s="3" t="s"/>
+      <x:c r="F19" s="3" t="s"/>
+      <x:c r="G19" s="3" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:7" customFormat="1" ht="32.25" customHeight="1">
+      <x:c r="A20" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B20" s="3" t="s"/>
+      <x:c r="C20" s="3" t="s"/>
+      <x:c r="D20" s="3" t="s"/>
+      <x:c r="E20" s="3" t="s"/>
+      <x:c r="F20" s="3" t="s"/>
+      <x:c r="G20" s="3" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="17">
+    <x:mergeCell ref="A1:C1"/>
+    <x:mergeCell ref="F6:G6"/>
+    <x:mergeCell ref="F7:G7"/>
+    <x:mergeCell ref="F8:G8"/>
+    <x:mergeCell ref="F9:G9"/>
+    <x:mergeCell ref="F10:G10"/>
+    <x:mergeCell ref="F11:G11"/>
+    <x:mergeCell ref="F12:G12"/>
+    <x:mergeCell ref="B15:C15"/>
+    <x:mergeCell ref="E15:G15"/>
+    <x:mergeCell ref="B16:C16"/>
+    <x:mergeCell ref="E16:G16"/>
+    <x:mergeCell ref="B17:C17"/>
+    <x:mergeCell ref="E17:G17"/>
+    <x:mergeCell ref="B18:C18"/>
+    <x:mergeCell ref="E18:G18"/>
+    <x:mergeCell ref="A20:G20"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageMargins left="0.700786" right="0.700786" top="0.75196699999999994" bottom="0.75196699999999994" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <x:si>
-    <x:t>2020年10月09日</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <x:si>
+    <x:t>2020年10月10日</x:t>
   </x:si>
   <x:si>
     <x:t>本部長</x:t>
@@ -40,82 +40,79 @@
     <x:t>1万円</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5千円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1千円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>束金種</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500円束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100円束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50円束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10円束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5円束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1円束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>金庫等</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内容</x:t>
+  </x:si>
+  <x:si>
+    <x:t>青蓮堂</x:t>
   </x:si>
   <x:si>
     <x:t>10,000 円</x:t>
   </x:si>
   <x:si>
-    <x:t>5千円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1千円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>束金種</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500円束</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100円束</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50円束</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10円束</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5円束</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1円束</x:t>
-  </x:si>
-  <x:si>
-    <x:t>合計　16,666 円</x:t>
+    <x:t>香華売り場</x:t>
+  </x:si>
+  <x:si>
+    <x:t>春秋庵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>石材工事部</x:t>
+  </x:si>
+  <x:si>
+    <x:t>合計　10,000 円</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -158,7 +155,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="2">
+  <x:borders count="3">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -193,8 +190,25 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="double">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -207,11 +221,14 @@
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -240,7 +257,31 @@
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -539,21 +580,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G20"/>
+  <x:dimension ref="A1:L21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="8" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="11.090625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="13.570625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="7.590625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="15.090625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="11.090625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="13.570625" style="1" customWidth="1"/>
     <x:col min="5" max="7" width="7.460625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+    <x:row r="1" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -570,7 +611,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7" customFormat="1" ht="41.25" customHeight="1">
+    <x:row r="2" spans="1:12" customFormat="1" ht="41.25" customHeight="1">
       <x:c r="A2" s="3" t="s"/>
       <x:c r="B2" s="3" t="s"/>
       <x:c r="C2" s="3" t="s"/>
@@ -579,7 +620,7 @@
       <x:c r="F2" s="5" t="s"/>
       <x:c r="G2" s="5" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+    <x:row r="3" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A3" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -594,7 +635,7 @@
       <x:c r="F3" s="3" t="s"/>
       <x:c r="G3" s="3" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+    <x:row r="4" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A4" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -609,7 +650,7 @@
       <x:c r="F4" s="3" t="s"/>
       <x:c r="G4" s="3" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+    <x:row r="5" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A5" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -617,25 +658,25 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s"/>
       <x:c r="E5" s="3" t="s"/>
       <x:c r="F5" s="3" t="s"/>
       <x:c r="G5" s="3" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+    <x:row r="6" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A6" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C6" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D6" s="4" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="B6" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C6" s="6" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D6" s="4" t="s">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="E6" s="4" t="s">
         <x:v>5</x:v>
@@ -645,109 +686,163 @@
       </x:c>
       <x:c r="G6" s="5" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+    <x:row r="7" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A7" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D7" s="6" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E7" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F7" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G7" s="4" t="s"/>
+      <x:c r="H7" s="7" t="s"/>
+      <x:c r="I7" s="7" t="s"/>
+      <x:c r="J7" s="7" t="s"/>
+      <x:c r="K7" s="7" t="s"/>
+      <x:c r="L7" s="7" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A8" s="6" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B7" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C7" s="6" t="s">
+      <x:c r="B8" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C8" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D8" s="6" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D7" s="6" t="s">
+      <x:c r="E8" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F8" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G8" s="4" t="s"/>
+      <x:c r="H8" s="7" t="s"/>
+      <x:c r="I8" s="7" t="s"/>
+      <x:c r="J8" s="7" t="s"/>
+      <x:c r="K8" s="7" t="s"/>
+      <x:c r="L8" s="7" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A9" s="6" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E7" s="5" t="s"/>
-      <x:c r="F7" s="5" t="s"/>
-      <x:c r="G7" s="5" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A8" s="6" t="s">
+      <x:c r="B9" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C9" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D9" s="6" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B8" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C8" s="6" t="s">
+      <x:c r="E9" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F9" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G9" s="4" t="s"/>
+      <x:c r="H9" s="7" t="s"/>
+      <x:c r="I9" s="7" t="s"/>
+      <x:c r="J9" s="7" t="s"/>
+      <x:c r="K9" s="7" t="s"/>
+      <x:c r="L9" s="7" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A10" s="6" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="D8" s="6" t="s">
+      <x:c r="B10" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C10" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D10" s="6" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E8" s="5" t="s"/>
-      <x:c r="F8" s="5" t="s"/>
-      <x:c r="G8" s="5" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A9" s="6" t="s">
+      <x:c r="E10" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F10" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G10" s="4" t="s"/>
+      <x:c r="H10" s="7" t="s"/>
+      <x:c r="I10" s="7" t="s"/>
+      <x:c r="J10" s="7" t="s"/>
+      <x:c r="K10" s="7" t="s"/>
+      <x:c r="L10" s="7" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A11" s="6" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B9" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C9" s="6" t="s">
+      <x:c r="B11" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C11" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D11" s="6" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D9" s="6" t="s">
+      <x:c r="E11" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F11" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G11" s="4" t="s"/>
+      <x:c r="H11" s="7" t="s"/>
+      <x:c r="I11" s="7" t="s"/>
+      <x:c r="J11" s="7" t="s"/>
+      <x:c r="K11" s="7" t="s"/>
+      <x:c r="L11" s="7" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A12" s="6" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E9" s="5" t="s"/>
-      <x:c r="F9" s="5" t="s"/>
-      <x:c r="G9" s="5" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A10" s="6" t="s">
+      <x:c r="B12" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C12" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D12" s="6" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B10" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C10" s="6" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D10" s="6" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E10" s="5" t="s"/>
-      <x:c r="F10" s="5" t="s"/>
-      <x:c r="G10" s="5" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A11" s="6" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B11" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C11" s="6" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D11" s="6" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E11" s="5" t="s"/>
-      <x:c r="F11" s="5" t="s"/>
-      <x:c r="G11" s="5" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A12" s="6" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B12" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C12" s="6" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D12" s="6" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E12" s="5" t="s"/>
-      <x:c r="F12" s="5" t="s"/>
-      <x:c r="G12" s="5" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="E12" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F12" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G12" s="4" t="s"/>
+      <x:c r="H12" s="7" t="s"/>
+      <x:c r="I12" s="7" t="s"/>
+      <x:c r="J12" s="7" t="s"/>
+      <x:c r="K12" s="7" t="s"/>
+      <x:c r="L12" s="7" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A13" s="3" t="s"/>
       <x:c r="B13" s="3" t="s"/>
       <x:c r="C13" s="3" t="s"/>
@@ -756,8 +851,10 @@
       <x:c r="F13" s="3" t="s"/>
       <x:c r="G13" s="3" t="s"/>
     </x:row>
-    <x:row r="14" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A14" s="3" t="s"/>
+    <x:row r="14" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A14" s="8" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="B14" s="3" t="s"/>
       <x:c r="C14" s="3" t="s"/>
       <x:c r="D14" s="3" t="s"/>
@@ -765,55 +862,71 @@
       <x:c r="F14" s="3" t="s"/>
       <x:c r="G14" s="3" t="s"/>
     </x:row>
-    <x:row r="15" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A15" s="5" t="s"/>
-      <x:c r="B15" s="5" t="s"/>
-      <x:c r="C15" s="5" t="s"/>
-      <x:c r="D15" s="5" t="s"/>
-      <x:c r="E15" s="5" t="s"/>
-      <x:c r="F15" s="5" t="s"/>
-      <x:c r="G15" s="5" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A16" s="5" t="s"/>
-      <x:c r="B16" s="5" t="s"/>
-      <x:c r="C16" s="5" t="s"/>
-      <x:c r="D16" s="5" t="s"/>
-      <x:c r="E16" s="5" t="s"/>
-      <x:c r="F16" s="5" t="s"/>
-      <x:c r="G16" s="5" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A17" s="5" t="s"/>
-      <x:c r="B17" s="5" t="s"/>
-      <x:c r="C17" s="5" t="s"/>
-      <x:c r="D17" s="5" t="s"/>
-      <x:c r="E17" s="5" t="s"/>
-      <x:c r="F17" s="5" t="s"/>
-      <x:c r="G17" s="5" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A18" s="5" t="s"/>
-      <x:c r="B18" s="5" t="s"/>
-      <x:c r="C18" s="5" t="s"/>
-      <x:c r="D18" s="5" t="s"/>
-      <x:c r="E18" s="5" t="s"/>
-      <x:c r="F18" s="5" t="s"/>
-      <x:c r="G18" s="5" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:7" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A19" s="3" t="s"/>
-      <x:c r="B19" s="3" t="s"/>
-      <x:c r="C19" s="3" t="s"/>
-      <x:c r="D19" s="3" t="s"/>
-      <x:c r="E19" s="3" t="s"/>
-      <x:c r="F19" s="3" t="s"/>
-      <x:c r="G19" s="3" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:7" customFormat="1" ht="32.25" customHeight="1">
-      <x:c r="A20" s="7" t="s">
-        <x:v>33</x:v>
-      </x:c>
+    <x:row r="15" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A15" s="4" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B15" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C15" s="4" t="s"/>
+      <x:c r="D15" s="9" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E15" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F15" s="4" t="s"/>
+      <x:c r="G15" s="4" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A16" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B16" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C16" s="11" t="s"/>
+      <x:c r="D16" s="12" t="s"/>
+      <x:c r="E16" s="6" t="s"/>
+      <x:c r="F16" s="11" t="s"/>
+      <x:c r="G16" s="11" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A17" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B17" s="6" t="s"/>
+      <x:c r="C17" s="11" t="s"/>
+      <x:c r="D17" s="12" t="s"/>
+      <x:c r="E17" s="6" t="s"/>
+      <x:c r="F17" s="11" t="s"/>
+      <x:c r="G17" s="11" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A18" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B18" s="6" t="s"/>
+      <x:c r="C18" s="11" t="s"/>
+      <x:c r="D18" s="12" t="s"/>
+      <x:c r="E18" s="6" t="s"/>
+      <x:c r="F18" s="11" t="s"/>
+      <x:c r="G18" s="11" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A19" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B19" s="6" t="s"/>
+      <x:c r="C19" s="11" t="s"/>
+      <x:c r="D19" s="12" t="s"/>
+      <x:c r="E19" s="6" t="s"/>
+      <x:c r="F19" s="11" t="s"/>
+      <x:c r="G19" s="11" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A20" s="3" t="s"/>
       <x:c r="B20" s="3" t="s"/>
       <x:c r="C20" s="3" t="s"/>
       <x:c r="D20" s="3" t="s"/>
@@ -821,8 +934,13 @@
       <x:c r="F20" s="3" t="s"/>
       <x:c r="G20" s="3" t="s"/>
     </x:row>
+    <x:row r="21" spans="1:12" customFormat="1" ht="32.25" customHeight="1">
+      <x:c r="A21" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="17">
+  <x:mergeCells count="19">
     <x:mergeCell ref="A1:C1"/>
     <x:mergeCell ref="F6:G6"/>
     <x:mergeCell ref="F7:G7"/>
@@ -839,7 +957,9 @@
     <x:mergeCell ref="E17:G17"/>
     <x:mergeCell ref="B18:C18"/>
     <x:mergeCell ref="E18:G18"/>
-    <x:mergeCell ref="A20:G20"/>
+    <x:mergeCell ref="B19:C19"/>
+    <x:mergeCell ref="E19:G19"/>
+    <x:mergeCell ref="A21:G21"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.700786" right="0.700786" top="0.75196699999999994" bottom="0.75196699999999994" header="0.5" footer="0.75"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <x:si>
-    <x:t>2020年10月10日</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <x:si>
+    <x:t>2020年10月12日</x:t>
   </x:si>
   <x:si>
     <x:t>本部長</x:t>
@@ -52,46 +52,28 @@
     <x:t>1千円</x:t>
   </x:si>
   <x:si>
-    <x:t>束金種</x:t>
+    <x:t>50枚束</x:t>
   </x:si>
   <x:si>
     <x:t>500円</x:t>
   </x:si>
   <x:si>
-    <x:t>500円束</x:t>
-  </x:si>
-  <x:si>
     <x:t>100円</x:t>
   </x:si>
   <x:si>
-    <x:t>100円束</x:t>
-  </x:si>
-  <x:si>
     <x:t>50円</x:t>
   </x:si>
   <x:si>
-    <x:t>50円束</x:t>
-  </x:si>
-  <x:si>
     <x:t>10円</x:t>
   </x:si>
   <x:si>
-    <x:t>10円束</x:t>
-  </x:si>
-  <x:si>
     <x:t>5円</x:t>
   </x:si>
   <x:si>
-    <x:t>5円束</x:t>
-  </x:si>
-  <x:si>
     <x:t>1円</x:t>
   </x:si>
   <x:si>
-    <x:t>1円束</x:t>
-  </x:si>
-  <x:si>
-    <x:t>金庫等</x:t>
+    <x:t>釣り銭等</x:t>
   </x:si>
   <x:si>
     <x:t>内容</x:t>
@@ -100,9 +82,6 @@
     <x:t>青蓮堂</x:t>
   </x:si>
   <x:si>
-    <x:t>10,000 円</x:t>
-  </x:si>
-  <x:si>
     <x:t>香華売り場</x:t>
   </x:si>
   <x:si>
@@ -112,7 +91,7 @@
     <x:t>石材工事部</x:t>
   </x:si>
   <x:si>
-    <x:t>合計　10,000 円</x:t>
+    <x:t>合計　0 円</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -697,7 +676,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E7" s="4" t="s">
         <x:v>8</x:v>
@@ -714,7 +693,7 @@
     </x:row>
     <x:row r="8" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A8" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
         <x:v>8</x:v>
@@ -723,7 +702,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E8" s="4" t="s">
         <x:v>8</x:v>
@@ -740,7 +719,7 @@
     </x:row>
     <x:row r="9" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A9" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
         <x:v>8</x:v>
@@ -749,7 +728,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E9" s="4" t="s">
         <x:v>8</x:v>
@@ -766,7 +745,7 @@
     </x:row>
     <x:row r="10" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A10" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
         <x:v>8</x:v>
@@ -775,7 +754,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E10" s="4" t="s">
         <x:v>8</x:v>
@@ -792,7 +771,7 @@
     </x:row>
     <x:row r="11" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A11" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
         <x:v>8</x:v>
@@ -801,7 +780,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E11" s="4" t="s">
         <x:v>8</x:v>
@@ -818,7 +797,7 @@
     </x:row>
     <x:row r="12" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A12" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B12" s="4" t="s">
         <x:v>8</x:v>
@@ -827,7 +806,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E12" s="4" t="s">
         <x:v>8</x:v>
@@ -853,7 +832,7 @@
     </x:row>
     <x:row r="14" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A14" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s"/>
       <x:c r="C14" s="3" t="s"/>
@@ -864,14 +843,14 @@
     </x:row>
     <x:row r="15" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A15" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B15" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s"/>
       <x:c r="D15" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E15" s="4" t="s">
         <x:v>6</x:v>
@@ -881,11 +860,9 @@
     </x:row>
     <x:row r="16" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A16" s="10" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B16" s="6" t="s">
-        <x:v>28</x:v>
-      </x:c>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B16" s="6" t="s"/>
       <x:c r="C16" s="11" t="s"/>
       <x:c r="D16" s="12" t="s"/>
       <x:c r="E16" s="6" t="s"/>
@@ -894,7 +871,7 @@
     </x:row>
     <x:row r="17" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A17" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B17" s="6" t="s"/>
       <x:c r="C17" s="11" t="s"/>
@@ -905,7 +882,7 @@
     </x:row>
     <x:row r="18" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A18" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B18" s="6" t="s"/>
       <x:c r="C18" s="11" t="s"/>
@@ -916,7 +893,7 @@
     </x:row>
     <x:row r="19" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A19" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B19" s="6" t="s"/>
       <x:c r="C19" s="11" t="s"/>
@@ -936,7 +913,7 @@
     </x:row>
     <x:row r="21" spans="1:12" customFormat="1" ht="32.25" customHeight="1">
       <x:c r="A21" s="13" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <x:si>
-    <x:t>2020年10月12日</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <x:si>
+    <x:t>2020年10月13日</x:t>
   </x:si>
   <x:si>
     <x:t>本部長</x:t>
@@ -77,18 +77,6 @@
   </x:si>
   <x:si>
     <x:t>内容</x:t>
-  </x:si>
-  <x:si>
-    <x:t>青蓮堂</x:t>
-  </x:si>
-  <x:si>
-    <x:t>香華売り場</x:t>
-  </x:si>
-  <x:si>
-    <x:t>春秋庵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>石材工事部</x:t>
   </x:si>
   <x:si>
     <x:t>合計　0 円</x:t>
@@ -859,9 +847,7 @@
       <x:c r="G15" s="4" t="s"/>
     </x:row>
     <x:row r="16" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A16" s="10" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="A16" s="10" t="s"/>
       <x:c r="B16" s="6" t="s"/>
       <x:c r="C16" s="11" t="s"/>
       <x:c r="D16" s="12" t="s"/>
@@ -870,9 +856,7 @@
       <x:c r="G16" s="11" t="s"/>
     </x:row>
     <x:row r="17" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A17" s="10" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="A17" s="10" t="s"/>
       <x:c r="B17" s="6" t="s"/>
       <x:c r="C17" s="11" t="s"/>
       <x:c r="D17" s="12" t="s"/>
@@ -881,9 +865,7 @@
       <x:c r="G17" s="11" t="s"/>
     </x:row>
     <x:row r="18" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A18" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
+      <x:c r="A18" s="10" t="s"/>
       <x:c r="B18" s="6" t="s"/>
       <x:c r="C18" s="11" t="s"/>
       <x:c r="D18" s="12" t="s"/>
@@ -892,9 +874,7 @@
       <x:c r="G18" s="11" t="s"/>
     </x:row>
     <x:row r="19" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A19" s="10" t="s">
-        <x:v>24</x:v>
-      </x:c>
+      <x:c r="A19" s="10" t="s"/>
       <x:c r="B19" s="6" t="s"/>
       <x:c r="C19" s="11" t="s"/>
       <x:c r="D19" s="12" t="s"/>
@@ -913,7 +893,7 @@
     </x:row>
     <x:row r="21" spans="1:12" customFormat="1" ht="32.25" customHeight="1">
       <x:c r="A21" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <x:si>
-    <x:t>2020年10月13日</x:t>
+    <x:t>2020年10月23日</x:t>
   </x:si>
   <x:si>
     <x:t>本部長</x:t>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <x:si>
-    <x:t>2020年10月23日</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <x:si>
+    <x:t>2020年10月28日</x:t>
   </x:si>
   <x:si>
     <x:t>本部長</x:t>
@@ -40,15 +40,21 @@
     <x:t>1万円</x:t>
   </x:si>
   <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5千円</x:t>
+  </x:si>
+  <x:si>
     <x:t>0</x:t>
   </x:si>
   <x:si>
     <x:t>0 円</x:t>
   </x:si>
   <x:si>
-    <x:t>5千円</x:t>
-  </x:si>
-  <x:si>
     <x:t>1千円</x:t>
   </x:si>
   <x:si>
@@ -79,7 +85,19 @@
     <x:t>内容</x:t>
   </x:si>
   <x:si>
-    <x:t>合計　0 円</x:t>
+    <x:t>青蓮堂</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香華売り場</x:t>
+  </x:si>
+  <x:si>
+    <x:t>春秋庵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>石材工事部</x:t>
+  </x:si>
+  <x:si>
+    <x:t>合計　10,000 円</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -622,10 +640,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s"/>
       <x:c r="E5" s="3" t="s"/>
@@ -634,16 +652,16 @@
     </x:row>
     <x:row r="6" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A6" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E6" s="4" t="s">
         <x:v>5</x:v>
@@ -655,22 +673,22 @@
     </x:row>
     <x:row r="7" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A7" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C7" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D7" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E7" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F7" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G7" s="4" t="s"/>
       <x:c r="H7" s="7" t="s"/>
@@ -681,22 +699,22 @@
     </x:row>
     <x:row r="8" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A8" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D8" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E8" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F8" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G8" s="4" t="s"/>
       <x:c r="H8" s="7" t="s"/>
@@ -707,22 +725,22 @@
     </x:row>
     <x:row r="9" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A9" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E9" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F9" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G9" s="4" t="s"/>
       <x:c r="H9" s="7" t="s"/>
@@ -733,22 +751,22 @@
     </x:row>
     <x:row r="10" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A10" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D10" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E10" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F10" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G10" s="4" t="s"/>
       <x:c r="H10" s="7" t="s"/>
@@ -759,22 +777,22 @@
     </x:row>
     <x:row r="11" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A11" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D11" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E11" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F11" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G11" s="4" t="s"/>
       <x:c r="H11" s="7" t="s"/>
@@ -785,22 +803,22 @@
     </x:row>
     <x:row r="12" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A12" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B12" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D12" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E12" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F12" s="6" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G12" s="4" t="s"/>
       <x:c r="H12" s="7" t="s"/>
@@ -820,7 +838,7 @@
     </x:row>
     <x:row r="14" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A14" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s"/>
       <x:c r="C14" s="3" t="s"/>
@@ -831,14 +849,14 @@
     </x:row>
     <x:row r="15" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A15" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B15" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s"/>
       <x:c r="D15" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E15" s="4" t="s">
         <x:v>6</x:v>
@@ -847,7 +865,9 @@
       <x:c r="G15" s="4" t="s"/>
     </x:row>
     <x:row r="16" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A16" s="10" t="s"/>
+      <x:c r="A16" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
       <x:c r="B16" s="6" t="s"/>
       <x:c r="C16" s="11" t="s"/>
       <x:c r="D16" s="12" t="s"/>
@@ -856,7 +876,9 @@
       <x:c r="G16" s="11" t="s"/>
     </x:row>
     <x:row r="17" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A17" s="10" t="s"/>
+      <x:c r="A17" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
       <x:c r="B17" s="6" t="s"/>
       <x:c r="C17" s="11" t="s"/>
       <x:c r="D17" s="12" t="s"/>
@@ -865,7 +887,9 @@
       <x:c r="G17" s="11" t="s"/>
     </x:row>
     <x:row r="18" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A18" s="10" t="s"/>
+      <x:c r="A18" s="10" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="B18" s="6" t="s"/>
       <x:c r="C18" s="11" t="s"/>
       <x:c r="D18" s="12" t="s"/>
@@ -874,7 +898,9 @@
       <x:c r="G18" s="11" t="s"/>
     </x:row>
     <x:row r="19" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A19" s="10" t="s"/>
+      <x:c r="A19" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="B19" s="6" t="s"/>
       <x:c r="C19" s="11" t="s"/>
       <x:c r="D19" s="12" t="s"/>
@@ -893,7 +919,7 @@
     </x:row>
     <x:row r="21" spans="1:12" customFormat="1" ht="32.25" customHeight="1">
       <x:c r="A21" s="13" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
-    <x:t>2020年12月10日（木）</x:t>
+    <x:t>2020年12月11日（金）</x:t>
   </x:si>
   <x:si>
     <x:t>証憑綴り</x:t>
@@ -52,16 +52,16 @@
     <x:t>2,815,597 円</x:t>
   </x:si>
   <x:si>
-    <x:t>1,018,300 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145,534 円</x:t>
+    <x:t>1,018,300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145,534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,130,000</x:t>
   </x:si>
   <x:si>
     <x:t>558,363 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,130,000 円</x:t>
   </x:si>
   <x:si>
     <x:t>横浜銀行残高</x:t>
@@ -647,27 +647,21 @@
       <x:c r="A12" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B12" s="10" t="n">
-        <x:v>456</x:v>
-      </x:c>
+      <x:c r="B12" s="10" t="s"/>
       <x:c r="C12" s="10" t="s"/>
     </x:row>
     <x:row r="13" spans="1:5" customFormat="1" ht="21" customHeight="1">
       <x:c r="A13" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B13" s="10" t="n">
-        <x:v>789</x:v>
-      </x:c>
+      <x:c r="B13" s="10" t="s"/>
       <x:c r="C13" s="10" t="s"/>
     </x:row>
     <x:row r="14" spans="1:5" customFormat="1" ht="21" customHeight="1">
       <x:c r="A14" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B14" s="10" t="n">
-        <x:v>123</x:v>
-      </x:c>
+      <x:c r="B14" s="10" t="s"/>
       <x:c r="C14" s="10" t="s"/>
     </x:row>
     <x:row r="15" spans="1:5" customFormat="1" ht="40.5" customHeight="1"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
-    <x:t>2020年12月11日（金）</x:t>
+    <x:t>2020年12月13日（日）</x:t>
   </x:si>
   <x:si>
     <x:t>証憑綴り</x:t>
@@ -52,13 +52,13 @@
     <x:t>2,815,597 円</x:t>
   </x:si>
   <x:si>
-    <x:t>1,018,300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145,534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,130,000</x:t>
+    <x:t>1,018,300 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145,534 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,130,000 円</x:t>
   </x:si>
   <x:si>
     <x:t>558,363 円</x:t>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <x:si>
-    <x:t>2020年12月13日（日）</x:t>
-  </x:si>
-  <x:si>
-    <x:t>証憑綴り</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <x:si>
+    <x:t>2020年12月15日</x:t>
   </x:si>
   <x:si>
     <x:t>本部長</x:t>
@@ -31,59 +28,87 @@
     <x:t>係</x:t>
   </x:si>
   <x:si>
-    <x:t>収支</x:t>
-  </x:si>
-  <x:si>
-    <x:t>前日より繰越</x:t>
-  </x:si>
-  <x:si>
-    <x:t>入金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>出金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>社内振替</x:t>
-  </x:si>
-  <x:si>
-    <x:t>残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,815,597 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,018,300 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145,534 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,130,000 円</x:t>
+    <x:t>金種</x:t>
+  </x:si>
+  <x:si>
+    <x:t>数量</x:t>
+  </x:si>
+  <x:si>
+    <x:t>金額</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1万円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5千円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1千円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50枚束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>558363</x:t>
   </x:si>
   <x:si>
     <x:t>558,363 円</x:t>
   </x:si>
   <x:si>
-    <x:t>横浜銀行残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>セレサ川崎残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ワイズコア仮受金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>信行寺　春秋苑</x:t>
+    <x:t>釣り銭等</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内容</x:t>
+  </x:si>
+  <x:si>
+    <x:t>青蓮堂</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香華売り場</x:t>
+  </x:si>
+  <x:si>
+    <x:t>春秋庵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>石材工事部</x:t>
+  </x:si>
+  <x:si>
+    <x:t>合計　558,363 円</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="165" formatCode="@"/>
   </x:numFmts>
-  <x:fonts count="6">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -95,36 +120,15 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="28"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="16"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
+      <x:name val="ＭＳ ゴシック"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
+      <x:sz val="20"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
+      <x:name val="ＭＳ ゴシック"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -136,7 +140,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="3">
+  <x:borders count="4">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -172,7 +176,24 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
+      <x:left style="double">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="double">
         <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="none">
@@ -181,7 +202,7 @@
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom style="none">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -189,33 +210,30 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="16">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -224,43 +242,59 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -559,129 +593,393 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E16"/>
+  <x:dimension ref="A1:L21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="5" width="16.710625" style="1" customWidth="1"/>
+    <x:col min="8" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="13.570625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="7.590625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="15.090625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="13.570625" style="1" customWidth="1"/>
+    <x:col min="5" max="7" width="7.460625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" customFormat="1" ht="51" customHeight="1"/>
-    <x:row r="2" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="D2" s="2" t="s">
+    <x:row r="1" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:5" customFormat="1" ht="64.5" customHeight="1">
+      <x:c r="B1" s="3" t="s"/>
+      <x:c r="C1" s="3" t="s"/>
+      <x:c r="D1" s="3" t="s"/>
+      <x:c r="E1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:12" customFormat="1" ht="41.25" customHeight="1">
+      <x:c r="A2" s="3" t="s"/>
+      <x:c r="B2" s="3" t="s"/>
+      <x:c r="C2" s="3" t="s"/>
+      <x:c r="D2" s="3" t="s"/>
+      <x:c r="E2" s="5" t="s"/>
+      <x:c r="F2" s="5" t="s"/>
+      <x:c r="G2" s="5" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A3" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B3" s="5" t="s"/>
-      <x:c r="C3" s="5" t="s"/>
-      <x:c r="D3" s="5" t="s"/>
-      <x:c r="E3" s="5" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:5" customFormat="1" ht="57" customHeight="1"/>
-    <x:row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D3" s="3" t="s"/>
+      <x:c r="E3" s="3" t="s"/>
+      <x:c r="F3" s="3" t="s"/>
+      <x:c r="G3" s="3" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A4" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C4" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D4" s="3" t="s"/>
+      <x:c r="E4" s="3" t="s"/>
+      <x:c r="F4" s="3" t="s"/>
+      <x:c r="G4" s="3" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A5" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="C5" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D5" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="C6" s="7" t="s"/>
-      <x:c r="D6" s="7" t="s"/>
-      <x:c r="E6" s="7" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:5" customFormat="1" ht="126" customHeight="1"/>
-    <x:row r="8" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A8" s="8" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s"/>
+      <x:c r="E5" s="3" t="s"/>
+      <x:c r="F5" s="3" t="s"/>
+      <x:c r="G5" s="3" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A6" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C6" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D6" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E6" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="F6" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G6" s="5" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A7" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D7" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E7" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F7" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G7" s="4" t="s"/>
+      <x:c r="H7" s="7" t="s"/>
+      <x:c r="I7" s="7" t="s"/>
+      <x:c r="J7" s="7" t="s"/>
+      <x:c r="K7" s="7" t="s"/>
+      <x:c r="L7" s="7" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A8" s="6" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C8" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D8" s="6" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E8" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F8" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G8" s="4" t="s"/>
+      <x:c r="H8" s="7" t="s"/>
+      <x:c r="I8" s="7" t="s"/>
+      <x:c r="J8" s="7" t="s"/>
+      <x:c r="K8" s="7" t="s"/>
+      <x:c r="L8" s="7" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A9" s="6" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B9" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C9" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D9" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E9" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F9" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G9" s="4" t="s"/>
+      <x:c r="H9" s="7" t="s"/>
+      <x:c r="I9" s="7" t="s"/>
+      <x:c r="J9" s="7" t="s"/>
+      <x:c r="K9" s="7" t="s"/>
+      <x:c r="L9" s="7" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A10" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B10" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C10" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D10" s="8" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E10" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F10" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G10" s="4" t="s"/>
+      <x:c r="H10" s="7" t="s"/>
+      <x:c r="I10" s="7" t="s"/>
+      <x:c r="J10" s="7" t="s"/>
+      <x:c r="K10" s="7" t="s"/>
+      <x:c r="L10" s="7" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A11" s="6" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B11" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C11" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D11" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E11" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F11" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G11" s="4" t="s"/>
+      <x:c r="H11" s="7" t="s"/>
+      <x:c r="I11" s="7" t="s"/>
+      <x:c r="J11" s="7" t="s"/>
+      <x:c r="K11" s="7" t="s"/>
+      <x:c r="L11" s="7" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A12" s="6" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B12" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C12" s="6" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D12" s="8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E12" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F12" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G12" s="4" t="s"/>
+      <x:c r="H12" s="7" t="s"/>
+      <x:c r="I12" s="7" t="s"/>
+      <x:c r="J12" s="7" t="s"/>
+      <x:c r="K12" s="7" t="s"/>
+      <x:c r="L12" s="7" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A13" s="3" t="s"/>
+      <x:c r="B13" s="3" t="s"/>
+      <x:c r="C13" s="3" t="s"/>
+      <x:c r="D13" s="9" t="s"/>
+      <x:c r="E13" s="3" t="s"/>
+      <x:c r="F13" s="3" t="s"/>
+      <x:c r="G13" s="3" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A14" s="10" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B14" s="3" t="s"/>
+      <x:c r="C14" s="3" t="s"/>
+      <x:c r="D14" s="9" t="s"/>
+      <x:c r="E14" s="3" t="s"/>
+      <x:c r="F14" s="3" t="s"/>
+      <x:c r="G14" s="3" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A15" s="4" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B15" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B9" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D9" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E9" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="A10" s="9" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B10" s="9" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C10" s="9" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D10" s="9" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E10" s="9" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5" customFormat="1" ht="27.75" customHeight="1"/>
-    <x:row r="12" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A12" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B12" s="10" t="s"/>
-      <x:c r="C12" s="10" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A13" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B13" s="10" t="s"/>
-      <x:c r="C13" s="10" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A14" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B14" s="10" t="s"/>
-      <x:c r="C14" s="10" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:5" customFormat="1" ht="40.5" customHeight="1"/>
-    <x:row r="16" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="D16" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E16" s="11" t="s"/>
+      <x:c r="C15" s="4" t="s"/>
+      <x:c r="D15" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E15" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F15" s="4" t="s"/>
+      <x:c r="G15" s="4" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A16" s="12" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B16" s="6" t="s"/>
+      <x:c r="C16" s="13" t="s"/>
+      <x:c r="D16" s="12" t="s"/>
+      <x:c r="E16" s="6" t="s"/>
+      <x:c r="F16" s="13" t="s"/>
+      <x:c r="G16" s="13" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A17" s="12" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B17" s="6" t="s"/>
+      <x:c r="C17" s="13" t="s"/>
+      <x:c r="D17" s="12" t="s"/>
+      <x:c r="E17" s="6" t="s"/>
+      <x:c r="F17" s="13" t="s"/>
+      <x:c r="G17" s="13" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A18" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B18" s="6" t="s"/>
+      <x:c r="C18" s="13" t="s"/>
+      <x:c r="D18" s="12" t="s"/>
+      <x:c r="E18" s="6" t="s"/>
+      <x:c r="F18" s="13" t="s"/>
+      <x:c r="G18" s="13" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A19" s="12" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B19" s="6" t="s"/>
+      <x:c r="C19" s="13" t="s"/>
+      <x:c r="D19" s="12" t="s"/>
+      <x:c r="E19" s="6" t="s"/>
+      <x:c r="F19" s="13" t="s"/>
+      <x:c r="G19" s="13" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A20" s="3" t="s"/>
+      <x:c r="B20" s="3" t="s"/>
+      <x:c r="C20" s="3" t="s"/>
+      <x:c r="D20" s="3" t="s"/>
+      <x:c r="E20" s="3" t="s"/>
+      <x:c r="F20" s="3" t="s"/>
+      <x:c r="G20" s="3" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:12" customFormat="1" ht="32.25" customHeight="1">
+      <x:c r="A21" s="14" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B21" s="15" t="s"/>
+      <x:c r="C21" s="15" t="s"/>
+      <x:c r="D21" s="15" t="s"/>
+      <x:c r="E21" s="15" t="s"/>
+      <x:c r="F21" s="15" t="s"/>
+      <x:c r="G21" s="15" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="6">
-    <x:mergeCell ref="D2:E2"/>
-    <x:mergeCell ref="A3:E3"/>
-    <x:mergeCell ref="B12:C12"/>
-    <x:mergeCell ref="B13:C13"/>
-    <x:mergeCell ref="B14:C14"/>
-    <x:mergeCell ref="D16:E16"/>
+  <x:mergeCells count="19">
+    <x:mergeCell ref="A1:C1"/>
+    <x:mergeCell ref="F6:G6"/>
+    <x:mergeCell ref="F7:G7"/>
+    <x:mergeCell ref="F8:G8"/>
+    <x:mergeCell ref="F9:G9"/>
+    <x:mergeCell ref="F10:G10"/>
+    <x:mergeCell ref="F11:G11"/>
+    <x:mergeCell ref="F12:G12"/>
+    <x:mergeCell ref="B15:C15"/>
+    <x:mergeCell ref="E15:G15"/>
+    <x:mergeCell ref="B16:C16"/>
+    <x:mergeCell ref="E16:G16"/>
+    <x:mergeCell ref="B17:C17"/>
+    <x:mergeCell ref="E17:G17"/>
+    <x:mergeCell ref="B18:C18"/>
+    <x:mergeCell ref="E18:G18"/>
+    <x:mergeCell ref="B19:C19"/>
+    <x:mergeCell ref="E19:G19"/>
+    <x:mergeCell ref="A21:G21"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.3937" right="0.19685" top="0.51181" bottom="0.47243999999999997" header="0.5" footer="0.75"/>
+  <x:pageMargins left="0.700786" right="0.700786" top="0.75196699999999994" bottom="0.75196699999999994" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,21 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <x:si>
-    <x:t>日付</x:t>
-  </x:si>
-  <x:si>
-    <x:t>コード</x:t>
-  </x:si>
-  <x:si>
-    <x:t>勘定科目</x:t>
-  </x:si>
-  <x:si>
-    <x:t>内容</x:t>
-  </x:si>
-  <x:si>
-    <x:t>詳細</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <x:si>
+    <x:t>2020年12月17日（木）</x:t>
+  </x:si>
+  <x:si>
+    <x:t>証憑綴り</x:t>
+  </x:si>
+  <x:si>
+    <x:t>本部長</x:t>
+  </x:si>
+  <x:si>
+    <x:t>副住職</x:t>
+  </x:si>
+  <x:si>
+    <x:t>係</x:t>
+  </x:si>
+  <x:si>
+    <x:t>収支</x:t>
+  </x:si>
+  <x:si>
+    <x:t>前日より繰越</x:t>
   </x:si>
   <x:si>
     <x:t>入金</x:t>
@@ -37,104 +43,85 @@
     <x:t>出金</x:t>
   </x:si>
   <x:si>
-    <x:t>合計</x:t>
-  </x:si>
-  <x:si>
-    <x:t>収支</x:t>
-  </x:si>
-  <x:si>
-    <x:t>セレサ川崎普通貯金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>仮払金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>法事両替用</x:t>
-  </x:si>
-  <x:si>
-    <x:t>藤井泰子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>仮受金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ワイズコア</x:t>
-  </x:si>
-  <x:si>
-    <x:t>旅費交通費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3ヶ月交通費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>坂本邦夫</x:t>
-  </x:si>
-  <x:si>
-    <x:t>消耗品費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>コード、マウスパッド</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ヤマダ電機</x:t>
-  </x:si>
-  <x:si>
-    <x:t>車両費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ヴィッツ　ガソリン代</x:t>
-  </x:si>
-  <x:si>
-    <x:t>アセント</x:t>
-  </x:si>
-  <x:si>
-    <x:t>苑内整備費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>花苗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ビバホーム</x:t>
-  </x:si>
-  <x:si>
-    <x:t>その他冥加金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>骨壺</x:t>
-  </x:si>
-  <x:si>
-    <x:t>坂村家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>その他雑収入</x:t>
-  </x:si>
-  <x:si>
-    <x:t>銘板彫刻</x:t>
-  </x:si>
-  <x:si>
-    <x:t>山口家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>その他茶所収入</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ビール、ライター</x:t>
+    <x:t>社内振替</x:t>
+  </x:si>
+  <x:si>
+    <x:t>残高</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,815,597 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,018,300 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145,534 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,130,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>横浜銀行残高</x:t>
+  </x:si>
+  <x:si>
+    <x:t>セレサ川崎残高</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ワイズコア仮受金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>信行寺　春秋苑</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="2">
+  <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,##0"/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="6">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ Ｐゴシック"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="14"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ Ｐゴシック"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="28"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ Ｐゴシック"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="16"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ Ｐゴシック"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="14"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ Ｐゴシック"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -146,7 +133,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="2">
+  <x:borders count="3">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -181,44 +168,97 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -516,314 +556,130 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H16"/>
+  <x:dimension ref="A1:E16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="5" width="16.710625" style="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s">
+    <x:row r="1" spans="1:5" customFormat="1" ht="51" customHeight="1"/>
+    <x:row r="2" spans="1:5" customFormat="1" ht="18" customHeight="1">
+      <x:c r="D2" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
+      <x:c r="E2" s="3" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:5" customFormat="1" ht="64.5" customHeight="1">
+      <x:c r="A3" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="B3" s="5" t="s"/>
+      <x:c r="C3" s="5" t="s"/>
+      <x:c r="D3" s="5" t="s"/>
+      <x:c r="E3" s="5" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:5" customFormat="1" ht="57" customHeight="1"/>
+    <x:row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1">
+      <x:c r="C5" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
+      <x:c r="D5" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="1" t="s">
+      <x:c r="E5" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="1" t="s">
+    </x:row>
+    <x:row r="6" spans="1:5" customFormat="1" ht="42" customHeight="1">
+      <x:c r="C6" s="7" t="s"/>
+      <x:c r="D6" s="7" t="s"/>
+      <x:c r="E6" s="7" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:5" customFormat="1" ht="126" customHeight="1"/>
+    <x:row r="8" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A8" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="1" t="s">
+    </x:row>
+    <x:row r="9" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A9" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="1" t="s">
+      <x:c r="B9" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="2" t="s"/>
-      <x:c r="B2" s="3" t="s"/>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="C9" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s"/>
-      <x:c r="E2" s="2" t="s"/>
-      <x:c r="F2" s="4" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G2" s="4" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" s="4" t="n">
-        <x:v>2815597</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="A3" s="5">
-        <x:v>44182</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="C3" s="2" t="s"/>
-      <x:c r="D3" s="2" t="s"/>
-      <x:c r="E3" s="2" t="s"/>
-      <x:c r="F3" s="4" t="s"/>
-      <x:c r="G3" s="4" t="s"/>
-      <x:c r="H3" s="4" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="A4" s="2" t="s"/>
-      <x:c r="B4" s="3" t="n">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="D9" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E4" s="5">
-        <x:v>44181</x:v>
-      </x:c>
-      <x:c r="F4" s="4" t="s"/>
-      <x:c r="G4" s="4" t="n">
-        <x:v>3130000</x:v>
-      </x:c>
-      <x:c r="H4" s="4" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="A5" s="2" t="s"/>
-      <x:c r="B5" s="3" t="n">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="E9" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
+    </x:row>
+    <x:row r="10" spans="1:5" customFormat="1" ht="42" customHeight="1">
+      <x:c r="A10" s="9" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="s">
+      <x:c r="B10" s="9" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="F5" s="4" t="s"/>
-      <x:c r="G5" s="4" t="n">
-        <x:v>120000</x:v>
-      </x:c>
-      <x:c r="H5" s="4" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:8">
-      <x:c r="A6" s="2" t="s"/>
-      <x:c r="B6" s="3" t="n">
-        <x:v>416</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="C10" s="9" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
+      <x:c r="D10" s="9" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E6" s="2" t="s"/>
-      <x:c r="F6" s="4" t="n">
-        <x:v>1010000</x:v>
-      </x:c>
-      <x:c r="G6" s="4" t="s"/>
-      <x:c r="H6" s="4" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:8">
-      <x:c r="A7" s="2" t="s"/>
-      <x:c r="B7" s="3" t="n">
-        <x:v>611</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="E10" s="9" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5" customFormat="1" ht="27.75" customHeight="1"/>
+    <x:row r="12" spans="1:5" customFormat="1" ht="21" customHeight="1">
+      <x:c r="A12" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
+      <x:c r="B12" s="10" t="s"/>
+      <x:c r="C12" s="10" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:5" customFormat="1" ht="21" customHeight="1">
+      <x:c r="A13" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E7" s="2" t="s">
+      <x:c r="B13" s="10" t="s"/>
+      <x:c r="C13" s="10" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:5" customFormat="1" ht="21" customHeight="1">
+      <x:c r="A14" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="F7" s="4" t="s"/>
-      <x:c r="G7" s="4" t="n">
-        <x:v>12860</x:v>
-      </x:c>
-      <x:c r="H7" s="4" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:8">
-      <x:c r="A8" s="2" t="s"/>
-      <x:c r="B8" s="3" t="n">
-        <x:v>616</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="B14" s="10" t="s"/>
+      <x:c r="C14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:5" customFormat="1" ht="40.5" customHeight="1"/>
+    <x:row r="16" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="D16" s="11" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E8" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F8" s="4" t="s"/>
-      <x:c r="G8" s="4" t="n">
-        <x:v>2247</x:v>
-      </x:c>
-      <x:c r="H8" s="4" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:8">
-      <x:c r="A9" s="2" t="s"/>
-      <x:c r="B9" s="3" t="n">
-        <x:v>621</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E9" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F9" s="4" t="s"/>
-      <x:c r="G9" s="4" t="n">
-        <x:v>4600</x:v>
-      </x:c>
-      <x:c r="H9" s="4" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:8">
-      <x:c r="A10" s="2" t="s"/>
-      <x:c r="B10" s="3" t="n">
-        <x:v>735</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E10" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F10" s="4" t="s"/>
-      <x:c r="G10" s="4" t="n">
-        <x:v>5827</x:v>
-      </x:c>
-      <x:c r="H10" s="4" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:8">
-      <x:c r="A11" s="2" t="s"/>
-      <x:c r="B11" s="3" t="n">
-        <x:v>822</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E11" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F11" s="4" t="n">
-        <x:v>2000</x:v>
-      </x:c>
-      <x:c r="G11" s="4" t="s"/>
-      <x:c r="H11" s="4" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:8">
-      <x:c r="A12" s="2" t="s"/>
-      <x:c r="B12" s="3" t="n">
-        <x:v>882</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E12" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F12" s="4" t="n">
-        <x:v>5400</x:v>
-      </x:c>
-      <x:c r="G12" s="4" t="s"/>
-      <x:c r="H12" s="4" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:8">
-      <x:c r="A13" s="2" t="s"/>
-      <x:c r="B13" s="3" t="s"/>
-      <x:c r="C13" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s"/>
-      <x:c r="E13" s="2" t="s"/>
-      <x:c r="F13" s="4" t="n">
-        <x:v>1017400</x:v>
-      </x:c>
-      <x:c r="G13" s="4" t="n">
-        <x:v>3275534</x:v>
-      </x:c>
-      <x:c r="H13" s="4" t="n">
-        <x:v>2815597</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:8">
-      <x:c r="A14" s="5">
-        <x:v>44184</x:v>
-      </x:c>
-      <x:c r="B14" s="3" t="s"/>
-      <x:c r="C14" s="2" t="s"/>
-      <x:c r="D14" s="2" t="s"/>
-      <x:c r="E14" s="2" t="s"/>
-      <x:c r="F14" s="4" t="s"/>
-      <x:c r="G14" s="4" t="s"/>
-      <x:c r="H14" s="4" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:8">
-      <x:c r="A15" s="2" t="s"/>
-      <x:c r="B15" s="3" t="n">
-        <x:v>874</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E15" s="2" t="s"/>
-      <x:c r="F15" s="4" t="n">
-        <x:v>900</x:v>
-      </x:c>
-      <x:c r="G15" s="4" t="s"/>
-      <x:c r="H15" s="4" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:8">
-      <x:c r="A16" s="2" t="s"/>
-      <x:c r="B16" s="3" t="s"/>
-      <x:c r="C16" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s"/>
-      <x:c r="E16" s="2" t="s"/>
-      <x:c r="F16" s="4" t="n">
-        <x:v>900</x:v>
-      </x:c>
-      <x:c r="G16" s="4" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H16" s="4" t="s"/>
+      <x:c r="E16" s="11" t="s"/>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="6">
+    <x:mergeCell ref="D2:E2"/>
+    <x:mergeCell ref="A3:E3"/>
+    <x:mergeCell ref="B12:C12"/>
+    <x:mergeCell ref="B13:C13"/>
+    <x:mergeCell ref="B14:C14"/>
+    <x:mergeCell ref="D16:E16"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageMargins left="0.3937" right="0.19685" top="0.51181" bottom="0.47243999999999997" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,114 +14,130 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <x:si>
-    <x:t>2020年12月17日（木）</x:t>
-  </x:si>
-  <x:si>
-    <x:t>証憑綴り</x:t>
-  </x:si>
-  <x:si>
-    <x:t>本部長</x:t>
-  </x:si>
-  <x:si>
-    <x:t>副住職</x:t>
-  </x:si>
-  <x:si>
-    <x:t>係</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <x:si>
+    <x:t>日付</x:t>
+  </x:si>
+  <x:si>
+    <x:t>コード</x:t>
+  </x:si>
+  <x:si>
+    <x:t>勘定科目</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内容</x:t>
+  </x:si>
+  <x:si>
+    <x:t>詳細</x:t>
+  </x:si>
+  <x:si>
+    <x:t>入金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>出金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>合計</x:t>
   </x:si>
   <x:si>
     <x:t>収支</x:t>
   </x:si>
   <x:si>
-    <x:t>前日より繰越</x:t>
-  </x:si>
-  <x:si>
-    <x:t>入金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>出金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>社内振替</x:t>
-  </x:si>
-  <x:si>
-    <x:t>残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,815,597 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,018,300 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145,534 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,130,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>横浜銀行残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>セレサ川崎残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ワイズコア仮受金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>信行寺　春秋苑</x:t>
+    <x:t>仮受金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ワイズコア</x:t>
+  </x:si>
+  <x:si>
+    <x:t>その他冥加金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>骨壺</x:t>
+  </x:si>
+  <x:si>
+    <x:t>坂村家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>その他雑収入</x:t>
+  </x:si>
+  <x:si>
+    <x:t>銘板彫刻</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山口家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>セレサ川崎普通貯金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>口座入金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>仮払金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法事両替用</x:t>
+  </x:si>
+  <x:si>
+    <x:t>藤井泰子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>旅費交通費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3ヶ月交通費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>坂本邦夫</x:t>
+  </x:si>
+  <x:si>
+    <x:t>消耗品費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>コード、マウスパッド</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ヤマダ電機</x:t>
+  </x:si>
+  <x:si>
+    <x:t>車両費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ヴィッツ　ガソリン代</x:t>
+  </x:si>
+  <x:si>
+    <x:t>アセント</x:t>
+  </x:si>
+  <x:si>
+    <x:t>苑内整備費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>花苗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ビバホーム</x:t>
+  </x:si>
+  <x:si>
+    <x:t>その他茶所収入</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ビール、ライター</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="165" formatCode="#,##0"/>
   </x:numFmts>
-  <x:fonts count="6">
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="28"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="16"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -133,7 +149,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="3">
+  <x:borders count="2">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -168,97 +184,44 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -556,130 +519,357 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E16"/>
+  <x:dimension ref="A1:H50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="5" width="16.710625" style="1" customWidth="1"/>
+    <x:col min="9" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="11.570625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="5.420625" style="1" customWidth="1"/>
+    <x:col min="3" max="5" width="17.140625" style="1" customWidth="1"/>
+    <x:col min="6" max="8" width="9.850625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" customFormat="1" ht="51" customHeight="1"/>
-    <x:row r="2" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="D2" s="2" t="s">
+    <x:row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:5" customFormat="1" ht="64.5" customHeight="1">
-      <x:c r="A3" s="4" t="s">
+      <x:c r="B1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="5" t="s"/>
-      <x:c r="C3" s="5" t="s"/>
-      <x:c r="D3" s="5" t="s"/>
-      <x:c r="E3" s="5" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:5" customFormat="1" ht="57" customHeight="1"/>
-    <x:row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="C5" s="6" t="s">
+      <x:c r="C1" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D5" s="6" t="s">
+      <x:c r="D1" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E5" s="6" t="s">
+      <x:c r="E1" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="C6" s="7" t="s"/>
-      <x:c r="D6" s="7" t="s"/>
-      <x:c r="E6" s="7" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:5" customFormat="1" ht="126" customHeight="1"/>
-    <x:row r="8" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A8" s="8" t="s">
+      <x:c r="F1" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A9" s="6" t="s">
+      <x:c r="G1" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B9" s="6" t="s">
+      <x:c r="H1" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C9" s="6" t="s">
+    </x:row>
+    <x:row r="2" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A2" s="2" t="s"/>
+      <x:c r="B2" s="3" t="s"/>
+      <x:c r="C2" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D9" s="6" t="s">
+      <x:c r="D2" s="2" t="s"/>
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G2" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2" s="4" t="n">
+        <x:v>2815597</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A3" s="5">
+        <x:v>44183</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s"/>
+      <x:c r="C3" s="2" t="s"/>
+      <x:c r="D3" s="2" t="s"/>
+      <x:c r="E3" s="2" t="s"/>
+      <x:c r="F3" s="4" t="s"/>
+      <x:c r="G3" s="4" t="s"/>
+      <x:c r="H3" s="4" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A4" s="2" t="s"/>
+      <x:c r="B4" s="3" t="n">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E9" s="6" t="s">
+      <x:c r="D4" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="A10" s="9" t="s">
+      <x:c r="E4" s="2" t="s"/>
+      <x:c r="F4" s="4" t="n">
+        <x:v>1010000</x:v>
+      </x:c>
+      <x:c r="G4" s="4" t="s"/>
+      <x:c r="H4" s="4" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A5" s="2" t="s"/>
+      <x:c r="B5" s="3" t="n">
+        <x:v>822</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B10" s="9" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C10" s="9" t="s">
+      <x:c r="E5" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D10" s="9" t="s">
+      <x:c r="F5" s="4" t="n">
+        <x:v>2000</x:v>
+      </x:c>
+      <x:c r="G5" s="4" t="s"/>
+      <x:c r="H5" s="4" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A6" s="2" t="s"/>
+      <x:c r="B6" s="3" t="n">
+        <x:v>882</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E10" s="9" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5" customFormat="1" ht="27.75" customHeight="1"/>
-    <x:row r="12" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A12" s="1" t="s">
+      <x:c r="D6" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B12" s="10" t="s"/>
-      <x:c r="C12" s="10" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A13" s="1" t="s">
+      <x:c r="E6" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B13" s="10" t="s"/>
-      <x:c r="C13" s="10" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A14" s="1" t="s">
+      <x:c r="F6" s="4" t="n">
+        <x:v>5400</x:v>
+      </x:c>
+      <x:c r="G6" s="4" t="s"/>
+      <x:c r="H6" s="4" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A7" s="2" t="s"/>
+      <x:c r="B7" s="3" t="n">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B14" s="10" t="s"/>
-      <x:c r="C14" s="10" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:5" customFormat="1" ht="40.5" customHeight="1"/>
-    <x:row r="16" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="D16" s="11" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E16" s="11" t="s"/>
-    </x:row>
+      <x:c r="E7" s="5">
+        <x:v>44182</x:v>
+      </x:c>
+      <x:c r="F7" s="4" t="s"/>
+      <x:c r="G7" s="4" t="n">
+        <x:v>3130000</x:v>
+      </x:c>
+      <x:c r="H7" s="4" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A8" s="2" t="s"/>
+      <x:c r="B8" s="3" t="n">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F8" s="4" t="s"/>
+      <x:c r="G8" s="4" t="n">
+        <x:v>120000</x:v>
+      </x:c>
+      <x:c r="H8" s="4" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A9" s="2" t="s"/>
+      <x:c r="B9" s="3" t="n">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F9" s="4" t="s"/>
+      <x:c r="G9" s="4" t="n">
+        <x:v>12860</x:v>
+      </x:c>
+      <x:c r="H9" s="4" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A10" s="2" t="s"/>
+      <x:c r="B10" s="3" t="n">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F10" s="4" t="s"/>
+      <x:c r="G10" s="4" t="n">
+        <x:v>2247</x:v>
+      </x:c>
+      <x:c r="H10" s="4" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A11" s="2" t="s"/>
+      <x:c r="B11" s="3" t="n">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F11" s="4" t="s"/>
+      <x:c r="G11" s="4" t="n">
+        <x:v>4600</x:v>
+      </x:c>
+      <x:c r="H11" s="4" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A12" s="2" t="s"/>
+      <x:c r="B12" s="3" t="n">
+        <x:v>735</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E12" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F12" s="4" t="s"/>
+      <x:c r="G12" s="4" t="n">
+        <x:v>5827</x:v>
+      </x:c>
+      <x:c r="H12" s="4" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A13" s="2" t="s"/>
+      <x:c r="B13" s="3" t="s"/>
+      <x:c r="C13" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s"/>
+      <x:c r="E13" s="2" t="s"/>
+      <x:c r="F13" s="4" t="n">
+        <x:v>1017400</x:v>
+      </x:c>
+      <x:c r="G13" s="4" t="n">
+        <x:v>3275534</x:v>
+      </x:c>
+      <x:c r="H13" s="4" t="n">
+        <x:v>557463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A14" s="5">
+        <x:v>44185</x:v>
+      </x:c>
+      <x:c r="B14" s="3" t="s"/>
+      <x:c r="C14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s"/>
+      <x:c r="E14" s="2" t="s"/>
+      <x:c r="F14" s="4" t="s"/>
+      <x:c r="G14" s="4" t="s"/>
+      <x:c r="H14" s="4" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A15" s="2" t="s"/>
+      <x:c r="B15" s="3" t="n">
+        <x:v>874</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E15" s="2" t="s"/>
+      <x:c r="F15" s="4" t="n">
+        <x:v>900</x:v>
+      </x:c>
+      <x:c r="G15" s="4" t="s"/>
+      <x:c r="H15" s="4" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:8" customFormat="1" ht="60" customHeight="1">
+      <x:c r="A16" s="2" t="s"/>
+      <x:c r="B16" s="3" t="s"/>
+      <x:c r="C16" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s"/>
+      <x:c r="E16" s="2" t="s"/>
+      <x:c r="F16" s="4" t="n">
+        <x:v>900</x:v>
+      </x:c>
+      <x:c r="G16" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H16" s="4" t="n">
+        <x:v>558363</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="18" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="19" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="20" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="21" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="22" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="23" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="24" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="25" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="26" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="27" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="28" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="29" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="30" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="31" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="32" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="33" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="34" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="35" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="36" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="37" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="38" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="39" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="40" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="41" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="42" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="43" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="44" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="45" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="46" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="47" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="48" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="49" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="50" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
   </x:sheetData>
-  <x:mergeCells count="6">
-    <x:mergeCell ref="D2:E2"/>
-    <x:mergeCell ref="A3:E3"/>
-    <x:mergeCell ref="B12:C12"/>
-    <x:mergeCell ref="B13:C13"/>
-    <x:mergeCell ref="B14:C14"/>
-    <x:mergeCell ref="D16:E16"/>
-  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.3937" right="0.19685" top="0.51181" bottom="0.47243999999999997" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageMargins left="0.3937" right="0.3937" top="0.3937" bottom="0.3937" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -132,12 +132,19 @@
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="165" formatCode="#,##0"/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ Ｐゴシック"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -185,17 +192,20 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -204,23 +214,23 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -519,7 +529,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H50"/>
+  <x:dimension ref="A1:H100"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -532,7 +542,7 @@
     <x:col min="6" max="8" width="9.850625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8" customFormat="1" ht="60" customHeight="1">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -558,314 +568,365 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8" customFormat="1" ht="60" customHeight="1">
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="2" t="s"/>
       <x:c r="B2" s="3" t="s"/>
-      <x:c r="C2" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
+      <x:c r="C2" s="2" t="s"/>
       <x:c r="D2" s="2" t="s"/>
       <x:c r="E2" s="2" t="s"/>
-      <x:c r="F2" s="4" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G2" s="4" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" s="4" t="n">
-        <x:v>2815597</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8" customFormat="1" ht="60" customHeight="1">
-      <x:c r="A3" s="5">
-        <x:v>44183</x:v>
-      </x:c>
+      <x:c r="F2" s="4" t="s"/>
+      <x:c r="G2" s="4" t="s"/>
+      <x:c r="H2" s="4" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="2" t="s"/>
       <x:c r="B3" s="3" t="s"/>
-      <x:c r="C3" s="2" t="s"/>
+      <x:c r="C3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="D3" s="2" t="s"/>
       <x:c r="E3" s="2" t="s"/>
-      <x:c r="F3" s="4" t="s"/>
-      <x:c r="G3" s="4" t="s"/>
-      <x:c r="H3" s="4" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:8" customFormat="1" ht="60" customHeight="1">
-      <x:c r="A4" s="2" t="s"/>
-      <x:c r="B4" s="3" t="n">
-        <x:v>416</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="F3" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G3" s="4" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H3" s="4" t="n">
+        <x:v>2815597</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="5">
+        <x:v>44184</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s"/>
+      <x:c r="C4" s="2" t="s"/>
+      <x:c r="D4" s="2" t="s"/>
       <x:c r="E4" s="2" t="s"/>
-      <x:c r="F4" s="4" t="n">
-        <x:v>1010000</x:v>
-      </x:c>
+      <x:c r="F4" s="4" t="s"/>
       <x:c r="G4" s="4" t="s"/>
       <x:c r="H4" s="4" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:8" customFormat="1" ht="60" customHeight="1">
+    <x:row r="5" spans="1:8">
       <x:c r="A5" s="2" t="s"/>
       <x:c r="B5" s="3" t="n">
-        <x:v>822</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s"/>
       <x:c r="F5" s="4" t="n">
-        <x:v>2000</x:v>
+        <x:v>1010000</x:v>
       </x:c>
       <x:c r="G5" s="4" t="s"/>
       <x:c r="H5" s="4" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:8" customFormat="1" ht="60" customHeight="1">
+    <x:row r="6" spans="1:8">
       <x:c r="A6" s="2" t="s"/>
       <x:c r="B6" s="3" t="n">
-        <x:v>882</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F6" s="4" t="n">
-        <x:v>5400</x:v>
+        <x:v>2000</x:v>
       </x:c>
       <x:c r="G6" s="4" t="s"/>
       <x:c r="H6" s="4" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:8" customFormat="1" ht="60" customHeight="1">
+    <x:row r="7" spans="1:8">
       <x:c r="A7" s="2" t="s"/>
       <x:c r="B7" s="3" t="n">
-        <x:v>133</x:v>
+        <x:v>882</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E7" s="5">
-        <x:v>44182</x:v>
-      </x:c>
-      <x:c r="F7" s="4" t="s"/>
-      <x:c r="G7" s="4" t="n">
-        <x:v>3130000</x:v>
-      </x:c>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F7" s="4" t="n">
+        <x:v>5400</x:v>
+      </x:c>
+      <x:c r="G7" s="4" t="s"/>
       <x:c r="H7" s="4" t="s"/>
     </x:row>
-    <x:row r="8" spans="1:8" customFormat="1" ht="60" customHeight="1">
+    <x:row r="8" spans="1:8">
       <x:c r="A8" s="2" t="s"/>
       <x:c r="B8" s="3" t="n">
-        <x:v>168</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E8" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E8" s="5">
+        <x:v>44183</x:v>
       </x:c>
       <x:c r="F8" s="4" t="s"/>
       <x:c r="G8" s="4" t="n">
-        <x:v>120000</x:v>
+        <x:v>3130000</x:v>
       </x:c>
       <x:c r="H8" s="4" t="s"/>
     </x:row>
-    <x:row r="9" spans="1:8" customFormat="1" ht="60" customHeight="1">
+    <x:row r="9" spans="1:8">
       <x:c r="A9" s="2" t="s"/>
       <x:c r="B9" s="3" t="n">
-        <x:v>611</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E9" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F9" s="4" t="s"/>
       <x:c r="G9" s="4" t="n">
-        <x:v>12860</x:v>
+        <x:v>120000</x:v>
       </x:c>
       <x:c r="H9" s="4" t="s"/>
     </x:row>
-    <x:row r="10" spans="1:8" customFormat="1" ht="60" customHeight="1">
+    <x:row r="10" spans="1:8">
       <x:c r="A10" s="2" t="s"/>
       <x:c r="B10" s="3" t="n">
-        <x:v>616</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F10" s="4" t="s"/>
       <x:c r="G10" s="4" t="n">
-        <x:v>2247</x:v>
+        <x:v>12860</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s"/>
     </x:row>
-    <x:row r="11" spans="1:8" customFormat="1" ht="60" customHeight="1">
+    <x:row r="11" spans="1:8">
       <x:c r="A11" s="2" t="s"/>
       <x:c r="B11" s="3" t="n">
-        <x:v>621</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s"/>
       <x:c r="G11" s="4" t="n">
-        <x:v>4600</x:v>
+        <x:v>2247</x:v>
       </x:c>
       <x:c r="H11" s="4" t="s"/>
     </x:row>
-    <x:row r="12" spans="1:8" customFormat="1" ht="60" customHeight="1">
+    <x:row r="12" spans="1:8">
       <x:c r="A12" s="2" t="s"/>
       <x:c r="B12" s="3" t="n">
-        <x:v>735</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E12" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F12" s="4" t="s"/>
       <x:c r="G12" s="4" t="n">
+        <x:v>4600</x:v>
+      </x:c>
+      <x:c r="H12" s="4" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="2" t="s"/>
+      <x:c r="B13" s="3" t="n">
+        <x:v>735</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E13" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F13" s="4" t="s"/>
+      <x:c r="G13" s="4" t="n">
         <x:v>5827</x:v>
       </x:c>
-      <x:c r="H12" s="4" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:8" customFormat="1" ht="60" customHeight="1">
-      <x:c r="A13" s="2" t="s"/>
-      <x:c r="B13" s="3" t="s"/>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="H13" s="4" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="2" t="s"/>
+      <x:c r="B14" s="3" t="s"/>
+      <x:c r="C14" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
-      <x:c r="E13" s="2" t="s"/>
-      <x:c r="F13" s="4" t="n">
-        <x:v>1017400</x:v>
-      </x:c>
-      <x:c r="G13" s="4" t="n">
-        <x:v>3275534</x:v>
-      </x:c>
-      <x:c r="H13" s="4" t="n">
-        <x:v>557463</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:8" customFormat="1" ht="60" customHeight="1">
-      <x:c r="A14" s="5">
-        <x:v>44185</x:v>
-      </x:c>
-      <x:c r="B14" s="3" t="s"/>
-      <x:c r="C14" s="2" t="s"/>
       <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="2" t="s"/>
-      <x:c r="F14" s="4" t="s"/>
-      <x:c r="G14" s="4" t="s"/>
-      <x:c r="H14" s="4" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:8" customFormat="1" ht="60" customHeight="1">
-      <x:c r="A15" s="2" t="s"/>
-      <x:c r="B15" s="3" t="n">
-        <x:v>874</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
+      <x:c r="F14" s="4" t="n">
+        <x:v>1017400</x:v>
+      </x:c>
+      <x:c r="G14" s="4" t="n">
+        <x:v>3275534</x:v>
+      </x:c>
+      <x:c r="H14" s="4" t="n">
+        <x:v>557463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8">
+      <x:c r="A15" s="5">
+        <x:v>44186</x:v>
+      </x:c>
+      <x:c r="B15" s="3" t="s"/>
+      <x:c r="C15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="2" t="s"/>
-      <x:c r="F15" s="4" t="n">
-        <x:v>900</x:v>
-      </x:c>
+      <x:c r="F15" s="4" t="s"/>
       <x:c r="G15" s="4" t="s"/>
       <x:c r="H15" s="4" t="s"/>
     </x:row>
-    <x:row r="16" spans="1:8" customFormat="1" ht="60" customHeight="1">
+    <x:row r="16" spans="1:8">
       <x:c r="A16" s="2" t="s"/>
-      <x:c r="B16" s="3" t="s"/>
+      <x:c r="B16" s="3" t="n">
+        <x:v>874</x:v>
+      </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s"/>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
       <x:c r="E16" s="2" t="s"/>
       <x:c r="F16" s="4" t="n">
         <x:v>900</x:v>
       </x:c>
-      <x:c r="G16" s="4" t="n">
+      <x:c r="G16" s="4" t="s"/>
+      <x:c r="H16" s="4" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:8">
+      <x:c r="A17" s="2" t="s"/>
+      <x:c r="B17" s="3" t="s"/>
+      <x:c r="C17" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s"/>
+      <x:c r="E17" s="2" t="s"/>
+      <x:c r="F17" s="4" t="n">
+        <x:v>900</x:v>
+      </x:c>
+      <x:c r="G17" s="4" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H16" s="4" t="n">
+      <x:c r="H17" s="4" t="n">
         <x:v>558363</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="18" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="19" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="20" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="21" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="22" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="23" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="24" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="25" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="26" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="27" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="28" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="29" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="30" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="31" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="32" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="33" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="34" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="35" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="36" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="37" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="38" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="39" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="40" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="41" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="42" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="43" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="44" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="45" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="46" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="47" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="48" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="49" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
-    <x:row r="50" spans="1:8" customFormat="1" ht="60" customHeight="1"/>
+    <x:row r="51" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="52" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A52" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C52" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D52" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E52" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F52" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G52" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H52" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="54" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="55" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="56" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="57" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="58" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="59" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="60" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="61" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="62" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="63" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="64" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="65" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="66" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="67" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="68" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="69" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="70" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="71" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="72" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="73" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="74" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="75" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="76" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="77" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="78" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="79" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="80" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="81" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="82" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="83" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="84" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="85" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="86" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="87" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="88" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="89" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="90" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="91" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="92" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="93" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="94" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="95" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="96" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="97" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="98" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="99" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="100" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.3937" right="0.3937" top="0.3937" bottom="0.3937" header="0.5" footer="0.75"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,50 +14,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <x:si>
-    <x:t>12/24 ワイズコア</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <x:si>
+    <x:t>12/25 口座入金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理事務所</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,130,000</x:t>
   </x:si>
   <x:si>
     <x:t>林飛</x:t>
   </x:si>
   <x:si>
-    <x:t>仮受金 416</x:t>
+    <x:t>セレサ川崎普通貯金 133</x:t>
   </x:si>
   <x:si>
     <x:t>春秋苑</x:t>
   </x:si>
   <x:si>
-    <x:t>12/24 骨壺</x:t>
-  </x:si>
-  <x:si>
-    <x:t>坂村家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>その他冥加金 822</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12/24 銘板彫刻</x:t>
-  </x:si>
-  <x:si>
-    <x:t>山口家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>その他雑収入 882</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12/26 ビール、ライター</x:t>
-  </x:si>
-  <x:si>
-    <x:t>その他茶所収入 874</x:t>
+    <x:t>12/25 法事両替用</x:t>
+  </x:si>
+  <x:si>
+    <x:t>藤井泰子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>仮払金 168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/25 3ヶ月交通費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>坂本邦夫</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>旅費交通費 611</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/25 コード、マウスパッド</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ヤマダ電機</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>消耗品費 616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/25 ヴィッツ　ガソリン代</x:t>
+  </x:si>
+  <x:si>
+    <x:t>アセント</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>車両費 621</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/25 花苗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ビバホーム</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,827</x:t>
+  </x:si>
+  <x:si>
+    <x:t>苑内整備費 735</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="165" formatCode="@"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -95,12 +138,18 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="8">
+  <x:cellXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -113,12 +162,24 @@
       <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -126,11 +187,11 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -428,7 +489,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T66"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -446,14 +507,14 @@
     <x:col min="14" max="14" width="11.000625" style="0" customWidth="1"/>
     <x:col min="15" max="15" width="10.850625" style="0" customWidth="1"/>
     <x:col min="16" max="16" width="6.000625" style="0" customWidth="1"/>
-    <x:col min="17" max="17" width="1.540625" style="0" customWidth="1"/>
+    <x:col min="17" max="17" width="1.630625" style="0" customWidth="1"/>
     <x:col min="18" max="18" width="6.140625" style="0" customWidth="1"/>
-    <x:col min="19" max="19" width="1.540625" style="0" customWidth="1"/>
+    <x:col min="19" max="19" width="1.630625" style="0" customWidth="1"/>
     <x:col min="20" max="20" width="5.850625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
-    <x:row r="2" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
+    <x:row r="2" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -471,35 +532,41 @@
       <x:c r="M2" s="1" t="s"/>
       <x:c r="N2" s="1" t="s"/>
       <x:c r="O2" s="1" t="s"/>
-      <x:c r="P2" s="2" t="s"/>
-      <x:c r="Q2" s="3" t="s"/>
-      <x:c r="R2" s="3" t="s"/>
-      <x:c r="S2" s="3" t="s"/>
-      <x:c r="T2" s="3" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
-      <x:c r="A3" s="1" t="s"/>
+      <x:c r="P2" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q2" s="2" t="s"/>
+      <x:c r="R2" s="2" t="s"/>
+      <x:c r="S2" s="2" t="s"/>
+      <x:c r="T2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A3" s="3">
+        <x:v>44189</x:v>
+      </x:c>
       <x:c r="B3" s="1" t="s"/>
       <x:c r="C3" s="1" t="s"/>
-      <x:c r="D3" s="4" t="s"/>
+      <x:c r="D3" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="E3" s="4" t="s"/>
       <x:c r="F3" s="4" t="s"/>
       <x:c r="G3" s="4" t="s"/>
       <x:c r="H3" s="4" t="s"/>
       <x:c r="I3" s="4" t="s"/>
-      <x:c r="J3" s="3" t="s"/>
-      <x:c r="K3" s="3" t="s"/>
-      <x:c r="L3" s="3" t="s"/>
-      <x:c r="M3" s="3" t="s"/>
-      <x:c r="N3" s="3" t="s"/>
+      <x:c r="J3" s="5" t="s"/>
+      <x:c r="K3" s="1" t="s"/>
+      <x:c r="L3" s="1" t="s"/>
+      <x:c r="M3" s="1" t="s"/>
+      <x:c r="N3" s="1" t="s"/>
       <x:c r="O3" s="4" t="s"/>
-      <x:c r="P3" s="3" t="s"/>
-      <x:c r="Q3" s="3" t="s"/>
-      <x:c r="R3" s="3" t="s"/>
-      <x:c r="S3" s="3" t="s"/>
-      <x:c r="T3" s="3" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
+      <x:c r="P3" s="5" t="s"/>
+      <x:c r="Q3" s="5" t="s"/>
+      <x:c r="R3" s="5" t="s"/>
+      <x:c r="S3" s="5" t="s"/>
+      <x:c r="T3" s="5" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A4" s="1" t="s"/>
       <x:c r="B4" s="1" t="s"/>
       <x:c r="C4" s="1" t="s"/>
@@ -509,19 +576,19 @@
       <x:c r="G4" s="4" t="s"/>
       <x:c r="H4" s="4" t="s"/>
       <x:c r="I4" s="4" t="s"/>
-      <x:c r="J4" s="3" t="s"/>
-      <x:c r="K4" s="3" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
-      <x:c r="M4" s="3" t="s"/>
-      <x:c r="N4" s="3" t="s"/>
+      <x:c r="J4" s="5" t="s"/>
+      <x:c r="K4" s="1" t="s"/>
+      <x:c r="L4" s="1" t="s"/>
+      <x:c r="M4" s="1" t="s"/>
+      <x:c r="N4" s="1" t="s"/>
       <x:c r="O4" s="4" t="s"/>
-      <x:c r="P4" s="3" t="s"/>
-      <x:c r="Q4" s="3" t="s"/>
-      <x:c r="R4" s="3" t="s"/>
-      <x:c r="S4" s="3" t="s"/>
-      <x:c r="T4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
+      <x:c r="P4" s="5" t="s"/>
+      <x:c r="Q4" s="5" t="s"/>
+      <x:c r="R4" s="5" t="s"/>
+      <x:c r="S4" s="5" t="s"/>
+      <x:c r="T4" s="5" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A5" s="1" t="s"/>
       <x:c r="B5" s="1" t="s"/>
       <x:c r="C5" s="1" t="s"/>
@@ -531,100 +598,114 @@
       <x:c r="G5" s="4" t="s"/>
       <x:c r="H5" s="4" t="s"/>
       <x:c r="I5" s="4" t="s"/>
-      <x:c r="J5" s="3" t="s"/>
-      <x:c r="K5" s="3" t="s"/>
-      <x:c r="L5" s="3" t="s"/>
-      <x:c r="M5" s="3" t="s"/>
-      <x:c r="N5" s="3" t="s"/>
+      <x:c r="J5" s="5" t="s"/>
+      <x:c r="K5" s="1" t="s"/>
+      <x:c r="L5" s="1" t="s"/>
+      <x:c r="M5" s="1" t="s"/>
+      <x:c r="N5" s="1" t="s"/>
       <x:c r="O5" s="4" t="s"/>
-      <x:c r="P5" s="3" t="s"/>
-      <x:c r="Q5" s="3" t="s"/>
-      <x:c r="R5" s="3" t="s"/>
-      <x:c r="S5" s="3" t="s"/>
-      <x:c r="T5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
-      <x:c r="A6" s="3" t="s"/>
-      <x:c r="B6" s="3" t="s"/>
-      <x:c r="C6" s="3" t="s"/>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
-      <x:c r="F6" s="3" t="s"/>
-      <x:c r="G6" s="3" t="s"/>
-      <x:c r="H6" s="3" t="s"/>
-      <x:c r="I6" s="3" t="s"/>
-      <x:c r="J6" s="3" t="s"/>
-      <x:c r="K6" s="3" t="s"/>
-      <x:c r="L6" s="3" t="s"/>
-      <x:c r="M6" s="3" t="s"/>
-      <x:c r="N6" s="3" t="s"/>
-      <x:c r="O6" s="3" t="s"/>
-      <x:c r="P6" s="3" t="s"/>
-      <x:c r="Q6" s="3" t="s"/>
-      <x:c r="R6" s="3" t="s"/>
-      <x:c r="S6" s="3" t="s"/>
-      <x:c r="T6" s="3" t="s"/>
+      <x:c r="P5" s="5" t="s"/>
+      <x:c r="Q5" s="5" t="s"/>
+      <x:c r="R5" s="5" t="s"/>
+      <x:c r="S5" s="5" t="s"/>
+      <x:c r="T5" s="5" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A6" s="1" t="s"/>
+      <x:c r="B6" s="1" t="s"/>
+      <x:c r="C6" s="1" t="s"/>
+      <x:c r="D6" s="4" t="s"/>
+      <x:c r="E6" s="4" t="s"/>
+      <x:c r="F6" s="4" t="s"/>
+      <x:c r="G6" s="4" t="s"/>
+      <x:c r="H6" s="4" t="s"/>
+      <x:c r="I6" s="4" t="s"/>
+      <x:c r="J6" s="5" t="s"/>
+      <x:c r="K6" s="1" t="s"/>
+      <x:c r="L6" s="1" t="s"/>
+      <x:c r="M6" s="1" t="s"/>
+      <x:c r="N6" s="1" t="s"/>
+      <x:c r="O6" s="4" t="s"/>
+      <x:c r="P6" s="5" t="s"/>
+      <x:c r="Q6" s="5" t="s"/>
+      <x:c r="R6" s="5" t="s"/>
+      <x:c r="S6" s="5" t="s"/>
+      <x:c r="T6" s="5" t="s"/>
     </x:row>
     <x:row r="7" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T7" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A7" s="6" t="s"/>
+      <x:c r="D7" s="7" t="s"/>
+      <x:c r="K7" s="6" t="s"/>
+      <x:c r="O7" s="7" t="s"/>
+      <x:c r="T7" s="8" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T8" s="5" t="s"/>
+      <x:c r="T8" s="8" t="s"/>
     </x:row>
     <x:row r="9" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="10" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="N10" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="O10" s="6" t="s"/>
-      <x:c r="P10" s="6" t="s">
+      <x:c r="D10" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E10" s="9" t="s"/>
+      <x:c r="F10" s="9" t="s"/>
+      <x:c r="G10" s="9" t="s"/>
+      <x:c r="H10" s="9" t="s"/>
+      <x:c r="I10" s="9" t="s"/>
+      <x:c r="J10" s="9" t="s"/>
+      <x:c r="K10" s="9" t="s"/>
+      <x:c r="L10" s="9" t="s"/>
+      <x:c r="M10" s="9" t="s"/>
+      <x:c r="N10" s="9" t="s"/>
+      <x:c r="O10" s="9" t="s"/>
+      <x:c r="P10" s="9" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q10" s="9" t="s"/>
+      <x:c r="R10" s="9" t="s"/>
+      <x:c r="S10" s="9" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A11" s="6" t="n">
+        <x:v>2020</x:v>
+      </x:c>
+      <x:c r="B11" s="10" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C11" s="10" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D11" s="6" t="s"/>
+      <x:c r="E11" s="6" t="s"/>
+      <x:c r="F11" s="6" t="s"/>
+      <x:c r="G11" s="6" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="Q10" s="6" t="s"/>
-      <x:c r="R10" s="6" t="s"/>
-      <x:c r="S10" s="6" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:20" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A11" s="7" t="n">
-        <x:v>2020</x:v>
-      </x:c>
-      <x:c r="B11" s="7" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C11" s="7" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D11" s="7" t="s"/>
-      <x:c r="E11" s="7" t="s"/>
-      <x:c r="F11" s="7" t="s"/>
-      <x:c r="G11" s="7" t="n">
+      <x:c r="H11" s="6" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="H11" s="7" t="n">
+      <x:c r="I11" s="6" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J11" s="6" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="I11" s="7" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J11" s="7" t="n">
+      <x:c r="K11" s="6" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K11" s="7" t="n">
+      <x:c r="L11" s="6" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="L11" s="7" t="n">
+      <x:c r="M11" s="6" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="M11" s="7" t="n">
-        <x:v>0</x:v>
-      </x:c>
     </x:row>
     <x:row r="12" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
-    <x:row r="13" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
+    <x:row r="13" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A13" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s"/>
       <x:c r="C13" s="1" t="s"/>
@@ -640,156 +721,178 @@
       <x:c r="M13" s="1" t="s"/>
       <x:c r="N13" s="1" t="s"/>
       <x:c r="O13" s="1" t="s"/>
-      <x:c r="P13" s="2" t="s"/>
-      <x:c r="Q13" s="3" t="s"/>
-      <x:c r="R13" s="3" t="s"/>
-      <x:c r="S13" s="3" t="s"/>
-      <x:c r="T13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
-      <x:c r="A14" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B14" s="3" t="s"/>
-      <x:c r="C14" s="3" t="s"/>
-      <x:c r="D14" s="3" t="s"/>
-      <x:c r="E14" s="3" t="s"/>
-      <x:c r="F14" s="3" t="s"/>
-      <x:c r="G14" s="3" t="s"/>
-      <x:c r="H14" s="3" t="s"/>
-      <x:c r="I14" s="3" t="s"/>
-      <x:c r="J14" s="3" t="s"/>
-      <x:c r="K14" s="3" t="s"/>
-      <x:c r="L14" s="3" t="s"/>
-      <x:c r="M14" s="3" t="s"/>
-      <x:c r="N14" s="3" t="s"/>
-      <x:c r="O14" s="3" t="s"/>
-      <x:c r="P14" s="3" t="s"/>
-      <x:c r="Q14" s="3" t="s"/>
-      <x:c r="R14" s="3" t="s"/>
-      <x:c r="S14" s="3" t="s"/>
-      <x:c r="T14" s="3" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
-      <x:c r="A15" s="3" t="s"/>
-      <x:c r="B15" s="3" t="s"/>
-      <x:c r="C15" s="3" t="s"/>
-      <x:c r="D15" s="3" t="s"/>
-      <x:c r="E15" s="3" t="s"/>
-      <x:c r="F15" s="3" t="s"/>
-      <x:c r="G15" s="3" t="s"/>
-      <x:c r="H15" s="3" t="s"/>
-      <x:c r="I15" s="3" t="s"/>
-      <x:c r="J15" s="3" t="s"/>
-      <x:c r="K15" s="3" t="s"/>
-      <x:c r="L15" s="3" t="s"/>
-      <x:c r="M15" s="3" t="s"/>
-      <x:c r="N15" s="3" t="s"/>
-      <x:c r="O15" s="3" t="s"/>
-      <x:c r="P15" s="3" t="s"/>
-      <x:c r="Q15" s="3" t="s"/>
-      <x:c r="R15" s="3" t="s"/>
-      <x:c r="S15" s="3" t="s"/>
-      <x:c r="T15" s="3" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
-      <x:c r="A16" s="3" t="s"/>
-      <x:c r="B16" s="3" t="s"/>
-      <x:c r="C16" s="3" t="s"/>
-      <x:c r="D16" s="3" t="s"/>
-      <x:c r="E16" s="3" t="s"/>
-      <x:c r="F16" s="3" t="s"/>
-      <x:c r="G16" s="3" t="s"/>
-      <x:c r="H16" s="3" t="s"/>
-      <x:c r="I16" s="3" t="s"/>
-      <x:c r="J16" s="3" t="s"/>
-      <x:c r="K16" s="3" t="s"/>
-      <x:c r="L16" s="3" t="s"/>
-      <x:c r="M16" s="3" t="s"/>
-      <x:c r="N16" s="3" t="s"/>
-      <x:c r="O16" s="3" t="s"/>
-      <x:c r="P16" s="3" t="s"/>
-      <x:c r="Q16" s="3" t="s"/>
-      <x:c r="R16" s="3" t="s"/>
-      <x:c r="S16" s="3" t="s"/>
-      <x:c r="T16" s="3" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
-      <x:c r="A17" s="3" t="s"/>
-      <x:c r="B17" s="3" t="s"/>
-      <x:c r="C17" s="3" t="s"/>
-      <x:c r="D17" s="3" t="s"/>
-      <x:c r="E17" s="3" t="s"/>
-      <x:c r="F17" s="3" t="s"/>
-      <x:c r="G17" s="3" t="s"/>
-      <x:c r="H17" s="3" t="s"/>
-      <x:c r="I17" s="3" t="s"/>
-      <x:c r="J17" s="3" t="s"/>
-      <x:c r="K17" s="3" t="s"/>
-      <x:c r="L17" s="3" t="s"/>
-      <x:c r="M17" s="3" t="s"/>
-      <x:c r="N17" s="3" t="s"/>
-      <x:c r="O17" s="3" t="s"/>
-      <x:c r="P17" s="3" t="s"/>
-      <x:c r="Q17" s="3" t="s"/>
-      <x:c r="R17" s="3" t="s"/>
-      <x:c r="S17" s="3" t="s"/>
-      <x:c r="T17" s="3" t="s"/>
+      <x:c r="P13" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A14" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s"/>
+      <x:c r="C14" s="1" t="s"/>
+      <x:c r="D14" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E14" s="4" t="s"/>
+      <x:c r="F14" s="4" t="s"/>
+      <x:c r="G14" s="4" t="s"/>
+      <x:c r="H14" s="4" t="s"/>
+      <x:c r="I14" s="4" t="s"/>
+      <x:c r="J14" s="5" t="s"/>
+      <x:c r="K14" s="1" t="s"/>
+      <x:c r="L14" s="1" t="s"/>
+      <x:c r="M14" s="1" t="s"/>
+      <x:c r="N14" s="1" t="s"/>
+      <x:c r="O14" s="4" t="s"/>
+      <x:c r="P14" s="5" t="s"/>
+      <x:c r="Q14" s="5" t="s"/>
+      <x:c r="R14" s="5" t="s"/>
+      <x:c r="S14" s="5" t="s"/>
+      <x:c r="T14" s="5" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A15" s="1" t="s"/>
+      <x:c r="B15" s="1" t="s"/>
+      <x:c r="C15" s="1" t="s"/>
+      <x:c r="D15" s="4" t="s"/>
+      <x:c r="E15" s="4" t="s"/>
+      <x:c r="F15" s="4" t="s"/>
+      <x:c r="G15" s="4" t="s"/>
+      <x:c r="H15" s="4" t="s"/>
+      <x:c r="I15" s="4" t="s"/>
+      <x:c r="J15" s="5" t="s"/>
+      <x:c r="K15" s="1" t="s"/>
+      <x:c r="L15" s="1" t="s"/>
+      <x:c r="M15" s="1" t="s"/>
+      <x:c r="N15" s="1" t="s"/>
+      <x:c r="O15" s="4" t="s"/>
+      <x:c r="P15" s="5" t="s"/>
+      <x:c r="Q15" s="5" t="s"/>
+      <x:c r="R15" s="5" t="s"/>
+      <x:c r="S15" s="5" t="s"/>
+      <x:c r="T15" s="5" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A16" s="1" t="s"/>
+      <x:c r="B16" s="1" t="s"/>
+      <x:c r="C16" s="1" t="s"/>
+      <x:c r="D16" s="4" t="s"/>
+      <x:c r="E16" s="4" t="s"/>
+      <x:c r="F16" s="4" t="s"/>
+      <x:c r="G16" s="4" t="s"/>
+      <x:c r="H16" s="4" t="s"/>
+      <x:c r="I16" s="4" t="s"/>
+      <x:c r="J16" s="5" t="s"/>
+      <x:c r="K16" s="1" t="s"/>
+      <x:c r="L16" s="1" t="s"/>
+      <x:c r="M16" s="1" t="s"/>
+      <x:c r="N16" s="1" t="s"/>
+      <x:c r="O16" s="4" t="s"/>
+      <x:c r="P16" s="5" t="s"/>
+      <x:c r="Q16" s="5" t="s"/>
+      <x:c r="R16" s="5" t="s"/>
+      <x:c r="S16" s="5" t="s"/>
+      <x:c r="T16" s="5" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A17" s="1" t="s"/>
+      <x:c r="B17" s="1" t="s"/>
+      <x:c r="C17" s="1" t="s"/>
+      <x:c r="D17" s="4" t="s"/>
+      <x:c r="E17" s="4" t="s"/>
+      <x:c r="F17" s="4" t="s"/>
+      <x:c r="G17" s="4" t="s"/>
+      <x:c r="H17" s="4" t="s"/>
+      <x:c r="I17" s="4" t="s"/>
+      <x:c r="J17" s="5" t="s"/>
+      <x:c r="K17" s="1" t="s"/>
+      <x:c r="L17" s="1" t="s"/>
+      <x:c r="M17" s="1" t="s"/>
+      <x:c r="N17" s="1" t="s"/>
+      <x:c r="O17" s="4" t="s"/>
+      <x:c r="P17" s="5" t="s"/>
+      <x:c r="Q17" s="5" t="s"/>
+      <x:c r="R17" s="5" t="s"/>
+      <x:c r="S17" s="5" t="s"/>
+      <x:c r="T17" s="5" t="s"/>
     </x:row>
     <x:row r="18" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T18" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A18" s="6" t="s"/>
+      <x:c r="D18" s="7" t="s"/>
+      <x:c r="K18" s="6" t="s"/>
+      <x:c r="O18" s="7" t="s"/>
+      <x:c r="T18" s="8" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T19" s="5" t="s"/>
+      <x:c r="T19" s="8" t="s"/>
     </x:row>
     <x:row r="20" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="21" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="N21" s="6" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="O21" s="6" t="s"/>
-      <x:c r="P21" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q21" s="6" t="s"/>
-      <x:c r="R21" s="6" t="s"/>
-      <x:c r="S21" s="6" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A22" s="7" t="n">
+      <x:c r="D21" s="9" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E21" s="9" t="s"/>
+      <x:c r="F21" s="9" t="s"/>
+      <x:c r="G21" s="9" t="s"/>
+      <x:c r="H21" s="9" t="s"/>
+      <x:c r="I21" s="9" t="s"/>
+      <x:c r="J21" s="9" t="s"/>
+      <x:c r="K21" s="9" t="s"/>
+      <x:c r="L21" s="9" t="s"/>
+      <x:c r="M21" s="9" t="s"/>
+      <x:c r="N21" s="9" t="s"/>
+      <x:c r="O21" s="9" t="s"/>
+      <x:c r="P21" s="9" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q21" s="9" t="s"/>
+      <x:c r="R21" s="9" t="s"/>
+      <x:c r="S21" s="9" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A22" s="6" t="n">
         <x:v>2020</x:v>
       </x:c>
-      <x:c r="B22" s="7" t="n">
+      <x:c r="B22" s="10" t="n">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C22" s="7" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D22" s="7" t="s"/>
-      <x:c r="E22" s="7" t="s"/>
-      <x:c r="F22" s="7" t="s"/>
-      <x:c r="G22" s="7" t="s"/>
-      <x:c r="H22" s="7" t="s"/>
-      <x:c r="I22" s="7" t="s"/>
-      <x:c r="J22" s="7" t="n">
+      <x:c r="C22" s="10" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D22" s="6" t="s"/>
+      <x:c r="E22" s="6" t="s"/>
+      <x:c r="F22" s="6" t="s"/>
+      <x:c r="G22" s="6" t="s"/>
+      <x:c r="H22" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I22" s="6" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="K22" s="7" t="n">
+      <x:c r="J22" s="6" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="L22" s="7" t="n">
+      <x:c r="K22" s="6" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="M22" s="7" t="n">
+      <x:c r="L22" s="6" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="M22" s="6" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="23" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
-    <x:row r="24" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
+    <x:row r="24" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A24" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s"/>
       <x:c r="C24" s="1" t="s"/>
@@ -805,156 +908,176 @@
       <x:c r="M24" s="1" t="s"/>
       <x:c r="N24" s="1" t="s"/>
       <x:c r="O24" s="1" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="3" t="s"/>
-      <x:c r="R24" s="3" t="s"/>
-      <x:c r="S24" s="3" t="s"/>
-      <x:c r="T24" s="3" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
-      <x:c r="A25" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B25" s="3" t="s"/>
-      <x:c r="C25" s="3" t="s"/>
-      <x:c r="D25" s="3" t="s"/>
-      <x:c r="E25" s="3" t="s"/>
-      <x:c r="F25" s="3" t="s"/>
-      <x:c r="G25" s="3" t="s"/>
-      <x:c r="H25" s="3" t="s"/>
-      <x:c r="I25" s="3" t="s"/>
-      <x:c r="J25" s="3" t="s"/>
-      <x:c r="K25" s="3" t="s"/>
-      <x:c r="L25" s="3" t="s"/>
-      <x:c r="M25" s="3" t="s"/>
-      <x:c r="N25" s="3" t="s"/>
-      <x:c r="O25" s="3" t="s"/>
-      <x:c r="P25" s="3" t="s"/>
-      <x:c r="Q25" s="3" t="s"/>
-      <x:c r="R25" s="3" t="s"/>
-      <x:c r="S25" s="3" t="s"/>
-      <x:c r="T25" s="3" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
-      <x:c r="A26" s="3" t="s"/>
-      <x:c r="B26" s="3" t="s"/>
-      <x:c r="C26" s="3" t="s"/>
-      <x:c r="D26" s="3" t="s"/>
-      <x:c r="E26" s="3" t="s"/>
-      <x:c r="F26" s="3" t="s"/>
-      <x:c r="G26" s="3" t="s"/>
-      <x:c r="H26" s="3" t="s"/>
-      <x:c r="I26" s="3" t="s"/>
-      <x:c r="J26" s="3" t="s"/>
-      <x:c r="K26" s="3" t="s"/>
-      <x:c r="L26" s="3" t="s"/>
-      <x:c r="M26" s="3" t="s"/>
-      <x:c r="N26" s="3" t="s"/>
-      <x:c r="O26" s="3" t="s"/>
-      <x:c r="P26" s="3" t="s"/>
-      <x:c r="Q26" s="3" t="s"/>
-      <x:c r="R26" s="3" t="s"/>
-      <x:c r="S26" s="3" t="s"/>
-      <x:c r="T26" s="3" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
-      <x:c r="A27" s="3" t="s"/>
-      <x:c r="B27" s="3" t="s"/>
-      <x:c r="C27" s="3" t="s"/>
-      <x:c r="D27" s="3" t="s"/>
-      <x:c r="E27" s="3" t="s"/>
-      <x:c r="F27" s="3" t="s"/>
-      <x:c r="G27" s="3" t="s"/>
-      <x:c r="H27" s="3" t="s"/>
-      <x:c r="I27" s="3" t="s"/>
-      <x:c r="J27" s="3" t="s"/>
-      <x:c r="K27" s="3" t="s"/>
-      <x:c r="L27" s="3" t="s"/>
-      <x:c r="M27" s="3" t="s"/>
-      <x:c r="N27" s="3" t="s"/>
-      <x:c r="O27" s="3" t="s"/>
-      <x:c r="P27" s="3" t="s"/>
-      <x:c r="Q27" s="3" t="s"/>
-      <x:c r="R27" s="3" t="s"/>
-      <x:c r="S27" s="3" t="s"/>
-      <x:c r="T27" s="3" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
-      <x:c r="A28" s="3" t="s"/>
-      <x:c r="B28" s="3" t="s"/>
-      <x:c r="C28" s="3" t="s"/>
-      <x:c r="D28" s="3" t="s"/>
-      <x:c r="E28" s="3" t="s"/>
-      <x:c r="F28" s="3" t="s"/>
-      <x:c r="G28" s="3" t="s"/>
-      <x:c r="H28" s="3" t="s"/>
-      <x:c r="I28" s="3" t="s"/>
-      <x:c r="J28" s="3" t="s"/>
-      <x:c r="K28" s="3" t="s"/>
-      <x:c r="L28" s="3" t="s"/>
-      <x:c r="M28" s="3" t="s"/>
-      <x:c r="N28" s="3" t="s"/>
-      <x:c r="O28" s="3" t="s"/>
-      <x:c r="P28" s="3" t="s"/>
-      <x:c r="Q28" s="3" t="s"/>
-      <x:c r="R28" s="3" t="s"/>
-      <x:c r="S28" s="3" t="s"/>
-      <x:c r="T28" s="3" t="s"/>
+      <x:c r="P24" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A25" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B25" s="1" t="s"/>
+      <x:c r="C25" s="1" t="s"/>
+      <x:c r="D25" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E25" s="4" t="s"/>
+      <x:c r="F25" s="4" t="s"/>
+      <x:c r="G25" s="4" t="s"/>
+      <x:c r="H25" s="4" t="s"/>
+      <x:c r="I25" s="4" t="s"/>
+      <x:c r="J25" s="5" t="s"/>
+      <x:c r="K25" s="1" t="s"/>
+      <x:c r="L25" s="1" t="s"/>
+      <x:c r="M25" s="1" t="s"/>
+      <x:c r="N25" s="1" t="s"/>
+      <x:c r="O25" s="4" t="s"/>
+      <x:c r="P25" s="5" t="s"/>
+      <x:c r="Q25" s="5" t="s"/>
+      <x:c r="R25" s="5" t="s"/>
+      <x:c r="S25" s="5" t="s"/>
+      <x:c r="T25" s="5" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A26" s="1" t="s"/>
+      <x:c r="B26" s="1" t="s"/>
+      <x:c r="C26" s="1" t="s"/>
+      <x:c r="D26" s="4" t="s"/>
+      <x:c r="E26" s="4" t="s"/>
+      <x:c r="F26" s="4" t="s"/>
+      <x:c r="G26" s="4" t="s"/>
+      <x:c r="H26" s="4" t="s"/>
+      <x:c r="I26" s="4" t="s"/>
+      <x:c r="J26" s="5" t="s"/>
+      <x:c r="K26" s="1" t="s"/>
+      <x:c r="L26" s="1" t="s"/>
+      <x:c r="M26" s="1" t="s"/>
+      <x:c r="N26" s="1" t="s"/>
+      <x:c r="O26" s="4" t="s"/>
+      <x:c r="P26" s="5" t="s"/>
+      <x:c r="Q26" s="5" t="s"/>
+      <x:c r="R26" s="5" t="s"/>
+      <x:c r="S26" s="5" t="s"/>
+      <x:c r="T26" s="5" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A27" s="1" t="s"/>
+      <x:c r="B27" s="1" t="s"/>
+      <x:c r="C27" s="1" t="s"/>
+      <x:c r="D27" s="4" t="s"/>
+      <x:c r="E27" s="4" t="s"/>
+      <x:c r="F27" s="4" t="s"/>
+      <x:c r="G27" s="4" t="s"/>
+      <x:c r="H27" s="4" t="s"/>
+      <x:c r="I27" s="4" t="s"/>
+      <x:c r="J27" s="5" t="s"/>
+      <x:c r="K27" s="1" t="s"/>
+      <x:c r="L27" s="1" t="s"/>
+      <x:c r="M27" s="1" t="s"/>
+      <x:c r="N27" s="1" t="s"/>
+      <x:c r="O27" s="4" t="s"/>
+      <x:c r="P27" s="5" t="s"/>
+      <x:c r="Q27" s="5" t="s"/>
+      <x:c r="R27" s="5" t="s"/>
+      <x:c r="S27" s="5" t="s"/>
+      <x:c r="T27" s="5" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A28" s="1" t="s"/>
+      <x:c r="B28" s="1" t="s"/>
+      <x:c r="C28" s="1" t="s"/>
+      <x:c r="D28" s="4" t="s"/>
+      <x:c r="E28" s="4" t="s"/>
+      <x:c r="F28" s="4" t="s"/>
+      <x:c r="G28" s="4" t="s"/>
+      <x:c r="H28" s="4" t="s"/>
+      <x:c r="I28" s="4" t="s"/>
+      <x:c r="J28" s="5" t="s"/>
+      <x:c r="K28" s="1" t="s"/>
+      <x:c r="L28" s="1" t="s"/>
+      <x:c r="M28" s="1" t="s"/>
+      <x:c r="N28" s="1" t="s"/>
+      <x:c r="O28" s="4" t="s"/>
+      <x:c r="P28" s="5" t="s"/>
+      <x:c r="Q28" s="5" t="s"/>
+      <x:c r="R28" s="5" t="s"/>
+      <x:c r="S28" s="5" t="s"/>
+      <x:c r="T28" s="5" t="s"/>
     </x:row>
     <x:row r="29" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T29" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A29" s="6" t="s"/>
+      <x:c r="D29" s="7" t="s"/>
+      <x:c r="K29" s="6" t="s"/>
+      <x:c r="O29" s="7" t="s"/>
+      <x:c r="T29" s="8" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T30" s="5" t="s"/>
+      <x:c r="T30" s="8" t="s"/>
     </x:row>
     <x:row r="31" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="32" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="N32" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O32" s="6" t="s"/>
-      <x:c r="P32" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q32" s="6" t="s"/>
-      <x:c r="R32" s="6" t="s"/>
-      <x:c r="S32" s="6" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A33" s="7" t="n">
+      <x:c r="D32" s="9" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E32" s="9" t="s"/>
+      <x:c r="F32" s="9" t="s"/>
+      <x:c r="G32" s="9" t="s"/>
+      <x:c r="H32" s="9" t="s"/>
+      <x:c r="I32" s="9" t="s"/>
+      <x:c r="J32" s="9" t="s"/>
+      <x:c r="K32" s="9" t="s"/>
+      <x:c r="L32" s="9" t="s"/>
+      <x:c r="M32" s="9" t="s"/>
+      <x:c r="N32" s="9" t="s"/>
+      <x:c r="O32" s="9" t="s"/>
+      <x:c r="P32" s="9" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q32" s="9" t="s"/>
+      <x:c r="R32" s="9" t="s"/>
+      <x:c r="S32" s="9" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A33" s="6" t="n">
         <x:v>2020</x:v>
       </x:c>
-      <x:c r="B33" s="7" t="n">
+      <x:c r="B33" s="10" t="n">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C33" s="7" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D33" s="7" t="s"/>
-      <x:c r="E33" s="7" t="s"/>
-      <x:c r="F33" s="7" t="s"/>
-      <x:c r="G33" s="7" t="s"/>
-      <x:c r="H33" s="7" t="s"/>
-      <x:c r="I33" s="7" t="s"/>
-      <x:c r="J33" s="7" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="K33" s="7" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="L33" s="7" t="n">
+      <x:c r="C33" s="10" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D33" s="6" t="s"/>
+      <x:c r="E33" s="6" t="s"/>
+      <x:c r="F33" s="6" t="s"/>
+      <x:c r="G33" s="6" t="s"/>
+      <x:c r="H33" s="6" t="s"/>
+      <x:c r="I33" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J33" s="6" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K33" s="6" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L33" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="M33" s="6" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="M33" s="7" t="n">
-        <x:v>0</x:v>
-      </x:c>
     </x:row>
     <x:row r="34" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
-    <x:row r="35" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
+    <x:row r="35" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A35" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s"/>
       <x:c r="C35" s="1" t="s"/>
@@ -970,151 +1093,540 @@
       <x:c r="M35" s="1" t="s"/>
       <x:c r="N35" s="1" t="s"/>
       <x:c r="O35" s="1" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="3" t="s"/>
-      <x:c r="R35" s="3" t="s"/>
-      <x:c r="S35" s="3" t="s"/>
-      <x:c r="T35" s="3" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
-      <x:c r="A36" s="3" t="s"/>
-      <x:c r="B36" s="3" t="s"/>
-      <x:c r="C36" s="3" t="s"/>
-      <x:c r="D36" s="3" t="s"/>
-      <x:c r="E36" s="3" t="s"/>
-      <x:c r="F36" s="3" t="s"/>
-      <x:c r="G36" s="3" t="s"/>
-      <x:c r="H36" s="3" t="s"/>
-      <x:c r="I36" s="3" t="s"/>
-      <x:c r="J36" s="3" t="s"/>
-      <x:c r="K36" s="3" t="s"/>
-      <x:c r="L36" s="3" t="s"/>
-      <x:c r="M36" s="3" t="s"/>
-      <x:c r="N36" s="3" t="s"/>
-      <x:c r="O36" s="3" t="s"/>
-      <x:c r="P36" s="3" t="s"/>
-      <x:c r="Q36" s="3" t="s"/>
-      <x:c r="R36" s="3" t="s"/>
-      <x:c r="S36" s="3" t="s"/>
-      <x:c r="T36" s="3" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
-      <x:c r="A37" s="3" t="s"/>
-      <x:c r="B37" s="3" t="s"/>
-      <x:c r="C37" s="3" t="s"/>
-      <x:c r="D37" s="3" t="s"/>
-      <x:c r="E37" s="3" t="s"/>
-      <x:c r="F37" s="3" t="s"/>
-      <x:c r="G37" s="3" t="s"/>
-      <x:c r="H37" s="3" t="s"/>
-      <x:c r="I37" s="3" t="s"/>
-      <x:c r="J37" s="3" t="s"/>
-      <x:c r="K37" s="3" t="s"/>
-      <x:c r="L37" s="3" t="s"/>
-      <x:c r="M37" s="3" t="s"/>
-      <x:c r="N37" s="3" t="s"/>
-      <x:c r="O37" s="3" t="s"/>
-      <x:c r="P37" s="3" t="s"/>
-      <x:c r="Q37" s="3" t="s"/>
-      <x:c r="R37" s="3" t="s"/>
-      <x:c r="S37" s="3" t="s"/>
-      <x:c r="T37" s="3" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
-      <x:c r="A38" s="3" t="s"/>
-      <x:c r="B38" s="3" t="s"/>
-      <x:c r="C38" s="3" t="s"/>
-      <x:c r="D38" s="3" t="s"/>
-      <x:c r="E38" s="3" t="s"/>
-      <x:c r="F38" s="3" t="s"/>
-      <x:c r="G38" s="3" t="s"/>
-      <x:c r="H38" s="3" t="s"/>
-      <x:c r="I38" s="3" t="s"/>
-      <x:c r="J38" s="3" t="s"/>
-      <x:c r="K38" s="3" t="s"/>
-      <x:c r="L38" s="3" t="s"/>
-      <x:c r="M38" s="3" t="s"/>
-      <x:c r="N38" s="3" t="s"/>
-      <x:c r="O38" s="3" t="s"/>
-      <x:c r="P38" s="3" t="s"/>
-      <x:c r="Q38" s="3" t="s"/>
-      <x:c r="R38" s="3" t="s"/>
-      <x:c r="S38" s="3" t="s"/>
-      <x:c r="T38" s="3" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20" customFormat="1" ht="17.25" customHeight="1">
-      <x:c r="A39" s="3" t="s"/>
-      <x:c r="B39" s="3" t="s"/>
-      <x:c r="C39" s="3" t="s"/>
-      <x:c r="D39" s="3" t="s"/>
-      <x:c r="E39" s="3" t="s"/>
-      <x:c r="F39" s="3" t="s"/>
-      <x:c r="G39" s="3" t="s"/>
-      <x:c r="H39" s="3" t="s"/>
-      <x:c r="I39" s="3" t="s"/>
-      <x:c r="J39" s="3" t="s"/>
-      <x:c r="K39" s="3" t="s"/>
-      <x:c r="L39" s="3" t="s"/>
-      <x:c r="M39" s="3" t="s"/>
-      <x:c r="N39" s="3" t="s"/>
-      <x:c r="O39" s="3" t="s"/>
-      <x:c r="P39" s="3" t="s"/>
-      <x:c r="Q39" s="3" t="s"/>
-      <x:c r="R39" s="3" t="s"/>
-      <x:c r="S39" s="3" t="s"/>
-      <x:c r="T39" s="3" t="s"/>
+      <x:c r="P35" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A36" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B36" s="1" t="s"/>
+      <x:c r="C36" s="1" t="s"/>
+      <x:c r="D36" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E36" s="4" t="s"/>
+      <x:c r="F36" s="4" t="s"/>
+      <x:c r="G36" s="4" t="s"/>
+      <x:c r="H36" s="4" t="s"/>
+      <x:c r="I36" s="4" t="s"/>
+      <x:c r="J36" s="5" t="s"/>
+      <x:c r="K36" s="1" t="s"/>
+      <x:c r="L36" s="1" t="s"/>
+      <x:c r="M36" s="1" t="s"/>
+      <x:c r="N36" s="1" t="s"/>
+      <x:c r="O36" s="4" t="s"/>
+      <x:c r="P36" s="5" t="s"/>
+      <x:c r="Q36" s="5" t="s"/>
+      <x:c r="R36" s="5" t="s"/>
+      <x:c r="S36" s="5" t="s"/>
+      <x:c r="T36" s="5" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A37" s="1" t="s"/>
+      <x:c r="B37" s="1" t="s"/>
+      <x:c r="C37" s="1" t="s"/>
+      <x:c r="D37" s="4" t="s"/>
+      <x:c r="E37" s="4" t="s"/>
+      <x:c r="F37" s="4" t="s"/>
+      <x:c r="G37" s="4" t="s"/>
+      <x:c r="H37" s="4" t="s"/>
+      <x:c r="I37" s="4" t="s"/>
+      <x:c r="J37" s="5" t="s"/>
+      <x:c r="K37" s="1" t="s"/>
+      <x:c r="L37" s="1" t="s"/>
+      <x:c r="M37" s="1" t="s"/>
+      <x:c r="N37" s="1" t="s"/>
+      <x:c r="O37" s="4" t="s"/>
+      <x:c r="P37" s="5" t="s"/>
+      <x:c r="Q37" s="5" t="s"/>
+      <x:c r="R37" s="5" t="s"/>
+      <x:c r="S37" s="5" t="s"/>
+      <x:c r="T37" s="5" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A38" s="1" t="s"/>
+      <x:c r="B38" s="1" t="s"/>
+      <x:c r="C38" s="1" t="s"/>
+      <x:c r="D38" s="4" t="s"/>
+      <x:c r="E38" s="4" t="s"/>
+      <x:c r="F38" s="4" t="s"/>
+      <x:c r="G38" s="4" t="s"/>
+      <x:c r="H38" s="4" t="s"/>
+      <x:c r="I38" s="4" t="s"/>
+      <x:c r="J38" s="5" t="s"/>
+      <x:c r="K38" s="1" t="s"/>
+      <x:c r="L38" s="1" t="s"/>
+      <x:c r="M38" s="1" t="s"/>
+      <x:c r="N38" s="1" t="s"/>
+      <x:c r="O38" s="4" t="s"/>
+      <x:c r="P38" s="5" t="s"/>
+      <x:c r="Q38" s="5" t="s"/>
+      <x:c r="R38" s="5" t="s"/>
+      <x:c r="S38" s="5" t="s"/>
+      <x:c r="T38" s="5" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A39" s="1" t="s"/>
+      <x:c r="B39" s="1" t="s"/>
+      <x:c r="C39" s="1" t="s"/>
+      <x:c r="D39" s="4" t="s"/>
+      <x:c r="E39" s="4" t="s"/>
+      <x:c r="F39" s="4" t="s"/>
+      <x:c r="G39" s="4" t="s"/>
+      <x:c r="H39" s="4" t="s"/>
+      <x:c r="I39" s="4" t="s"/>
+      <x:c r="J39" s="5" t="s"/>
+      <x:c r="K39" s="1" t="s"/>
+      <x:c r="L39" s="1" t="s"/>
+      <x:c r="M39" s="1" t="s"/>
+      <x:c r="N39" s="1" t="s"/>
+      <x:c r="O39" s="4" t="s"/>
+      <x:c r="P39" s="5" t="s"/>
+      <x:c r="Q39" s="5" t="s"/>
+      <x:c r="R39" s="5" t="s"/>
+      <x:c r="S39" s="5" t="s"/>
+      <x:c r="T39" s="5" t="s"/>
     </x:row>
     <x:row r="40" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T40" s="5" t="s">
-        <x:v>1</x:v>
+      <x:c r="A40" s="6" t="s"/>
+      <x:c r="D40" s="7" t="s"/>
+      <x:c r="K40" s="6" t="s"/>
+      <x:c r="O40" s="7" t="s"/>
+      <x:c r="T40" s="8" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T41" s="5" t="s"/>
+      <x:c r="T41" s="8" t="s"/>
     </x:row>
     <x:row r="42" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="43" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="N43" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="O43" s="6" t="s"/>
-      <x:c r="P43" s="6" t="s">
+      <x:c r="D43" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E43" s="9" t="s"/>
+      <x:c r="F43" s="9" t="s"/>
+      <x:c r="G43" s="9" t="s"/>
+      <x:c r="H43" s="9" t="s"/>
+      <x:c r="I43" s="9" t="s"/>
+      <x:c r="J43" s="9" t="s"/>
+      <x:c r="K43" s="9" t="s"/>
+      <x:c r="L43" s="9" t="s"/>
+      <x:c r="M43" s="9" t="s"/>
+      <x:c r="N43" s="9" t="s"/>
+      <x:c r="O43" s="9" t="s"/>
+      <x:c r="P43" s="9" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q43" s="9" t="s"/>
+      <x:c r="R43" s="9" t="s"/>
+      <x:c r="S43" s="9" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A44" s="6" t="n">
+        <x:v>2020</x:v>
+      </x:c>
+      <x:c r="B44" s="10" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C44" s="10" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D44" s="6" t="s"/>
+      <x:c r="E44" s="6" t="s"/>
+      <x:c r="F44" s="6" t="s"/>
+      <x:c r="G44" s="6" t="s"/>
+      <x:c r="H44" s="6" t="s"/>
+      <x:c r="I44" s="6" t="s"/>
+      <x:c r="J44" s="6" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K44" s="6" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L44" s="6" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="M44" s="6" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="46" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A46" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B46" s="1" t="s"/>
+      <x:c r="C46" s="1" t="s"/>
+      <x:c r="D46" s="1" t="s"/>
+      <x:c r="E46" s="1" t="s"/>
+      <x:c r="F46" s="1" t="s"/>
+      <x:c r="G46" s="1" t="s"/>
+      <x:c r="H46" s="1" t="s"/>
+      <x:c r="I46" s="1" t="s"/>
+      <x:c r="J46" s="1" t="s"/>
+      <x:c r="K46" s="1" t="s"/>
+      <x:c r="L46" s="1" t="s"/>
+      <x:c r="M46" s="1" t="s"/>
+      <x:c r="N46" s="1" t="s"/>
+      <x:c r="O46" s="1" t="s"/>
+      <x:c r="P46" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A47" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B47" s="1" t="s"/>
+      <x:c r="C47" s="1" t="s"/>
+      <x:c r="D47" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E47" s="4" t="s"/>
+      <x:c r="F47" s="4" t="s"/>
+      <x:c r="G47" s="4" t="s"/>
+      <x:c r="H47" s="4" t="s"/>
+      <x:c r="I47" s="4" t="s"/>
+      <x:c r="J47" s="5" t="s"/>
+      <x:c r="K47" s="1" t="s"/>
+      <x:c r="L47" s="1" t="s"/>
+      <x:c r="M47" s="1" t="s"/>
+      <x:c r="N47" s="1" t="s"/>
+      <x:c r="O47" s="4" t="s"/>
+      <x:c r="P47" s="5" t="s"/>
+      <x:c r="Q47" s="5" t="s"/>
+      <x:c r="R47" s="5" t="s"/>
+      <x:c r="S47" s="5" t="s"/>
+      <x:c r="T47" s="5" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A48" s="1" t="s"/>
+      <x:c r="B48" s="1" t="s"/>
+      <x:c r="C48" s="1" t="s"/>
+      <x:c r="D48" s="4" t="s"/>
+      <x:c r="E48" s="4" t="s"/>
+      <x:c r="F48" s="4" t="s"/>
+      <x:c r="G48" s="4" t="s"/>
+      <x:c r="H48" s="4" t="s"/>
+      <x:c r="I48" s="4" t="s"/>
+      <x:c r="J48" s="5" t="s"/>
+      <x:c r="K48" s="1" t="s"/>
+      <x:c r="L48" s="1" t="s"/>
+      <x:c r="M48" s="1" t="s"/>
+      <x:c r="N48" s="1" t="s"/>
+      <x:c r="O48" s="4" t="s"/>
+      <x:c r="P48" s="5" t="s"/>
+      <x:c r="Q48" s="5" t="s"/>
+      <x:c r="R48" s="5" t="s"/>
+      <x:c r="S48" s="5" t="s"/>
+      <x:c r="T48" s="5" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A49" s="1" t="s"/>
+      <x:c r="B49" s="1" t="s"/>
+      <x:c r="C49" s="1" t="s"/>
+      <x:c r="D49" s="4" t="s"/>
+      <x:c r="E49" s="4" t="s"/>
+      <x:c r="F49" s="4" t="s"/>
+      <x:c r="G49" s="4" t="s"/>
+      <x:c r="H49" s="4" t="s"/>
+      <x:c r="I49" s="4" t="s"/>
+      <x:c r="J49" s="5" t="s"/>
+      <x:c r="K49" s="1" t="s"/>
+      <x:c r="L49" s="1" t="s"/>
+      <x:c r="M49" s="1" t="s"/>
+      <x:c r="N49" s="1" t="s"/>
+      <x:c r="O49" s="4" t="s"/>
+      <x:c r="P49" s="5" t="s"/>
+      <x:c r="Q49" s="5" t="s"/>
+      <x:c r="R49" s="5" t="s"/>
+      <x:c r="S49" s="5" t="s"/>
+      <x:c r="T49" s="5" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A50" s="1" t="s"/>
+      <x:c r="B50" s="1" t="s"/>
+      <x:c r="C50" s="1" t="s"/>
+      <x:c r="D50" s="4" t="s"/>
+      <x:c r="E50" s="4" t="s"/>
+      <x:c r="F50" s="4" t="s"/>
+      <x:c r="G50" s="4" t="s"/>
+      <x:c r="H50" s="4" t="s"/>
+      <x:c r="I50" s="4" t="s"/>
+      <x:c r="J50" s="5" t="s"/>
+      <x:c r="K50" s="1" t="s"/>
+      <x:c r="L50" s="1" t="s"/>
+      <x:c r="M50" s="1" t="s"/>
+      <x:c r="N50" s="1" t="s"/>
+      <x:c r="O50" s="4" t="s"/>
+      <x:c r="P50" s="5" t="s"/>
+      <x:c r="Q50" s="5" t="s"/>
+      <x:c r="R50" s="5" t="s"/>
+      <x:c r="S50" s="5" t="s"/>
+      <x:c r="T50" s="5" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A51" s="6" t="s"/>
+      <x:c r="D51" s="7" t="s"/>
+      <x:c r="K51" s="6" t="s"/>
+      <x:c r="O51" s="7" t="s"/>
+      <x:c r="T51" s="8" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="Q43" s="6" t="s"/>
-      <x:c r="R43" s="6" t="s"/>
-      <x:c r="S43" s="6" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A44" s="7" t="n">
+    </x:row>
+    <x:row r="52" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T52" s="8" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="54" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D54" s="9" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E54" s="9" t="s"/>
+      <x:c r="F54" s="9" t="s"/>
+      <x:c r="G54" s="9" t="s"/>
+      <x:c r="H54" s="9" t="s"/>
+      <x:c r="I54" s="9" t="s"/>
+      <x:c r="J54" s="9" t="s"/>
+      <x:c r="K54" s="9" t="s"/>
+      <x:c r="L54" s="9" t="s"/>
+      <x:c r="M54" s="9" t="s"/>
+      <x:c r="N54" s="9" t="s"/>
+      <x:c r="O54" s="9" t="s"/>
+      <x:c r="P54" s="9" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q54" s="9" t="s"/>
+      <x:c r="R54" s="9" t="s"/>
+      <x:c r="S54" s="9" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A55" s="6" t="n">
         <x:v>2020</x:v>
       </x:c>
-      <x:c r="B44" s="7" t="n">
+      <x:c r="B55" s="10" t="n">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C44" s="7" t="n">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D44" s="7" t="s"/>
-      <x:c r="E44" s="7" t="s"/>
-      <x:c r="F44" s="7" t="s"/>
-      <x:c r="G44" s="7" t="s"/>
-      <x:c r="H44" s="7" t="s"/>
-      <x:c r="I44" s="7" t="s"/>
-      <x:c r="J44" s="7" t="s"/>
-      <x:c r="K44" s="7" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="L44" s="7" t="n">
+      <x:c r="C55" s="10" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D55" s="6" t="s"/>
+      <x:c r="E55" s="6" t="s"/>
+      <x:c r="F55" s="6" t="s"/>
+      <x:c r="G55" s="6" t="s"/>
+      <x:c r="H55" s="6" t="s"/>
+      <x:c r="I55" s="6" t="s"/>
+      <x:c r="J55" s="6" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K55" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L55" s="6" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="M44" s="7" t="n">
+      <x:c r="M55" s="6" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="56" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="57" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A57" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B57" s="1" t="s"/>
+      <x:c r="C57" s="1" t="s"/>
+      <x:c r="D57" s="1" t="s"/>
+      <x:c r="E57" s="1" t="s"/>
+      <x:c r="F57" s="1" t="s"/>
+      <x:c r="G57" s="1" t="s"/>
+      <x:c r="H57" s="1" t="s"/>
+      <x:c r="I57" s="1" t="s"/>
+      <x:c r="J57" s="1" t="s"/>
+      <x:c r="K57" s="1" t="s"/>
+      <x:c r="L57" s="1" t="s"/>
+      <x:c r="M57" s="1" t="s"/>
+      <x:c r="N57" s="1" t="s"/>
+      <x:c r="O57" s="1" t="s"/>
+      <x:c r="P57" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q57" s="2" t="s"/>
+      <x:c r="R57" s="2" t="s"/>
+      <x:c r="S57" s="2" t="s"/>
+      <x:c r="T57" s="2" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A58" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B58" s="1" t="s"/>
+      <x:c r="C58" s="1" t="s"/>
+      <x:c r="D58" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E58" s="4" t="s"/>
+      <x:c r="F58" s="4" t="s"/>
+      <x:c r="G58" s="4" t="s"/>
+      <x:c r="H58" s="4" t="s"/>
+      <x:c r="I58" s="4" t="s"/>
+      <x:c r="J58" s="5" t="s"/>
+      <x:c r="K58" s="1" t="s"/>
+      <x:c r="L58" s="1" t="s"/>
+      <x:c r="M58" s="1" t="s"/>
+      <x:c r="N58" s="1" t="s"/>
+      <x:c r="O58" s="4" t="s"/>
+      <x:c r="P58" s="5" t="s"/>
+      <x:c r="Q58" s="5" t="s"/>
+      <x:c r="R58" s="5" t="s"/>
+      <x:c r="S58" s="5" t="s"/>
+      <x:c r="T58" s="5" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A59" s="1" t="s"/>
+      <x:c r="B59" s="1" t="s"/>
+      <x:c r="C59" s="1" t="s"/>
+      <x:c r="D59" s="4" t="s"/>
+      <x:c r="E59" s="4" t="s"/>
+      <x:c r="F59" s="4" t="s"/>
+      <x:c r="G59" s="4" t="s"/>
+      <x:c r="H59" s="4" t="s"/>
+      <x:c r="I59" s="4" t="s"/>
+      <x:c r="J59" s="5" t="s"/>
+      <x:c r="K59" s="1" t="s"/>
+      <x:c r="L59" s="1" t="s"/>
+      <x:c r="M59" s="1" t="s"/>
+      <x:c r="N59" s="1" t="s"/>
+      <x:c r="O59" s="4" t="s"/>
+      <x:c r="P59" s="5" t="s"/>
+      <x:c r="Q59" s="5" t="s"/>
+      <x:c r="R59" s="5" t="s"/>
+      <x:c r="S59" s="5" t="s"/>
+      <x:c r="T59" s="5" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A60" s="1" t="s"/>
+      <x:c r="B60" s="1" t="s"/>
+      <x:c r="C60" s="1" t="s"/>
+      <x:c r="D60" s="4" t="s"/>
+      <x:c r="E60" s="4" t="s"/>
+      <x:c r="F60" s="4" t="s"/>
+      <x:c r="G60" s="4" t="s"/>
+      <x:c r="H60" s="4" t="s"/>
+      <x:c r="I60" s="4" t="s"/>
+      <x:c r="J60" s="5" t="s"/>
+      <x:c r="K60" s="1" t="s"/>
+      <x:c r="L60" s="1" t="s"/>
+      <x:c r="M60" s="1" t="s"/>
+      <x:c r="N60" s="1" t="s"/>
+      <x:c r="O60" s="4" t="s"/>
+      <x:c r="P60" s="5" t="s"/>
+      <x:c r="Q60" s="5" t="s"/>
+      <x:c r="R60" s="5" t="s"/>
+      <x:c r="S60" s="5" t="s"/>
+      <x:c r="T60" s="5" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A61" s="1" t="s"/>
+      <x:c r="B61" s="1" t="s"/>
+      <x:c r="C61" s="1" t="s"/>
+      <x:c r="D61" s="4" t="s"/>
+      <x:c r="E61" s="4" t="s"/>
+      <x:c r="F61" s="4" t="s"/>
+      <x:c r="G61" s="4" t="s"/>
+      <x:c r="H61" s="4" t="s"/>
+      <x:c r="I61" s="4" t="s"/>
+      <x:c r="J61" s="5" t="s"/>
+      <x:c r="K61" s="1" t="s"/>
+      <x:c r="L61" s="1" t="s"/>
+      <x:c r="M61" s="1" t="s"/>
+      <x:c r="N61" s="1" t="s"/>
+      <x:c r="O61" s="4" t="s"/>
+      <x:c r="P61" s="5" t="s"/>
+      <x:c r="Q61" s="5" t="s"/>
+      <x:c r="R61" s="5" t="s"/>
+      <x:c r="S61" s="5" t="s"/>
+      <x:c r="T61" s="5" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A62" s="6" t="s"/>
+      <x:c r="D62" s="7" t="s"/>
+      <x:c r="K62" s="6" t="s"/>
+      <x:c r="O62" s="7" t="s"/>
+      <x:c r="T62" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T63" s="8" t="s"/>
+    </x:row>
+    <x:row r="64" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="65" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D65" s="9" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E65" s="9" t="s"/>
+      <x:c r="F65" s="9" t="s"/>
+      <x:c r="G65" s="9" t="s"/>
+      <x:c r="H65" s="9" t="s"/>
+      <x:c r="I65" s="9" t="s"/>
+      <x:c r="J65" s="9" t="s"/>
+      <x:c r="K65" s="9" t="s"/>
+      <x:c r="L65" s="9" t="s"/>
+      <x:c r="M65" s="9" t="s"/>
+      <x:c r="N65" s="9" t="s"/>
+      <x:c r="O65" s="9" t="s"/>
+      <x:c r="P65" s="9" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q65" s="9" t="s"/>
+      <x:c r="R65" s="9" t="s"/>
+      <x:c r="S65" s="9" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A66" s="6" t="n">
+        <x:v>2020</x:v>
+      </x:c>
+      <x:c r="B66" s="10" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C66" s="10" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D66" s="6" t="s"/>
+      <x:c r="E66" s="6" t="s"/>
+      <x:c r="F66" s="6" t="s"/>
+      <x:c r="G66" s="6" t="s"/>
+      <x:c r="H66" s="6" t="s"/>
+      <x:c r="I66" s="6" t="s"/>
+      <x:c r="J66" s="6" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K66" s="6" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L66" s="6" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M66" s="6" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="68">
+  <x:mergeCells count="138">
     <x:mergeCell ref="A2:O2"/>
+    <x:mergeCell ref="P2:T2"/>
     <x:mergeCell ref="A3:C3"/>
     <x:mergeCell ref="D3:I3"/>
     <x:mergeCell ref="K3:N3"/>
@@ -1127,11 +1639,17 @@
     <x:mergeCell ref="D5:I5"/>
     <x:mergeCell ref="K5:N5"/>
     <x:mergeCell ref="P5:T5"/>
+    <x:mergeCell ref="A6:C6"/>
+    <x:mergeCell ref="D6:I6"/>
+    <x:mergeCell ref="K6:N6"/>
+    <x:mergeCell ref="P6:T6"/>
     <x:mergeCell ref="R7:R8"/>
     <x:mergeCell ref="T7:T8"/>
+    <x:mergeCell ref="D10:M10"/>
     <x:mergeCell ref="N10:O10"/>
     <x:mergeCell ref="P10:S10"/>
     <x:mergeCell ref="A13:O13"/>
+    <x:mergeCell ref="P13:T13"/>
     <x:mergeCell ref="A14:C14"/>
     <x:mergeCell ref="D14:I14"/>
     <x:mergeCell ref="K14:N14"/>
@@ -1144,11 +1662,17 @@
     <x:mergeCell ref="D16:I16"/>
     <x:mergeCell ref="K16:N16"/>
     <x:mergeCell ref="P16:T16"/>
+    <x:mergeCell ref="A17:C17"/>
+    <x:mergeCell ref="D17:I17"/>
+    <x:mergeCell ref="K17:N17"/>
+    <x:mergeCell ref="P17:T17"/>
     <x:mergeCell ref="R18:R19"/>
     <x:mergeCell ref="T18:T19"/>
+    <x:mergeCell ref="D21:M21"/>
     <x:mergeCell ref="N21:O21"/>
     <x:mergeCell ref="P21:S21"/>
     <x:mergeCell ref="A24:O24"/>
+    <x:mergeCell ref="P24:T24"/>
     <x:mergeCell ref="A25:C25"/>
     <x:mergeCell ref="D25:I25"/>
     <x:mergeCell ref="K25:N25"/>
@@ -1161,11 +1685,17 @@
     <x:mergeCell ref="D27:I27"/>
     <x:mergeCell ref="K27:N27"/>
     <x:mergeCell ref="P27:T27"/>
+    <x:mergeCell ref="A28:C28"/>
+    <x:mergeCell ref="D28:I28"/>
+    <x:mergeCell ref="K28:N28"/>
+    <x:mergeCell ref="P28:T28"/>
     <x:mergeCell ref="R29:R30"/>
     <x:mergeCell ref="T29:T30"/>
+    <x:mergeCell ref="D32:M32"/>
     <x:mergeCell ref="N32:O32"/>
     <x:mergeCell ref="P32:S32"/>
     <x:mergeCell ref="A35:O35"/>
+    <x:mergeCell ref="P35:T35"/>
     <x:mergeCell ref="A36:C36"/>
     <x:mergeCell ref="D36:I36"/>
     <x:mergeCell ref="K36:N36"/>
@@ -1178,10 +1708,61 @@
     <x:mergeCell ref="D38:I38"/>
     <x:mergeCell ref="K38:N38"/>
     <x:mergeCell ref="P38:T38"/>
+    <x:mergeCell ref="A39:C39"/>
+    <x:mergeCell ref="D39:I39"/>
+    <x:mergeCell ref="K39:N39"/>
+    <x:mergeCell ref="P39:T39"/>
     <x:mergeCell ref="R40:R41"/>
     <x:mergeCell ref="T40:T41"/>
+    <x:mergeCell ref="D43:M43"/>
     <x:mergeCell ref="N43:O43"/>
     <x:mergeCell ref="P43:S43"/>
+    <x:mergeCell ref="A46:O46"/>
+    <x:mergeCell ref="P46:T46"/>
+    <x:mergeCell ref="A47:C47"/>
+    <x:mergeCell ref="D47:I47"/>
+    <x:mergeCell ref="K47:N47"/>
+    <x:mergeCell ref="P47:T47"/>
+    <x:mergeCell ref="A48:C48"/>
+    <x:mergeCell ref="D48:I48"/>
+    <x:mergeCell ref="K48:N48"/>
+    <x:mergeCell ref="P48:T48"/>
+    <x:mergeCell ref="A49:C49"/>
+    <x:mergeCell ref="D49:I49"/>
+    <x:mergeCell ref="K49:N49"/>
+    <x:mergeCell ref="P49:T49"/>
+    <x:mergeCell ref="A50:C50"/>
+    <x:mergeCell ref="D50:I50"/>
+    <x:mergeCell ref="K50:N50"/>
+    <x:mergeCell ref="P50:T50"/>
+    <x:mergeCell ref="R51:R52"/>
+    <x:mergeCell ref="T51:T52"/>
+    <x:mergeCell ref="D54:M54"/>
+    <x:mergeCell ref="N54:O54"/>
+    <x:mergeCell ref="P54:S54"/>
+    <x:mergeCell ref="A57:O57"/>
+    <x:mergeCell ref="P57:T57"/>
+    <x:mergeCell ref="A58:C58"/>
+    <x:mergeCell ref="D58:I58"/>
+    <x:mergeCell ref="K58:N58"/>
+    <x:mergeCell ref="P58:T58"/>
+    <x:mergeCell ref="A59:C59"/>
+    <x:mergeCell ref="D59:I59"/>
+    <x:mergeCell ref="K59:N59"/>
+    <x:mergeCell ref="P59:T59"/>
+    <x:mergeCell ref="A60:C60"/>
+    <x:mergeCell ref="D60:I60"/>
+    <x:mergeCell ref="K60:N60"/>
+    <x:mergeCell ref="P60:T60"/>
+    <x:mergeCell ref="A61:C61"/>
+    <x:mergeCell ref="D61:I61"/>
+    <x:mergeCell ref="K61:N61"/>
+    <x:mergeCell ref="P61:T61"/>
+    <x:mergeCell ref="R62:R63"/>
+    <x:mergeCell ref="T62:T63"/>
+    <x:mergeCell ref="D65:M65"/>
+    <x:mergeCell ref="N65:O65"/>
+    <x:mergeCell ref="P65:S65"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7874" right="0.19685" top="0" bottom="0" header="0.5" footer="0.75"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <x:si>
-    <x:t>2021年01月21日</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <x:si>
+    <x:t>2021年01月24日</x:t>
   </x:si>
   <x:si>
     <x:t>本部長</x:t>
@@ -40,72 +40,39 @@
     <x:t>1万円</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,000 円</x:t>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 円</x:t>
   </x:si>
   <x:si>
     <x:t>5千円</x:t>
   </x:si>
   <x:si>
-    <x:t>5,000 円</x:t>
-  </x:si>
-  <x:si>
     <x:t>1千円</x:t>
   </x:si>
   <x:si>
-    <x:t>1,000 円</x:t>
-  </x:si>
-  <x:si>
     <x:t>50枚束</x:t>
   </x:si>
   <x:si>
     <x:t>500円</x:t>
   </x:si>
   <x:si>
-    <x:t>500 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25,000 円</x:t>
-  </x:si>
-  <x:si>
     <x:t>100円</x:t>
   </x:si>
   <x:si>
-    <x:t>100 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 円</x:t>
-  </x:si>
-  <x:si>
     <x:t>50円</x:t>
   </x:si>
   <x:si>
-    <x:t>50 円</x:t>
-  </x:si>
-  <x:si>
     <x:t>10円</x:t>
   </x:si>
   <x:si>
-    <x:t>10 円</x:t>
-  </x:si>
-  <x:si>
     <x:t>5円</x:t>
   </x:si>
   <x:si>
-    <x:t>5 円</x:t>
-  </x:si>
-  <x:si>
     <x:t>1円</x:t>
   </x:si>
   <x:si>
-    <x:t>1 円</x:t>
-  </x:si>
-  <x:si>
     <x:t>釣り銭等</x:t>
   </x:si>
   <x:si>
@@ -124,7 +91,7 @@
     <x:t>石材工事部</x:t>
   </x:si>
   <x:si>
-    <x:t>合計　41,666 円</x:t>
+    <x:t>合計　0 円</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -167,7 +134,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="4">
+  <x:borders count="3">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -219,25 +186,8 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="double">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="7">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -253,14 +203,11 @@
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="16">
+  <x:cellXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -289,24 +236,20 @@
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -698,7 +641,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C5" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s"/>
       <x:c r="E5" s="3" t="s"/>
@@ -707,16 +650,16 @@
     </x:row>
     <x:row r="6" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A6" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C6" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D6" s="7" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="B6" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C6" s="6" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D6" s="4" t="s">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="E6" s="4" t="s">
         <x:v>5</x:v>
@@ -728,190 +671,190 @@
     </x:row>
     <x:row r="7" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A7" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B7" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="6" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D7" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D7" s="8" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E7" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F7" s="6" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G7" s="4" t="s"/>
-      <x:c r="H7" s="7" t="s"/>
-      <x:c r="I7" s="7" t="s"/>
-      <x:c r="J7" s="7" t="s"/>
-      <x:c r="K7" s="7" t="s"/>
-      <x:c r="L7" s="7" t="s"/>
+      <x:c r="H7" s="9" t="s"/>
+      <x:c r="I7" s="9" t="s"/>
+      <x:c r="J7" s="9" t="s"/>
+      <x:c r="K7" s="9" t="s"/>
+      <x:c r="L7" s="9" t="s"/>
     </x:row>
     <x:row r="8" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A8" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D8" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D8" s="8" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E8" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F8" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G8" s="4" t="s"/>
-      <x:c r="H8" s="7" t="s"/>
-      <x:c r="I8" s="7" t="s"/>
-      <x:c r="J8" s="7" t="s"/>
-      <x:c r="K8" s="7" t="s"/>
-      <x:c r="L8" s="7" t="s"/>
+      <x:c r="H8" s="9" t="s"/>
+      <x:c r="I8" s="9" t="s"/>
+      <x:c r="J8" s="9" t="s"/>
+      <x:c r="K8" s="9" t="s"/>
+      <x:c r="L8" s="9" t="s"/>
     </x:row>
     <x:row r="9" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A9" s="6" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="6" t="s">
-        <x:v>23</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E9" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F9" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G9" s="4" t="s"/>
-      <x:c r="H9" s="7" t="s"/>
-      <x:c r="I9" s="7" t="s"/>
-      <x:c r="J9" s="7" t="s"/>
-      <x:c r="K9" s="7" t="s"/>
-      <x:c r="L9" s="7" t="s"/>
+      <x:c r="H9" s="9" t="s"/>
+      <x:c r="I9" s="9" t="s"/>
+      <x:c r="J9" s="9" t="s"/>
+      <x:c r="K9" s="9" t="s"/>
+      <x:c r="L9" s="9" t="s"/>
     </x:row>
     <x:row r="10" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A10" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E10" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F10" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G10" s="4" t="s"/>
-      <x:c r="H10" s="7" t="s"/>
-      <x:c r="I10" s="7" t="s"/>
-      <x:c r="J10" s="7" t="s"/>
-      <x:c r="K10" s="7" t="s"/>
-      <x:c r="L10" s="7" t="s"/>
+      <x:c r="H10" s="9" t="s"/>
+      <x:c r="I10" s="9" t="s"/>
+      <x:c r="J10" s="9" t="s"/>
+      <x:c r="K10" s="9" t="s"/>
+      <x:c r="L10" s="9" t="s"/>
     </x:row>
     <x:row r="11" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A11" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E11" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F11" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G11" s="4" t="s"/>
-      <x:c r="H11" s="7" t="s"/>
-      <x:c r="I11" s="7" t="s"/>
-      <x:c r="J11" s="7" t="s"/>
-      <x:c r="K11" s="7" t="s"/>
-      <x:c r="L11" s="7" t="s"/>
+      <x:c r="H11" s="9" t="s"/>
+      <x:c r="I11" s="9" t="s"/>
+      <x:c r="J11" s="9" t="s"/>
+      <x:c r="K11" s="9" t="s"/>
+      <x:c r="L11" s="9" t="s"/>
     </x:row>
     <x:row r="12" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A12" s="6" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B12" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D12" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E12" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F12" s="6" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G12" s="4" t="s"/>
-      <x:c r="H12" s="7" t="s"/>
-      <x:c r="I12" s="7" t="s"/>
-      <x:c r="J12" s="7" t="s"/>
-      <x:c r="K12" s="7" t="s"/>
-      <x:c r="L12" s="7" t="s"/>
+      <x:c r="H12" s="9" t="s"/>
+      <x:c r="I12" s="9" t="s"/>
+      <x:c r="J12" s="9" t="s"/>
+      <x:c r="K12" s="9" t="s"/>
+      <x:c r="L12" s="9" t="s"/>
     </x:row>
     <x:row r="13" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A13" s="3" t="s"/>
       <x:c r="B13" s="3" t="s"/>
       <x:c r="C13" s="3" t="s"/>
-      <x:c r="D13" s="9" t="s"/>
+      <x:c r="D13" s="3" t="s"/>
       <x:c r="E13" s="3" t="s"/>
       <x:c r="F13" s="3" t="s"/>
       <x:c r="G13" s="3" t="s"/>
     </x:row>
     <x:row r="14" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A14" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s"/>
       <x:c r="C14" s="3" t="s"/>
-      <x:c r="D14" s="9" t="s"/>
+      <x:c r="D14" s="3" t="s"/>
       <x:c r="E14" s="3" t="s"/>
       <x:c r="F14" s="3" t="s"/>
       <x:c r="G14" s="3" t="s"/>
     </x:row>
     <x:row r="15" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A15" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B15" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s"/>
-      <x:c r="D15" s="11" t="s">
-        <x:v>31</x:v>
+      <x:c r="D15" s="4" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E15" s="4" t="s">
         <x:v>6</x:v>
@@ -920,48 +863,48 @@
       <x:c r="G15" s="4" t="s"/>
     </x:row>
     <x:row r="16" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A16" s="12" t="s">
-        <x:v>32</x:v>
+      <x:c r="A16" s="11" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B16" s="6" t="s"/>
-      <x:c r="C16" s="13" t="s"/>
-      <x:c r="D16" s="12" t="s"/>
+      <x:c r="C16" s="12" t="s"/>
+      <x:c r="D16" s="11" t="s"/>
       <x:c r="E16" s="6" t="s"/>
-      <x:c r="F16" s="13" t="s"/>
-      <x:c r="G16" s="13" t="s"/>
+      <x:c r="F16" s="12" t="s"/>
+      <x:c r="G16" s="12" t="s"/>
     </x:row>
     <x:row r="17" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A17" s="12" t="s">
-        <x:v>33</x:v>
+      <x:c r="A17" s="11" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B17" s="6" t="s"/>
-      <x:c r="C17" s="13" t="s"/>
-      <x:c r="D17" s="12" t="s"/>
+      <x:c r="C17" s="12" t="s"/>
+      <x:c r="D17" s="11" t="s"/>
       <x:c r="E17" s="6" t="s"/>
-      <x:c r="F17" s="13" t="s"/>
-      <x:c r="G17" s="13" t="s"/>
+      <x:c r="F17" s="12" t="s"/>
+      <x:c r="G17" s="12" t="s"/>
     </x:row>
     <x:row r="18" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A18" s="12" t="s">
-        <x:v>34</x:v>
+      <x:c r="A18" s="11" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B18" s="6" t="s"/>
-      <x:c r="C18" s="13" t="s"/>
-      <x:c r="D18" s="12" t="s"/>
+      <x:c r="C18" s="12" t="s"/>
+      <x:c r="D18" s="11" t="s"/>
       <x:c r="E18" s="6" t="s"/>
-      <x:c r="F18" s="13" t="s"/>
-      <x:c r="G18" s="13" t="s"/>
+      <x:c r="F18" s="12" t="s"/>
+      <x:c r="G18" s="12" t="s"/>
     </x:row>
     <x:row r="19" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A19" s="12" t="s">
-        <x:v>35</x:v>
+      <x:c r="A19" s="11" t="s">
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B19" s="6" t="s"/>
-      <x:c r="C19" s="13" t="s"/>
-      <x:c r="D19" s="12" t="s"/>
+      <x:c r="C19" s="12" t="s"/>
+      <x:c r="D19" s="11" t="s"/>
       <x:c r="E19" s="6" t="s"/>
-      <x:c r="F19" s="13" t="s"/>
-      <x:c r="G19" s="13" t="s"/>
+      <x:c r="F19" s="12" t="s"/>
+      <x:c r="G19" s="12" t="s"/>
     </x:row>
     <x:row r="20" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A20" s="3" t="s"/>
@@ -973,15 +916,15 @@
       <x:c r="G20" s="3" t="s"/>
     </x:row>
     <x:row r="21" spans="1:12" customFormat="1" ht="32.25" customHeight="1">
-      <x:c r="A21" s="14" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B21" s="15" t="s"/>
-      <x:c r="C21" s="15" t="s"/>
-      <x:c r="D21" s="15" t="s"/>
-      <x:c r="E21" s="15" t="s"/>
-      <x:c r="F21" s="15" t="s"/>
-      <x:c r="G21" s="15" t="s"/>
+      <x:c r="A21" s="13" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B21" s="14" t="s"/>
+      <x:c r="C21" s="14" t="s"/>
+      <x:c r="D21" s="14" t="s"/>
+      <x:c r="E21" s="14" t="s"/>
+      <x:c r="F21" s="14" t="s"/>
+      <x:c r="G21" s="14" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="19">

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,66 +14,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <x:si>
-    <x:t>2021年01月31日（日）</x:t>
-  </x:si>
-  <x:si>
-    <x:t>証憑綴り</x:t>
-  </x:si>
-  <x:si>
-    <x:t>本部長</x:t>
-  </x:si>
-  <x:si>
-    <x:t>副住職</x:t>
-  </x:si>
-  <x:si>
-    <x:t>係</x:t>
-  </x:si>
-  <x:si>
-    <x:t>収支</x:t>
-  </x:si>
-  <x:si>
-    <x:t>前日より繰越</x:t>
-  </x:si>
-  <x:si>
-    <x:t>入金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>出金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>社内振替</x:t>
-  </x:si>
-  <x:si>
-    <x:t>残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,815,597 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,018,300 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145,534 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,130,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>558,363 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>横浜銀行残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>セレサ川崎残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ワイズコア仮受金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>信行寺　春秋苑</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <x:si>
+    <x:t>2/20 彫刻代</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理事務所</x:t>
+  </x:si>
+  <x:si>
+    <x:t>藤井家　中5-3-22　\44000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>林飛</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254 : 石材工事部勘定</x:t>
+  </x:si>
+  <x:si>
+    <x:t>その他</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/20 石工事代金手付</x:t>
+  </x:si>
+  <x:si>
+    <x:t>増澤関子　西4-5-23　\1000000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/20 管理料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>竹澤いさを　2021,2022年度分　\24640-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>佐山ゆかり　2021,2022年度分　\24640-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>竹内康子　2021,2022年度分　\55440-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>佐々木由紀子　2021,2022年度分　\24640-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小関啓子　2021,2022年度分　\13200-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>児嶋一雄　2021,2022年度分　\36960-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>佐々木茂高　2021,2022年度分　\13200-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>水元克好　2021,2022年度分　\30800-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>421 : 前受金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>春秋苑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>有川寿一　2021,2022年度分　\55440-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>柳沢壽子　2021,2022年度分　\27720-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>町田周子　2021,2022年度分　\30800-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>藤井剛　2021,2022年度分　\36960-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>世良隆一　2021,2022年度分　\13200-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>大場勇人　2021,2022年度分　\24640-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>松橋昇　2021,2022年度分　\13200-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>猪爪範子　2021,2022年度分　\73920-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>青天目潤　2021,2022年度分　\13200-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>木藤貞麿　2021,2022年度分　\24640-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>伊尾喜春菜　2021,2022年度分　\13200-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>石川淳也　2021,2022年度分　\30800-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>大森幹之　2021,2022年度分　\55440-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/20 納骨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>藤井家　\40000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>811 : 納骨冥加</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/20 焼香台</x:t>
+  </x:si>
+  <x:si>
+    <x:t>佐々木家　\13000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小山家　\13000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>812 : 焼香台冥加</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/20 名義変更</x:t>
+  </x:si>
+  <x:si>
+    <x:t>藤井均　\50400-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>814 : 各種変更冥加</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/20 御布施</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小川家　\400000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>815 : 冥加読経料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法務部</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -83,7 +161,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="6">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -95,36 +173,7 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="28"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="16"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ Ｐゴシック"/>
+      <x:name val="ＭＳ 明朝"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -136,7 +185,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="3">
+  <x:borders count="1">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -154,68 +203,16 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -224,44 +221,36 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -559,130 +548,1851 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E16"/>
+  <x:dimension ref="A1:T99"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="5" width="16.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="21" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="5.420625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="5.850625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
+    <x:col min="5" max="6" width="2.000625" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="2.140625" style="1" customWidth="1"/>
+    <x:col min="8" max="9" width="2.000625" style="1" customWidth="1"/>
+    <x:col min="10" max="10" width="2.140625" style="1" customWidth="1"/>
+    <x:col min="11" max="12" width="2.000625" style="1" customWidth="1"/>
+    <x:col min="13" max="13" width="2.140625" style="1" customWidth="1"/>
+    <x:col min="14" max="14" width="11.000625" style="1" customWidth="1"/>
+    <x:col min="15" max="15" width="10.850625" style="1" customWidth="1"/>
+    <x:col min="16" max="16" width="6.000625" style="1" customWidth="1"/>
+    <x:col min="17" max="17" width="1.630625" style="1" customWidth="1"/>
+    <x:col min="18" max="18" width="6.140625" style="1" customWidth="1"/>
+    <x:col min="19" max="19" width="1.630625" style="1" customWidth="1"/>
+    <x:col min="20" max="20" width="5.850625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" customFormat="1" ht="51" customHeight="1"/>
-    <x:row r="2" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="D2" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E2" s="3" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:5" customFormat="1" ht="64.5" customHeight="1">
+    <x:row r="1" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="2" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A2" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s"/>
+      <x:c r="C2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s"/>
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="s"/>
+      <x:c r="H2" s="2" t="s"/>
+      <x:c r="I2" s="2" t="s"/>
+      <x:c r="J2" s="2" t="s"/>
+      <x:c r="K2" s="2" t="s"/>
+      <x:c r="L2" s="2" t="s"/>
+      <x:c r="M2" s="2" t="s"/>
+      <x:c r="N2" s="2" t="s"/>
+      <x:c r="O2" s="2" t="s"/>
+      <x:c r="P2" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q2" s="3" t="s"/>
+      <x:c r="R2" s="3" t="s"/>
+      <x:c r="S2" s="3" t="s"/>
+      <x:c r="T2" s="3" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A3" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s"/>
+      <x:c r="C3" s="4" t="s"/>
+      <x:c r="D3" s="4" t="s"/>
+      <x:c r="E3" s="4" t="s"/>
+      <x:c r="F3" s="4" t="s"/>
+      <x:c r="G3" s="4" t="s"/>
+      <x:c r="H3" s="4" t="s"/>
+      <x:c r="I3" s="4" t="s"/>
+      <x:c r="J3" s="5" t="s"/>
+      <x:c r="K3" s="4" t="s"/>
+      <x:c r="L3" s="4" t="s"/>
+      <x:c r="M3" s="4" t="s"/>
+      <x:c r="N3" s="4" t="s"/>
+      <x:c r="O3" s="4" t="s"/>
+      <x:c r="P3" s="5" t="s"/>
+      <x:c r="Q3" s="5" t="s"/>
+      <x:c r="R3" s="5" t="s"/>
+      <x:c r="S3" s="5" t="s"/>
+      <x:c r="T3" s="5" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A4" s="4" t="s"/>
+      <x:c r="B4" s="4" t="s"/>
+      <x:c r="C4" s="4" t="s"/>
+      <x:c r="D4" s="4" t="s"/>
+      <x:c r="E4" s="4" t="s"/>
+      <x:c r="F4" s="4" t="s"/>
+      <x:c r="G4" s="4" t="s"/>
+      <x:c r="H4" s="4" t="s"/>
+      <x:c r="I4" s="4" t="s"/>
+      <x:c r="J4" s="5" t="s"/>
+      <x:c r="K4" s="4" t="s"/>
+      <x:c r="L4" s="4" t="s"/>
+      <x:c r="M4" s="4" t="s"/>
+      <x:c r="N4" s="4" t="s"/>
+      <x:c r="O4" s="4" t="s"/>
+      <x:c r="P4" s="5" t="s"/>
+      <x:c r="Q4" s="5" t="s"/>
+      <x:c r="R4" s="5" t="s"/>
+      <x:c r="S4" s="5" t="s"/>
+      <x:c r="T4" s="5" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A5" s="4" t="s"/>
+      <x:c r="B5" s="4" t="s"/>
+      <x:c r="C5" s="4" t="s"/>
+      <x:c r="D5" s="4" t="s"/>
+      <x:c r="E5" s="4" t="s"/>
+      <x:c r="F5" s="4" t="s"/>
+      <x:c r="G5" s="4" t="s"/>
+      <x:c r="H5" s="4" t="s"/>
+      <x:c r="I5" s="4" t="s"/>
+      <x:c r="J5" s="5" t="s"/>
+      <x:c r="K5" s="4" t="s"/>
+      <x:c r="L5" s="4" t="s"/>
+      <x:c r="M5" s="4" t="s"/>
+      <x:c r="N5" s="4" t="s"/>
+      <x:c r="O5" s="4" t="s"/>
+      <x:c r="P5" s="5" t="s"/>
+      <x:c r="Q5" s="5" t="s"/>
+      <x:c r="R5" s="5" t="s"/>
+      <x:c r="S5" s="5" t="s"/>
+      <x:c r="T5" s="5" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A6" s="4" t="s"/>
+      <x:c r="B6" s="4" t="s"/>
+      <x:c r="C6" s="4" t="s"/>
+      <x:c r="D6" s="4" t="s"/>
+      <x:c r="E6" s="4" t="s"/>
+      <x:c r="F6" s="4" t="s"/>
+      <x:c r="G6" s="4" t="s"/>
+      <x:c r="H6" s="4" t="s"/>
+      <x:c r="I6" s="4" t="s"/>
+      <x:c r="J6" s="5" t="s"/>
+      <x:c r="K6" s="4" t="s"/>
+      <x:c r="L6" s="4" t="s"/>
+      <x:c r="M6" s="4" t="s"/>
+      <x:c r="N6" s="4" t="s"/>
+      <x:c r="O6" s="4" t="s"/>
+      <x:c r="P6" s="5" t="s"/>
+      <x:c r="Q6" s="5" t="s"/>
+      <x:c r="R6" s="5" t="s"/>
+      <x:c r="S6" s="5" t="s"/>
+      <x:c r="T6" s="5" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A7" s="4" t="s"/>
+      <x:c r="K7" s="4" t="s"/>
+      <x:c r="T7" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T8" s="6" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="10" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D10" s="7" t="s"/>
+      <x:c r="E10" s="7" t="s"/>
+      <x:c r="F10" s="7" t="s"/>
+      <x:c r="G10" s="7" t="s"/>
+      <x:c r="H10" s="7" t="s"/>
+      <x:c r="I10" s="7" t="s"/>
+      <x:c r="J10" s="7" t="s"/>
+      <x:c r="K10" s="7" t="s"/>
+      <x:c r="L10" s="7" t="s"/>
+      <x:c r="M10" s="7" t="s"/>
+      <x:c r="N10" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="O10" s="7" t="s"/>
+      <x:c r="P10" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q10" s="7" t="s"/>
+      <x:c r="R10" s="7" t="s"/>
+      <x:c r="S10" s="7" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A11" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B11" s="9" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C11" s="9" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D11" s="8" t="s"/>
+      <x:c r="E11" s="8" t="s"/>
+      <x:c r="F11" s="8" t="s"/>
+      <x:c r="G11" s="8" t="s"/>
+      <x:c r="H11" s="8" t="s"/>
+      <x:c r="I11" s="8" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J11" s="8" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K11" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L11" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M11" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="13" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A13" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s"/>
+      <x:c r="C13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s"/>
+      <x:c r="E13" s="2" t="s"/>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="5" t="s"/>
-      <x:c r="C3" s="5" t="s"/>
-      <x:c r="D3" s="5" t="s"/>
-      <x:c r="E3" s="5" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:5" customFormat="1" ht="57" customHeight="1"/>
-    <x:row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="C5" s="6" t="s">
+      <x:c r="Q13" s="3" t="s"/>
+      <x:c r="R13" s="3" t="s"/>
+      <x:c r="S13" s="3" t="s"/>
+      <x:c r="T13" s="3" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A14" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B14" s="4" t="s"/>
+      <x:c r="C14" s="4" t="s"/>
+      <x:c r="D14" s="4" t="s"/>
+      <x:c r="E14" s="4" t="s"/>
+      <x:c r="F14" s="4" t="s"/>
+      <x:c r="G14" s="4" t="s"/>
+      <x:c r="H14" s="4" t="s"/>
+      <x:c r="I14" s="4" t="s"/>
+      <x:c r="J14" s="5" t="s"/>
+      <x:c r="K14" s="4" t="s"/>
+      <x:c r="L14" s="4" t="s"/>
+      <x:c r="M14" s="4" t="s"/>
+      <x:c r="N14" s="4" t="s"/>
+      <x:c r="O14" s="4" t="s"/>
+      <x:c r="P14" s="5" t="s"/>
+      <x:c r="Q14" s="5" t="s"/>
+      <x:c r="R14" s="5" t="s"/>
+      <x:c r="S14" s="5" t="s"/>
+      <x:c r="T14" s="5" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A15" s="4" t="s"/>
+      <x:c r="B15" s="4" t="s"/>
+      <x:c r="C15" s="4" t="s"/>
+      <x:c r="D15" s="4" t="s"/>
+      <x:c r="E15" s="4" t="s"/>
+      <x:c r="F15" s="4" t="s"/>
+      <x:c r="G15" s="4" t="s"/>
+      <x:c r="H15" s="4" t="s"/>
+      <x:c r="I15" s="4" t="s"/>
+      <x:c r="J15" s="5" t="s"/>
+      <x:c r="K15" s="4" t="s"/>
+      <x:c r="L15" s="4" t="s"/>
+      <x:c r="M15" s="4" t="s"/>
+      <x:c r="N15" s="4" t="s"/>
+      <x:c r="O15" s="4" t="s"/>
+      <x:c r="P15" s="5" t="s"/>
+      <x:c r="Q15" s="5" t="s"/>
+      <x:c r="R15" s="5" t="s"/>
+      <x:c r="S15" s="5" t="s"/>
+      <x:c r="T15" s="5" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A16" s="4" t="s"/>
+      <x:c r="B16" s="4" t="s"/>
+      <x:c r="C16" s="4" t="s"/>
+      <x:c r="D16" s="4" t="s"/>
+      <x:c r="E16" s="4" t="s"/>
+      <x:c r="F16" s="4" t="s"/>
+      <x:c r="G16" s="4" t="s"/>
+      <x:c r="H16" s="4" t="s"/>
+      <x:c r="I16" s="4" t="s"/>
+      <x:c r="J16" s="5" t="s"/>
+      <x:c r="K16" s="4" t="s"/>
+      <x:c r="L16" s="4" t="s"/>
+      <x:c r="M16" s="4" t="s"/>
+      <x:c r="N16" s="4" t="s"/>
+      <x:c r="O16" s="4" t="s"/>
+      <x:c r="P16" s="5" t="s"/>
+      <x:c r="Q16" s="5" t="s"/>
+      <x:c r="R16" s="5" t="s"/>
+      <x:c r="S16" s="5" t="s"/>
+      <x:c r="T16" s="5" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A17" s="4" t="s"/>
+      <x:c r="B17" s="4" t="s"/>
+      <x:c r="C17" s="4" t="s"/>
+      <x:c r="D17" s="4" t="s"/>
+      <x:c r="E17" s="4" t="s"/>
+      <x:c r="F17" s="4" t="s"/>
+      <x:c r="G17" s="4" t="s"/>
+      <x:c r="H17" s="4" t="s"/>
+      <x:c r="I17" s="4" t="s"/>
+      <x:c r="J17" s="5" t="s"/>
+      <x:c r="K17" s="4" t="s"/>
+      <x:c r="L17" s="4" t="s"/>
+      <x:c r="M17" s="4" t="s"/>
+      <x:c r="N17" s="4" t="s"/>
+      <x:c r="O17" s="4" t="s"/>
+      <x:c r="P17" s="5" t="s"/>
+      <x:c r="Q17" s="5" t="s"/>
+      <x:c r="R17" s="5" t="s"/>
+      <x:c r="S17" s="5" t="s"/>
+      <x:c r="T17" s="5" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A18" s="4" t="s"/>
+      <x:c r="K18" s="4" t="s"/>
+      <x:c r="T18" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T19" s="6" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="21" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D21" s="7" t="s"/>
+      <x:c r="E21" s="7" t="s"/>
+      <x:c r="F21" s="7" t="s"/>
+      <x:c r="G21" s="7" t="s"/>
+      <x:c r="H21" s="7" t="s"/>
+      <x:c r="I21" s="7" t="s"/>
+      <x:c r="J21" s="7" t="s"/>
+      <x:c r="K21" s="7" t="s"/>
+      <x:c r="L21" s="7" t="s"/>
+      <x:c r="M21" s="7" t="s"/>
+      <x:c r="N21" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="O21" s="7" t="s"/>
+      <x:c r="P21" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q21" s="7" t="s"/>
+      <x:c r="R21" s="7" t="s"/>
+      <x:c r="S21" s="7" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A22" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B22" s="9" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D5" s="6" t="s">
+      <x:c r="C22" s="9" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D22" s="8" t="s"/>
+      <x:c r="E22" s="8" t="s"/>
+      <x:c r="F22" s="8" t="s"/>
+      <x:c r="G22" s="8" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H22" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I22" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J22" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K22" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L22" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M22" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="24" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A24" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s"/>
+      <x:c r="C24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s"/>
+      <x:c r="E24" s="2" t="s"/>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q24" s="3" t="s"/>
+      <x:c r="R24" s="3" t="s"/>
+      <x:c r="S24" s="3" t="s"/>
+      <x:c r="T24" s="3" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A25" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B25" s="4" t="s"/>
+      <x:c r="C25" s="4" t="s"/>
+      <x:c r="D25" s="4" t="s"/>
+      <x:c r="E25" s="4" t="s"/>
+      <x:c r="F25" s="4" t="s"/>
+      <x:c r="G25" s="4" t="s"/>
+      <x:c r="H25" s="4" t="s"/>
+      <x:c r="I25" s="4" t="s"/>
+      <x:c r="J25" s="5" t="s"/>
+      <x:c r="K25" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L25" s="4" t="s"/>
+      <x:c r="M25" s="4" t="s"/>
+      <x:c r="N25" s="4" t="s"/>
+      <x:c r="O25" s="4" t="s"/>
+      <x:c r="P25" s="5" t="s"/>
+      <x:c r="Q25" s="5" t="s"/>
+      <x:c r="R25" s="5" t="s"/>
+      <x:c r="S25" s="5" t="s"/>
+      <x:c r="T25" s="5" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A26" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B26" s="4" t="s"/>
+      <x:c r="C26" s="4" t="s"/>
+      <x:c r="D26" s="4" t="s"/>
+      <x:c r="E26" s="4" t="s"/>
+      <x:c r="F26" s="4" t="s"/>
+      <x:c r="G26" s="4" t="s"/>
+      <x:c r="H26" s="4" t="s"/>
+      <x:c r="I26" s="4" t="s"/>
+      <x:c r="J26" s="5" t="s"/>
+      <x:c r="K26" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="L26" s="4" t="s"/>
+      <x:c r="M26" s="4" t="s"/>
+      <x:c r="N26" s="4" t="s"/>
+      <x:c r="O26" s="4" t="s"/>
+      <x:c r="P26" s="5" t="s"/>
+      <x:c r="Q26" s="5" t="s"/>
+      <x:c r="R26" s="5" t="s"/>
+      <x:c r="S26" s="5" t="s"/>
+      <x:c r="T26" s="5" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A27" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B27" s="4" t="s"/>
+      <x:c r="C27" s="4" t="s"/>
+      <x:c r="D27" s="4" t="s"/>
+      <x:c r="E27" s="4" t="s"/>
+      <x:c r="F27" s="4" t="s"/>
+      <x:c r="G27" s="4" t="s"/>
+      <x:c r="H27" s="4" t="s"/>
+      <x:c r="I27" s="4" t="s"/>
+      <x:c r="J27" s="5" t="s"/>
+      <x:c r="K27" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="L27" s="4" t="s"/>
+      <x:c r="M27" s="4" t="s"/>
+      <x:c r="N27" s="4" t="s"/>
+      <x:c r="O27" s="4" t="s"/>
+      <x:c r="P27" s="5" t="s"/>
+      <x:c r="Q27" s="5" t="s"/>
+      <x:c r="R27" s="5" t="s"/>
+      <x:c r="S27" s="5" t="s"/>
+      <x:c r="T27" s="5" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A28" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B28" s="4" t="s"/>
+      <x:c r="C28" s="4" t="s"/>
+      <x:c r="D28" s="4" t="s"/>
+      <x:c r="E28" s="4" t="s"/>
+      <x:c r="F28" s="4" t="s"/>
+      <x:c r="G28" s="4" t="s"/>
+      <x:c r="H28" s="4" t="s"/>
+      <x:c r="I28" s="4" t="s"/>
+      <x:c r="J28" s="5" t="s"/>
+      <x:c r="K28" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="L28" s="4" t="s"/>
+      <x:c r="M28" s="4" t="s"/>
+      <x:c r="N28" s="4" t="s"/>
+      <x:c r="O28" s="4" t="s"/>
+      <x:c r="P28" s="5" t="s"/>
+      <x:c r="Q28" s="5" t="s"/>
+      <x:c r="R28" s="5" t="s"/>
+      <x:c r="S28" s="5" t="s"/>
+      <x:c r="T28" s="5" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A29" s="4" t="s"/>
+      <x:c r="K29" s="4" t="s"/>
+      <x:c r="T29" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E5" s="6" t="s">
+    </x:row>
+    <x:row r="30" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T30" s="6" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="32" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D32" s="7" t="s"/>
+      <x:c r="E32" s="7" t="s"/>
+      <x:c r="F32" s="7" t="s"/>
+      <x:c r="G32" s="7" t="s"/>
+      <x:c r="H32" s="7" t="s"/>
+      <x:c r="I32" s="7" t="s"/>
+      <x:c r="J32" s="7" t="s"/>
+      <x:c r="K32" s="7" t="s"/>
+      <x:c r="L32" s="7" t="s"/>
+      <x:c r="M32" s="7" t="s"/>
+      <x:c r="N32" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O32" s="7" t="s"/>
+      <x:c r="P32" s="7" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="Q32" s="7" t="s"/>
+      <x:c r="R32" s="7" t="s"/>
+      <x:c r="S32" s="7" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A33" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B33" s="9" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C33" s="9" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D33" s="8" t="s"/>
+      <x:c r="E33" s="8" t="s"/>
+      <x:c r="F33" s="8" t="s"/>
+      <x:c r="G33" s="8" t="s"/>
+      <x:c r="H33" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I33" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J33" s="8" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K33" s="8" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L33" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M33" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="35" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A35" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s"/>
+      <x:c r="C35" s="2" t="s"/>
+      <x:c r="D35" s="2" t="s"/>
+      <x:c r="E35" s="2" t="s"/>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q35" s="3" t="s"/>
+      <x:c r="R35" s="3" t="s"/>
+      <x:c r="S35" s="3" t="s"/>
+      <x:c r="T35" s="3" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A36" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B36" s="4" t="s"/>
+      <x:c r="C36" s="4" t="s"/>
+      <x:c r="D36" s="4" t="s"/>
+      <x:c r="E36" s="4" t="s"/>
+      <x:c r="F36" s="4" t="s"/>
+      <x:c r="G36" s="4" t="s"/>
+      <x:c r="H36" s="4" t="s"/>
+      <x:c r="I36" s="4" t="s"/>
+      <x:c r="J36" s="5" t="s"/>
+      <x:c r="K36" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L36" s="4" t="s"/>
+      <x:c r="M36" s="4" t="s"/>
+      <x:c r="N36" s="4" t="s"/>
+      <x:c r="O36" s="4" t="s"/>
+      <x:c r="P36" s="5" t="s"/>
+      <x:c r="Q36" s="5" t="s"/>
+      <x:c r="R36" s="5" t="s"/>
+      <x:c r="S36" s="5" t="s"/>
+      <x:c r="T36" s="5" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A37" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B37" s="4" t="s"/>
+      <x:c r="C37" s="4" t="s"/>
+      <x:c r="D37" s="4" t="s"/>
+      <x:c r="E37" s="4" t="s"/>
+      <x:c r="F37" s="4" t="s"/>
+      <x:c r="G37" s="4" t="s"/>
+      <x:c r="H37" s="4" t="s"/>
+      <x:c r="I37" s="4" t="s"/>
+      <x:c r="J37" s="5" t="s"/>
+      <x:c r="K37" s="4" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L37" s="4" t="s"/>
+      <x:c r="M37" s="4" t="s"/>
+      <x:c r="N37" s="4" t="s"/>
+      <x:c r="O37" s="4" t="s"/>
+      <x:c r="P37" s="5" t="s"/>
+      <x:c r="Q37" s="5" t="s"/>
+      <x:c r="R37" s="5" t="s"/>
+      <x:c r="S37" s="5" t="s"/>
+      <x:c r="T37" s="5" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A38" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B38" s="4" t="s"/>
+      <x:c r="C38" s="4" t="s"/>
+      <x:c r="D38" s="4" t="s"/>
+      <x:c r="E38" s="4" t="s"/>
+      <x:c r="F38" s="4" t="s"/>
+      <x:c r="G38" s="4" t="s"/>
+      <x:c r="H38" s="4" t="s"/>
+      <x:c r="I38" s="4" t="s"/>
+      <x:c r="J38" s="5" t="s"/>
+      <x:c r="K38" s="4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L38" s="4" t="s"/>
+      <x:c r="M38" s="4" t="s"/>
+      <x:c r="N38" s="4" t="s"/>
+      <x:c r="O38" s="4" t="s"/>
+      <x:c r="P38" s="5" t="s"/>
+      <x:c r="Q38" s="5" t="s"/>
+      <x:c r="R38" s="5" t="s"/>
+      <x:c r="S38" s="5" t="s"/>
+      <x:c r="T38" s="5" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A39" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B39" s="4" t="s"/>
+      <x:c r="C39" s="4" t="s"/>
+      <x:c r="D39" s="4" t="s"/>
+      <x:c r="E39" s="4" t="s"/>
+      <x:c r="F39" s="4" t="s"/>
+      <x:c r="G39" s="4" t="s"/>
+      <x:c r="H39" s="4" t="s"/>
+      <x:c r="I39" s="4" t="s"/>
+      <x:c r="J39" s="5" t="s"/>
+      <x:c r="K39" s="4" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L39" s="4" t="s"/>
+      <x:c r="M39" s="4" t="s"/>
+      <x:c r="N39" s="4" t="s"/>
+      <x:c r="O39" s="4" t="s"/>
+      <x:c r="P39" s="5" t="s"/>
+      <x:c r="Q39" s="5" t="s"/>
+      <x:c r="R39" s="5" t="s"/>
+      <x:c r="S39" s="5" t="s"/>
+      <x:c r="T39" s="5" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A40" s="4" t="s"/>
+      <x:c r="K40" s="4" t="s"/>
+      <x:c r="T40" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T41" s="6" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="43" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D43" s="7" t="s"/>
+      <x:c r="E43" s="7" t="s"/>
+      <x:c r="F43" s="7" t="s"/>
+      <x:c r="G43" s="7" t="s"/>
+      <x:c r="H43" s="7" t="s"/>
+      <x:c r="I43" s="7" t="s"/>
+      <x:c r="J43" s="7" t="s"/>
+      <x:c r="K43" s="7" t="s"/>
+      <x:c r="L43" s="7" t="s"/>
+      <x:c r="M43" s="7" t="s"/>
+      <x:c r="N43" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O43" s="7" t="s"/>
+      <x:c r="P43" s="7" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="Q43" s="7" t="s"/>
+      <x:c r="R43" s="7" t="s"/>
+      <x:c r="S43" s="7" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A44" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B44" s="9" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C44" s="9" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D44" s="8" t="s"/>
+      <x:c r="E44" s="8" t="s"/>
+      <x:c r="F44" s="8" t="s"/>
+      <x:c r="G44" s="8" t="s"/>
+      <x:c r="H44" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I44" s="8" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J44" s="8" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K44" s="8" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L44" s="8" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="M44" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="46" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A46" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s"/>
+      <x:c r="C46" s="2" t="s"/>
+      <x:c r="D46" s="2" t="s"/>
+      <x:c r="E46" s="2" t="s"/>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q46" s="3" t="s"/>
+      <x:c r="R46" s="3" t="s"/>
+      <x:c r="S46" s="3" t="s"/>
+      <x:c r="T46" s="3" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A47" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B47" s="4" t="s"/>
+      <x:c r="C47" s="4" t="s"/>
+      <x:c r="D47" s="4" t="s"/>
+      <x:c r="E47" s="4" t="s"/>
+      <x:c r="F47" s="4" t="s"/>
+      <x:c r="G47" s="4" t="s"/>
+      <x:c r="H47" s="4" t="s"/>
+      <x:c r="I47" s="4" t="s"/>
+      <x:c r="J47" s="5" t="s"/>
+      <x:c r="K47" s="4" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L47" s="4" t="s"/>
+      <x:c r="M47" s="4" t="s"/>
+      <x:c r="N47" s="4" t="s"/>
+      <x:c r="O47" s="4" t="s"/>
+      <x:c r="P47" s="5" t="s"/>
+      <x:c r="Q47" s="5" t="s"/>
+      <x:c r="R47" s="5" t="s"/>
+      <x:c r="S47" s="5" t="s"/>
+      <x:c r="T47" s="5" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A48" s="4" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B48" s="4" t="s"/>
+      <x:c r="C48" s="4" t="s"/>
+      <x:c r="D48" s="4" t="s"/>
+      <x:c r="E48" s="4" t="s"/>
+      <x:c r="F48" s="4" t="s"/>
+      <x:c r="G48" s="4" t="s"/>
+      <x:c r="H48" s="4" t="s"/>
+      <x:c r="I48" s="4" t="s"/>
+      <x:c r="J48" s="5" t="s"/>
+      <x:c r="K48" s="4" t="s"/>
+      <x:c r="L48" s="4" t="s"/>
+      <x:c r="M48" s="4" t="s"/>
+      <x:c r="N48" s="4" t="s"/>
+      <x:c r="O48" s="4" t="s"/>
+      <x:c r="P48" s="5" t="s"/>
+      <x:c r="Q48" s="5" t="s"/>
+      <x:c r="R48" s="5" t="s"/>
+      <x:c r="S48" s="5" t="s"/>
+      <x:c r="T48" s="5" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A49" s="4" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B49" s="4" t="s"/>
+      <x:c r="C49" s="4" t="s"/>
+      <x:c r="D49" s="4" t="s"/>
+      <x:c r="E49" s="4" t="s"/>
+      <x:c r="F49" s="4" t="s"/>
+      <x:c r="G49" s="4" t="s"/>
+      <x:c r="H49" s="4" t="s"/>
+      <x:c r="I49" s="4" t="s"/>
+      <x:c r="J49" s="5" t="s"/>
+      <x:c r="K49" s="4" t="s"/>
+      <x:c r="L49" s="4" t="s"/>
+      <x:c r="M49" s="4" t="s"/>
+      <x:c r="N49" s="4" t="s"/>
+      <x:c r="O49" s="4" t="s"/>
+      <x:c r="P49" s="5" t="s"/>
+      <x:c r="Q49" s="5" t="s"/>
+      <x:c r="R49" s="5" t="s"/>
+      <x:c r="S49" s="5" t="s"/>
+      <x:c r="T49" s="5" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A50" s="4" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B50" s="4" t="s"/>
+      <x:c r="C50" s="4" t="s"/>
+      <x:c r="D50" s="4" t="s"/>
+      <x:c r="E50" s="4" t="s"/>
+      <x:c r="F50" s="4" t="s"/>
+      <x:c r="G50" s="4" t="s"/>
+      <x:c r="H50" s="4" t="s"/>
+      <x:c r="I50" s="4" t="s"/>
+      <x:c r="J50" s="5" t="s"/>
+      <x:c r="K50" s="4" t="s"/>
+      <x:c r="L50" s="4" t="s"/>
+      <x:c r="M50" s="4" t="s"/>
+      <x:c r="N50" s="4" t="s"/>
+      <x:c r="O50" s="4" t="s"/>
+      <x:c r="P50" s="5" t="s"/>
+      <x:c r="Q50" s="5" t="s"/>
+      <x:c r="R50" s="5" t="s"/>
+      <x:c r="S50" s="5" t="s"/>
+      <x:c r="T50" s="5" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A51" s="4" t="s"/>
+      <x:c r="K51" s="4" t="s"/>
+      <x:c r="T51" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T52" s="6" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="54" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D54" s="7" t="s"/>
+      <x:c r="E54" s="7" t="s"/>
+      <x:c r="F54" s="7" t="s"/>
+      <x:c r="G54" s="7" t="s"/>
+      <x:c r="H54" s="7" t="s"/>
+      <x:c r="I54" s="7" t="s"/>
+      <x:c r="J54" s="7" t="s"/>
+      <x:c r="K54" s="7" t="s"/>
+      <x:c r="L54" s="7" t="s"/>
+      <x:c r="M54" s="7" t="s"/>
+      <x:c r="N54" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O54" s="7" t="s"/>
+      <x:c r="P54" s="7" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="Q54" s="7" t="s"/>
+      <x:c r="R54" s="7" t="s"/>
+      <x:c r="S54" s="7" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A55" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B55" s="9" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C55" s="9" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D55" s="8" t="s"/>
+      <x:c r="E55" s="8" t="s"/>
+      <x:c r="F55" s="8" t="s"/>
+      <x:c r="G55" s="8" t="s"/>
+      <x:c r="H55" s="8" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I55" s="8" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J55" s="8" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K55" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L55" s="8" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="M55" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="57" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A57" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s"/>
+      <x:c r="C57" s="2" t="s"/>
+      <x:c r="D57" s="2" t="s"/>
+      <x:c r="E57" s="2" t="s"/>
+      <x:c r="F57" s="2" t="s"/>
+      <x:c r="G57" s="2" t="s"/>
+      <x:c r="H57" s="2" t="s"/>
+      <x:c r="I57" s="2" t="s"/>
+      <x:c r="J57" s="2" t="s"/>
+      <x:c r="K57" s="2" t="s"/>
+      <x:c r="L57" s="2" t="s"/>
+      <x:c r="M57" s="2" t="s"/>
+      <x:c r="N57" s="2" t="s"/>
+      <x:c r="O57" s="2" t="s"/>
+      <x:c r="P57" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q57" s="3" t="s"/>
+      <x:c r="R57" s="3" t="s"/>
+      <x:c r="S57" s="3" t="s"/>
+      <x:c r="T57" s="3" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A58" s="4" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B58" s="4" t="s"/>
+      <x:c r="C58" s="4" t="s"/>
+      <x:c r="D58" s="4" t="s"/>
+      <x:c r="E58" s="4" t="s"/>
+      <x:c r="F58" s="4" t="s"/>
+      <x:c r="G58" s="4" t="s"/>
+      <x:c r="H58" s="4" t="s"/>
+      <x:c r="I58" s="4" t="s"/>
+      <x:c r="J58" s="5" t="s"/>
+      <x:c r="K58" s="4" t="s"/>
+      <x:c r="L58" s="4" t="s"/>
+      <x:c r="M58" s="4" t="s"/>
+      <x:c r="N58" s="4" t="s"/>
+      <x:c r="O58" s="4" t="s"/>
+      <x:c r="P58" s="5" t="s"/>
+      <x:c r="Q58" s="5" t="s"/>
+      <x:c r="R58" s="5" t="s"/>
+      <x:c r="S58" s="5" t="s"/>
+      <x:c r="T58" s="5" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A59" s="4" t="s"/>
+      <x:c r="B59" s="4" t="s"/>
+      <x:c r="C59" s="4" t="s"/>
+      <x:c r="D59" s="4" t="s"/>
+      <x:c r="E59" s="4" t="s"/>
+      <x:c r="F59" s="4" t="s"/>
+      <x:c r="G59" s="4" t="s"/>
+      <x:c r="H59" s="4" t="s"/>
+      <x:c r="I59" s="4" t="s"/>
+      <x:c r="J59" s="5" t="s"/>
+      <x:c r="K59" s="4" t="s"/>
+      <x:c r="L59" s="4" t="s"/>
+      <x:c r="M59" s="4" t="s"/>
+      <x:c r="N59" s="4" t="s"/>
+      <x:c r="O59" s="4" t="s"/>
+      <x:c r="P59" s="5" t="s"/>
+      <x:c r="Q59" s="5" t="s"/>
+      <x:c r="R59" s="5" t="s"/>
+      <x:c r="S59" s="5" t="s"/>
+      <x:c r="T59" s="5" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A60" s="4" t="s"/>
+      <x:c r="B60" s="4" t="s"/>
+      <x:c r="C60" s="4" t="s"/>
+      <x:c r="D60" s="4" t="s"/>
+      <x:c r="E60" s="4" t="s"/>
+      <x:c r="F60" s="4" t="s"/>
+      <x:c r="G60" s="4" t="s"/>
+      <x:c r="H60" s="4" t="s"/>
+      <x:c r="I60" s="4" t="s"/>
+      <x:c r="J60" s="5" t="s"/>
+      <x:c r="K60" s="4" t="s"/>
+      <x:c r="L60" s="4" t="s"/>
+      <x:c r="M60" s="4" t="s"/>
+      <x:c r="N60" s="4" t="s"/>
+      <x:c r="O60" s="4" t="s"/>
+      <x:c r="P60" s="5" t="s"/>
+      <x:c r="Q60" s="5" t="s"/>
+      <x:c r="R60" s="5" t="s"/>
+      <x:c r="S60" s="5" t="s"/>
+      <x:c r="T60" s="5" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A61" s="4" t="s"/>
+      <x:c r="B61" s="4" t="s"/>
+      <x:c r="C61" s="4" t="s"/>
+      <x:c r="D61" s="4" t="s"/>
+      <x:c r="E61" s="4" t="s"/>
+      <x:c r="F61" s="4" t="s"/>
+      <x:c r="G61" s="4" t="s"/>
+      <x:c r="H61" s="4" t="s"/>
+      <x:c r="I61" s="4" t="s"/>
+      <x:c r="J61" s="5" t="s"/>
+      <x:c r="K61" s="4" t="s"/>
+      <x:c r="L61" s="4" t="s"/>
+      <x:c r="M61" s="4" t="s"/>
+      <x:c r="N61" s="4" t="s"/>
+      <x:c r="O61" s="4" t="s"/>
+      <x:c r="P61" s="5" t="s"/>
+      <x:c r="Q61" s="5" t="s"/>
+      <x:c r="R61" s="5" t="s"/>
+      <x:c r="S61" s="5" t="s"/>
+      <x:c r="T61" s="5" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A62" s="4" t="s"/>
+      <x:c r="K62" s="4" t="s"/>
+      <x:c r="T62" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T63" s="6" t="s"/>
+    </x:row>
+    <x:row r="64" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="65" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D65" s="7" t="s"/>
+      <x:c r="E65" s="7" t="s"/>
+      <x:c r="F65" s="7" t="s"/>
+      <x:c r="G65" s="7" t="s"/>
+      <x:c r="H65" s="7" t="s"/>
+      <x:c r="I65" s="7" t="s"/>
+      <x:c r="J65" s="7" t="s"/>
+      <x:c r="K65" s="7" t="s"/>
+      <x:c r="L65" s="7" t="s"/>
+      <x:c r="M65" s="7" t="s"/>
+      <x:c r="N65" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="O65" s="7" t="s"/>
+      <x:c r="P65" s="7" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="Q65" s="7" t="s"/>
+      <x:c r="R65" s="7" t="s"/>
+      <x:c r="S65" s="7" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A66" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B66" s="9" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C66" s="9" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D66" s="8" t="s"/>
+      <x:c r="E66" s="8" t="s"/>
+      <x:c r="F66" s="8" t="s"/>
+      <x:c r="G66" s="8" t="s"/>
+      <x:c r="H66" s="8" t="s"/>
+      <x:c r="I66" s="8" t="n">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="C6" s="7" t="s"/>
-      <x:c r="D6" s="7" t="s"/>
-      <x:c r="E6" s="7" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:5" customFormat="1" ht="126" customHeight="1"/>
-    <x:row r="8" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A8" s="8" t="s">
+      <x:c r="J66" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K66" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L66" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M66" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="68" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A68" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s"/>
+      <x:c r="C68" s="2" t="s"/>
+      <x:c r="D68" s="2" t="s"/>
+      <x:c r="E68" s="2" t="s"/>
+      <x:c r="F68" s="2" t="s"/>
+      <x:c r="G68" s="2" t="s"/>
+      <x:c r="H68" s="2" t="s"/>
+      <x:c r="I68" s="2" t="s"/>
+      <x:c r="J68" s="2" t="s"/>
+      <x:c r="K68" s="2" t="s"/>
+      <x:c r="L68" s="2" t="s"/>
+      <x:c r="M68" s="2" t="s"/>
+      <x:c r="N68" s="2" t="s"/>
+      <x:c r="O68" s="2" t="s"/>
+      <x:c r="P68" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q68" s="3" t="s"/>
+      <x:c r="R68" s="3" t="s"/>
+      <x:c r="S68" s="3" t="s"/>
+      <x:c r="T68" s="3" t="s"/>
+    </x:row>
+    <x:row r="69" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A69" s="4" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B69" s="4" t="s"/>
+      <x:c r="C69" s="4" t="s"/>
+      <x:c r="D69" s="4" t="s"/>
+      <x:c r="E69" s="4" t="s"/>
+      <x:c r="F69" s="4" t="s"/>
+      <x:c r="G69" s="4" t="s"/>
+      <x:c r="H69" s="4" t="s"/>
+      <x:c r="I69" s="4" t="s"/>
+      <x:c r="J69" s="5" t="s"/>
+      <x:c r="K69" s="4" t="s"/>
+      <x:c r="L69" s="4" t="s"/>
+      <x:c r="M69" s="4" t="s"/>
+      <x:c r="N69" s="4" t="s"/>
+      <x:c r="O69" s="4" t="s"/>
+      <x:c r="P69" s="5" t="s"/>
+      <x:c r="Q69" s="5" t="s"/>
+      <x:c r="R69" s="5" t="s"/>
+      <x:c r="S69" s="5" t="s"/>
+      <x:c r="T69" s="5" t="s"/>
+    </x:row>
+    <x:row r="70" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A70" s="4" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B70" s="4" t="s"/>
+      <x:c r="C70" s="4" t="s"/>
+      <x:c r="D70" s="4" t="s"/>
+      <x:c r="E70" s="4" t="s"/>
+      <x:c r="F70" s="4" t="s"/>
+      <x:c r="G70" s="4" t="s"/>
+      <x:c r="H70" s="4" t="s"/>
+      <x:c r="I70" s="4" t="s"/>
+      <x:c r="J70" s="5" t="s"/>
+      <x:c r="K70" s="4" t="s"/>
+      <x:c r="L70" s="4" t="s"/>
+      <x:c r="M70" s="4" t="s"/>
+      <x:c r="N70" s="4" t="s"/>
+      <x:c r="O70" s="4" t="s"/>
+      <x:c r="P70" s="5" t="s"/>
+      <x:c r="Q70" s="5" t="s"/>
+      <x:c r="R70" s="5" t="s"/>
+      <x:c r="S70" s="5" t="s"/>
+      <x:c r="T70" s="5" t="s"/>
+    </x:row>
+    <x:row r="71" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A71" s="4" t="s"/>
+      <x:c r="B71" s="4" t="s"/>
+      <x:c r="C71" s="4" t="s"/>
+      <x:c r="D71" s="4" t="s"/>
+      <x:c r="E71" s="4" t="s"/>
+      <x:c r="F71" s="4" t="s"/>
+      <x:c r="G71" s="4" t="s"/>
+      <x:c r="H71" s="4" t="s"/>
+      <x:c r="I71" s="4" t="s"/>
+      <x:c r="J71" s="5" t="s"/>
+      <x:c r="K71" s="4" t="s"/>
+      <x:c r="L71" s="4" t="s"/>
+      <x:c r="M71" s="4" t="s"/>
+      <x:c r="N71" s="4" t="s"/>
+      <x:c r="O71" s="4" t="s"/>
+      <x:c r="P71" s="5" t="s"/>
+      <x:c r="Q71" s="5" t="s"/>
+      <x:c r="R71" s="5" t="s"/>
+      <x:c r="S71" s="5" t="s"/>
+      <x:c r="T71" s="5" t="s"/>
+    </x:row>
+    <x:row r="72" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A72" s="4" t="s"/>
+      <x:c r="B72" s="4" t="s"/>
+      <x:c r="C72" s="4" t="s"/>
+      <x:c r="D72" s="4" t="s"/>
+      <x:c r="E72" s="4" t="s"/>
+      <x:c r="F72" s="4" t="s"/>
+      <x:c r="G72" s="4" t="s"/>
+      <x:c r="H72" s="4" t="s"/>
+      <x:c r="I72" s="4" t="s"/>
+      <x:c r="J72" s="5" t="s"/>
+      <x:c r="K72" s="4" t="s"/>
+      <x:c r="L72" s="4" t="s"/>
+      <x:c r="M72" s="4" t="s"/>
+      <x:c r="N72" s="4" t="s"/>
+      <x:c r="O72" s="4" t="s"/>
+      <x:c r="P72" s="5" t="s"/>
+      <x:c r="Q72" s="5" t="s"/>
+      <x:c r="R72" s="5" t="s"/>
+      <x:c r="S72" s="5" t="s"/>
+      <x:c r="T72" s="5" t="s"/>
+    </x:row>
+    <x:row r="73" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A73" s="4" t="s"/>
+      <x:c r="K73" s="4" t="s"/>
+      <x:c r="T73" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T74" s="6" t="s"/>
+    </x:row>
+    <x:row r="75" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="76" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D76" s="7" t="s"/>
+      <x:c r="E76" s="7" t="s"/>
+      <x:c r="F76" s="7" t="s"/>
+      <x:c r="G76" s="7" t="s"/>
+      <x:c r="H76" s="7" t="s"/>
+      <x:c r="I76" s="7" t="s"/>
+      <x:c r="J76" s="7" t="s"/>
+      <x:c r="K76" s="7" t="s"/>
+      <x:c r="L76" s="7" t="s"/>
+      <x:c r="M76" s="7" t="s"/>
+      <x:c r="N76" s="7" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="O76" s="7" t="s"/>
+      <x:c r="P76" s="7" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="Q76" s="7" t="s"/>
+      <x:c r="R76" s="7" t="s"/>
+      <x:c r="S76" s="7" t="s"/>
+    </x:row>
+    <x:row r="77" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A77" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B77" s="9" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C77" s="9" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D77" s="8" t="s"/>
+      <x:c r="E77" s="8" t="s"/>
+      <x:c r="F77" s="8" t="s"/>
+      <x:c r="G77" s="8" t="s"/>
+      <x:c r="H77" s="8" t="s"/>
+      <x:c r="I77" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J77" s="8" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K77" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L77" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M77" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="79" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A79" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B79" s="2" t="s"/>
+      <x:c r="C79" s="2" t="s"/>
+      <x:c r="D79" s="2" t="s"/>
+      <x:c r="E79" s="2" t="s"/>
+      <x:c r="F79" s="2" t="s"/>
+      <x:c r="G79" s="2" t="s"/>
+      <x:c r="H79" s="2" t="s"/>
+      <x:c r="I79" s="2" t="s"/>
+      <x:c r="J79" s="2" t="s"/>
+      <x:c r="K79" s="2" t="s"/>
+      <x:c r="L79" s="2" t="s"/>
+      <x:c r="M79" s="2" t="s"/>
+      <x:c r="N79" s="2" t="s"/>
+      <x:c r="O79" s="2" t="s"/>
+      <x:c r="P79" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q79" s="3" t="s"/>
+      <x:c r="R79" s="3" t="s"/>
+      <x:c r="S79" s="3" t="s"/>
+      <x:c r="T79" s="3" t="s"/>
+    </x:row>
+    <x:row r="80" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A80" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B80" s="4" t="s"/>
+      <x:c r="C80" s="4" t="s"/>
+      <x:c r="D80" s="4" t="s"/>
+      <x:c r="E80" s="4" t="s"/>
+      <x:c r="F80" s="4" t="s"/>
+      <x:c r="G80" s="4" t="s"/>
+      <x:c r="H80" s="4" t="s"/>
+      <x:c r="I80" s="4" t="s"/>
+      <x:c r="J80" s="5" t="s"/>
+      <x:c r="K80" s="4" t="s"/>
+      <x:c r="L80" s="4" t="s"/>
+      <x:c r="M80" s="4" t="s"/>
+      <x:c r="N80" s="4" t="s"/>
+      <x:c r="O80" s="4" t="s"/>
+      <x:c r="P80" s="5" t="s"/>
+      <x:c r="Q80" s="5" t="s"/>
+      <x:c r="R80" s="5" t="s"/>
+      <x:c r="S80" s="5" t="s"/>
+      <x:c r="T80" s="5" t="s"/>
+    </x:row>
+    <x:row r="81" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A81" s="4" t="s"/>
+      <x:c r="B81" s="4" t="s"/>
+      <x:c r="C81" s="4" t="s"/>
+      <x:c r="D81" s="4" t="s"/>
+      <x:c r="E81" s="4" t="s"/>
+      <x:c r="F81" s="4" t="s"/>
+      <x:c r="G81" s="4" t="s"/>
+      <x:c r="H81" s="4" t="s"/>
+      <x:c r="I81" s="4" t="s"/>
+      <x:c r="J81" s="5" t="s"/>
+      <x:c r="K81" s="4" t="s"/>
+      <x:c r="L81" s="4" t="s"/>
+      <x:c r="M81" s="4" t="s"/>
+      <x:c r="N81" s="4" t="s"/>
+      <x:c r="O81" s="4" t="s"/>
+      <x:c r="P81" s="5" t="s"/>
+      <x:c r="Q81" s="5" t="s"/>
+      <x:c r="R81" s="5" t="s"/>
+      <x:c r="S81" s="5" t="s"/>
+      <x:c r="T81" s="5" t="s"/>
+    </x:row>
+    <x:row r="82" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A82" s="4" t="s"/>
+      <x:c r="B82" s="4" t="s"/>
+      <x:c r="C82" s="4" t="s"/>
+      <x:c r="D82" s="4" t="s"/>
+      <x:c r="E82" s="4" t="s"/>
+      <x:c r="F82" s="4" t="s"/>
+      <x:c r="G82" s="4" t="s"/>
+      <x:c r="H82" s="4" t="s"/>
+      <x:c r="I82" s="4" t="s"/>
+      <x:c r="J82" s="5" t="s"/>
+      <x:c r="K82" s="4" t="s"/>
+      <x:c r="L82" s="4" t="s"/>
+      <x:c r="M82" s="4" t="s"/>
+      <x:c r="N82" s="4" t="s"/>
+      <x:c r="O82" s="4" t="s"/>
+      <x:c r="P82" s="5" t="s"/>
+      <x:c r="Q82" s="5" t="s"/>
+      <x:c r="R82" s="5" t="s"/>
+      <x:c r="S82" s="5" t="s"/>
+      <x:c r="T82" s="5" t="s"/>
+    </x:row>
+    <x:row r="83" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A83" s="4" t="s"/>
+      <x:c r="B83" s="4" t="s"/>
+      <x:c r="C83" s="4" t="s"/>
+      <x:c r="D83" s="4" t="s"/>
+      <x:c r="E83" s="4" t="s"/>
+      <x:c r="F83" s="4" t="s"/>
+      <x:c r="G83" s="4" t="s"/>
+      <x:c r="H83" s="4" t="s"/>
+      <x:c r="I83" s="4" t="s"/>
+      <x:c r="J83" s="5" t="s"/>
+      <x:c r="K83" s="4" t="s"/>
+      <x:c r="L83" s="4" t="s"/>
+      <x:c r="M83" s="4" t="s"/>
+      <x:c r="N83" s="4" t="s"/>
+      <x:c r="O83" s="4" t="s"/>
+      <x:c r="P83" s="5" t="s"/>
+      <x:c r="Q83" s="5" t="s"/>
+      <x:c r="R83" s="5" t="s"/>
+      <x:c r="S83" s="5" t="s"/>
+      <x:c r="T83" s="5" t="s"/>
+    </x:row>
+    <x:row r="84" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A84" s="4" t="s"/>
+      <x:c r="K84" s="4" t="s"/>
+      <x:c r="T84" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T85" s="6" t="s"/>
+    </x:row>
+    <x:row r="86" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="87" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D87" s="7" t="s"/>
+      <x:c r="E87" s="7" t="s"/>
+      <x:c r="F87" s="7" t="s"/>
+      <x:c r="G87" s="7" t="s"/>
+      <x:c r="H87" s="7" t="s"/>
+      <x:c r="I87" s="7" t="s"/>
+      <x:c r="J87" s="7" t="s"/>
+      <x:c r="K87" s="7" t="s"/>
+      <x:c r="L87" s="7" t="s"/>
+      <x:c r="M87" s="7" t="s"/>
+      <x:c r="N87" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="O87" s="7" t="s"/>
+      <x:c r="P87" s="7" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="Q87" s="7" t="s"/>
+      <x:c r="R87" s="7" t="s"/>
+      <x:c r="S87" s="7" t="s"/>
+    </x:row>
+    <x:row r="88" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A88" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B88" s="9" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C88" s="9" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D88" s="8" t="s"/>
+      <x:c r="E88" s="8" t="s"/>
+      <x:c r="F88" s="8" t="s"/>
+      <x:c r="G88" s="8" t="s"/>
+      <x:c r="H88" s="8" t="s"/>
+      <x:c r="I88" s="8" t="n">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A9" s="6" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B9" s="6" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C9" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D9" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E9" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="A10" s="9" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B10" s="9" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C10" s="9" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D10" s="9" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E10" s="9" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5" customFormat="1" ht="27.75" customHeight="1"/>
-    <x:row r="12" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A12" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B12" s="10" t="s"/>
-      <x:c r="C12" s="10" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A13" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B13" s="10" t="s"/>
-      <x:c r="C13" s="10" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A14" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B14" s="10" t="s"/>
-      <x:c r="C14" s="10" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:5" customFormat="1" ht="40.5" customHeight="1"/>
-    <x:row r="16" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="D16" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E16" s="11" t="s"/>
+      <x:c r="J88" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K88" s="8" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L88" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M88" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="90" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A90" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B90" s="2" t="s"/>
+      <x:c r="C90" s="2" t="s"/>
+      <x:c r="D90" s="2" t="s"/>
+      <x:c r="E90" s="2" t="s"/>
+      <x:c r="F90" s="2" t="s"/>
+      <x:c r="G90" s="2" t="s"/>
+      <x:c r="H90" s="2" t="s"/>
+      <x:c r="I90" s="2" t="s"/>
+      <x:c r="J90" s="2" t="s"/>
+      <x:c r="K90" s="2" t="s"/>
+      <x:c r="L90" s="2" t="s"/>
+      <x:c r="M90" s="2" t="s"/>
+      <x:c r="N90" s="2" t="s"/>
+      <x:c r="O90" s="2" t="s"/>
+      <x:c r="P90" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q90" s="3" t="s"/>
+      <x:c r="R90" s="3" t="s"/>
+      <x:c r="S90" s="3" t="s"/>
+      <x:c r="T90" s="3" t="s"/>
+    </x:row>
+    <x:row r="91" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A91" s="4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B91" s="4" t="s"/>
+      <x:c r="C91" s="4" t="s"/>
+      <x:c r="D91" s="4" t="s"/>
+      <x:c r="E91" s="4" t="s"/>
+      <x:c r="F91" s="4" t="s"/>
+      <x:c r="G91" s="4" t="s"/>
+      <x:c r="H91" s="4" t="s"/>
+      <x:c r="I91" s="4" t="s"/>
+      <x:c r="J91" s="5" t="s"/>
+      <x:c r="K91" s="4" t="s"/>
+      <x:c r="L91" s="4" t="s"/>
+      <x:c r="M91" s="4" t="s"/>
+      <x:c r="N91" s="4" t="s"/>
+      <x:c r="O91" s="4" t="s"/>
+      <x:c r="P91" s="5" t="s"/>
+      <x:c r="Q91" s="5" t="s"/>
+      <x:c r="R91" s="5" t="s"/>
+      <x:c r="S91" s="5" t="s"/>
+      <x:c r="T91" s="5" t="s"/>
+    </x:row>
+    <x:row r="92" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A92" s="4" t="s"/>
+      <x:c r="B92" s="4" t="s"/>
+      <x:c r="C92" s="4" t="s"/>
+      <x:c r="D92" s="4" t="s"/>
+      <x:c r="E92" s="4" t="s"/>
+      <x:c r="F92" s="4" t="s"/>
+      <x:c r="G92" s="4" t="s"/>
+      <x:c r="H92" s="4" t="s"/>
+      <x:c r="I92" s="4" t="s"/>
+      <x:c r="J92" s="5" t="s"/>
+      <x:c r="K92" s="4" t="s"/>
+      <x:c r="L92" s="4" t="s"/>
+      <x:c r="M92" s="4" t="s"/>
+      <x:c r="N92" s="4" t="s"/>
+      <x:c r="O92" s="4" t="s"/>
+      <x:c r="P92" s="5" t="s"/>
+      <x:c r="Q92" s="5" t="s"/>
+      <x:c r="R92" s="5" t="s"/>
+      <x:c r="S92" s="5" t="s"/>
+      <x:c r="T92" s="5" t="s"/>
+    </x:row>
+    <x:row r="93" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A93" s="4" t="s"/>
+      <x:c r="B93" s="4" t="s"/>
+      <x:c r="C93" s="4" t="s"/>
+      <x:c r="D93" s="4" t="s"/>
+      <x:c r="E93" s="4" t="s"/>
+      <x:c r="F93" s="4" t="s"/>
+      <x:c r="G93" s="4" t="s"/>
+      <x:c r="H93" s="4" t="s"/>
+      <x:c r="I93" s="4" t="s"/>
+      <x:c r="J93" s="5" t="s"/>
+      <x:c r="K93" s="4" t="s"/>
+      <x:c r="L93" s="4" t="s"/>
+      <x:c r="M93" s="4" t="s"/>
+      <x:c r="N93" s="4" t="s"/>
+      <x:c r="O93" s="4" t="s"/>
+      <x:c r="P93" s="5" t="s"/>
+      <x:c r="Q93" s="5" t="s"/>
+      <x:c r="R93" s="5" t="s"/>
+      <x:c r="S93" s="5" t="s"/>
+      <x:c r="T93" s="5" t="s"/>
+    </x:row>
+    <x:row r="94" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A94" s="4" t="s"/>
+      <x:c r="B94" s="4" t="s"/>
+      <x:c r="C94" s="4" t="s"/>
+      <x:c r="D94" s="4" t="s"/>
+      <x:c r="E94" s="4" t="s"/>
+      <x:c r="F94" s="4" t="s"/>
+      <x:c r="G94" s="4" t="s"/>
+      <x:c r="H94" s="4" t="s"/>
+      <x:c r="I94" s="4" t="s"/>
+      <x:c r="J94" s="5" t="s"/>
+      <x:c r="K94" s="4" t="s"/>
+      <x:c r="L94" s="4" t="s"/>
+      <x:c r="M94" s="4" t="s"/>
+      <x:c r="N94" s="4" t="s"/>
+      <x:c r="O94" s="4" t="s"/>
+      <x:c r="P94" s="5" t="s"/>
+      <x:c r="Q94" s="5" t="s"/>
+      <x:c r="R94" s="5" t="s"/>
+      <x:c r="S94" s="5" t="s"/>
+      <x:c r="T94" s="5" t="s"/>
+    </x:row>
+    <x:row r="95" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A95" s="4" t="s"/>
+      <x:c r="K95" s="4" t="s"/>
+      <x:c r="T95" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T96" s="6" t="s"/>
+    </x:row>
+    <x:row r="97" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="98" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D98" s="7" t="s"/>
+      <x:c r="E98" s="7" t="s"/>
+      <x:c r="F98" s="7" t="s"/>
+      <x:c r="G98" s="7" t="s"/>
+      <x:c r="H98" s="7" t="s"/>
+      <x:c r="I98" s="7" t="s"/>
+      <x:c r="J98" s="7" t="s"/>
+      <x:c r="K98" s="7" t="s"/>
+      <x:c r="L98" s="7" t="s"/>
+      <x:c r="M98" s="7" t="s"/>
+      <x:c r="N98" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="O98" s="7" t="s"/>
+      <x:c r="P98" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="Q98" s="7" t="s"/>
+      <x:c r="R98" s="7" t="s"/>
+      <x:c r="S98" s="7" t="s"/>
+    </x:row>
+    <x:row r="99" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A99" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B99" s="9" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C99" s="9" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D99" s="8" t="s"/>
+      <x:c r="E99" s="8" t="s"/>
+      <x:c r="F99" s="8" t="s"/>
+      <x:c r="G99" s="8" t="s"/>
+      <x:c r="H99" s="8" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I99" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J99" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K99" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L99" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M99" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="6">
-    <x:mergeCell ref="D2:E2"/>
-    <x:mergeCell ref="A3:E3"/>
-    <x:mergeCell ref="B12:C12"/>
-    <x:mergeCell ref="B13:C13"/>
-    <x:mergeCell ref="B14:C14"/>
-    <x:mergeCell ref="D16:E16"/>
+  <x:mergeCells count="135">
+    <x:mergeCell ref="A2:O2"/>
+    <x:mergeCell ref="P2:T2"/>
+    <x:mergeCell ref="A3:I3"/>
+    <x:mergeCell ref="K3:O3"/>
+    <x:mergeCell ref="A4:I4"/>
+    <x:mergeCell ref="K4:O4"/>
+    <x:mergeCell ref="A5:I5"/>
+    <x:mergeCell ref="K5:O5"/>
+    <x:mergeCell ref="A6:I6"/>
+    <x:mergeCell ref="K6:O6"/>
+    <x:mergeCell ref="R7:R8"/>
+    <x:mergeCell ref="T7:T8"/>
+    <x:mergeCell ref="D10:M10"/>
+    <x:mergeCell ref="N10:O10"/>
+    <x:mergeCell ref="P10:S10"/>
+    <x:mergeCell ref="A13:O13"/>
+    <x:mergeCell ref="P13:T13"/>
+    <x:mergeCell ref="A14:I14"/>
+    <x:mergeCell ref="K14:O14"/>
+    <x:mergeCell ref="A15:I15"/>
+    <x:mergeCell ref="K15:O15"/>
+    <x:mergeCell ref="A16:I16"/>
+    <x:mergeCell ref="K16:O16"/>
+    <x:mergeCell ref="A17:I17"/>
+    <x:mergeCell ref="K17:O17"/>
+    <x:mergeCell ref="R18:R19"/>
+    <x:mergeCell ref="T18:T19"/>
+    <x:mergeCell ref="D21:M21"/>
+    <x:mergeCell ref="N21:O21"/>
+    <x:mergeCell ref="P21:S21"/>
+    <x:mergeCell ref="A24:O24"/>
+    <x:mergeCell ref="P24:T24"/>
+    <x:mergeCell ref="A25:I25"/>
+    <x:mergeCell ref="K25:O25"/>
+    <x:mergeCell ref="A26:I26"/>
+    <x:mergeCell ref="K26:O26"/>
+    <x:mergeCell ref="A27:I27"/>
+    <x:mergeCell ref="K27:O27"/>
+    <x:mergeCell ref="A28:I28"/>
+    <x:mergeCell ref="K28:O28"/>
+    <x:mergeCell ref="R29:R30"/>
+    <x:mergeCell ref="T29:T30"/>
+    <x:mergeCell ref="D32:M32"/>
+    <x:mergeCell ref="N32:O32"/>
+    <x:mergeCell ref="P32:S32"/>
+    <x:mergeCell ref="A35:O35"/>
+    <x:mergeCell ref="P35:T35"/>
+    <x:mergeCell ref="A36:I36"/>
+    <x:mergeCell ref="K36:O36"/>
+    <x:mergeCell ref="A37:I37"/>
+    <x:mergeCell ref="K37:O37"/>
+    <x:mergeCell ref="A38:I38"/>
+    <x:mergeCell ref="K38:O38"/>
+    <x:mergeCell ref="A39:I39"/>
+    <x:mergeCell ref="K39:O39"/>
+    <x:mergeCell ref="R40:R41"/>
+    <x:mergeCell ref="T40:T41"/>
+    <x:mergeCell ref="D43:M43"/>
+    <x:mergeCell ref="N43:O43"/>
+    <x:mergeCell ref="P43:S43"/>
+    <x:mergeCell ref="A46:O46"/>
+    <x:mergeCell ref="P46:T46"/>
+    <x:mergeCell ref="A47:I47"/>
+    <x:mergeCell ref="K47:O47"/>
+    <x:mergeCell ref="A48:I48"/>
+    <x:mergeCell ref="K48:O48"/>
+    <x:mergeCell ref="A49:I49"/>
+    <x:mergeCell ref="K49:O49"/>
+    <x:mergeCell ref="A50:I50"/>
+    <x:mergeCell ref="K50:O50"/>
+    <x:mergeCell ref="R51:R52"/>
+    <x:mergeCell ref="T51:T52"/>
+    <x:mergeCell ref="D54:M54"/>
+    <x:mergeCell ref="N54:O54"/>
+    <x:mergeCell ref="P54:S54"/>
+    <x:mergeCell ref="A57:O57"/>
+    <x:mergeCell ref="P57:T57"/>
+    <x:mergeCell ref="A58:I58"/>
+    <x:mergeCell ref="K58:O58"/>
+    <x:mergeCell ref="A59:I59"/>
+    <x:mergeCell ref="K59:O59"/>
+    <x:mergeCell ref="A60:I60"/>
+    <x:mergeCell ref="K60:O60"/>
+    <x:mergeCell ref="A61:I61"/>
+    <x:mergeCell ref="K61:O61"/>
+    <x:mergeCell ref="R62:R63"/>
+    <x:mergeCell ref="T62:T63"/>
+    <x:mergeCell ref="D65:M65"/>
+    <x:mergeCell ref="N65:O65"/>
+    <x:mergeCell ref="P65:S65"/>
+    <x:mergeCell ref="A68:O68"/>
+    <x:mergeCell ref="P68:T68"/>
+    <x:mergeCell ref="A69:I69"/>
+    <x:mergeCell ref="K69:O69"/>
+    <x:mergeCell ref="A70:I70"/>
+    <x:mergeCell ref="K70:O70"/>
+    <x:mergeCell ref="A71:I71"/>
+    <x:mergeCell ref="K71:O71"/>
+    <x:mergeCell ref="A72:I72"/>
+    <x:mergeCell ref="K72:O72"/>
+    <x:mergeCell ref="R73:R74"/>
+    <x:mergeCell ref="T73:T74"/>
+    <x:mergeCell ref="D76:M76"/>
+    <x:mergeCell ref="N76:O76"/>
+    <x:mergeCell ref="P76:S76"/>
+    <x:mergeCell ref="A79:O79"/>
+    <x:mergeCell ref="P79:T79"/>
+    <x:mergeCell ref="A80:I80"/>
+    <x:mergeCell ref="K80:O80"/>
+    <x:mergeCell ref="A81:I81"/>
+    <x:mergeCell ref="K81:O81"/>
+    <x:mergeCell ref="A82:I82"/>
+    <x:mergeCell ref="K82:O82"/>
+    <x:mergeCell ref="A83:I83"/>
+    <x:mergeCell ref="K83:O83"/>
+    <x:mergeCell ref="R84:R85"/>
+    <x:mergeCell ref="T84:T85"/>
+    <x:mergeCell ref="D87:M87"/>
+    <x:mergeCell ref="N87:O87"/>
+    <x:mergeCell ref="P87:S87"/>
+    <x:mergeCell ref="A90:O90"/>
+    <x:mergeCell ref="P90:T90"/>
+    <x:mergeCell ref="A91:I91"/>
+    <x:mergeCell ref="K91:O91"/>
+    <x:mergeCell ref="A92:I92"/>
+    <x:mergeCell ref="K92:O92"/>
+    <x:mergeCell ref="A93:I93"/>
+    <x:mergeCell ref="K93:O93"/>
+    <x:mergeCell ref="A94:I94"/>
+    <x:mergeCell ref="K94:O94"/>
+    <x:mergeCell ref="R95:R96"/>
+    <x:mergeCell ref="T95:T96"/>
+    <x:mergeCell ref="D98:M98"/>
+    <x:mergeCell ref="N98:O98"/>
+    <x:mergeCell ref="P98:S98"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.3937" right="0.19685" top="0.51181" bottom="0.47243999999999997" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageMargins left="0.7874" right="0.19685" top="0" bottom="0" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,21 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <x:si>
     <x:t>管理事務所</x:t>
   </x:si>
   <x:si>
-    <x:t>口座入金  \4200000-</x:t>
+    <x:t>管理料 木村一浩　2021,2022年度分 \18480-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理料 深浦正興　2021,2022年度分 \55440-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理料 武野眞由美　2021,2022年度分 \36960-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理料 八板千章　2021,2022年度分 \13200-</x:t>
   </x:si>
   <x:si>
     <x:t>林飛</x:t>
   </x:si>
   <x:si>
-    <x:t>133 : セレサ川崎普通貯金</x:t>
+    <x:t>421 : 前受金</x:t>
   </x:si>
   <x:si>
     <x:t>春秋苑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>簡易塔婆立 中村家 \1000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>812 : 焼香台冥加</x:t>
+  </x:si>
+  <x:si>
+    <x:t>お堂 深浦家 \50000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>お堂 中村家 \50000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>お堂 渡邊家（鈴木様） \50000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>813 : 法事冥加</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御布施 深浦家 \30000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御布施 渡邉家（鈴木家） \30000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御布施 柳浦家 \30000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>815 : 冥加読経料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法務部</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御車代 柳浦家 \10000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>832 : 志納金</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -432,7 +480,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T55"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -460,7 +508,7 @@
     <x:row r="1" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
     <x:row r="2" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A2" s="2">
-        <x:v>44248</x:v>
+        <x:v>44268</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s"/>
       <x:c r="C2" s="3" t="s"/>
@@ -509,7 +557,9 @@
       <x:c r="T3" s="4" t="s"/>
     </x:row>
     <x:row r="4" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A4" s="5" t="s"/>
+      <x:c r="A4" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="B4" s="5" t="s"/>
       <x:c r="C4" s="5" t="s"/>
       <x:c r="D4" s="5" t="s"/>
@@ -531,7 +581,9 @@
       <x:c r="T4" s="6" t="s"/>
     </x:row>
     <x:row r="5" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A5" s="5" t="s"/>
+      <x:c r="A5" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="B5" s="5" t="s"/>
       <x:c r="C5" s="5" t="s"/>
       <x:c r="D5" s="5" t="s"/>
@@ -553,7 +605,9 @@
       <x:c r="T5" s="6" t="s"/>
     </x:row>
     <x:row r="6" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A6" s="5" t="s"/>
+      <x:c r="A6" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="B6" s="5" t="s"/>
       <x:c r="C6" s="5" t="s"/>
       <x:c r="D6" s="5" t="s"/>
@@ -578,7 +632,7 @@
       <x:c r="A7" s="5" t="s"/>
       <x:c r="K7" s="5" t="s"/>
       <x:c r="T7" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
@@ -586,9 +640,7 @@
     </x:row>
     <x:row r="9" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="10" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D10" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="D10" s="8" t="s"/>
       <x:c r="E10" s="8" t="s"/>
       <x:c r="F10" s="8" t="s"/>
       <x:c r="G10" s="8" t="s"/>
@@ -598,10 +650,12 @@
       <x:c r="K10" s="8" t="s"/>
       <x:c r="L10" s="8" t="s"/>
       <x:c r="M10" s="8" t="s"/>
-      <x:c r="N10" s="8" t="s"/>
+      <x:c r="N10" s="8" t="s">
+        <x:v>6</x:v>
+      </x:c>
       <x:c r="O10" s="8" t="s"/>
       <x:c r="P10" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q10" s="8" t="s"/>
       <x:c r="R10" s="8" t="s"/>
@@ -612,38 +666,768 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B11" s="10" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C11" s="10" t="n">
-        <x:v>21</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D11" s="9" t="s"/>
       <x:c r="E11" s="9" t="s"/>
       <x:c r="F11" s="9" t="s"/>
-      <x:c r="G11" s="9" t="n">
+      <x:c r="G11" s="9" t="s"/>
+      <x:c r="H11" s="9" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I11" s="9" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J11" s="9" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H11" s="9" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I11" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J11" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="K11" s="9" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L11" s="9" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M11" s="9" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="12" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="13" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A13" s="2">
+        <x:v>44268</x:v>
+      </x:c>
+      <x:c r="B13" s="3" t="s"/>
+      <x:c r="C13" s="3" t="s"/>
+      <x:c r="D13" s="3" t="s"/>
+      <x:c r="E13" s="3" t="s"/>
+      <x:c r="F13" s="3" t="s"/>
+      <x:c r="G13" s="3" t="s"/>
+      <x:c r="H13" s="3" t="s"/>
+      <x:c r="I13" s="3" t="s"/>
+      <x:c r="J13" s="3" t="s"/>
+      <x:c r="K13" s="3" t="s"/>
+      <x:c r="L13" s="3" t="s"/>
+      <x:c r="M13" s="3" t="s"/>
+      <x:c r="N13" s="3" t="s"/>
+      <x:c r="O13" s="3" t="s"/>
+      <x:c r="P13" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q13" s="4" t="s"/>
+      <x:c r="R13" s="4" t="s"/>
+      <x:c r="S13" s="4" t="s"/>
+      <x:c r="T13" s="4" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A14" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B14" s="5" t="s"/>
+      <x:c r="C14" s="5" t="s"/>
+      <x:c r="D14" s="5" t="s"/>
+      <x:c r="E14" s="5" t="s"/>
+      <x:c r="F14" s="5" t="s"/>
+      <x:c r="G14" s="5" t="s"/>
+      <x:c r="H14" s="5" t="s"/>
+      <x:c r="I14" s="5" t="s"/>
+      <x:c r="J14" s="6" t="s"/>
+      <x:c r="K14" s="5" t="s"/>
+      <x:c r="L14" s="5" t="s"/>
+      <x:c r="M14" s="5" t="s"/>
+      <x:c r="N14" s="5" t="s"/>
+      <x:c r="O14" s="5" t="s"/>
+      <x:c r="P14" s="4" t="s"/>
+      <x:c r="Q14" s="4" t="s"/>
+      <x:c r="R14" s="4" t="s"/>
+      <x:c r="S14" s="4" t="s"/>
+      <x:c r="T14" s="4" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A15" s="5" t="s"/>
+      <x:c r="B15" s="5" t="s"/>
+      <x:c r="C15" s="5" t="s"/>
+      <x:c r="D15" s="5" t="s"/>
+      <x:c r="E15" s="5" t="s"/>
+      <x:c r="F15" s="5" t="s"/>
+      <x:c r="G15" s="5" t="s"/>
+      <x:c r="H15" s="5" t="s"/>
+      <x:c r="I15" s="5" t="s"/>
+      <x:c r="J15" s="6" t="s"/>
+      <x:c r="K15" s="5" t="s"/>
+      <x:c r="L15" s="5" t="s"/>
+      <x:c r="M15" s="5" t="s"/>
+      <x:c r="N15" s="5" t="s"/>
+      <x:c r="O15" s="5" t="s"/>
+      <x:c r="P15" s="6" t="s"/>
+      <x:c r="Q15" s="6" t="s"/>
+      <x:c r="R15" s="6" t="s"/>
+      <x:c r="S15" s="6" t="s"/>
+      <x:c r="T15" s="6" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A16" s="5" t="s"/>
+      <x:c r="B16" s="5" t="s"/>
+      <x:c r="C16" s="5" t="s"/>
+      <x:c r="D16" s="5" t="s"/>
+      <x:c r="E16" s="5" t="s"/>
+      <x:c r="F16" s="5" t="s"/>
+      <x:c r="G16" s="5" t="s"/>
+      <x:c r="H16" s="5" t="s"/>
+      <x:c r="I16" s="5" t="s"/>
+      <x:c r="J16" s="6" t="s"/>
+      <x:c r="K16" s="5" t="s"/>
+      <x:c r="L16" s="5" t="s"/>
+      <x:c r="M16" s="5" t="s"/>
+      <x:c r="N16" s="5" t="s"/>
+      <x:c r="O16" s="5" t="s"/>
+      <x:c r="P16" s="6" t="s"/>
+      <x:c r="Q16" s="6" t="s"/>
+      <x:c r="R16" s="6" t="s"/>
+      <x:c r="S16" s="6" t="s"/>
+      <x:c r="T16" s="6" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A17" s="5" t="s"/>
+      <x:c r="B17" s="5" t="s"/>
+      <x:c r="C17" s="5" t="s"/>
+      <x:c r="D17" s="5" t="s"/>
+      <x:c r="E17" s="5" t="s"/>
+      <x:c r="F17" s="5" t="s"/>
+      <x:c r="G17" s="5" t="s"/>
+      <x:c r="H17" s="5" t="s"/>
+      <x:c r="I17" s="5" t="s"/>
+      <x:c r="J17" s="6" t="s"/>
+      <x:c r="K17" s="5" t="s"/>
+      <x:c r="L17" s="5" t="s"/>
+      <x:c r="M17" s="5" t="s"/>
+      <x:c r="N17" s="5" t="s"/>
+      <x:c r="O17" s="5" t="s"/>
+      <x:c r="P17" s="6" t="s"/>
+      <x:c r="Q17" s="6" t="s"/>
+      <x:c r="R17" s="6" t="s"/>
+      <x:c r="S17" s="6" t="s"/>
+      <x:c r="T17" s="6" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A18" s="5" t="s"/>
+      <x:c r="K18" s="5" t="s"/>
+      <x:c r="T18" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T19" s="7" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="21" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D21" s="8" t="s"/>
+      <x:c r="E21" s="8" t="s"/>
+      <x:c r="F21" s="8" t="s"/>
+      <x:c r="G21" s="8" t="s"/>
+      <x:c r="H21" s="8" t="s"/>
+      <x:c r="I21" s="8" t="s"/>
+      <x:c r="J21" s="8" t="s"/>
+      <x:c r="K21" s="8" t="s"/>
+      <x:c r="L21" s="8" t="s"/>
+      <x:c r="M21" s="8" t="s"/>
+      <x:c r="N21" s="8" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="O21" s="8" t="s"/>
+      <x:c r="P21" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="Q21" s="8" t="s"/>
+      <x:c r="R21" s="8" t="s"/>
+      <x:c r="S21" s="8" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A22" s="9" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B22" s="10" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C22" s="10" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D22" s="9" t="s"/>
+      <x:c r="E22" s="9" t="s"/>
+      <x:c r="F22" s="9" t="s"/>
+      <x:c r="G22" s="9" t="s"/>
+      <x:c r="H22" s="9" t="s"/>
+      <x:c r="I22" s="9" t="s"/>
+      <x:c r="J22" s="9" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K22" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L22" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M22" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="24" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A24" s="2">
+        <x:v>44268</x:v>
+      </x:c>
+      <x:c r="B24" s="3" t="s"/>
+      <x:c r="C24" s="3" t="s"/>
+      <x:c r="D24" s="3" t="s"/>
+      <x:c r="E24" s="3" t="s"/>
+      <x:c r="F24" s="3" t="s"/>
+      <x:c r="G24" s="3" t="s"/>
+      <x:c r="H24" s="3" t="s"/>
+      <x:c r="I24" s="3" t="s"/>
+      <x:c r="J24" s="3" t="s"/>
+      <x:c r="K24" s="3" t="s"/>
+      <x:c r="L24" s="3" t="s"/>
+      <x:c r="M24" s="3" t="s"/>
+      <x:c r="N24" s="3" t="s"/>
+      <x:c r="O24" s="3" t="s"/>
+      <x:c r="P24" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q24" s="4" t="s"/>
+      <x:c r="R24" s="4" t="s"/>
+      <x:c r="S24" s="4" t="s"/>
+      <x:c r="T24" s="4" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A25" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B25" s="5" t="s"/>
+      <x:c r="C25" s="5" t="s"/>
+      <x:c r="D25" s="5" t="s"/>
+      <x:c r="E25" s="5" t="s"/>
+      <x:c r="F25" s="5" t="s"/>
+      <x:c r="G25" s="5" t="s"/>
+      <x:c r="H25" s="5" t="s"/>
+      <x:c r="I25" s="5" t="s"/>
+      <x:c r="J25" s="6" t="s"/>
+      <x:c r="K25" s="5" t="s"/>
+      <x:c r="L25" s="5" t="s"/>
+      <x:c r="M25" s="5" t="s"/>
+      <x:c r="N25" s="5" t="s"/>
+      <x:c r="O25" s="5" t="s"/>
+      <x:c r="P25" s="4" t="s"/>
+      <x:c r="Q25" s="4" t="s"/>
+      <x:c r="R25" s="4" t="s"/>
+      <x:c r="S25" s="4" t="s"/>
+      <x:c r="T25" s="4" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A26" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B26" s="5" t="s"/>
+      <x:c r="C26" s="5" t="s"/>
+      <x:c r="D26" s="5" t="s"/>
+      <x:c r="E26" s="5" t="s"/>
+      <x:c r="F26" s="5" t="s"/>
+      <x:c r="G26" s="5" t="s"/>
+      <x:c r="H26" s="5" t="s"/>
+      <x:c r="I26" s="5" t="s"/>
+      <x:c r="J26" s="6" t="s"/>
+      <x:c r="K26" s="5" t="s"/>
+      <x:c r="L26" s="5" t="s"/>
+      <x:c r="M26" s="5" t="s"/>
+      <x:c r="N26" s="5" t="s"/>
+      <x:c r="O26" s="5" t="s"/>
+      <x:c r="P26" s="6" t="s"/>
+      <x:c r="Q26" s="6" t="s"/>
+      <x:c r="R26" s="6" t="s"/>
+      <x:c r="S26" s="6" t="s"/>
+      <x:c r="T26" s="6" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A27" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B27" s="5" t="s"/>
+      <x:c r="C27" s="5" t="s"/>
+      <x:c r="D27" s="5" t="s"/>
+      <x:c r="E27" s="5" t="s"/>
+      <x:c r="F27" s="5" t="s"/>
+      <x:c r="G27" s="5" t="s"/>
+      <x:c r="H27" s="5" t="s"/>
+      <x:c r="I27" s="5" t="s"/>
+      <x:c r="J27" s="6" t="s"/>
+      <x:c r="K27" s="5" t="s"/>
+      <x:c r="L27" s="5" t="s"/>
+      <x:c r="M27" s="5" t="s"/>
+      <x:c r="N27" s="5" t="s"/>
+      <x:c r="O27" s="5" t="s"/>
+      <x:c r="P27" s="6" t="s"/>
+      <x:c r="Q27" s="6" t="s"/>
+      <x:c r="R27" s="6" t="s"/>
+      <x:c r="S27" s="6" t="s"/>
+      <x:c r="T27" s="6" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A28" s="5" t="s"/>
+      <x:c r="B28" s="5" t="s"/>
+      <x:c r="C28" s="5" t="s"/>
+      <x:c r="D28" s="5" t="s"/>
+      <x:c r="E28" s="5" t="s"/>
+      <x:c r="F28" s="5" t="s"/>
+      <x:c r="G28" s="5" t="s"/>
+      <x:c r="H28" s="5" t="s"/>
+      <x:c r="I28" s="5" t="s"/>
+      <x:c r="J28" s="6" t="s"/>
+      <x:c r="K28" s="5" t="s"/>
+      <x:c r="L28" s="5" t="s"/>
+      <x:c r="M28" s="5" t="s"/>
+      <x:c r="N28" s="5" t="s"/>
+      <x:c r="O28" s="5" t="s"/>
+      <x:c r="P28" s="6" t="s"/>
+      <x:c r="Q28" s="6" t="s"/>
+      <x:c r="R28" s="6" t="s"/>
+      <x:c r="S28" s="6" t="s"/>
+      <x:c r="T28" s="6" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A29" s="5" t="s"/>
+      <x:c r="K29" s="5" t="s"/>
+      <x:c r="T29" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T30" s="7" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="32" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D32" s="8" t="s"/>
+      <x:c r="E32" s="8" t="s"/>
+      <x:c r="F32" s="8" t="s"/>
+      <x:c r="G32" s="8" t="s"/>
+      <x:c r="H32" s="8" t="s"/>
+      <x:c r="I32" s="8" t="s"/>
+      <x:c r="J32" s="8" t="s"/>
+      <x:c r="K32" s="8" t="s"/>
+      <x:c r="L32" s="8" t="s"/>
+      <x:c r="M32" s="8" t="s"/>
+      <x:c r="N32" s="8" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O32" s="8" t="s"/>
+      <x:c r="P32" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="Q32" s="8" t="s"/>
+      <x:c r="R32" s="8" t="s"/>
+      <x:c r="S32" s="8" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A33" s="9" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B33" s="10" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C33" s="10" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D33" s="9" t="s"/>
+      <x:c r="E33" s="9" t="s"/>
+      <x:c r="F33" s="9" t="s"/>
+      <x:c r="G33" s="9" t="s"/>
+      <x:c r="H33" s="9" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I33" s="9" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J33" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K33" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L33" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M33" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="35" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A35" s="2">
+        <x:v>44268</x:v>
+      </x:c>
+      <x:c r="B35" s="3" t="s"/>
+      <x:c r="C35" s="3" t="s"/>
+      <x:c r="D35" s="3" t="s"/>
+      <x:c r="E35" s="3" t="s"/>
+      <x:c r="F35" s="3" t="s"/>
+      <x:c r="G35" s="3" t="s"/>
+      <x:c r="H35" s="3" t="s"/>
+      <x:c r="I35" s="3" t="s"/>
+      <x:c r="J35" s="3" t="s"/>
+      <x:c r="K35" s="3" t="s"/>
+      <x:c r="L35" s="3" t="s"/>
+      <x:c r="M35" s="3" t="s"/>
+      <x:c r="N35" s="3" t="s"/>
+      <x:c r="O35" s="3" t="s"/>
+      <x:c r="P35" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q35" s="4" t="s"/>
+      <x:c r="R35" s="4" t="s"/>
+      <x:c r="S35" s="4" t="s"/>
+      <x:c r="T35" s="4" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A36" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B36" s="5" t="s"/>
+      <x:c r="C36" s="5" t="s"/>
+      <x:c r="D36" s="5" t="s"/>
+      <x:c r="E36" s="5" t="s"/>
+      <x:c r="F36" s="5" t="s"/>
+      <x:c r="G36" s="5" t="s"/>
+      <x:c r="H36" s="5" t="s"/>
+      <x:c r="I36" s="5" t="s"/>
+      <x:c r="J36" s="6" t="s"/>
+      <x:c r="K36" s="5" t="s"/>
+      <x:c r="L36" s="5" t="s"/>
+      <x:c r="M36" s="5" t="s"/>
+      <x:c r="N36" s="5" t="s"/>
+      <x:c r="O36" s="5" t="s"/>
+      <x:c r="P36" s="4" t="s"/>
+      <x:c r="Q36" s="4" t="s"/>
+      <x:c r="R36" s="4" t="s"/>
+      <x:c r="S36" s="4" t="s"/>
+      <x:c r="T36" s="4" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A37" s="5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B37" s="5" t="s"/>
+      <x:c r="C37" s="5" t="s"/>
+      <x:c r="D37" s="5" t="s"/>
+      <x:c r="E37" s="5" t="s"/>
+      <x:c r="F37" s="5" t="s"/>
+      <x:c r="G37" s="5" t="s"/>
+      <x:c r="H37" s="5" t="s"/>
+      <x:c r="I37" s="5" t="s"/>
+      <x:c r="J37" s="6" t="s"/>
+      <x:c r="K37" s="5" t="s"/>
+      <x:c r="L37" s="5" t="s"/>
+      <x:c r="M37" s="5" t="s"/>
+      <x:c r="N37" s="5" t="s"/>
+      <x:c r="O37" s="5" t="s"/>
+      <x:c r="P37" s="6" t="s"/>
+      <x:c r="Q37" s="6" t="s"/>
+      <x:c r="R37" s="6" t="s"/>
+      <x:c r="S37" s="6" t="s"/>
+      <x:c r="T37" s="6" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A38" s="5" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B38" s="5" t="s"/>
+      <x:c r="C38" s="5" t="s"/>
+      <x:c r="D38" s="5" t="s"/>
+      <x:c r="E38" s="5" t="s"/>
+      <x:c r="F38" s="5" t="s"/>
+      <x:c r="G38" s="5" t="s"/>
+      <x:c r="H38" s="5" t="s"/>
+      <x:c r="I38" s="5" t="s"/>
+      <x:c r="J38" s="6" t="s"/>
+      <x:c r="K38" s="5" t="s"/>
+      <x:c r="L38" s="5" t="s"/>
+      <x:c r="M38" s="5" t="s"/>
+      <x:c r="N38" s="5" t="s"/>
+      <x:c r="O38" s="5" t="s"/>
+      <x:c r="P38" s="6" t="s"/>
+      <x:c r="Q38" s="6" t="s"/>
+      <x:c r="R38" s="6" t="s"/>
+      <x:c r="S38" s="6" t="s"/>
+      <x:c r="T38" s="6" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A39" s="5" t="s"/>
+      <x:c r="B39" s="5" t="s"/>
+      <x:c r="C39" s="5" t="s"/>
+      <x:c r="D39" s="5" t="s"/>
+      <x:c r="E39" s="5" t="s"/>
+      <x:c r="F39" s="5" t="s"/>
+      <x:c r="G39" s="5" t="s"/>
+      <x:c r="H39" s="5" t="s"/>
+      <x:c r="I39" s="5" t="s"/>
+      <x:c r="J39" s="6" t="s"/>
+      <x:c r="K39" s="5" t="s"/>
+      <x:c r="L39" s="5" t="s"/>
+      <x:c r="M39" s="5" t="s"/>
+      <x:c r="N39" s="5" t="s"/>
+      <x:c r="O39" s="5" t="s"/>
+      <x:c r="P39" s="6" t="s"/>
+      <x:c r="Q39" s="6" t="s"/>
+      <x:c r="R39" s="6" t="s"/>
+      <x:c r="S39" s="6" t="s"/>
+      <x:c r="T39" s="6" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A40" s="5" t="s"/>
+      <x:c r="K40" s="5" t="s"/>
+      <x:c r="T40" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T41" s="7" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="43" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D43" s="8" t="s"/>
+      <x:c r="E43" s="8" t="s"/>
+      <x:c r="F43" s="8" t="s"/>
+      <x:c r="G43" s="8" t="s"/>
+      <x:c r="H43" s="8" t="s"/>
+      <x:c r="I43" s="8" t="s"/>
+      <x:c r="J43" s="8" t="s"/>
+      <x:c r="K43" s="8" t="s"/>
+      <x:c r="L43" s="8" t="s"/>
+      <x:c r="M43" s="8" t="s"/>
+      <x:c r="N43" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O43" s="8" t="s"/>
+      <x:c r="P43" s="8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="Q43" s="8" t="s"/>
+      <x:c r="R43" s="8" t="s"/>
+      <x:c r="S43" s="8" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A44" s="9" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B44" s="10" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C44" s="10" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D44" s="9" t="s"/>
+      <x:c r="E44" s="9" t="s"/>
+      <x:c r="F44" s="9" t="s"/>
+      <x:c r="G44" s="9" t="s"/>
+      <x:c r="H44" s="9" t="s"/>
+      <x:c r="I44" s="9" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J44" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K44" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L44" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M44" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="46" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A46" s="2">
+        <x:v>44268</x:v>
+      </x:c>
+      <x:c r="B46" s="3" t="s"/>
+      <x:c r="C46" s="3" t="s"/>
+      <x:c r="D46" s="3" t="s"/>
+      <x:c r="E46" s="3" t="s"/>
+      <x:c r="F46" s="3" t="s"/>
+      <x:c r="G46" s="3" t="s"/>
+      <x:c r="H46" s="3" t="s"/>
+      <x:c r="I46" s="3" t="s"/>
+      <x:c r="J46" s="3" t="s"/>
+      <x:c r="K46" s="3" t="s"/>
+      <x:c r="L46" s="3" t="s"/>
+      <x:c r="M46" s="3" t="s"/>
+      <x:c r="N46" s="3" t="s"/>
+      <x:c r="O46" s="3" t="s"/>
+      <x:c r="P46" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q46" s="4" t="s"/>
+      <x:c r="R46" s="4" t="s"/>
+      <x:c r="S46" s="4" t="s"/>
+      <x:c r="T46" s="4" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A47" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B47" s="5" t="s"/>
+      <x:c r="C47" s="5" t="s"/>
+      <x:c r="D47" s="5" t="s"/>
+      <x:c r="E47" s="5" t="s"/>
+      <x:c r="F47" s="5" t="s"/>
+      <x:c r="G47" s="5" t="s"/>
+      <x:c r="H47" s="5" t="s"/>
+      <x:c r="I47" s="5" t="s"/>
+      <x:c r="J47" s="6" t="s"/>
+      <x:c r="K47" s="5" t="s"/>
+      <x:c r="L47" s="5" t="s"/>
+      <x:c r="M47" s="5" t="s"/>
+      <x:c r="N47" s="5" t="s"/>
+      <x:c r="O47" s="5" t="s"/>
+      <x:c r="P47" s="4" t="s"/>
+      <x:c r="Q47" s="4" t="s"/>
+      <x:c r="R47" s="4" t="s"/>
+      <x:c r="S47" s="4" t="s"/>
+      <x:c r="T47" s="4" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A48" s="5" t="s"/>
+      <x:c r="B48" s="5" t="s"/>
+      <x:c r="C48" s="5" t="s"/>
+      <x:c r="D48" s="5" t="s"/>
+      <x:c r="E48" s="5" t="s"/>
+      <x:c r="F48" s="5" t="s"/>
+      <x:c r="G48" s="5" t="s"/>
+      <x:c r="H48" s="5" t="s"/>
+      <x:c r="I48" s="5" t="s"/>
+      <x:c r="J48" s="6" t="s"/>
+      <x:c r="K48" s="5" t="s"/>
+      <x:c r="L48" s="5" t="s"/>
+      <x:c r="M48" s="5" t="s"/>
+      <x:c r="N48" s="5" t="s"/>
+      <x:c r="O48" s="5" t="s"/>
+      <x:c r="P48" s="6" t="s"/>
+      <x:c r="Q48" s="6" t="s"/>
+      <x:c r="R48" s="6" t="s"/>
+      <x:c r="S48" s="6" t="s"/>
+      <x:c r="T48" s="6" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A49" s="5" t="s"/>
+      <x:c r="B49" s="5" t="s"/>
+      <x:c r="C49" s="5" t="s"/>
+      <x:c r="D49" s="5" t="s"/>
+      <x:c r="E49" s="5" t="s"/>
+      <x:c r="F49" s="5" t="s"/>
+      <x:c r="G49" s="5" t="s"/>
+      <x:c r="H49" s="5" t="s"/>
+      <x:c r="I49" s="5" t="s"/>
+      <x:c r="J49" s="6" t="s"/>
+      <x:c r="K49" s="5" t="s"/>
+      <x:c r="L49" s="5" t="s"/>
+      <x:c r="M49" s="5" t="s"/>
+      <x:c r="N49" s="5" t="s"/>
+      <x:c r="O49" s="5" t="s"/>
+      <x:c r="P49" s="6" t="s"/>
+      <x:c r="Q49" s="6" t="s"/>
+      <x:c r="R49" s="6" t="s"/>
+      <x:c r="S49" s="6" t="s"/>
+      <x:c r="T49" s="6" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A50" s="5" t="s"/>
+      <x:c r="B50" s="5" t="s"/>
+      <x:c r="C50" s="5" t="s"/>
+      <x:c r="D50" s="5" t="s"/>
+      <x:c r="E50" s="5" t="s"/>
+      <x:c r="F50" s="5" t="s"/>
+      <x:c r="G50" s="5" t="s"/>
+      <x:c r="H50" s="5" t="s"/>
+      <x:c r="I50" s="5" t="s"/>
+      <x:c r="J50" s="6" t="s"/>
+      <x:c r="K50" s="5" t="s"/>
+      <x:c r="L50" s="5" t="s"/>
+      <x:c r="M50" s="5" t="s"/>
+      <x:c r="N50" s="5" t="s"/>
+      <x:c r="O50" s="5" t="s"/>
+      <x:c r="P50" s="6" t="s"/>
+      <x:c r="Q50" s="6" t="s"/>
+      <x:c r="R50" s="6" t="s"/>
+      <x:c r="S50" s="6" t="s"/>
+      <x:c r="T50" s="6" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A51" s="5" t="s"/>
+      <x:c r="K51" s="5" t="s"/>
+      <x:c r="T51" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T52" s="7" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="54" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D54" s="8" t="s"/>
+      <x:c r="E54" s="8" t="s"/>
+      <x:c r="F54" s="8" t="s"/>
+      <x:c r="G54" s="8" t="s"/>
+      <x:c r="H54" s="8" t="s"/>
+      <x:c r="I54" s="8" t="s"/>
+      <x:c r="J54" s="8" t="s"/>
+      <x:c r="K54" s="8" t="s"/>
+      <x:c r="L54" s="8" t="s"/>
+      <x:c r="M54" s="8" t="s"/>
+      <x:c r="N54" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="O54" s="8" t="s"/>
+      <x:c r="P54" s="8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="Q54" s="8" t="s"/>
+      <x:c r="R54" s="8" t="s"/>
+      <x:c r="S54" s="8" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A55" s="9" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B55" s="10" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C55" s="10" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D55" s="9" t="s"/>
+      <x:c r="E55" s="9" t="s"/>
+      <x:c r="F55" s="9" t="s"/>
+      <x:c r="G55" s="9" t="s"/>
+      <x:c r="H55" s="9" t="s"/>
+      <x:c r="I55" s="9" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J55" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K55" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L55" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M55" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="16">
+  <x:mergeCells count="80">
     <x:mergeCell ref="A2:O2"/>
     <x:mergeCell ref="P2:T2"/>
     <x:mergeCell ref="A3:I3"/>
@@ -660,6 +1444,70 @@
     <x:mergeCell ref="D10:M10"/>
     <x:mergeCell ref="N10:O10"/>
     <x:mergeCell ref="P10:S10"/>
+    <x:mergeCell ref="A13:O13"/>
+    <x:mergeCell ref="P13:T13"/>
+    <x:mergeCell ref="A14:I14"/>
+    <x:mergeCell ref="K14:O14"/>
+    <x:mergeCell ref="P14:T14"/>
+    <x:mergeCell ref="A15:I15"/>
+    <x:mergeCell ref="K15:O15"/>
+    <x:mergeCell ref="A16:I16"/>
+    <x:mergeCell ref="K16:O16"/>
+    <x:mergeCell ref="A17:I17"/>
+    <x:mergeCell ref="K17:O17"/>
+    <x:mergeCell ref="R18:R19"/>
+    <x:mergeCell ref="T18:T19"/>
+    <x:mergeCell ref="D21:M21"/>
+    <x:mergeCell ref="N21:O21"/>
+    <x:mergeCell ref="P21:S21"/>
+    <x:mergeCell ref="A24:O24"/>
+    <x:mergeCell ref="P24:T24"/>
+    <x:mergeCell ref="A25:I25"/>
+    <x:mergeCell ref="K25:O25"/>
+    <x:mergeCell ref="P25:T25"/>
+    <x:mergeCell ref="A26:I26"/>
+    <x:mergeCell ref="K26:O26"/>
+    <x:mergeCell ref="A27:I27"/>
+    <x:mergeCell ref="K27:O27"/>
+    <x:mergeCell ref="A28:I28"/>
+    <x:mergeCell ref="K28:O28"/>
+    <x:mergeCell ref="R29:R30"/>
+    <x:mergeCell ref="T29:T30"/>
+    <x:mergeCell ref="D32:M32"/>
+    <x:mergeCell ref="N32:O32"/>
+    <x:mergeCell ref="P32:S32"/>
+    <x:mergeCell ref="A35:O35"/>
+    <x:mergeCell ref="P35:T35"/>
+    <x:mergeCell ref="A36:I36"/>
+    <x:mergeCell ref="K36:O36"/>
+    <x:mergeCell ref="P36:T36"/>
+    <x:mergeCell ref="A37:I37"/>
+    <x:mergeCell ref="K37:O37"/>
+    <x:mergeCell ref="A38:I38"/>
+    <x:mergeCell ref="K38:O38"/>
+    <x:mergeCell ref="A39:I39"/>
+    <x:mergeCell ref="K39:O39"/>
+    <x:mergeCell ref="R40:R41"/>
+    <x:mergeCell ref="T40:T41"/>
+    <x:mergeCell ref="D43:M43"/>
+    <x:mergeCell ref="N43:O43"/>
+    <x:mergeCell ref="P43:S43"/>
+    <x:mergeCell ref="A46:O46"/>
+    <x:mergeCell ref="P46:T46"/>
+    <x:mergeCell ref="A47:I47"/>
+    <x:mergeCell ref="K47:O47"/>
+    <x:mergeCell ref="P47:T47"/>
+    <x:mergeCell ref="A48:I48"/>
+    <x:mergeCell ref="K48:O48"/>
+    <x:mergeCell ref="A49:I49"/>
+    <x:mergeCell ref="K49:O49"/>
+    <x:mergeCell ref="A50:I50"/>
+    <x:mergeCell ref="K50:O50"/>
+    <x:mergeCell ref="R51:R52"/>
+    <x:mergeCell ref="T51:T52"/>
+    <x:mergeCell ref="D54:M54"/>
+    <x:mergeCell ref="N54:O54"/>
+    <x:mergeCell ref="P54:S54"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7874" right="0.19685" top="0" bottom="0" header="0.5" footer="0.75"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,69 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
     <x:t>管理事務所</x:t>
   </x:si>
   <x:si>
-    <x:t>管理料 木村一浩　2021,2022年度分 \18480-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>管理料 深浦正興　2021,2022年度分 \55440-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>管理料 武野眞由美　2021,2022年度分 \36960-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>管理料 八板千章　2021,2022年度分 \13200-</x:t>
+    <x:t>口座入金  \1,600,000-</x:t>
   </x:si>
   <x:si>
     <x:t>林飛</x:t>
   </x:si>
   <x:si>
-    <x:t>421 : 前受金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>春秋苑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>簡易塔婆立 中村家 \1000-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>812 : 焼香台冥加</x:t>
-  </x:si>
-  <x:si>
-    <x:t>お堂 深浦家 \50000-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>お堂 中村家 \50000-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>お堂 渡邊家（鈴木様） \50000-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>813 : 法事冥加</x:t>
-  </x:si>
-  <x:si>
-    <x:t>御布施 深浦家 \30000-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>御布施 渡邉家（鈴木家） \30000-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>御布施 柳浦家 \30000-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>815 : 冥加読経料</x:t>
+    <x:t>133 : セレサ川崎普通貯金</x:t>
   </x:si>
   <x:si>
     <x:t>法務部</x:t>
   </x:si>
   <x:si>
-    <x:t>御車代 柳浦家 \10000-</x:t>
+    <x:t>交通費 中日本高速道路 \1,160-</x:t>
   </x:si>
   <x:si>
-    <x:t>832 : 志納金</x:t>
+    <x:t>611 : 旅費交通費</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -170,7 +128,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -480,7 +438,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T55"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -508,7 +466,7 @@
     <x:row r="1" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
     <x:row r="2" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A2" s="2">
-        <x:v>44268</x:v>
+        <x:v>44269</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s"/>
       <x:c r="C2" s="3" t="s"/>
@@ -557,9 +515,7 @@
       <x:c r="T3" s="4" t="s"/>
     </x:row>
     <x:row r="4" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A4" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
+      <x:c r="A4" s="5" t="s"/>
       <x:c r="B4" s="5" t="s"/>
       <x:c r="C4" s="5" t="s"/>
       <x:c r="D4" s="5" t="s"/>
@@ -581,9 +537,7 @@
       <x:c r="T4" s="6" t="s"/>
     </x:row>
     <x:row r="5" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A5" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="A5" s="5" t="s"/>
       <x:c r="B5" s="5" t="s"/>
       <x:c r="C5" s="5" t="s"/>
       <x:c r="D5" s="5" t="s"/>
@@ -605,9 +559,7 @@
       <x:c r="T5" s="6" t="s"/>
     </x:row>
     <x:row r="6" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A6" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="A6" s="5" t="s"/>
       <x:c r="B6" s="5" t="s"/>
       <x:c r="C6" s="5" t="s"/>
       <x:c r="D6" s="5" t="s"/>
@@ -632,7 +584,7 @@
       <x:c r="A7" s="5" t="s"/>
       <x:c r="K7" s="5" t="s"/>
       <x:c r="T7" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
@@ -640,7 +592,9 @@
     </x:row>
     <x:row r="9" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="10" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D10" s="8" t="s"/>
+      <x:c r="D10" s="8" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="E10" s="8" t="s"/>
       <x:c r="F10" s="8" t="s"/>
       <x:c r="G10" s="8" t="s"/>
@@ -650,12 +604,10 @@
       <x:c r="K10" s="8" t="s"/>
       <x:c r="L10" s="8" t="s"/>
       <x:c r="M10" s="8" t="s"/>
-      <x:c r="N10" s="8" t="s">
-        <x:v>6</x:v>
-      </x:c>
+      <x:c r="N10" s="8" t="s"/>
       <x:c r="O10" s="8" t="s"/>
       <x:c r="P10" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q10" s="8" t="s"/>
       <x:c r="R10" s="8" t="s"/>
@@ -669,26 +621,28 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C11" s="10" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D11" s="9" t="s"/>
       <x:c r="E11" s="9" t="s"/>
       <x:c r="F11" s="9" t="s"/>
-      <x:c r="G11" s="9" t="s"/>
+      <x:c r="G11" s="9" t="n">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="H11" s="9" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I11" s="9" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J11" s="9" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K11" s="9" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L11" s="9" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M11" s="9" t="n">
         <x:v>0</x:v>
@@ -697,7 +651,7 @@
     <x:row r="12" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
     <x:row r="13" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A13" s="2">
-        <x:v>44268</x:v>
+        <x:v>44269</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s"/>
       <x:c r="C13" s="3" t="s"/>
@@ -723,7 +677,7 @@
     </x:row>
     <x:row r="14" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A14" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B14" s="5" t="s"/>
       <x:c r="C14" s="5" t="s"/>
@@ -815,7 +769,7 @@
       <x:c r="A18" s="5" t="s"/>
       <x:c r="K18" s="5" t="s"/>
       <x:c r="T18" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
@@ -823,7 +777,9 @@
     </x:row>
     <x:row r="20" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="21" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D21" s="8" t="s"/>
+      <x:c r="D21" s="8" t="s">
+        <x:v>6</x:v>
+      </x:c>
       <x:c r="E21" s="8" t="s"/>
       <x:c r="F21" s="8" t="s"/>
       <x:c r="G21" s="8" t="s"/>
@@ -833,12 +789,10 @@
       <x:c r="K21" s="8" t="s"/>
       <x:c r="L21" s="8" t="s"/>
       <x:c r="M21" s="8" t="s"/>
-      <x:c r="N21" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
+      <x:c r="N21" s="8" t="s"/>
       <x:c r="O21" s="8" t="s"/>
       <x:c r="P21" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q21" s="8" t="s"/>
       <x:c r="R21" s="8" t="s"/>
@@ -852,7 +806,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C22" s="10" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D22" s="9" t="s"/>
       <x:c r="E22" s="9" t="s"/>
@@ -864,570 +818,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K22" s="9" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L22" s="9" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M22" s="9" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
-    <x:row r="24" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A24" s="2">
-        <x:v>44268</x:v>
-      </x:c>
-      <x:c r="B24" s="3" t="s"/>
-      <x:c r="C24" s="3" t="s"/>
-      <x:c r="D24" s="3" t="s"/>
-      <x:c r="E24" s="3" t="s"/>
-      <x:c r="F24" s="3" t="s"/>
-      <x:c r="G24" s="3" t="s"/>
-      <x:c r="H24" s="3" t="s"/>
-      <x:c r="I24" s="3" t="s"/>
-      <x:c r="J24" s="3" t="s"/>
-      <x:c r="K24" s="3" t="s"/>
-      <x:c r="L24" s="3" t="s"/>
-      <x:c r="M24" s="3" t="s"/>
-      <x:c r="N24" s="3" t="s"/>
-      <x:c r="O24" s="3" t="s"/>
-      <x:c r="P24" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q24" s="4" t="s"/>
-      <x:c r="R24" s="4" t="s"/>
-      <x:c r="S24" s="4" t="s"/>
-      <x:c r="T24" s="4" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A25" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B25" s="5" t="s"/>
-      <x:c r="C25" s="5" t="s"/>
-      <x:c r="D25" s="5" t="s"/>
-      <x:c r="E25" s="5" t="s"/>
-      <x:c r="F25" s="5" t="s"/>
-      <x:c r="G25" s="5" t="s"/>
-      <x:c r="H25" s="5" t="s"/>
-      <x:c r="I25" s="5" t="s"/>
-      <x:c r="J25" s="6" t="s"/>
-      <x:c r="K25" s="5" t="s"/>
-      <x:c r="L25" s="5" t="s"/>
-      <x:c r="M25" s="5" t="s"/>
-      <x:c r="N25" s="5" t="s"/>
-      <x:c r="O25" s="5" t="s"/>
-      <x:c r="P25" s="4" t="s"/>
-      <x:c r="Q25" s="4" t="s"/>
-      <x:c r="R25" s="4" t="s"/>
-      <x:c r="S25" s="4" t="s"/>
-      <x:c r="T25" s="4" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A26" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B26" s="5" t="s"/>
-      <x:c r="C26" s="5" t="s"/>
-      <x:c r="D26" s="5" t="s"/>
-      <x:c r="E26" s="5" t="s"/>
-      <x:c r="F26" s="5" t="s"/>
-      <x:c r="G26" s="5" t="s"/>
-      <x:c r="H26" s="5" t="s"/>
-      <x:c r="I26" s="5" t="s"/>
-      <x:c r="J26" s="6" t="s"/>
-      <x:c r="K26" s="5" t="s"/>
-      <x:c r="L26" s="5" t="s"/>
-      <x:c r="M26" s="5" t="s"/>
-      <x:c r="N26" s="5" t="s"/>
-      <x:c r="O26" s="5" t="s"/>
-      <x:c r="P26" s="6" t="s"/>
-      <x:c r="Q26" s="6" t="s"/>
-      <x:c r="R26" s="6" t="s"/>
-      <x:c r="S26" s="6" t="s"/>
-      <x:c r="T26" s="6" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A27" s="5" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B27" s="5" t="s"/>
-      <x:c r="C27" s="5" t="s"/>
-      <x:c r="D27" s="5" t="s"/>
-      <x:c r="E27" s="5" t="s"/>
-      <x:c r="F27" s="5" t="s"/>
-      <x:c r="G27" s="5" t="s"/>
-      <x:c r="H27" s="5" t="s"/>
-      <x:c r="I27" s="5" t="s"/>
-      <x:c r="J27" s="6" t="s"/>
-      <x:c r="K27" s="5" t="s"/>
-      <x:c r="L27" s="5" t="s"/>
-      <x:c r="M27" s="5" t="s"/>
-      <x:c r="N27" s="5" t="s"/>
-      <x:c r="O27" s="5" t="s"/>
-      <x:c r="P27" s="6" t="s"/>
-      <x:c r="Q27" s="6" t="s"/>
-      <x:c r="R27" s="6" t="s"/>
-      <x:c r="S27" s="6" t="s"/>
-      <x:c r="T27" s="6" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A28" s="5" t="s"/>
-      <x:c r="B28" s="5" t="s"/>
-      <x:c r="C28" s="5" t="s"/>
-      <x:c r="D28" s="5" t="s"/>
-      <x:c r="E28" s="5" t="s"/>
-      <x:c r="F28" s="5" t="s"/>
-      <x:c r="G28" s="5" t="s"/>
-      <x:c r="H28" s="5" t="s"/>
-      <x:c r="I28" s="5" t="s"/>
-      <x:c r="J28" s="6" t="s"/>
-      <x:c r="K28" s="5" t="s"/>
-      <x:c r="L28" s="5" t="s"/>
-      <x:c r="M28" s="5" t="s"/>
-      <x:c r="N28" s="5" t="s"/>
-      <x:c r="O28" s="5" t="s"/>
-      <x:c r="P28" s="6" t="s"/>
-      <x:c r="Q28" s="6" t="s"/>
-      <x:c r="R28" s="6" t="s"/>
-      <x:c r="S28" s="6" t="s"/>
-      <x:c r="T28" s="6" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A29" s="5" t="s"/>
-      <x:c r="K29" s="5" t="s"/>
-      <x:c r="T29" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T30" s="7" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
-    <x:row r="32" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D32" s="8" t="s"/>
-      <x:c r="E32" s="8" t="s"/>
-      <x:c r="F32" s="8" t="s"/>
-      <x:c r="G32" s="8" t="s"/>
-      <x:c r="H32" s="8" t="s"/>
-      <x:c r="I32" s="8" t="s"/>
-      <x:c r="J32" s="8" t="s"/>
-      <x:c r="K32" s="8" t="s"/>
-      <x:c r="L32" s="8" t="s"/>
-      <x:c r="M32" s="8" t="s"/>
-      <x:c r="N32" s="8" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="O32" s="8" t="s"/>
-      <x:c r="P32" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Q32" s="8" t="s"/>
-      <x:c r="R32" s="8" t="s"/>
-      <x:c r="S32" s="8" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
-      <x:c r="A33" s="9" t="n">
-        <x:v>2021</x:v>
-      </x:c>
-      <x:c r="B33" s="10" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C33" s="10" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D33" s="9" t="s"/>
-      <x:c r="E33" s="9" t="s"/>
-      <x:c r="F33" s="9" t="s"/>
-      <x:c r="G33" s="9" t="s"/>
-      <x:c r="H33" s="9" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I33" s="9" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J33" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K33" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L33" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M33" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
-    <x:row r="35" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A35" s="2">
-        <x:v>44268</x:v>
-      </x:c>
-      <x:c r="B35" s="3" t="s"/>
-      <x:c r="C35" s="3" t="s"/>
-      <x:c r="D35" s="3" t="s"/>
-      <x:c r="E35" s="3" t="s"/>
-      <x:c r="F35" s="3" t="s"/>
-      <x:c r="G35" s="3" t="s"/>
-      <x:c r="H35" s="3" t="s"/>
-      <x:c r="I35" s="3" t="s"/>
-      <x:c r="J35" s="3" t="s"/>
-      <x:c r="K35" s="3" t="s"/>
-      <x:c r="L35" s="3" t="s"/>
-      <x:c r="M35" s="3" t="s"/>
-      <x:c r="N35" s="3" t="s"/>
-      <x:c r="O35" s="3" t="s"/>
-      <x:c r="P35" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q35" s="4" t="s"/>
-      <x:c r="R35" s="4" t="s"/>
-      <x:c r="S35" s="4" t="s"/>
-      <x:c r="T35" s="4" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A36" s="5" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B36" s="5" t="s"/>
-      <x:c r="C36" s="5" t="s"/>
-      <x:c r="D36" s="5" t="s"/>
-      <x:c r="E36" s="5" t="s"/>
-      <x:c r="F36" s="5" t="s"/>
-      <x:c r="G36" s="5" t="s"/>
-      <x:c r="H36" s="5" t="s"/>
-      <x:c r="I36" s="5" t="s"/>
-      <x:c r="J36" s="6" t="s"/>
-      <x:c r="K36" s="5" t="s"/>
-      <x:c r="L36" s="5" t="s"/>
-      <x:c r="M36" s="5" t="s"/>
-      <x:c r="N36" s="5" t="s"/>
-      <x:c r="O36" s="5" t="s"/>
-      <x:c r="P36" s="4" t="s"/>
-      <x:c r="Q36" s="4" t="s"/>
-      <x:c r="R36" s="4" t="s"/>
-      <x:c r="S36" s="4" t="s"/>
-      <x:c r="T36" s="4" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A37" s="5" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B37" s="5" t="s"/>
-      <x:c r="C37" s="5" t="s"/>
-      <x:c r="D37" s="5" t="s"/>
-      <x:c r="E37" s="5" t="s"/>
-      <x:c r="F37" s="5" t="s"/>
-      <x:c r="G37" s="5" t="s"/>
-      <x:c r="H37" s="5" t="s"/>
-      <x:c r="I37" s="5" t="s"/>
-      <x:c r="J37" s="6" t="s"/>
-      <x:c r="K37" s="5" t="s"/>
-      <x:c r="L37" s="5" t="s"/>
-      <x:c r="M37" s="5" t="s"/>
-      <x:c r="N37" s="5" t="s"/>
-      <x:c r="O37" s="5" t="s"/>
-      <x:c r="P37" s="6" t="s"/>
-      <x:c r="Q37" s="6" t="s"/>
-      <x:c r="R37" s="6" t="s"/>
-      <x:c r="S37" s="6" t="s"/>
-      <x:c r="T37" s="6" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A38" s="5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B38" s="5" t="s"/>
-      <x:c r="C38" s="5" t="s"/>
-      <x:c r="D38" s="5" t="s"/>
-      <x:c r="E38" s="5" t="s"/>
-      <x:c r="F38" s="5" t="s"/>
-      <x:c r="G38" s="5" t="s"/>
-      <x:c r="H38" s="5" t="s"/>
-      <x:c r="I38" s="5" t="s"/>
-      <x:c r="J38" s="6" t="s"/>
-      <x:c r="K38" s="5" t="s"/>
-      <x:c r="L38" s="5" t="s"/>
-      <x:c r="M38" s="5" t="s"/>
-      <x:c r="N38" s="5" t="s"/>
-      <x:c r="O38" s="5" t="s"/>
-      <x:c r="P38" s="6" t="s"/>
-      <x:c r="Q38" s="6" t="s"/>
-      <x:c r="R38" s="6" t="s"/>
-      <x:c r="S38" s="6" t="s"/>
-      <x:c r="T38" s="6" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A39" s="5" t="s"/>
-      <x:c r="B39" s="5" t="s"/>
-      <x:c r="C39" s="5" t="s"/>
-      <x:c r="D39" s="5" t="s"/>
-      <x:c r="E39" s="5" t="s"/>
-      <x:c r="F39" s="5" t="s"/>
-      <x:c r="G39" s="5" t="s"/>
-      <x:c r="H39" s="5" t="s"/>
-      <x:c r="I39" s="5" t="s"/>
-      <x:c r="J39" s="6" t="s"/>
-      <x:c r="K39" s="5" t="s"/>
-      <x:c r="L39" s="5" t="s"/>
-      <x:c r="M39" s="5" t="s"/>
-      <x:c r="N39" s="5" t="s"/>
-      <x:c r="O39" s="5" t="s"/>
-      <x:c r="P39" s="6" t="s"/>
-      <x:c r="Q39" s="6" t="s"/>
-      <x:c r="R39" s="6" t="s"/>
-      <x:c r="S39" s="6" t="s"/>
-      <x:c r="T39" s="6" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A40" s="5" t="s"/>
-      <x:c r="K40" s="5" t="s"/>
-      <x:c r="T40" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T41" s="7" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
-    <x:row r="43" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D43" s="8" t="s"/>
-      <x:c r="E43" s="8" t="s"/>
-      <x:c r="F43" s="8" t="s"/>
-      <x:c r="G43" s="8" t="s"/>
-      <x:c r="H43" s="8" t="s"/>
-      <x:c r="I43" s="8" t="s"/>
-      <x:c r="J43" s="8" t="s"/>
-      <x:c r="K43" s="8" t="s"/>
-      <x:c r="L43" s="8" t="s"/>
-      <x:c r="M43" s="8" t="s"/>
-      <x:c r="N43" s="8" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="O43" s="8" t="s"/>
-      <x:c r="P43" s="8" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="Q43" s="8" t="s"/>
-      <x:c r="R43" s="8" t="s"/>
-      <x:c r="S43" s="8" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
-      <x:c r="A44" s="9" t="n">
-        <x:v>2021</x:v>
-      </x:c>
-      <x:c r="B44" s="10" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C44" s="10" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D44" s="9" t="s"/>
-      <x:c r="E44" s="9" t="s"/>
-      <x:c r="F44" s="9" t="s"/>
-      <x:c r="G44" s="9" t="s"/>
-      <x:c r="H44" s="9" t="s"/>
-      <x:c r="I44" s="9" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J44" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K44" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L44" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M44" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
-    <x:row r="46" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A46" s="2">
-        <x:v>44268</x:v>
-      </x:c>
-      <x:c r="B46" s="3" t="s"/>
-      <x:c r="C46" s="3" t="s"/>
-      <x:c r="D46" s="3" t="s"/>
-      <x:c r="E46" s="3" t="s"/>
-      <x:c r="F46" s="3" t="s"/>
-      <x:c r="G46" s="3" t="s"/>
-      <x:c r="H46" s="3" t="s"/>
-      <x:c r="I46" s="3" t="s"/>
-      <x:c r="J46" s="3" t="s"/>
-      <x:c r="K46" s="3" t="s"/>
-      <x:c r="L46" s="3" t="s"/>
-      <x:c r="M46" s="3" t="s"/>
-      <x:c r="N46" s="3" t="s"/>
-      <x:c r="O46" s="3" t="s"/>
-      <x:c r="P46" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q46" s="4" t="s"/>
-      <x:c r="R46" s="4" t="s"/>
-      <x:c r="S46" s="4" t="s"/>
-      <x:c r="T46" s="4" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A47" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B47" s="5" t="s"/>
-      <x:c r="C47" s="5" t="s"/>
-      <x:c r="D47" s="5" t="s"/>
-      <x:c r="E47" s="5" t="s"/>
-      <x:c r="F47" s="5" t="s"/>
-      <x:c r="G47" s="5" t="s"/>
-      <x:c r="H47" s="5" t="s"/>
-      <x:c r="I47" s="5" t="s"/>
-      <x:c r="J47" s="6" t="s"/>
-      <x:c r="K47" s="5" t="s"/>
-      <x:c r="L47" s="5" t="s"/>
-      <x:c r="M47" s="5" t="s"/>
-      <x:c r="N47" s="5" t="s"/>
-      <x:c r="O47" s="5" t="s"/>
-      <x:c r="P47" s="4" t="s"/>
-      <x:c r="Q47" s="4" t="s"/>
-      <x:c r="R47" s="4" t="s"/>
-      <x:c r="S47" s="4" t="s"/>
-      <x:c r="T47" s="4" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A48" s="5" t="s"/>
-      <x:c r="B48" s="5" t="s"/>
-      <x:c r="C48" s="5" t="s"/>
-      <x:c r="D48" s="5" t="s"/>
-      <x:c r="E48" s="5" t="s"/>
-      <x:c r="F48" s="5" t="s"/>
-      <x:c r="G48" s="5" t="s"/>
-      <x:c r="H48" s="5" t="s"/>
-      <x:c r="I48" s="5" t="s"/>
-      <x:c r="J48" s="6" t="s"/>
-      <x:c r="K48" s="5" t="s"/>
-      <x:c r="L48" s="5" t="s"/>
-      <x:c r="M48" s="5" t="s"/>
-      <x:c r="N48" s="5" t="s"/>
-      <x:c r="O48" s="5" t="s"/>
-      <x:c r="P48" s="6" t="s"/>
-      <x:c r="Q48" s="6" t="s"/>
-      <x:c r="R48" s="6" t="s"/>
-      <x:c r="S48" s="6" t="s"/>
-      <x:c r="T48" s="6" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A49" s="5" t="s"/>
-      <x:c r="B49" s="5" t="s"/>
-      <x:c r="C49" s="5" t="s"/>
-      <x:c r="D49" s="5" t="s"/>
-      <x:c r="E49" s="5" t="s"/>
-      <x:c r="F49" s="5" t="s"/>
-      <x:c r="G49" s="5" t="s"/>
-      <x:c r="H49" s="5" t="s"/>
-      <x:c r="I49" s="5" t="s"/>
-      <x:c r="J49" s="6" t="s"/>
-      <x:c r="K49" s="5" t="s"/>
-      <x:c r="L49" s="5" t="s"/>
-      <x:c r="M49" s="5" t="s"/>
-      <x:c r="N49" s="5" t="s"/>
-      <x:c r="O49" s="5" t="s"/>
-      <x:c r="P49" s="6" t="s"/>
-      <x:c r="Q49" s="6" t="s"/>
-      <x:c r="R49" s="6" t="s"/>
-      <x:c r="S49" s="6" t="s"/>
-      <x:c r="T49" s="6" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A50" s="5" t="s"/>
-      <x:c r="B50" s="5" t="s"/>
-      <x:c r="C50" s="5" t="s"/>
-      <x:c r="D50" s="5" t="s"/>
-      <x:c r="E50" s="5" t="s"/>
-      <x:c r="F50" s="5" t="s"/>
-      <x:c r="G50" s="5" t="s"/>
-      <x:c r="H50" s="5" t="s"/>
-      <x:c r="I50" s="5" t="s"/>
-      <x:c r="J50" s="6" t="s"/>
-      <x:c r="K50" s="5" t="s"/>
-      <x:c r="L50" s="5" t="s"/>
-      <x:c r="M50" s="5" t="s"/>
-      <x:c r="N50" s="5" t="s"/>
-      <x:c r="O50" s="5" t="s"/>
-      <x:c r="P50" s="6" t="s"/>
-      <x:c r="Q50" s="6" t="s"/>
-      <x:c r="R50" s="6" t="s"/>
-      <x:c r="S50" s="6" t="s"/>
-      <x:c r="T50" s="6" t="s"/>
-    </x:row>
-    <x:row r="51" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A51" s="5" t="s"/>
-      <x:c r="K51" s="5" t="s"/>
-      <x:c r="T51" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T52" s="7" t="s"/>
-    </x:row>
-    <x:row r="53" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
-    <x:row r="54" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D54" s="8" t="s"/>
-      <x:c r="E54" s="8" t="s"/>
-      <x:c r="F54" s="8" t="s"/>
-      <x:c r="G54" s="8" t="s"/>
-      <x:c r="H54" s="8" t="s"/>
-      <x:c r="I54" s="8" t="s"/>
-      <x:c r="J54" s="8" t="s"/>
-      <x:c r="K54" s="8" t="s"/>
-      <x:c r="L54" s="8" t="s"/>
-      <x:c r="M54" s="8" t="s"/>
-      <x:c r="N54" s="8" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="O54" s="8" t="s"/>
-      <x:c r="P54" s="8" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="Q54" s="8" t="s"/>
-      <x:c r="R54" s="8" t="s"/>
-      <x:c r="S54" s="8" t="s"/>
-    </x:row>
-    <x:row r="55" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
-      <x:c r="A55" s="9" t="n">
-        <x:v>2021</x:v>
-      </x:c>
-      <x:c r="B55" s="10" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C55" s="10" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D55" s="9" t="s"/>
-      <x:c r="E55" s="9" t="s"/>
-      <x:c r="F55" s="9" t="s"/>
-      <x:c r="G55" s="9" t="s"/>
-      <x:c r="H55" s="9" t="s"/>
-      <x:c r="I55" s="9" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J55" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K55" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L55" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M55" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
-  <x:mergeCells count="80">
+  <x:mergeCells count="32">
     <x:mergeCell ref="A2:O2"/>
     <x:mergeCell ref="P2:T2"/>
     <x:mergeCell ref="A3:I3"/>
@@ -1460,54 +861,6 @@
     <x:mergeCell ref="D21:M21"/>
     <x:mergeCell ref="N21:O21"/>
     <x:mergeCell ref="P21:S21"/>
-    <x:mergeCell ref="A24:O24"/>
-    <x:mergeCell ref="P24:T24"/>
-    <x:mergeCell ref="A25:I25"/>
-    <x:mergeCell ref="K25:O25"/>
-    <x:mergeCell ref="P25:T25"/>
-    <x:mergeCell ref="A26:I26"/>
-    <x:mergeCell ref="K26:O26"/>
-    <x:mergeCell ref="A27:I27"/>
-    <x:mergeCell ref="K27:O27"/>
-    <x:mergeCell ref="A28:I28"/>
-    <x:mergeCell ref="K28:O28"/>
-    <x:mergeCell ref="R29:R30"/>
-    <x:mergeCell ref="T29:T30"/>
-    <x:mergeCell ref="D32:M32"/>
-    <x:mergeCell ref="N32:O32"/>
-    <x:mergeCell ref="P32:S32"/>
-    <x:mergeCell ref="A35:O35"/>
-    <x:mergeCell ref="P35:T35"/>
-    <x:mergeCell ref="A36:I36"/>
-    <x:mergeCell ref="K36:O36"/>
-    <x:mergeCell ref="P36:T36"/>
-    <x:mergeCell ref="A37:I37"/>
-    <x:mergeCell ref="K37:O37"/>
-    <x:mergeCell ref="A38:I38"/>
-    <x:mergeCell ref="K38:O38"/>
-    <x:mergeCell ref="A39:I39"/>
-    <x:mergeCell ref="K39:O39"/>
-    <x:mergeCell ref="R40:R41"/>
-    <x:mergeCell ref="T40:T41"/>
-    <x:mergeCell ref="D43:M43"/>
-    <x:mergeCell ref="N43:O43"/>
-    <x:mergeCell ref="P43:S43"/>
-    <x:mergeCell ref="A46:O46"/>
-    <x:mergeCell ref="P46:T46"/>
-    <x:mergeCell ref="A47:I47"/>
-    <x:mergeCell ref="K47:O47"/>
-    <x:mergeCell ref="P47:T47"/>
-    <x:mergeCell ref="A48:I48"/>
-    <x:mergeCell ref="K48:O48"/>
-    <x:mergeCell ref="A49:I49"/>
-    <x:mergeCell ref="K49:O49"/>
-    <x:mergeCell ref="A50:I50"/>
-    <x:mergeCell ref="K50:O50"/>
-    <x:mergeCell ref="R51:R52"/>
-    <x:mergeCell ref="T51:T52"/>
-    <x:mergeCell ref="D54:M54"/>
-    <x:mergeCell ref="N54:O54"/>
-    <x:mergeCell ref="P54:S54"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7874" right="0.19685" top="0" bottom="0" header="0.5" footer="0.75"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,27 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <x:si>
+    <x:t>口座入金  \2,700,000-</x:t>
+  </x:si>
   <x:si>
     <x:t>管理事務所</x:t>
   </x:si>
   <x:si>
-    <x:t>口座入金  \1,600,000-</x:t>
-  </x:si>
-  <x:si>
     <x:t>林飛</x:t>
   </x:si>
   <x:si>
-    <x:t>133 : セレサ川崎普通貯金</x:t>
+    <x:t>セレサ川崎普通貯金 : 133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>春秋苑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ワイズコア 清掃料振替　3/19東使孝道 \2,300-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ワイズコア 清掃料振替　3/19中村家久 \2,300-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ワイズコア 清掃料振替　3/19淺野壽一 \2,300-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ワイズコア 清掃料振替　3/19関久子 \2,300-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>仮受金 : 416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>アルバイト 矢仲進　運転手 \13,430-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>複合勘定 : 527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>交通費 村田修一　3ヶ月 \27,200-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>旅費交通費 : 611</x:t>
+  </x:si>
+  <x:si>
+    <x:t>レンタカー (株)トヨタレンタリース横浜 \13,750-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ガソリン代 関東礦油(株) \565-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>車輛費 : 621</x:t>
   </x:si>
   <x:si>
     <x:t>法務部</x:t>
   </x:si>
   <x:si>
-    <x:t>交通費 中日本高速道路 \1,160-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>611 : 旅費交通費</x:t>
+    <x:t>広告代 美建企画(株)　自治会名簿 \42,000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>広告宣伝費 : 628</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -98,7 +137,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="11">
+  <x:cellXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -107,12 +146,8 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -120,11 +155,11 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -438,7 +473,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T66"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -455,7 +490,7 @@
     <x:col min="11" max="12" width="2.000625" style="1" customWidth="1"/>
     <x:col min="13" max="13" width="2.140625" style="1" customWidth="1"/>
     <x:col min="14" max="14" width="11.000625" style="1" customWidth="1"/>
-    <x:col min="15" max="15" width="10.850625" style="1" customWidth="1"/>
+    <x:col min="15" max="15" width="10.710625" style="1" customWidth="1"/>
     <x:col min="16" max="16" width="6.000625" style="1" customWidth="1"/>
     <x:col min="17" max="17" width="1.630625" style="1" customWidth="1"/>
     <x:col min="18" max="18" width="6.140625" style="1" customWidth="1"/>
@@ -463,381 +498,1116 @@
     <x:col min="20" max="20" width="5.850625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
+    <x:row r="1" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
     <x:row r="2" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A2" s="2">
-        <x:v>44269</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s"/>
-      <x:c r="C2" s="3" t="s"/>
-      <x:c r="D2" s="3" t="s"/>
-      <x:c r="E2" s="3" t="s"/>
-      <x:c r="F2" s="3" t="s"/>
-      <x:c r="G2" s="3" t="s"/>
-      <x:c r="H2" s="3" t="s"/>
-      <x:c r="I2" s="3" t="s"/>
-      <x:c r="J2" s="3" t="s"/>
-      <x:c r="K2" s="3" t="s"/>
-      <x:c r="L2" s="3" t="s"/>
-      <x:c r="M2" s="3" t="s"/>
-      <x:c r="N2" s="3" t="s"/>
-      <x:c r="O2" s="3" t="s"/>
-      <x:c r="P2" s="4" t="s">
+      <x:c r="A2" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Q2" s="4" t="s"/>
-      <x:c r="R2" s="4" t="s"/>
-      <x:c r="S2" s="4" t="s"/>
-      <x:c r="T2" s="4" t="s"/>
+      <x:c r="B2" s="2" t="s"/>
+      <x:c r="C2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s"/>
+      <x:c r="E2" s="2" t="s"/>
+      <x:c r="F2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="s"/>
+      <x:c r="H2" s="2" t="s"/>
+      <x:c r="I2" s="2" t="s"/>
+      <x:c r="J2" s="2" t="s"/>
+      <x:c r="K2" s="2" t="s"/>
+      <x:c r="L2" s="2" t="s"/>
+      <x:c r="M2" s="2" t="s"/>
+      <x:c r="N2" s="2" t="s"/>
+      <x:c r="O2" s="2" t="s"/>
+      <x:c r="P2" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q2" s="3" t="s"/>
+      <x:c r="R2" s="3" t="s"/>
+      <x:c r="S2" s="3" t="s"/>
+      <x:c r="T2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A3" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B3" s="5" t="s"/>
-      <x:c r="C3" s="5" t="s"/>
-      <x:c r="D3" s="5" t="s"/>
-      <x:c r="E3" s="5" t="s"/>
-      <x:c r="F3" s="5" t="s"/>
-      <x:c r="G3" s="5" t="s"/>
-      <x:c r="H3" s="5" t="s"/>
-      <x:c r="I3" s="5" t="s"/>
-      <x:c r="J3" s="6" t="s"/>
-      <x:c r="K3" s="5" t="s"/>
-      <x:c r="L3" s="5" t="s"/>
-      <x:c r="M3" s="5" t="s"/>
-      <x:c r="N3" s="5" t="s"/>
-      <x:c r="O3" s="5" t="s"/>
-      <x:c r="P3" s="4" t="s"/>
-      <x:c r="Q3" s="4" t="s"/>
-      <x:c r="R3" s="4" t="s"/>
-      <x:c r="S3" s="4" t="s"/>
-      <x:c r="T3" s="4" t="s"/>
+      <x:c r="A3" s="2" t="s"/>
+      <x:c r="B3" s="2" t="s"/>
+      <x:c r="C3" s="2" t="s"/>
+      <x:c r="D3" s="2" t="s"/>
+      <x:c r="E3" s="2" t="s"/>
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="4" t="s"/>
+      <x:c r="K3" s="2" t="s"/>
+      <x:c r="L3" s="2" t="s"/>
+      <x:c r="M3" s="2" t="s"/>
+      <x:c r="N3" s="2" t="s"/>
+      <x:c r="O3" s="2" t="s"/>
+      <x:c r="P3" s="5">
+        <x:v>44277</x:v>
+      </x:c>
+      <x:c r="Q3" s="3" t="s"/>
+      <x:c r="R3" s="3" t="s"/>
+      <x:c r="S3" s="3" t="s"/>
+      <x:c r="T3" s="3" t="s"/>
     </x:row>
     <x:row r="4" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A4" s="5" t="s"/>
-      <x:c r="B4" s="5" t="s"/>
-      <x:c r="C4" s="5" t="s"/>
-      <x:c r="D4" s="5" t="s"/>
-      <x:c r="E4" s="5" t="s"/>
-      <x:c r="F4" s="5" t="s"/>
-      <x:c r="G4" s="5" t="s"/>
-      <x:c r="H4" s="5" t="s"/>
-      <x:c r="I4" s="5" t="s"/>
-      <x:c r="J4" s="6" t="s"/>
-      <x:c r="K4" s="5" t="s"/>
-      <x:c r="L4" s="5" t="s"/>
-      <x:c r="M4" s="5" t="s"/>
-      <x:c r="N4" s="5" t="s"/>
-      <x:c r="O4" s="5" t="s"/>
-      <x:c r="P4" s="6" t="s"/>
-      <x:c r="Q4" s="6" t="s"/>
-      <x:c r="R4" s="6" t="s"/>
-      <x:c r="S4" s="6" t="s"/>
-      <x:c r="T4" s="6" t="s"/>
+      <x:c r="A4" s="2" t="s"/>
+      <x:c r="B4" s="2" t="s"/>
+      <x:c r="C4" s="2" t="s"/>
+      <x:c r="D4" s="2" t="s"/>
+      <x:c r="E4" s="2" t="s"/>
+      <x:c r="F4" s="2" t="s"/>
+      <x:c r="G4" s="2" t="s"/>
+      <x:c r="H4" s="2" t="s"/>
+      <x:c r="I4" s="2" t="s"/>
+      <x:c r="J4" s="4" t="s"/>
+      <x:c r="K4" s="2" t="s"/>
+      <x:c r="L4" s="2" t="s"/>
+      <x:c r="M4" s="2" t="s"/>
+      <x:c r="N4" s="2" t="s"/>
+      <x:c r="O4" s="2" t="s"/>
+      <x:c r="P4" s="4" t="s"/>
+      <x:c r="Q4" s="4" t="s"/>
+      <x:c r="R4" s="4" t="s"/>
+      <x:c r="S4" s="4" t="s"/>
+      <x:c r="T4" s="4" t="s"/>
     </x:row>
     <x:row r="5" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A5" s="5" t="s"/>
-      <x:c r="B5" s="5" t="s"/>
-      <x:c r="C5" s="5" t="s"/>
-      <x:c r="D5" s="5" t="s"/>
-      <x:c r="E5" s="5" t="s"/>
-      <x:c r="F5" s="5" t="s"/>
-      <x:c r="G5" s="5" t="s"/>
-      <x:c r="H5" s="5" t="s"/>
-      <x:c r="I5" s="5" t="s"/>
-      <x:c r="J5" s="6" t="s"/>
-      <x:c r="K5" s="5" t="s"/>
-      <x:c r="L5" s="5" t="s"/>
-      <x:c r="M5" s="5" t="s"/>
-      <x:c r="N5" s="5" t="s"/>
-      <x:c r="O5" s="5" t="s"/>
-      <x:c r="P5" s="6" t="s"/>
-      <x:c r="Q5" s="6" t="s"/>
-      <x:c r="R5" s="6" t="s"/>
-      <x:c r="S5" s="6" t="s"/>
-      <x:c r="T5" s="6" t="s"/>
+      <x:c r="A5" s="2" t="s"/>
+      <x:c r="B5" s="2" t="s"/>
+      <x:c r="C5" s="2" t="s"/>
+      <x:c r="D5" s="2" t="s"/>
+      <x:c r="E5" s="2" t="s"/>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="4" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="L5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="4" t="s"/>
+      <x:c r="Q5" s="4" t="s"/>
+      <x:c r="R5" s="4" t="s"/>
+      <x:c r="S5" s="4" t="s"/>
+      <x:c r="T5" s="4" t="s"/>
     </x:row>
     <x:row r="6" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A6" s="5" t="s"/>
-      <x:c r="B6" s="5" t="s"/>
-      <x:c r="C6" s="5" t="s"/>
-      <x:c r="D6" s="5" t="s"/>
-      <x:c r="E6" s="5" t="s"/>
-      <x:c r="F6" s="5" t="s"/>
-      <x:c r="G6" s="5" t="s"/>
-      <x:c r="H6" s="5" t="s"/>
-      <x:c r="I6" s="5" t="s"/>
-      <x:c r="J6" s="6" t="s"/>
-      <x:c r="K6" s="5" t="s"/>
-      <x:c r="L6" s="5" t="s"/>
-      <x:c r="M6" s="5" t="s"/>
-      <x:c r="N6" s="5" t="s"/>
-      <x:c r="O6" s="5" t="s"/>
-      <x:c r="P6" s="6" t="s"/>
-      <x:c r="Q6" s="6" t="s"/>
-      <x:c r="R6" s="6" t="s"/>
-      <x:c r="S6" s="6" t="s"/>
-      <x:c r="T6" s="6" t="s"/>
+      <x:c r="A6" s="2" t="s"/>
+      <x:c r="B6" s="2" t="s"/>
+      <x:c r="C6" s="2" t="s"/>
+      <x:c r="D6" s="2" t="s"/>
+      <x:c r="E6" s="2" t="s"/>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s"/>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s"/>
+      <x:c r="J6" s="4" t="s"/>
+      <x:c r="K6" s="2" t="s"/>
+      <x:c r="L6" s="2" t="s"/>
+      <x:c r="M6" s="2" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
+      <x:c r="P6" s="4" t="s"/>
+      <x:c r="Q6" s="4" t="s"/>
+      <x:c r="R6" s="4" t="s"/>
+      <x:c r="S6" s="4" t="s"/>
+      <x:c r="T6" s="4" t="s"/>
     </x:row>
     <x:row r="7" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A7" s="5" t="s"/>
-      <x:c r="K7" s="5" t="s"/>
-      <x:c r="T7" s="7" t="s">
+      <x:c r="A7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="T7" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T8" s="7" t="s"/>
+      <x:c r="T8" s="6" t="s"/>
     </x:row>
     <x:row r="9" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="10" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D10" s="8" t="s">
+      <x:c r="D10" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E10" s="8" t="s"/>
-      <x:c r="F10" s="8" t="s"/>
-      <x:c r="G10" s="8" t="s"/>
-      <x:c r="H10" s="8" t="s"/>
-      <x:c r="I10" s="8" t="s"/>
-      <x:c r="J10" s="8" t="s"/>
-      <x:c r="K10" s="8" t="s"/>
-      <x:c r="L10" s="8" t="s"/>
-      <x:c r="M10" s="8" t="s"/>
-      <x:c r="N10" s="8" t="s"/>
-      <x:c r="O10" s="8" t="s"/>
-      <x:c r="P10" s="8" t="s">
+      <x:c r="E10" s="7" t="s"/>
+      <x:c r="F10" s="7" t="s"/>
+      <x:c r="G10" s="7" t="s"/>
+      <x:c r="H10" s="7" t="s"/>
+      <x:c r="I10" s="7" t="s"/>
+      <x:c r="J10" s="7" t="s"/>
+      <x:c r="K10" s="7" t="s"/>
+      <x:c r="L10" s="7" t="s"/>
+      <x:c r="M10" s="7" t="s"/>
+      <x:c r="N10" s="7" t="s"/>
+      <x:c r="O10" s="7" t="s"/>
+      <x:c r="P10" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="Q10" s="8" t="s"/>
-      <x:c r="R10" s="8" t="s"/>
-      <x:c r="S10" s="8" t="s"/>
+      <x:c r="Q10" s="7" t="s"/>
+      <x:c r="R10" s="7" t="s"/>
+      <x:c r="S10" s="7" t="s"/>
     </x:row>
     <x:row r="11" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
-      <x:c r="A11" s="9" t="n">
+      <x:c r="A11" s="8" t="n">
         <x:v>2021</x:v>
       </x:c>
-      <x:c r="B11" s="10" t="n">
+      <x:c r="B11" s="9" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C11" s="10" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D11" s="9" t="s"/>
-      <x:c r="E11" s="9" t="s"/>
-      <x:c r="F11" s="9" t="s"/>
-      <x:c r="G11" s="9" t="n">
+      <x:c r="C11" s="9" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D11" s="8" t="s"/>
+      <x:c r="E11" s="8" t="s"/>
+      <x:c r="F11" s="8" t="s"/>
+      <x:c r="G11" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H11" s="8" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I11" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J11" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K11" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L11" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M11" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
+    <x:row r="13" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A13" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s"/>
+      <x:c r="C13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s"/>
+      <x:c r="E13" s="2" t="s"/>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="H11" s="9" t="n">
+      <x:c r="Q13" s="3" t="s"/>
+      <x:c r="R13" s="3" t="s"/>
+      <x:c r="S13" s="3" t="s"/>
+      <x:c r="T13" s="3" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A14" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="I11" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J11" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K11" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L11" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M11" s="9" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:20" customFormat="1" ht="28.5" customHeight="1"/>
-    <x:row r="13" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A13" s="2">
-        <x:v>44269</x:v>
-      </x:c>
-      <x:c r="B13" s="3" t="s"/>
-      <x:c r="C13" s="3" t="s"/>
-      <x:c r="D13" s="3" t="s"/>
-      <x:c r="E13" s="3" t="s"/>
-      <x:c r="F13" s="3" t="s"/>
-      <x:c r="G13" s="3" t="s"/>
-      <x:c r="H13" s="3" t="s"/>
-      <x:c r="I13" s="3" t="s"/>
-      <x:c r="J13" s="3" t="s"/>
-      <x:c r="K13" s="3" t="s"/>
-      <x:c r="L13" s="3" t="s"/>
-      <x:c r="M13" s="3" t="s"/>
-      <x:c r="N13" s="3" t="s"/>
-      <x:c r="O13" s="3" t="s"/>
-      <x:c r="P13" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q13" s="4" t="s"/>
-      <x:c r="R13" s="4" t="s"/>
-      <x:c r="S13" s="4" t="s"/>
-      <x:c r="T13" s="4" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A14" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B14" s="5" t="s"/>
-      <x:c r="C14" s="5" t="s"/>
-      <x:c r="D14" s="5" t="s"/>
-      <x:c r="E14" s="5" t="s"/>
-      <x:c r="F14" s="5" t="s"/>
-      <x:c r="G14" s="5" t="s"/>
-      <x:c r="H14" s="5" t="s"/>
-      <x:c r="I14" s="5" t="s"/>
-      <x:c r="J14" s="6" t="s"/>
-      <x:c r="K14" s="5" t="s"/>
-      <x:c r="L14" s="5" t="s"/>
-      <x:c r="M14" s="5" t="s"/>
-      <x:c r="N14" s="5" t="s"/>
-      <x:c r="O14" s="5" t="s"/>
-      <x:c r="P14" s="4" t="s"/>
-      <x:c r="Q14" s="4" t="s"/>
-      <x:c r="R14" s="4" t="s"/>
-      <x:c r="S14" s="4" t="s"/>
-      <x:c r="T14" s="4" t="s"/>
+      <x:c r="B14" s="2" t="s"/>
+      <x:c r="C14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s"/>
+      <x:c r="E14" s="2" t="s"/>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="4" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="5">
+        <x:v>44277</x:v>
+      </x:c>
+      <x:c r="Q14" s="3" t="s"/>
+      <x:c r="R14" s="3" t="s"/>
+      <x:c r="S14" s="3" t="s"/>
+      <x:c r="T14" s="3" t="s"/>
     </x:row>
     <x:row r="15" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A15" s="5" t="s"/>
-      <x:c r="B15" s="5" t="s"/>
-      <x:c r="C15" s="5" t="s"/>
-      <x:c r="D15" s="5" t="s"/>
-      <x:c r="E15" s="5" t="s"/>
-      <x:c r="F15" s="5" t="s"/>
-      <x:c r="G15" s="5" t="s"/>
-      <x:c r="H15" s="5" t="s"/>
-      <x:c r="I15" s="5" t="s"/>
-      <x:c r="J15" s="6" t="s"/>
-      <x:c r="K15" s="5" t="s"/>
-      <x:c r="L15" s="5" t="s"/>
-      <x:c r="M15" s="5" t="s"/>
-      <x:c r="N15" s="5" t="s"/>
-      <x:c r="O15" s="5" t="s"/>
-      <x:c r="P15" s="6" t="s"/>
-      <x:c r="Q15" s="6" t="s"/>
-      <x:c r="R15" s="6" t="s"/>
-      <x:c r="S15" s="6" t="s"/>
-      <x:c r="T15" s="6" t="s"/>
+      <x:c r="A15" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s"/>
+      <x:c r="C15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s"/>
+      <x:c r="E15" s="2" t="s"/>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="4" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="4" t="s"/>
+      <x:c r="Q15" s="4" t="s"/>
+      <x:c r="R15" s="4" t="s"/>
+      <x:c r="S15" s="4" t="s"/>
+      <x:c r="T15" s="4" t="s"/>
     </x:row>
     <x:row r="16" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A16" s="5" t="s"/>
-      <x:c r="B16" s="5" t="s"/>
-      <x:c r="C16" s="5" t="s"/>
-      <x:c r="D16" s="5" t="s"/>
-      <x:c r="E16" s="5" t="s"/>
-      <x:c r="F16" s="5" t="s"/>
-      <x:c r="G16" s="5" t="s"/>
-      <x:c r="H16" s="5" t="s"/>
-      <x:c r="I16" s="5" t="s"/>
-      <x:c r="J16" s="6" t="s"/>
-      <x:c r="K16" s="5" t="s"/>
-      <x:c r="L16" s="5" t="s"/>
-      <x:c r="M16" s="5" t="s"/>
-      <x:c r="N16" s="5" t="s"/>
-      <x:c r="O16" s="5" t="s"/>
-      <x:c r="P16" s="6" t="s"/>
-      <x:c r="Q16" s="6" t="s"/>
-      <x:c r="R16" s="6" t="s"/>
-      <x:c r="S16" s="6" t="s"/>
-      <x:c r="T16" s="6" t="s"/>
+      <x:c r="A16" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s"/>
+      <x:c r="C16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s"/>
+      <x:c r="E16" s="2" t="s"/>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="4" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="4" t="s"/>
+      <x:c r="Q16" s="4" t="s"/>
+      <x:c r="R16" s="4" t="s"/>
+      <x:c r="S16" s="4" t="s"/>
+      <x:c r="T16" s="4" t="s"/>
     </x:row>
     <x:row r="17" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A17" s="5" t="s"/>
-      <x:c r="B17" s="5" t="s"/>
-      <x:c r="C17" s="5" t="s"/>
-      <x:c r="D17" s="5" t="s"/>
-      <x:c r="E17" s="5" t="s"/>
-      <x:c r="F17" s="5" t="s"/>
-      <x:c r="G17" s="5" t="s"/>
-      <x:c r="H17" s="5" t="s"/>
-      <x:c r="I17" s="5" t="s"/>
-      <x:c r="J17" s="6" t="s"/>
-      <x:c r="K17" s="5" t="s"/>
-      <x:c r="L17" s="5" t="s"/>
-      <x:c r="M17" s="5" t="s"/>
-      <x:c r="N17" s="5" t="s"/>
-      <x:c r="O17" s="5" t="s"/>
-      <x:c r="P17" s="6" t="s"/>
-      <x:c r="Q17" s="6" t="s"/>
-      <x:c r="R17" s="6" t="s"/>
-      <x:c r="S17" s="6" t="s"/>
-      <x:c r="T17" s="6" t="s"/>
+      <x:c r="A17" s="2" t="s"/>
+      <x:c r="B17" s="2" t="s"/>
+      <x:c r="C17" s="2" t="s"/>
+      <x:c r="D17" s="2" t="s"/>
+      <x:c r="E17" s="2" t="s"/>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="4" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="4" t="s"/>
+      <x:c r="Q17" s="4" t="s"/>
+      <x:c r="R17" s="4" t="s"/>
+      <x:c r="S17" s="4" t="s"/>
+      <x:c r="T17" s="4" t="s"/>
     </x:row>
     <x:row r="18" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A18" s="5" t="s"/>
-      <x:c r="K18" s="5" t="s"/>
-      <x:c r="T18" s="7" t="s">
+      <x:c r="A18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="T18" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T19" s="7" t="s"/>
+      <x:c r="T19" s="6" t="s"/>
     </x:row>
     <x:row r="20" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="21" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D21" s="8" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E21" s="8" t="s"/>
-      <x:c r="F21" s="8" t="s"/>
-      <x:c r="G21" s="8" t="s"/>
-      <x:c r="H21" s="8" t="s"/>
-      <x:c r="I21" s="8" t="s"/>
-      <x:c r="J21" s="8" t="s"/>
-      <x:c r="K21" s="8" t="s"/>
-      <x:c r="L21" s="8" t="s"/>
-      <x:c r="M21" s="8" t="s"/>
-      <x:c r="N21" s="8" t="s"/>
-      <x:c r="O21" s="8" t="s"/>
-      <x:c r="P21" s="8" t="s">
+      <x:c r="D21" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E21" s="7" t="s"/>
+      <x:c r="F21" s="7" t="s"/>
+      <x:c r="G21" s="7" t="s"/>
+      <x:c r="H21" s="7" t="s"/>
+      <x:c r="I21" s="7" t="s"/>
+      <x:c r="J21" s="7" t="s"/>
+      <x:c r="K21" s="7" t="s"/>
+      <x:c r="L21" s="7" t="s"/>
+      <x:c r="M21" s="7" t="s"/>
+      <x:c r="N21" s="7" t="s"/>
+      <x:c r="O21" s="7" t="s"/>
+      <x:c r="P21" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="Q21" s="8" t="s"/>
-      <x:c r="R21" s="8" t="s"/>
-      <x:c r="S21" s="8" t="s"/>
+      <x:c r="Q21" s="7" t="s"/>
+      <x:c r="R21" s="7" t="s"/>
+      <x:c r="S21" s="7" t="s"/>
     </x:row>
     <x:row r="22" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
-      <x:c r="A22" s="9" t="n">
+      <x:c r="A22" s="8" t="n">
         <x:v>2021</x:v>
       </x:c>
-      <x:c r="B22" s="10" t="n">
+      <x:c r="B22" s="9" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C22" s="10" t="n">
+      <x:c r="C22" s="9" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D22" s="8" t="s"/>
+      <x:c r="E22" s="8" t="s"/>
+      <x:c r="F22" s="8" t="s"/>
+      <x:c r="G22" s="8" t="s"/>
+      <x:c r="H22" s="8" t="s"/>
+      <x:c r="I22" s="8" t="s"/>
+      <x:c r="J22" s="8" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K22" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L22" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M22" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
+    <x:row r="24" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A24" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s"/>
+      <x:c r="C24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s"/>
+      <x:c r="E24" s="2" t="s"/>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q24" s="3" t="s"/>
+      <x:c r="R24" s="3" t="s"/>
+      <x:c r="S24" s="3" t="s"/>
+      <x:c r="T24" s="3" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A25" s="2" t="s"/>
+      <x:c r="B25" s="2" t="s"/>
+      <x:c r="C25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s"/>
+      <x:c r="E25" s="2" t="s"/>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="4" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="5">
+        <x:v>44277</x:v>
+      </x:c>
+      <x:c r="Q25" s="3" t="s"/>
+      <x:c r="R25" s="3" t="s"/>
+      <x:c r="S25" s="3" t="s"/>
+      <x:c r="T25" s="3" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A26" s="2" t="s"/>
+      <x:c r="B26" s="2" t="s"/>
+      <x:c r="C26" s="2" t="s"/>
+      <x:c r="D26" s="2" t="s"/>
+      <x:c r="E26" s="2" t="s"/>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="4" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="4" t="s"/>
+      <x:c r="Q26" s="4" t="s"/>
+      <x:c r="R26" s="4" t="s"/>
+      <x:c r="S26" s="4" t="s"/>
+      <x:c r="T26" s="4" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A27" s="2" t="s"/>
+      <x:c r="B27" s="2" t="s"/>
+      <x:c r="C27" s="2" t="s"/>
+      <x:c r="D27" s="2" t="s"/>
+      <x:c r="E27" s="2" t="s"/>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="4" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="4" t="s"/>
+      <x:c r="Q27" s="4" t="s"/>
+      <x:c r="R27" s="4" t="s"/>
+      <x:c r="S27" s="4" t="s"/>
+      <x:c r="T27" s="4" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A28" s="2" t="s"/>
+      <x:c r="B28" s="2" t="s"/>
+      <x:c r="C28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s"/>
+      <x:c r="E28" s="2" t="s"/>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="4" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="4" t="s"/>
+      <x:c r="Q28" s="4" t="s"/>
+      <x:c r="R28" s="4" t="s"/>
+      <x:c r="S28" s="4" t="s"/>
+      <x:c r="T28" s="4" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="T29" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T30" s="6" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="32" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D32" s="7" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E32" s="7" t="s"/>
+      <x:c r="F32" s="7" t="s"/>
+      <x:c r="G32" s="7" t="s"/>
+      <x:c r="H32" s="7" t="s"/>
+      <x:c r="I32" s="7" t="s"/>
+      <x:c r="J32" s="7" t="s"/>
+      <x:c r="K32" s="7" t="s"/>
+      <x:c r="L32" s="7" t="s"/>
+      <x:c r="M32" s="7" t="s"/>
+      <x:c r="N32" s="7" t="s"/>
+      <x:c r="O32" s="7" t="s"/>
+      <x:c r="P32" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Q32" s="7" t="s"/>
+      <x:c r="R32" s="7" t="s"/>
+      <x:c r="S32" s="7" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A33" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B33" s="9" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C33" s="9" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D33" s="8" t="s"/>
+      <x:c r="E33" s="8" t="s"/>
+      <x:c r="F33" s="8" t="s"/>
+      <x:c r="G33" s="8" t="s"/>
+      <x:c r="H33" s="8" t="s"/>
+      <x:c r="I33" s="8" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J33" s="8" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K33" s="8" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L33" s="8" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M33" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
+    <x:row r="35" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A35" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s"/>
+      <x:c r="C35" s="2" t="s"/>
+      <x:c r="D35" s="2" t="s"/>
+      <x:c r="E35" s="2" t="s"/>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q35" s="3" t="s"/>
+      <x:c r="R35" s="3" t="s"/>
+      <x:c r="S35" s="3" t="s"/>
+      <x:c r="T35" s="3" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A36" s="2" t="s"/>
+      <x:c r="B36" s="2" t="s"/>
+      <x:c r="C36" s="2" t="s"/>
+      <x:c r="D36" s="2" t="s"/>
+      <x:c r="E36" s="2" t="s"/>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="4" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="5">
+        <x:v>44277</x:v>
+      </x:c>
+      <x:c r="Q36" s="3" t="s"/>
+      <x:c r="R36" s="3" t="s"/>
+      <x:c r="S36" s="3" t="s"/>
+      <x:c r="T36" s="3" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A37" s="2" t="s"/>
+      <x:c r="B37" s="2" t="s"/>
+      <x:c r="C37" s="2" t="s"/>
+      <x:c r="D37" s="2" t="s"/>
+      <x:c r="E37" s="2" t="s"/>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="4" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="4" t="s"/>
+      <x:c r="Q37" s="4" t="s"/>
+      <x:c r="R37" s="4" t="s"/>
+      <x:c r="S37" s="4" t="s"/>
+      <x:c r="T37" s="4" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A38" s="2" t="s"/>
+      <x:c r="B38" s="2" t="s"/>
+      <x:c r="C38" s="2" t="s"/>
+      <x:c r="D38" s="2" t="s"/>
+      <x:c r="E38" s="2" t="s"/>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="4" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="4" t="s"/>
+      <x:c r="Q38" s="4" t="s"/>
+      <x:c r="R38" s="4" t="s"/>
+      <x:c r="S38" s="4" t="s"/>
+      <x:c r="T38" s="4" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A39" s="2" t="s"/>
+      <x:c r="B39" s="2" t="s"/>
+      <x:c r="C39" s="2" t="s"/>
+      <x:c r="D39" s="2" t="s"/>
+      <x:c r="E39" s="2" t="s"/>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="4" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="4" t="s"/>
+      <x:c r="Q39" s="4" t="s"/>
+      <x:c r="R39" s="4" t="s"/>
+      <x:c r="S39" s="4" t="s"/>
+      <x:c r="T39" s="4" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="T40" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T41" s="6" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="43" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D43" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E43" s="7" t="s"/>
+      <x:c r="F43" s="7" t="s"/>
+      <x:c r="G43" s="7" t="s"/>
+      <x:c r="H43" s="7" t="s"/>
+      <x:c r="I43" s="7" t="s"/>
+      <x:c r="J43" s="7" t="s"/>
+      <x:c r="K43" s="7" t="s"/>
+      <x:c r="L43" s="7" t="s"/>
+      <x:c r="M43" s="7" t="s"/>
+      <x:c r="N43" s="7" t="s"/>
+      <x:c r="O43" s="7" t="s"/>
+      <x:c r="P43" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Q43" s="7" t="s"/>
+      <x:c r="R43" s="7" t="s"/>
+      <x:c r="S43" s="7" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A44" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B44" s="9" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C44" s="9" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D44" s="8" t="s"/>
+      <x:c r="E44" s="8" t="s"/>
+      <x:c r="F44" s="8" t="s"/>
+      <x:c r="G44" s="8" t="s"/>
+      <x:c r="H44" s="8" t="s"/>
+      <x:c r="I44" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J44" s="8" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K44" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L44" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M44" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
+    <x:row r="46" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A46" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D22" s="9" t="s"/>
-      <x:c r="E22" s="9" t="s"/>
-      <x:c r="F22" s="9" t="s"/>
-      <x:c r="G22" s="9" t="s"/>
-      <x:c r="H22" s="9" t="s"/>
-      <x:c r="I22" s="9" t="s"/>
-      <x:c r="J22" s="9" t="n">
+      <x:c r="B46" s="2" t="s"/>
+      <x:c r="C46" s="2" t="s"/>
+      <x:c r="D46" s="2" t="s"/>
+      <x:c r="E46" s="2" t="s"/>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K22" s="9" t="n">
+      <x:c r="Q46" s="3" t="s"/>
+      <x:c r="R46" s="3" t="s"/>
+      <x:c r="S46" s="3" t="s"/>
+      <x:c r="T46" s="3" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A47" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s"/>
+      <x:c r="C47" s="2" t="s"/>
+      <x:c r="D47" s="2" t="s"/>
+      <x:c r="E47" s="2" t="s"/>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="4" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="5">
+        <x:v>44277</x:v>
+      </x:c>
+      <x:c r="Q47" s="3" t="s"/>
+      <x:c r="R47" s="3" t="s"/>
+      <x:c r="S47" s="3" t="s"/>
+      <x:c r="T47" s="3" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A48" s="2" t="s"/>
+      <x:c r="B48" s="2" t="s"/>
+      <x:c r="C48" s="2" t="s"/>
+      <x:c r="D48" s="2" t="s"/>
+      <x:c r="E48" s="2" t="s"/>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="4" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="4" t="s"/>
+      <x:c r="Q48" s="4" t="s"/>
+      <x:c r="R48" s="4" t="s"/>
+      <x:c r="S48" s="4" t="s"/>
+      <x:c r="T48" s="4" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A49" s="2" t="s"/>
+      <x:c r="B49" s="2" t="s"/>
+      <x:c r="C49" s="2" t="s"/>
+      <x:c r="D49" s="2" t="s"/>
+      <x:c r="E49" s="2" t="s"/>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="4" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="4" t="s"/>
+      <x:c r="Q49" s="4" t="s"/>
+      <x:c r="R49" s="4" t="s"/>
+      <x:c r="S49" s="4" t="s"/>
+      <x:c r="T49" s="4" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A50" s="2" t="s"/>
+      <x:c r="B50" s="2" t="s"/>
+      <x:c r="C50" s="2" t="s"/>
+      <x:c r="D50" s="2" t="s"/>
+      <x:c r="E50" s="2" t="s"/>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="4" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="4" t="s"/>
+      <x:c r="Q50" s="4" t="s"/>
+      <x:c r="R50" s="4" t="s"/>
+      <x:c r="S50" s="4" t="s"/>
+      <x:c r="T50" s="4" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="T51" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T52" s="6" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="54" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D54" s="7" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E54" s="7" t="s"/>
+      <x:c r="F54" s="7" t="s"/>
+      <x:c r="G54" s="7" t="s"/>
+      <x:c r="H54" s="7" t="s"/>
+      <x:c r="I54" s="7" t="s"/>
+      <x:c r="J54" s="7" t="s"/>
+      <x:c r="K54" s="7" t="s"/>
+      <x:c r="L54" s="7" t="s"/>
+      <x:c r="M54" s="7" t="s"/>
+      <x:c r="N54" s="7" t="s"/>
+      <x:c r="O54" s="7" t="s"/>
+      <x:c r="P54" s="7" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="Q54" s="7" t="s"/>
+      <x:c r="R54" s="7" t="s"/>
+      <x:c r="S54" s="7" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A55" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B55" s="9" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C55" s="9" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D55" s="8" t="s"/>
+      <x:c r="E55" s="8" t="s"/>
+      <x:c r="F55" s="8" t="s"/>
+      <x:c r="G55" s="8" t="s"/>
+      <x:c r="H55" s="8" t="s"/>
+      <x:c r="I55" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="L22" s="9" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="M22" s="9" t="n">
+      <x:c r="J55" s="8" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K55" s="8" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L55" s="8" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M55" s="8" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
+    <x:row r="57" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A57" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s"/>
+      <x:c r="C57" s="2" t="s"/>
+      <x:c r="D57" s="2" t="s"/>
+      <x:c r="E57" s="2" t="s"/>
+      <x:c r="F57" s="2" t="s"/>
+      <x:c r="G57" s="2" t="s"/>
+      <x:c r="H57" s="2" t="s"/>
+      <x:c r="I57" s="2" t="s"/>
+      <x:c r="J57" s="2" t="s"/>
+      <x:c r="K57" s="2" t="s"/>
+      <x:c r="L57" s="2" t="s"/>
+      <x:c r="M57" s="2" t="s"/>
+      <x:c r="N57" s="2" t="s"/>
+      <x:c r="O57" s="2" t="s"/>
+      <x:c r="P57" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q57" s="3" t="s"/>
+      <x:c r="R57" s="3" t="s"/>
+      <x:c r="S57" s="3" t="s"/>
+      <x:c r="T57" s="3" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A58" s="2" t="s"/>
+      <x:c r="B58" s="2" t="s"/>
+      <x:c r="C58" s="2" t="s"/>
+      <x:c r="D58" s="2" t="s"/>
+      <x:c r="E58" s="2" t="s"/>
+      <x:c r="F58" s="2" t="s"/>
+      <x:c r="G58" s="2" t="s"/>
+      <x:c r="H58" s="2" t="s"/>
+      <x:c r="I58" s="2" t="s"/>
+      <x:c r="J58" s="4" t="s"/>
+      <x:c r="K58" s="2" t="s"/>
+      <x:c r="L58" s="2" t="s"/>
+      <x:c r="M58" s="2" t="s"/>
+      <x:c r="N58" s="2" t="s"/>
+      <x:c r="O58" s="2" t="s"/>
+      <x:c r="P58" s="5">
+        <x:v>44277</x:v>
+      </x:c>
+      <x:c r="Q58" s="3" t="s"/>
+      <x:c r="R58" s="3" t="s"/>
+      <x:c r="S58" s="3" t="s"/>
+      <x:c r="T58" s="3" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A59" s="2" t="s"/>
+      <x:c r="B59" s="2" t="s"/>
+      <x:c r="C59" s="2" t="s"/>
+      <x:c r="D59" s="2" t="s"/>
+      <x:c r="E59" s="2" t="s"/>
+      <x:c r="F59" s="2" t="s"/>
+      <x:c r="G59" s="2" t="s"/>
+      <x:c r="H59" s="2" t="s"/>
+      <x:c r="I59" s="2" t="s"/>
+      <x:c r="J59" s="4" t="s"/>
+      <x:c r="K59" s="2" t="s"/>
+      <x:c r="L59" s="2" t="s"/>
+      <x:c r="M59" s="2" t="s"/>
+      <x:c r="N59" s="2" t="s"/>
+      <x:c r="O59" s="2" t="s"/>
+      <x:c r="P59" s="4" t="s"/>
+      <x:c r="Q59" s="4" t="s"/>
+      <x:c r="R59" s="4" t="s"/>
+      <x:c r="S59" s="4" t="s"/>
+      <x:c r="T59" s="4" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A60" s="2" t="s"/>
+      <x:c r="B60" s="2" t="s"/>
+      <x:c r="C60" s="2" t="s"/>
+      <x:c r="D60" s="2" t="s"/>
+      <x:c r="E60" s="2" t="s"/>
+      <x:c r="F60" s="2" t="s"/>
+      <x:c r="G60" s="2" t="s"/>
+      <x:c r="H60" s="2" t="s"/>
+      <x:c r="I60" s="2" t="s"/>
+      <x:c r="J60" s="4" t="s"/>
+      <x:c r="K60" s="2" t="s"/>
+      <x:c r="L60" s="2" t="s"/>
+      <x:c r="M60" s="2" t="s"/>
+      <x:c r="N60" s="2" t="s"/>
+      <x:c r="O60" s="2" t="s"/>
+      <x:c r="P60" s="4" t="s"/>
+      <x:c r="Q60" s="4" t="s"/>
+      <x:c r="R60" s="4" t="s"/>
+      <x:c r="S60" s="4" t="s"/>
+      <x:c r="T60" s="4" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A61" s="2" t="s"/>
+      <x:c r="B61" s="2" t="s"/>
+      <x:c r="C61" s="2" t="s"/>
+      <x:c r="D61" s="2" t="s"/>
+      <x:c r="E61" s="2" t="s"/>
+      <x:c r="F61" s="2" t="s"/>
+      <x:c r="G61" s="2" t="s"/>
+      <x:c r="H61" s="2" t="s"/>
+      <x:c r="I61" s="2" t="s"/>
+      <x:c r="J61" s="4" t="s"/>
+      <x:c r="K61" s="2" t="s"/>
+      <x:c r="L61" s="2" t="s"/>
+      <x:c r="M61" s="2" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
+      <x:c r="P61" s="4" t="s"/>
+      <x:c r="Q61" s="4" t="s"/>
+      <x:c r="R61" s="4" t="s"/>
+      <x:c r="S61" s="4" t="s"/>
+      <x:c r="T61" s="4" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A62" s="2" t="s"/>
+      <x:c r="K62" s="2" t="s"/>
+      <x:c r="T62" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T63" s="6" t="s"/>
+    </x:row>
+    <x:row r="64" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="65" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D65" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E65" s="7" t="s"/>
+      <x:c r="F65" s="7" t="s"/>
+      <x:c r="G65" s="7" t="s"/>
+      <x:c r="H65" s="7" t="s"/>
+      <x:c r="I65" s="7" t="s"/>
+      <x:c r="J65" s="7" t="s"/>
+      <x:c r="K65" s="7" t="s"/>
+      <x:c r="L65" s="7" t="s"/>
+      <x:c r="M65" s="7" t="s"/>
+      <x:c r="N65" s="7" t="s"/>
+      <x:c r="O65" s="7" t="s"/>
+      <x:c r="P65" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Q65" s="7" t="s"/>
+      <x:c r="R65" s="7" t="s"/>
+      <x:c r="S65" s="7" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+      <x:c r="A66" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B66" s="9" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C66" s="9" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D66" s="8" t="s"/>
+      <x:c r="E66" s="8" t="s"/>
+      <x:c r="F66" s="8" t="s"/>
+      <x:c r="G66" s="8" t="s"/>
+      <x:c r="H66" s="8" t="s"/>
+      <x:c r="I66" s="8" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J66" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K66" s="8" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="L66" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M66" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="32">
-    <x:mergeCell ref="A2:O2"/>
+  <x:mergeCells count="114">
+    <x:mergeCell ref="A2:I2"/>
+    <x:mergeCell ref="K2:O2"/>
     <x:mergeCell ref="P2:T2"/>
     <x:mergeCell ref="A3:I3"/>
     <x:mergeCell ref="K3:O3"/>
     <x:mergeCell ref="P3:T3"/>
     <x:mergeCell ref="A4:I4"/>
     <x:mergeCell ref="K4:O4"/>
+    <x:mergeCell ref="P4:T4"/>
     <x:mergeCell ref="A5:I5"/>
     <x:mergeCell ref="K5:O5"/>
+    <x:mergeCell ref="P5:T5"/>
     <x:mergeCell ref="A6:I6"/>
     <x:mergeCell ref="K6:O6"/>
     <x:mergeCell ref="R7:R8"/>
@@ -845,15 +1615,18 @@
     <x:mergeCell ref="D10:M10"/>
     <x:mergeCell ref="N10:O10"/>
     <x:mergeCell ref="P10:S10"/>
-    <x:mergeCell ref="A13:O13"/>
+    <x:mergeCell ref="A13:I13"/>
+    <x:mergeCell ref="K13:O13"/>
     <x:mergeCell ref="P13:T13"/>
     <x:mergeCell ref="A14:I14"/>
     <x:mergeCell ref="K14:O14"/>
     <x:mergeCell ref="P14:T14"/>
     <x:mergeCell ref="A15:I15"/>
     <x:mergeCell ref="K15:O15"/>
+    <x:mergeCell ref="P15:T15"/>
     <x:mergeCell ref="A16:I16"/>
     <x:mergeCell ref="K16:O16"/>
+    <x:mergeCell ref="P16:T16"/>
     <x:mergeCell ref="A17:I17"/>
     <x:mergeCell ref="K17:O17"/>
     <x:mergeCell ref="R18:R19"/>
@@ -861,6 +1634,82 @@
     <x:mergeCell ref="D21:M21"/>
     <x:mergeCell ref="N21:O21"/>
     <x:mergeCell ref="P21:S21"/>
+    <x:mergeCell ref="A24:I24"/>
+    <x:mergeCell ref="K24:O24"/>
+    <x:mergeCell ref="P24:T24"/>
+    <x:mergeCell ref="A25:I25"/>
+    <x:mergeCell ref="K25:O25"/>
+    <x:mergeCell ref="P25:T25"/>
+    <x:mergeCell ref="A26:I26"/>
+    <x:mergeCell ref="K26:O26"/>
+    <x:mergeCell ref="P26:T26"/>
+    <x:mergeCell ref="A27:I27"/>
+    <x:mergeCell ref="K27:O27"/>
+    <x:mergeCell ref="P27:T27"/>
+    <x:mergeCell ref="A28:I28"/>
+    <x:mergeCell ref="K28:O28"/>
+    <x:mergeCell ref="R29:R30"/>
+    <x:mergeCell ref="T29:T30"/>
+    <x:mergeCell ref="D32:M32"/>
+    <x:mergeCell ref="N32:O32"/>
+    <x:mergeCell ref="P32:S32"/>
+    <x:mergeCell ref="A35:I35"/>
+    <x:mergeCell ref="K35:O35"/>
+    <x:mergeCell ref="P35:T35"/>
+    <x:mergeCell ref="A36:I36"/>
+    <x:mergeCell ref="K36:O36"/>
+    <x:mergeCell ref="P36:T36"/>
+    <x:mergeCell ref="A37:I37"/>
+    <x:mergeCell ref="K37:O37"/>
+    <x:mergeCell ref="P37:T37"/>
+    <x:mergeCell ref="A38:I38"/>
+    <x:mergeCell ref="K38:O38"/>
+    <x:mergeCell ref="P38:T38"/>
+    <x:mergeCell ref="A39:I39"/>
+    <x:mergeCell ref="K39:O39"/>
+    <x:mergeCell ref="R40:R41"/>
+    <x:mergeCell ref="T40:T41"/>
+    <x:mergeCell ref="D43:M43"/>
+    <x:mergeCell ref="N43:O43"/>
+    <x:mergeCell ref="P43:S43"/>
+    <x:mergeCell ref="A46:I46"/>
+    <x:mergeCell ref="K46:O46"/>
+    <x:mergeCell ref="P46:T46"/>
+    <x:mergeCell ref="A47:I47"/>
+    <x:mergeCell ref="K47:O47"/>
+    <x:mergeCell ref="P47:T47"/>
+    <x:mergeCell ref="A48:I48"/>
+    <x:mergeCell ref="K48:O48"/>
+    <x:mergeCell ref="P48:T48"/>
+    <x:mergeCell ref="A49:I49"/>
+    <x:mergeCell ref="K49:O49"/>
+    <x:mergeCell ref="P49:T49"/>
+    <x:mergeCell ref="A50:I50"/>
+    <x:mergeCell ref="K50:O50"/>
+    <x:mergeCell ref="R51:R52"/>
+    <x:mergeCell ref="T51:T52"/>
+    <x:mergeCell ref="D54:M54"/>
+    <x:mergeCell ref="N54:O54"/>
+    <x:mergeCell ref="P54:S54"/>
+    <x:mergeCell ref="A57:I57"/>
+    <x:mergeCell ref="K57:O57"/>
+    <x:mergeCell ref="P57:T57"/>
+    <x:mergeCell ref="A58:I58"/>
+    <x:mergeCell ref="K58:O58"/>
+    <x:mergeCell ref="P58:T58"/>
+    <x:mergeCell ref="A59:I59"/>
+    <x:mergeCell ref="K59:O59"/>
+    <x:mergeCell ref="P59:T59"/>
+    <x:mergeCell ref="A60:I60"/>
+    <x:mergeCell ref="K60:O60"/>
+    <x:mergeCell ref="P60:T60"/>
+    <x:mergeCell ref="A61:I61"/>
+    <x:mergeCell ref="K61:O61"/>
+    <x:mergeCell ref="R62:R63"/>
+    <x:mergeCell ref="T62:T63"/>
+    <x:mergeCell ref="D65:M65"/>
+    <x:mergeCell ref="N65:O65"/>
+    <x:mergeCell ref="P65:S65"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7874" right="0.19685" top="0" bottom="0" header="0.5" footer="0.75"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <x:si>
-    <x:t>口座入金  \2,700,000-</x:t>
+    <x:t>口座入金  \1,140,000-</x:t>
   </x:si>
   <x:si>
     <x:t>管理事務所</x:t>
@@ -31,49 +31,19 @@
     <x:t>春秋苑</x:t>
   </x:si>
   <x:si>
-    <x:t>ワイズコア 清掃料振替　3/19東使孝道 \2,300-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ワイズコア 清掃料振替　3/19中村家久 \2,300-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ワイズコア 清掃料振替　3/19淺野壽一 \2,300-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ワイズコア 清掃料振替　3/19関久子 \2,300-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>仮受金 : 416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>アルバイト 矢仲進　運転手 \13,430-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>複合勘定 : 527</x:t>
-  </x:si>
-  <x:si>
-    <x:t>交通費 村田修一　3ヶ月 \27,200-</x:t>
+    <x:t>交通費 篠崎　正善　１２日分 \5,040-</x:t>
   </x:si>
   <x:si>
     <x:t>旅費交通費 : 611</x:t>
   </x:si>
   <x:si>
-    <x:t>レンタカー (株)トヨタレンタリース横浜 \13,750-</x:t>
+    <x:t>交通費 佐野　恭大 \39,242-</x:t>
   </x:si>
   <x:si>
-    <x:t>ガソリン代 関東礦油(株) \565-</x:t>
+    <x:t>ゆうパック 日本郵便（株） \2,560-</x:t>
   </x:si>
   <x:si>
-    <x:t>車輛費 : 621</x:t>
-  </x:si>
-  <x:si>
-    <x:t>法務部</x:t>
-  </x:si>
-  <x:si>
-    <x:t>広告代 美建企画(株)　自治会名簿 \42,000-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>広告宣伝費 : 628</x:t>
+    <x:t>通信運搬費 : 614</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -150,16 +120,16 @@
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -473,14 +443,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T66"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="21" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="2" width="5.420625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="5.710625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="5.420625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="5.850625" style="1" customWidth="1"/>
     <x:col min="4" max="4" width="2.140625" style="1" customWidth="1"/>
     <x:col min="5" max="6" width="2.000625" style="1" customWidth="1"/>
@@ -495,7 +466,7 @@
     <x:col min="17" max="17" width="1.630625" style="1" customWidth="1"/>
     <x:col min="18" max="18" width="6.140625" style="1" customWidth="1"/>
     <x:col min="19" max="19" width="1.630625" style="1" customWidth="1"/>
-    <x:col min="20" max="20" width="5.850625" style="1" customWidth="1"/>
+    <x:col min="20" max="20" width="5.570625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
@@ -517,13 +488,13 @@
       <x:c r="M2" s="2" t="s"/>
       <x:c r="N2" s="2" t="s"/>
       <x:c r="O2" s="2" t="s"/>
-      <x:c r="P2" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q2" s="3" t="s"/>
-      <x:c r="R2" s="3" t="s"/>
-      <x:c r="S2" s="3" t="s"/>
-      <x:c r="T2" s="3" t="s"/>
+      <x:c r="P2" s="3">
+        <x:v>44277</x:v>
+      </x:c>
+      <x:c r="Q2" s="4" t="s"/>
+      <x:c r="R2" s="4" t="s"/>
+      <x:c r="S2" s="4" t="s"/>
+      <x:c r="T2" s="4" t="s"/>
     </x:row>
     <x:row r="3" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s"/>
@@ -535,19 +506,19 @@
       <x:c r="G3" s="2" t="s"/>
       <x:c r="H3" s="2" t="s"/>
       <x:c r="I3" s="2" t="s"/>
-      <x:c r="J3" s="4" t="s"/>
+      <x:c r="J3" s="5" t="s"/>
       <x:c r="K3" s="2" t="s"/>
       <x:c r="L3" s="2" t="s"/>
       <x:c r="M3" s="2" t="s"/>
       <x:c r="N3" s="2" t="s"/>
       <x:c r="O3" s="2" t="s"/>
-      <x:c r="P3" s="5">
-        <x:v>44277</x:v>
-      </x:c>
-      <x:c r="Q3" s="3" t="s"/>
-      <x:c r="R3" s="3" t="s"/>
-      <x:c r="S3" s="3" t="s"/>
-      <x:c r="T3" s="3" t="s"/>
+      <x:c r="P3" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q3" s="4" t="s"/>
+      <x:c r="R3" s="4" t="s"/>
+      <x:c r="S3" s="4" t="s"/>
+      <x:c r="T3" s="4" t="s"/>
     </x:row>
     <x:row r="4" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A4" s="2" t="s"/>
@@ -559,17 +530,17 @@
       <x:c r="G4" s="2" t="s"/>
       <x:c r="H4" s="2" t="s"/>
       <x:c r="I4" s="2" t="s"/>
-      <x:c r="J4" s="4" t="s"/>
+      <x:c r="J4" s="5" t="s"/>
       <x:c r="K4" s="2" t="s"/>
       <x:c r="L4" s="2" t="s"/>
       <x:c r="M4" s="2" t="s"/>
       <x:c r="N4" s="2" t="s"/>
       <x:c r="O4" s="2" t="s"/>
-      <x:c r="P4" s="4" t="s"/>
-      <x:c r="Q4" s="4" t="s"/>
-      <x:c r="R4" s="4" t="s"/>
-      <x:c r="S4" s="4" t="s"/>
-      <x:c r="T4" s="4" t="s"/>
+      <x:c r="P4" s="5" t="s"/>
+      <x:c r="Q4" s="5" t="s"/>
+      <x:c r="R4" s="5" t="s"/>
+      <x:c r="S4" s="5" t="s"/>
+      <x:c r="T4" s="5" t="s"/>
     </x:row>
     <x:row r="5" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A5" s="2" t="s"/>
@@ -581,17 +552,17 @@
       <x:c r="G5" s="2" t="s"/>
       <x:c r="H5" s="2" t="s"/>
       <x:c r="I5" s="2" t="s"/>
-      <x:c r="J5" s="4" t="s"/>
+      <x:c r="J5" s="5" t="s"/>
       <x:c r="K5" s="2" t="s"/>
       <x:c r="L5" s="2" t="s"/>
       <x:c r="M5" s="2" t="s"/>
       <x:c r="N5" s="2" t="s"/>
       <x:c r="O5" s="2" t="s"/>
-      <x:c r="P5" s="4" t="s"/>
-      <x:c r="Q5" s="4" t="s"/>
-      <x:c r="R5" s="4" t="s"/>
-      <x:c r="S5" s="4" t="s"/>
-      <x:c r="T5" s="4" t="s"/>
+      <x:c r="P5" s="5" t="s"/>
+      <x:c r="Q5" s="5" t="s"/>
+      <x:c r="R5" s="5" t="s"/>
+      <x:c r="S5" s="5" t="s"/>
+      <x:c r="T5" s="5" t="s"/>
     </x:row>
     <x:row r="6" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A6" s="2" t="s"/>
@@ -603,17 +574,17 @@
       <x:c r="G6" s="2" t="s"/>
       <x:c r="H6" s="2" t="s"/>
       <x:c r="I6" s="2" t="s"/>
-      <x:c r="J6" s="4" t="s"/>
+      <x:c r="J6" s="5" t="s"/>
       <x:c r="K6" s="2" t="s"/>
       <x:c r="L6" s="2" t="s"/>
       <x:c r="M6" s="2" t="s"/>
       <x:c r="N6" s="2" t="s"/>
       <x:c r="O6" s="2" t="s"/>
-      <x:c r="P6" s="4" t="s"/>
-      <x:c r="Q6" s="4" t="s"/>
-      <x:c r="R6" s="4" t="s"/>
-      <x:c r="S6" s="4" t="s"/>
-      <x:c r="T6" s="4" t="s"/>
+      <x:c r="P6" s="5" t="s"/>
+      <x:c r="Q6" s="5" t="s"/>
+      <x:c r="R6" s="5" t="s"/>
+      <x:c r="S6" s="5" t="s"/>
+      <x:c r="T6" s="5" t="s"/>
     </x:row>
     <x:row r="7" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A7" s="2" t="s"/>
@@ -656,19 +627,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C11" s="9" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s"/>
       <x:c r="E11" s="8" t="s"/>
       <x:c r="F11" s="8" t="s"/>
       <x:c r="G11" s="8" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="8" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I11" s="8" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J11" s="8" t="n">
         <x:v>0</x:v>
@@ -702,18 +673,16 @@
       <x:c r="M13" s="2" t="s"/>
       <x:c r="N13" s="2" t="s"/>
       <x:c r="O13" s="2" t="s"/>
-      <x:c r="P13" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q13" s="3" t="s"/>
-      <x:c r="R13" s="3" t="s"/>
-      <x:c r="S13" s="3" t="s"/>
-      <x:c r="T13" s="3" t="s"/>
+      <x:c r="P13" s="3">
+        <x:v>44277</x:v>
+      </x:c>
+      <x:c r="Q13" s="4" t="s"/>
+      <x:c r="R13" s="4" t="s"/>
+      <x:c r="S13" s="4" t="s"/>
+      <x:c r="T13" s="4" t="s"/>
     </x:row>
     <x:row r="14" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A14" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
+      <x:c r="A14" s="2" t="s"/>
       <x:c r="B14" s="2" t="s"/>
       <x:c r="C14" s="2" t="s"/>
       <x:c r="D14" s="2" t="s"/>
@@ -722,24 +691,22 @@
       <x:c r="G14" s="2" t="s"/>
       <x:c r="H14" s="2" t="s"/>
       <x:c r="I14" s="2" t="s"/>
-      <x:c r="J14" s="4" t="s"/>
+      <x:c r="J14" s="5" t="s"/>
       <x:c r="K14" s="2" t="s"/>
       <x:c r="L14" s="2" t="s"/>
       <x:c r="M14" s="2" t="s"/>
       <x:c r="N14" s="2" t="s"/>
       <x:c r="O14" s="2" t="s"/>
-      <x:c r="P14" s="5">
-        <x:v>44277</x:v>
-      </x:c>
-      <x:c r="Q14" s="3" t="s"/>
-      <x:c r="R14" s="3" t="s"/>
-      <x:c r="S14" s="3" t="s"/>
-      <x:c r="T14" s="3" t="s"/>
+      <x:c r="P14" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q14" s="4" t="s"/>
+      <x:c r="R14" s="4" t="s"/>
+      <x:c r="S14" s="4" t="s"/>
+      <x:c r="T14" s="4" t="s"/>
     </x:row>
     <x:row r="15" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A15" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
+      <x:c r="A15" s="2" t="s"/>
       <x:c r="B15" s="2" t="s"/>
       <x:c r="C15" s="2" t="s"/>
       <x:c r="D15" s="2" t="s"/>
@@ -748,22 +715,20 @@
       <x:c r="G15" s="2" t="s"/>
       <x:c r="H15" s="2" t="s"/>
       <x:c r="I15" s="2" t="s"/>
-      <x:c r="J15" s="4" t="s"/>
+      <x:c r="J15" s="5" t="s"/>
       <x:c r="K15" s="2" t="s"/>
       <x:c r="L15" s="2" t="s"/>
       <x:c r="M15" s="2" t="s"/>
       <x:c r="N15" s="2" t="s"/>
       <x:c r="O15" s="2" t="s"/>
-      <x:c r="P15" s="4" t="s"/>
-      <x:c r="Q15" s="4" t="s"/>
-      <x:c r="R15" s="4" t="s"/>
-      <x:c r="S15" s="4" t="s"/>
-      <x:c r="T15" s="4" t="s"/>
+      <x:c r="P15" s="5" t="s"/>
+      <x:c r="Q15" s="5" t="s"/>
+      <x:c r="R15" s="5" t="s"/>
+      <x:c r="S15" s="5" t="s"/>
+      <x:c r="T15" s="5" t="s"/>
     </x:row>
     <x:row r="16" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A16" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
+      <x:c r="A16" s="2" t="s"/>
       <x:c r="B16" s="2" t="s"/>
       <x:c r="C16" s="2" t="s"/>
       <x:c r="D16" s="2" t="s"/>
@@ -772,17 +737,17 @@
       <x:c r="G16" s="2" t="s"/>
       <x:c r="H16" s="2" t="s"/>
       <x:c r="I16" s="2" t="s"/>
-      <x:c r="J16" s="4" t="s"/>
+      <x:c r="J16" s="5" t="s"/>
       <x:c r="K16" s="2" t="s"/>
       <x:c r="L16" s="2" t="s"/>
       <x:c r="M16" s="2" t="s"/>
       <x:c r="N16" s="2" t="s"/>
       <x:c r="O16" s="2" t="s"/>
-      <x:c r="P16" s="4" t="s"/>
-      <x:c r="Q16" s="4" t="s"/>
-      <x:c r="R16" s="4" t="s"/>
-      <x:c r="S16" s="4" t="s"/>
-      <x:c r="T16" s="4" t="s"/>
+      <x:c r="P16" s="5" t="s"/>
+      <x:c r="Q16" s="5" t="s"/>
+      <x:c r="R16" s="5" t="s"/>
+      <x:c r="S16" s="5" t="s"/>
+      <x:c r="T16" s="5" t="s"/>
     </x:row>
     <x:row r="17" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A17" s="2" t="s"/>
@@ -794,17 +759,17 @@
       <x:c r="G17" s="2" t="s"/>
       <x:c r="H17" s="2" t="s"/>
       <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="4" t="s"/>
+      <x:c r="J17" s="5" t="s"/>
       <x:c r="K17" s="2" t="s"/>
       <x:c r="L17" s="2" t="s"/>
       <x:c r="M17" s="2" t="s"/>
       <x:c r="N17" s="2" t="s"/>
       <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="4" t="s"/>
-      <x:c r="Q17" s="4" t="s"/>
-      <x:c r="R17" s="4" t="s"/>
-      <x:c r="S17" s="4" t="s"/>
-      <x:c r="T17" s="4" t="s"/>
+      <x:c r="P17" s="5" t="s"/>
+      <x:c r="Q17" s="5" t="s"/>
+      <x:c r="R17" s="5" t="s"/>
+      <x:c r="S17" s="5" t="s"/>
+      <x:c r="T17" s="5" t="s"/>
     </x:row>
     <x:row r="18" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A18" s="2" t="s"/>
@@ -819,7 +784,7 @@
     <x:row r="20" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="21" spans="1:20" customFormat="1" ht="30" customHeight="1">
       <x:c r="D21" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E21" s="7" t="s"/>
       <x:c r="F21" s="7" t="s"/>
@@ -847,7 +812,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C22" s="9" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D22" s="8" t="s"/>
       <x:c r="E22" s="8" t="s"/>
@@ -856,13 +821,13 @@
       <x:c r="H22" s="8" t="s"/>
       <x:c r="I22" s="8" t="s"/>
       <x:c r="J22" s="8" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K22" s="8" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L22" s="8" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M22" s="8" t="n">
         <x:v>0</x:v>
@@ -871,7 +836,7 @@
     <x:row r="23" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
     <x:row r="24" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A24" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s"/>
       <x:c r="C24" s="2" t="s"/>
@@ -887,13 +852,13 @@
       <x:c r="M24" s="2" t="s"/>
       <x:c r="N24" s="2" t="s"/>
       <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q24" s="3" t="s"/>
-      <x:c r="R24" s="3" t="s"/>
-      <x:c r="S24" s="3" t="s"/>
-      <x:c r="T24" s="3" t="s"/>
+      <x:c r="P24" s="3">
+        <x:v>44278</x:v>
+      </x:c>
+      <x:c r="Q24" s="4" t="s"/>
+      <x:c r="R24" s="4" t="s"/>
+      <x:c r="S24" s="4" t="s"/>
+      <x:c r="T24" s="4" t="s"/>
     </x:row>
     <x:row r="25" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A25" s="2" t="s"/>
@@ -905,19 +870,19 @@
       <x:c r="G25" s="2" t="s"/>
       <x:c r="H25" s="2" t="s"/>
       <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="4" t="s"/>
+      <x:c r="J25" s="5" t="s"/>
       <x:c r="K25" s="2" t="s"/>
       <x:c r="L25" s="2" t="s"/>
       <x:c r="M25" s="2" t="s"/>
       <x:c r="N25" s="2" t="s"/>
       <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="5">
-        <x:v>44277</x:v>
-      </x:c>
-      <x:c r="Q25" s="3" t="s"/>
-      <x:c r="R25" s="3" t="s"/>
-      <x:c r="S25" s="3" t="s"/>
-      <x:c r="T25" s="3" t="s"/>
+      <x:c r="P25" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q25" s="4" t="s"/>
+      <x:c r="R25" s="4" t="s"/>
+      <x:c r="S25" s="4" t="s"/>
+      <x:c r="T25" s="4" t="s"/>
     </x:row>
     <x:row r="26" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A26" s="2" t="s"/>
@@ -929,17 +894,17 @@
       <x:c r="G26" s="2" t="s"/>
       <x:c r="H26" s="2" t="s"/>
       <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="4" t="s"/>
+      <x:c r="J26" s="5" t="s"/>
       <x:c r="K26" s="2" t="s"/>
       <x:c r="L26" s="2" t="s"/>
       <x:c r="M26" s="2" t="s"/>
       <x:c r="N26" s="2" t="s"/>
       <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="4" t="s"/>
-      <x:c r="Q26" s="4" t="s"/>
-      <x:c r="R26" s="4" t="s"/>
-      <x:c r="S26" s="4" t="s"/>
-      <x:c r="T26" s="4" t="s"/>
+      <x:c r="P26" s="5" t="s"/>
+      <x:c r="Q26" s="5" t="s"/>
+      <x:c r="R26" s="5" t="s"/>
+      <x:c r="S26" s="5" t="s"/>
+      <x:c r="T26" s="5" t="s"/>
     </x:row>
     <x:row r="27" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A27" s="2" t="s"/>
@@ -951,17 +916,17 @@
       <x:c r="G27" s="2" t="s"/>
       <x:c r="H27" s="2" t="s"/>
       <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="4" t="s"/>
+      <x:c r="J27" s="5" t="s"/>
       <x:c r="K27" s="2" t="s"/>
       <x:c r="L27" s="2" t="s"/>
       <x:c r="M27" s="2" t="s"/>
       <x:c r="N27" s="2" t="s"/>
       <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="4" t="s"/>
-      <x:c r="Q27" s="4" t="s"/>
-      <x:c r="R27" s="4" t="s"/>
-      <x:c r="S27" s="4" t="s"/>
-      <x:c r="T27" s="4" t="s"/>
+      <x:c r="P27" s="5" t="s"/>
+      <x:c r="Q27" s="5" t="s"/>
+      <x:c r="R27" s="5" t="s"/>
+      <x:c r="S27" s="5" t="s"/>
+      <x:c r="T27" s="5" t="s"/>
     </x:row>
     <x:row r="28" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A28" s="2" t="s"/>
@@ -973,17 +938,17 @@
       <x:c r="G28" s="2" t="s"/>
       <x:c r="H28" s="2" t="s"/>
       <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="4" t="s"/>
+      <x:c r="J28" s="5" t="s"/>
       <x:c r="K28" s="2" t="s"/>
       <x:c r="L28" s="2" t="s"/>
       <x:c r="M28" s="2" t="s"/>
       <x:c r="N28" s="2" t="s"/>
       <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="4" t="s"/>
-      <x:c r="Q28" s="4" t="s"/>
-      <x:c r="R28" s="4" t="s"/>
-      <x:c r="S28" s="4" t="s"/>
-      <x:c r="T28" s="4" t="s"/>
+      <x:c r="P28" s="5" t="s"/>
+      <x:c r="Q28" s="5" t="s"/>
+      <x:c r="R28" s="5" t="s"/>
+      <x:c r="S28" s="5" t="s"/>
+      <x:c r="T28" s="5" t="s"/>
     </x:row>
     <x:row r="29" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A29" s="2" t="s"/>
@@ -998,7 +963,7 @@
     <x:row r="31" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="32" spans="1:20" customFormat="1" ht="30" customHeight="1">
       <x:c r="D32" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E32" s="7" t="s"/>
       <x:c r="F32" s="7" t="s"/>
@@ -1026,7 +991,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C33" s="9" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D33" s="8" t="s"/>
       <x:c r="E33" s="8" t="s"/>
@@ -1034,25 +999,25 @@
       <x:c r="G33" s="8" t="s"/>
       <x:c r="H33" s="8" t="s"/>
       <x:c r="I33" s="8" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J33" s="8" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K33" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L33" s="8" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="L33" s="8" t="n">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="M33" s="8" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
     <x:row r="35" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A35" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s"/>
       <x:c r="C35" s="2" t="s"/>
@@ -1068,13 +1033,13 @@
       <x:c r="M35" s="2" t="s"/>
       <x:c r="N35" s="2" t="s"/>
       <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q35" s="3" t="s"/>
-      <x:c r="R35" s="3" t="s"/>
-      <x:c r="S35" s="3" t="s"/>
-      <x:c r="T35" s="3" t="s"/>
+      <x:c r="P35" s="3">
+        <x:v>44277</x:v>
+      </x:c>
+      <x:c r="Q35" s="4" t="s"/>
+      <x:c r="R35" s="4" t="s"/>
+      <x:c r="S35" s="4" t="s"/>
+      <x:c r="T35" s="4" t="s"/>
     </x:row>
     <x:row r="36" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A36" s="2" t="s"/>
@@ -1086,19 +1051,19 @@
       <x:c r="G36" s="2" t="s"/>
       <x:c r="H36" s="2" t="s"/>
       <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="4" t="s"/>
+      <x:c r="J36" s="5" t="s"/>
       <x:c r="K36" s="2" t="s"/>
       <x:c r="L36" s="2" t="s"/>
       <x:c r="M36" s="2" t="s"/>
       <x:c r="N36" s="2" t="s"/>
       <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="5">
-        <x:v>44277</x:v>
-      </x:c>
-      <x:c r="Q36" s="3" t="s"/>
-      <x:c r="R36" s="3" t="s"/>
-      <x:c r="S36" s="3" t="s"/>
-      <x:c r="T36" s="3" t="s"/>
+      <x:c r="P36" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q36" s="4" t="s"/>
+      <x:c r="R36" s="4" t="s"/>
+      <x:c r="S36" s="4" t="s"/>
+      <x:c r="T36" s="4" t="s"/>
     </x:row>
     <x:row r="37" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A37" s="2" t="s"/>
@@ -1110,17 +1075,17 @@
       <x:c r="G37" s="2" t="s"/>
       <x:c r="H37" s="2" t="s"/>
       <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="4" t="s"/>
+      <x:c r="J37" s="5" t="s"/>
       <x:c r="K37" s="2" t="s"/>
       <x:c r="L37" s="2" t="s"/>
       <x:c r="M37" s="2" t="s"/>
       <x:c r="N37" s="2" t="s"/>
       <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="4" t="s"/>
-      <x:c r="Q37" s="4" t="s"/>
-      <x:c r="R37" s="4" t="s"/>
-      <x:c r="S37" s="4" t="s"/>
-      <x:c r="T37" s="4" t="s"/>
+      <x:c r="P37" s="5" t="s"/>
+      <x:c r="Q37" s="5" t="s"/>
+      <x:c r="R37" s="5" t="s"/>
+      <x:c r="S37" s="5" t="s"/>
+      <x:c r="T37" s="5" t="s"/>
     </x:row>
     <x:row r="38" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A38" s="2" t="s"/>
@@ -1132,17 +1097,17 @@
       <x:c r="G38" s="2" t="s"/>
       <x:c r="H38" s="2" t="s"/>
       <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="4" t="s"/>
+      <x:c r="J38" s="5" t="s"/>
       <x:c r="K38" s="2" t="s"/>
       <x:c r="L38" s="2" t="s"/>
       <x:c r="M38" s="2" t="s"/>
       <x:c r="N38" s="2" t="s"/>
       <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="4" t="s"/>
-      <x:c r="Q38" s="4" t="s"/>
-      <x:c r="R38" s="4" t="s"/>
-      <x:c r="S38" s="4" t="s"/>
-      <x:c r="T38" s="4" t="s"/>
+      <x:c r="P38" s="5" t="s"/>
+      <x:c r="Q38" s="5" t="s"/>
+      <x:c r="R38" s="5" t="s"/>
+      <x:c r="S38" s="5" t="s"/>
+      <x:c r="T38" s="5" t="s"/>
     </x:row>
     <x:row r="39" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A39" s="2" t="s"/>
@@ -1154,17 +1119,17 @@
       <x:c r="G39" s="2" t="s"/>
       <x:c r="H39" s="2" t="s"/>
       <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="4" t="s"/>
+      <x:c r="J39" s="5" t="s"/>
       <x:c r="K39" s="2" t="s"/>
       <x:c r="L39" s="2" t="s"/>
       <x:c r="M39" s="2" t="s"/>
       <x:c r="N39" s="2" t="s"/>
       <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="4" t="s"/>
-      <x:c r="Q39" s="4" t="s"/>
-      <x:c r="R39" s="4" t="s"/>
-      <x:c r="S39" s="4" t="s"/>
-      <x:c r="T39" s="4" t="s"/>
+      <x:c r="P39" s="5" t="s"/>
+      <x:c r="Q39" s="5" t="s"/>
+      <x:c r="R39" s="5" t="s"/>
+      <x:c r="S39" s="5" t="s"/>
+      <x:c r="T39" s="5" t="s"/>
     </x:row>
     <x:row r="40" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A40" s="2" t="s"/>
@@ -1179,7 +1144,7 @@
     <x:row r="42" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="43" spans="1:20" customFormat="1" ht="30" customHeight="1">
       <x:c r="D43" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E43" s="7" t="s"/>
       <x:c r="F43" s="7" t="s"/>
@@ -1207,395 +1172,29 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C44" s="9" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D44" s="8" t="s"/>
       <x:c r="E44" s="8" t="s"/>
       <x:c r="F44" s="8" t="s"/>
       <x:c r="G44" s="8" t="s"/>
       <x:c r="H44" s="8" t="s"/>
-      <x:c r="I44" s="8" t="n">
+      <x:c r="I44" s="8" t="s"/>
+      <x:c r="J44" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="J44" s="8" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="K44" s="8" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L44" s="8" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M44" s="8" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
-    <x:row r="46" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A46" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s"/>
-      <x:c r="C46" s="2" t="s"/>
-      <x:c r="D46" s="2" t="s"/>
-      <x:c r="E46" s="2" t="s"/>
-      <x:c r="F46" s="2" t="s"/>
-      <x:c r="G46" s="2" t="s"/>
-      <x:c r="H46" s="2" t="s"/>
-      <x:c r="I46" s="2" t="s"/>
-      <x:c r="J46" s="2" t="s"/>
-      <x:c r="K46" s="2" t="s"/>
-      <x:c r="L46" s="2" t="s"/>
-      <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="2" t="s"/>
-      <x:c r="O46" s="2" t="s"/>
-      <x:c r="P46" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q46" s="3" t="s"/>
-      <x:c r="R46" s="3" t="s"/>
-      <x:c r="S46" s="3" t="s"/>
-      <x:c r="T46" s="3" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A47" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s"/>
-      <x:c r="C47" s="2" t="s"/>
-      <x:c r="D47" s="2" t="s"/>
-      <x:c r="E47" s="2" t="s"/>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="4" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="5">
-        <x:v>44277</x:v>
-      </x:c>
-      <x:c r="Q47" s="3" t="s"/>
-      <x:c r="R47" s="3" t="s"/>
-      <x:c r="S47" s="3" t="s"/>
-      <x:c r="T47" s="3" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A48" s="2" t="s"/>
-      <x:c r="B48" s="2" t="s"/>
-      <x:c r="C48" s="2" t="s"/>
-      <x:c r="D48" s="2" t="s"/>
-      <x:c r="E48" s="2" t="s"/>
-      <x:c r="F48" s="2" t="s"/>
-      <x:c r="G48" s="2" t="s"/>
-      <x:c r="H48" s="2" t="s"/>
-      <x:c r="I48" s="2" t="s"/>
-      <x:c r="J48" s="4" t="s"/>
-      <x:c r="K48" s="2" t="s"/>
-      <x:c r="L48" s="2" t="s"/>
-      <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="2" t="s"/>
-      <x:c r="O48" s="2" t="s"/>
-      <x:c r="P48" s="4" t="s"/>
-      <x:c r="Q48" s="4" t="s"/>
-      <x:c r="R48" s="4" t="s"/>
-      <x:c r="S48" s="4" t="s"/>
-      <x:c r="T48" s="4" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A49" s="2" t="s"/>
-      <x:c r="B49" s="2" t="s"/>
-      <x:c r="C49" s="2" t="s"/>
-      <x:c r="D49" s="2" t="s"/>
-      <x:c r="E49" s="2" t="s"/>
-      <x:c r="F49" s="2" t="s"/>
-      <x:c r="G49" s="2" t="s"/>
-      <x:c r="H49" s="2" t="s"/>
-      <x:c r="I49" s="2" t="s"/>
-      <x:c r="J49" s="4" t="s"/>
-      <x:c r="K49" s="2" t="s"/>
-      <x:c r="L49" s="2" t="s"/>
-      <x:c r="M49" s="2" t="s"/>
-      <x:c r="N49" s="2" t="s"/>
-      <x:c r="O49" s="2" t="s"/>
-      <x:c r="P49" s="4" t="s"/>
-      <x:c r="Q49" s="4" t="s"/>
-      <x:c r="R49" s="4" t="s"/>
-      <x:c r="S49" s="4" t="s"/>
-      <x:c r="T49" s="4" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A50" s="2" t="s"/>
-      <x:c r="B50" s="2" t="s"/>
-      <x:c r="C50" s="2" t="s"/>
-      <x:c r="D50" s="2" t="s"/>
-      <x:c r="E50" s="2" t="s"/>
-      <x:c r="F50" s="2" t="s"/>
-      <x:c r="G50" s="2" t="s"/>
-      <x:c r="H50" s="2" t="s"/>
-      <x:c r="I50" s="2" t="s"/>
-      <x:c r="J50" s="4" t="s"/>
-      <x:c r="K50" s="2" t="s"/>
-      <x:c r="L50" s="2" t="s"/>
-      <x:c r="M50" s="2" t="s"/>
-      <x:c r="N50" s="2" t="s"/>
-      <x:c r="O50" s="2" t="s"/>
-      <x:c r="P50" s="4" t="s"/>
-      <x:c r="Q50" s="4" t="s"/>
-      <x:c r="R50" s="4" t="s"/>
-      <x:c r="S50" s="4" t="s"/>
-      <x:c r="T50" s="4" t="s"/>
-    </x:row>
-    <x:row r="51" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A51" s="2" t="s"/>
-      <x:c r="K51" s="2" t="s"/>
-      <x:c r="T51" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T52" s="6" t="s"/>
-    </x:row>
-    <x:row r="53" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
-    <x:row r="54" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D54" s="7" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E54" s="7" t="s"/>
-      <x:c r="F54" s="7" t="s"/>
-      <x:c r="G54" s="7" t="s"/>
-      <x:c r="H54" s="7" t="s"/>
-      <x:c r="I54" s="7" t="s"/>
-      <x:c r="J54" s="7" t="s"/>
-      <x:c r="K54" s="7" t="s"/>
-      <x:c r="L54" s="7" t="s"/>
-      <x:c r="M54" s="7" t="s"/>
-      <x:c r="N54" s="7" t="s"/>
-      <x:c r="O54" s="7" t="s"/>
-      <x:c r="P54" s="7" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="Q54" s="7" t="s"/>
-      <x:c r="R54" s="7" t="s"/>
-      <x:c r="S54" s="7" t="s"/>
-    </x:row>
-    <x:row r="55" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
-      <x:c r="A55" s="8" t="n">
-        <x:v>2021</x:v>
-      </x:c>
-      <x:c r="B55" s="9" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C55" s="9" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D55" s="8" t="s"/>
-      <x:c r="E55" s="8" t="s"/>
-      <x:c r="F55" s="8" t="s"/>
-      <x:c r="G55" s="8" t="s"/>
-      <x:c r="H55" s="8" t="s"/>
-      <x:c r="I55" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J55" s="8" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K55" s="8" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="L55" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M55" s="8" t="n">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
-    <x:row r="57" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A57" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B57" s="2" t="s"/>
-      <x:c r="C57" s="2" t="s"/>
-      <x:c r="D57" s="2" t="s"/>
-      <x:c r="E57" s="2" t="s"/>
-      <x:c r="F57" s="2" t="s"/>
-      <x:c r="G57" s="2" t="s"/>
-      <x:c r="H57" s="2" t="s"/>
-      <x:c r="I57" s="2" t="s"/>
-      <x:c r="J57" s="2" t="s"/>
-      <x:c r="K57" s="2" t="s"/>
-      <x:c r="L57" s="2" t="s"/>
-      <x:c r="M57" s="2" t="s"/>
-      <x:c r="N57" s="2" t="s"/>
-      <x:c r="O57" s="2" t="s"/>
-      <x:c r="P57" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q57" s="3" t="s"/>
-      <x:c r="R57" s="3" t="s"/>
-      <x:c r="S57" s="3" t="s"/>
-      <x:c r="T57" s="3" t="s"/>
-    </x:row>
-    <x:row r="58" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A58" s="2" t="s"/>
-      <x:c r="B58" s="2" t="s"/>
-      <x:c r="C58" s="2" t="s"/>
-      <x:c r="D58" s="2" t="s"/>
-      <x:c r="E58" s="2" t="s"/>
-      <x:c r="F58" s="2" t="s"/>
-      <x:c r="G58" s="2" t="s"/>
-      <x:c r="H58" s="2" t="s"/>
-      <x:c r="I58" s="2" t="s"/>
-      <x:c r="J58" s="4" t="s"/>
-      <x:c r="K58" s="2" t="s"/>
-      <x:c r="L58" s="2" t="s"/>
-      <x:c r="M58" s="2" t="s"/>
-      <x:c r="N58" s="2" t="s"/>
-      <x:c r="O58" s="2" t="s"/>
-      <x:c r="P58" s="5">
-        <x:v>44277</x:v>
-      </x:c>
-      <x:c r="Q58" s="3" t="s"/>
-      <x:c r="R58" s="3" t="s"/>
-      <x:c r="S58" s="3" t="s"/>
-      <x:c r="T58" s="3" t="s"/>
-    </x:row>
-    <x:row r="59" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A59" s="2" t="s"/>
-      <x:c r="B59" s="2" t="s"/>
-      <x:c r="C59" s="2" t="s"/>
-      <x:c r="D59" s="2" t="s"/>
-      <x:c r="E59" s="2" t="s"/>
-      <x:c r="F59" s="2" t="s"/>
-      <x:c r="G59" s="2" t="s"/>
-      <x:c r="H59" s="2" t="s"/>
-      <x:c r="I59" s="2" t="s"/>
-      <x:c r="J59" s="4" t="s"/>
-      <x:c r="K59" s="2" t="s"/>
-      <x:c r="L59" s="2" t="s"/>
-      <x:c r="M59" s="2" t="s"/>
-      <x:c r="N59" s="2" t="s"/>
-      <x:c r="O59" s="2" t="s"/>
-      <x:c r="P59" s="4" t="s"/>
-      <x:c r="Q59" s="4" t="s"/>
-      <x:c r="R59" s="4" t="s"/>
-      <x:c r="S59" s="4" t="s"/>
-      <x:c r="T59" s="4" t="s"/>
-    </x:row>
-    <x:row r="60" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A60" s="2" t="s"/>
-      <x:c r="B60" s="2" t="s"/>
-      <x:c r="C60" s="2" t="s"/>
-      <x:c r="D60" s="2" t="s"/>
-      <x:c r="E60" s="2" t="s"/>
-      <x:c r="F60" s="2" t="s"/>
-      <x:c r="G60" s="2" t="s"/>
-      <x:c r="H60" s="2" t="s"/>
-      <x:c r="I60" s="2" t="s"/>
-      <x:c r="J60" s="4" t="s"/>
-      <x:c r="K60" s="2" t="s"/>
-      <x:c r="L60" s="2" t="s"/>
-      <x:c r="M60" s="2" t="s"/>
-      <x:c r="N60" s="2" t="s"/>
-      <x:c r="O60" s="2" t="s"/>
-      <x:c r="P60" s="4" t="s"/>
-      <x:c r="Q60" s="4" t="s"/>
-      <x:c r="R60" s="4" t="s"/>
-      <x:c r="S60" s="4" t="s"/>
-      <x:c r="T60" s="4" t="s"/>
-    </x:row>
-    <x:row r="61" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A61" s="2" t="s"/>
-      <x:c r="B61" s="2" t="s"/>
-      <x:c r="C61" s="2" t="s"/>
-      <x:c r="D61" s="2" t="s"/>
-      <x:c r="E61" s="2" t="s"/>
-      <x:c r="F61" s="2" t="s"/>
-      <x:c r="G61" s="2" t="s"/>
-      <x:c r="H61" s="2" t="s"/>
-      <x:c r="I61" s="2" t="s"/>
-      <x:c r="J61" s="4" t="s"/>
-      <x:c r="K61" s="2" t="s"/>
-      <x:c r="L61" s="2" t="s"/>
-      <x:c r="M61" s="2" t="s"/>
-      <x:c r="N61" s="2" t="s"/>
-      <x:c r="O61" s="2" t="s"/>
-      <x:c r="P61" s="4" t="s"/>
-      <x:c r="Q61" s="4" t="s"/>
-      <x:c r="R61" s="4" t="s"/>
-      <x:c r="S61" s="4" t="s"/>
-      <x:c r="T61" s="4" t="s"/>
-    </x:row>
-    <x:row r="62" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A62" s="2" t="s"/>
-      <x:c r="K62" s="2" t="s"/>
-      <x:c r="T62" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="T63" s="6" t="s"/>
-    </x:row>
-    <x:row r="64" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
-    <x:row r="65" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D65" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E65" s="7" t="s"/>
-      <x:c r="F65" s="7" t="s"/>
-      <x:c r="G65" s="7" t="s"/>
-      <x:c r="H65" s="7" t="s"/>
-      <x:c r="I65" s="7" t="s"/>
-      <x:c r="J65" s="7" t="s"/>
-      <x:c r="K65" s="7" t="s"/>
-      <x:c r="L65" s="7" t="s"/>
-      <x:c r="M65" s="7" t="s"/>
-      <x:c r="N65" s="7" t="s"/>
-      <x:c r="O65" s="7" t="s"/>
-      <x:c r="P65" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="Q65" s="7" t="s"/>
-      <x:c r="R65" s="7" t="s"/>
-      <x:c r="S65" s="7" t="s"/>
-    </x:row>
-    <x:row r="66" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
-      <x:c r="A66" s="8" t="n">
-        <x:v>2021</x:v>
-      </x:c>
-      <x:c r="B66" s="9" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C66" s="9" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D66" s="8" t="s"/>
-      <x:c r="E66" s="8" t="s"/>
-      <x:c r="F66" s="8" t="s"/>
-      <x:c r="G66" s="8" t="s"/>
-      <x:c r="H66" s="8" t="s"/>
-      <x:c r="I66" s="8" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J66" s="8" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K66" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L66" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M66" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
-  <x:mergeCells count="114">
+  <x:mergeCells count="76">
     <x:mergeCell ref="A2:I2"/>
     <x:mergeCell ref="K2:O2"/>
     <x:mergeCell ref="P2:T2"/>
@@ -1672,44 +1271,6 @@
     <x:mergeCell ref="D43:M43"/>
     <x:mergeCell ref="N43:O43"/>
     <x:mergeCell ref="P43:S43"/>
-    <x:mergeCell ref="A46:I46"/>
-    <x:mergeCell ref="K46:O46"/>
-    <x:mergeCell ref="P46:T46"/>
-    <x:mergeCell ref="A47:I47"/>
-    <x:mergeCell ref="K47:O47"/>
-    <x:mergeCell ref="P47:T47"/>
-    <x:mergeCell ref="A48:I48"/>
-    <x:mergeCell ref="K48:O48"/>
-    <x:mergeCell ref="P48:T48"/>
-    <x:mergeCell ref="A49:I49"/>
-    <x:mergeCell ref="K49:O49"/>
-    <x:mergeCell ref="P49:T49"/>
-    <x:mergeCell ref="A50:I50"/>
-    <x:mergeCell ref="K50:O50"/>
-    <x:mergeCell ref="R51:R52"/>
-    <x:mergeCell ref="T51:T52"/>
-    <x:mergeCell ref="D54:M54"/>
-    <x:mergeCell ref="N54:O54"/>
-    <x:mergeCell ref="P54:S54"/>
-    <x:mergeCell ref="A57:I57"/>
-    <x:mergeCell ref="K57:O57"/>
-    <x:mergeCell ref="P57:T57"/>
-    <x:mergeCell ref="A58:I58"/>
-    <x:mergeCell ref="K58:O58"/>
-    <x:mergeCell ref="P58:T58"/>
-    <x:mergeCell ref="A59:I59"/>
-    <x:mergeCell ref="K59:O59"/>
-    <x:mergeCell ref="P59:T59"/>
-    <x:mergeCell ref="A60:I60"/>
-    <x:mergeCell ref="K60:O60"/>
-    <x:mergeCell ref="P60:T60"/>
-    <x:mergeCell ref="A61:I61"/>
-    <x:mergeCell ref="K61:O61"/>
-    <x:mergeCell ref="R62:R63"/>
-    <x:mergeCell ref="T62:T63"/>
-    <x:mergeCell ref="D65:M65"/>
-    <x:mergeCell ref="N65:O65"/>
-    <x:mergeCell ref="P65:S65"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7874" right="0.19685" top="0" bottom="0" header="0.5" footer="0.75"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,36 +14,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <x:si>
-    <x:t>口座入金  \1,140,000-</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <x:si>
+    <x:t>ワイズコア ファーストサプライ領収証 \2,193-</x:t>
   </x:si>
   <x:si>
     <x:t>管理事務所</x:t>
   </x:si>
   <x:si>
-    <x:t>林飛</x:t>
-  </x:si>
-  <x:si>
-    <x:t>セレサ川崎普通貯金 : 133</x:t>
+    <x:t>安田</x:t>
+  </x:si>
+  <x:si>
+    <x:t>立替金 : 167</x:t>
   </x:si>
   <x:si>
     <x:t>春秋苑</x:t>
   </x:si>
   <x:si>
-    <x:t>交通費 篠崎　正善　１２日分 \5,040-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>旅費交通費 : 611</x:t>
-  </x:si>
-  <x:si>
-    <x:t>交通費 佐野　恭大 \39,242-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ゆうパック 日本郵便（株） \2,560-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>通信運搬費 : 614</x:t>
+    <x:t>納骨 飯塚家 \40,000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>青蓮堂</x:t>
+  </x:si>
+  <x:si>
+    <x:t>納骨冥加 : 811</x:t>
+  </x:si>
+  <x:si>
+    <x:t>特別参拝室 坂下家 \10,000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法事冥加 : 813</x:t>
+  </x:si>
+  <x:si>
+    <x:t>名義変更 奥山功 \52,000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>各種変更冥加 : 814</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御布施 坂下家 \30,000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>冥加読経料 : 815</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法務部</x:t>
+  </x:si>
+  <x:si>
+    <x:t>龍昌寺  \20,000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>懇志読経料 : 831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>供物 坂下家 \5,400-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>※軽減税率</x:t>
+  </x:si>
+  <x:si>
+    <x:t>式場売上 : 871</x:t>
+  </x:si>
+  <x:si>
+    <x:t>物販 念珠 \2,000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>物販 ビール \400-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>その他茶所収入 : 874</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -443,7 +482,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T88"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -461,15 +500,15 @@
     <x:col min="11" max="12" width="2.000625" style="1" customWidth="1"/>
     <x:col min="13" max="13" width="2.140625" style="1" customWidth="1"/>
     <x:col min="14" max="14" width="11.000625" style="1" customWidth="1"/>
-    <x:col min="15" max="15" width="10.710625" style="1" customWidth="1"/>
+    <x:col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
     <x:col min="16" max="16" width="6.000625" style="1" customWidth="1"/>
-    <x:col min="17" max="17" width="1.630625" style="1" customWidth="1"/>
+    <x:col min="17" max="17" width="1.460625" style="1" customWidth="1"/>
     <x:col min="18" max="18" width="6.140625" style="1" customWidth="1"/>
-    <x:col min="19" max="19" width="1.630625" style="1" customWidth="1"/>
+    <x:col min="19" max="19" width="1.540625" style="1" customWidth="1"/>
     <x:col min="20" max="20" width="5.570625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
+    <x:row r="1" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
     <x:row r="2" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A2" s="2" t="s">
         <x:v>0</x:v>
@@ -489,7 +528,7 @@
       <x:c r="N2" s="2" t="s"/>
       <x:c r="O2" s="2" t="s"/>
       <x:c r="P2" s="3">
-        <x:v>44277</x:v>
+        <x:v>44295</x:v>
       </x:c>
       <x:c r="Q2" s="4" t="s"/>
       <x:c r="R2" s="4" t="s"/>
@@ -598,9 +637,7 @@
     </x:row>
     <x:row r="9" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="10" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D10" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="D10" s="7" t="s"/>
       <x:c r="E10" s="7" t="s"/>
       <x:c r="F10" s="7" t="s"/>
       <x:c r="G10" s="7" t="s"/>
@@ -610,7 +647,9 @@
       <x:c r="K10" s="7" t="s"/>
       <x:c r="L10" s="7" t="s"/>
       <x:c r="M10" s="7" t="s"/>
-      <x:c r="N10" s="7" t="s"/>
+      <x:c r="N10" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="O10" s="7" t="s"/>
       <x:c r="P10" s="7" t="s">
         <x:v>4</x:v>
@@ -619,42 +658,36 @@
       <x:c r="R10" s="7" t="s"/>
       <x:c r="S10" s="7" t="s"/>
     </x:row>
-    <x:row r="11" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+    <x:row r="11" spans="1:20" customFormat="1" ht="32.25" customHeight="1">
       <x:c r="A11" s="8" t="n">
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B11" s="9" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C11" s="9" t="n">
-        <x:v>23</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s"/>
       <x:c r="E11" s="8" t="s"/>
       <x:c r="F11" s="8" t="s"/>
-      <x:c r="G11" s="8" t="n">
+      <x:c r="G11" s="8" t="s"/>
+      <x:c r="H11" s="8" t="s"/>
+      <x:c r="I11" s="8" t="s"/>
+      <x:c r="J11" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K11" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="H11" s="8" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I11" s="8" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J11" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K11" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="L11" s="8" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M11" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
     <x:row r="13" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A13" s="2" t="s">
         <x:v>5</x:v>
@@ -674,7 +707,7 @@
       <x:c r="N13" s="2" t="s"/>
       <x:c r="O13" s="2" t="s"/>
       <x:c r="P13" s="3">
-        <x:v>44277</x:v>
+        <x:v>44295</x:v>
       </x:c>
       <x:c r="Q13" s="4" t="s"/>
       <x:c r="R13" s="4" t="s"/>
@@ -698,7 +731,7 @@
       <x:c r="N14" s="2" t="s"/>
       <x:c r="O14" s="2" t="s"/>
       <x:c r="P14" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q14" s="4" t="s"/>
       <x:c r="R14" s="4" t="s"/>
@@ -783,9 +816,7 @@
     </x:row>
     <x:row r="20" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="21" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D21" s="7" t="s">
-        <x:v>6</x:v>
-      </x:c>
+      <x:c r="D21" s="7" t="s"/>
       <x:c r="E21" s="7" t="s"/>
       <x:c r="F21" s="7" t="s"/>
       <x:c r="G21" s="7" t="s"/>
@@ -795,7 +826,9 @@
       <x:c r="K21" s="7" t="s"/>
       <x:c r="L21" s="7" t="s"/>
       <x:c r="M21" s="7" t="s"/>
-      <x:c r="N21" s="7" t="s"/>
+      <x:c r="N21" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="O21" s="7" t="s"/>
       <x:c r="P21" s="7" t="s">
         <x:v>4</x:v>
@@ -804,39 +837,41 @@
       <x:c r="R21" s="7" t="s"/>
       <x:c r="S21" s="7" t="s"/>
     </x:row>
-    <x:row r="22" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+    <x:row r="22" spans="1:20" customFormat="1" ht="32.25" customHeight="1">
       <x:c r="A22" s="8" t="n">
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B22" s="9" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C22" s="9" t="n">
-        <x:v>23</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D22" s="8" t="s"/>
       <x:c r="E22" s="8" t="s"/>
       <x:c r="F22" s="8" t="s"/>
       <x:c r="G22" s="8" t="s"/>
       <x:c r="H22" s="8" t="s"/>
-      <x:c r="I22" s="8" t="s"/>
+      <x:c r="I22" s="8" t="n">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="J22" s="8" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K22" s="8" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L22" s="8" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M22" s="8" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
+    <x:row r="23" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
     <x:row r="24" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A24" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s"/>
       <x:c r="C24" s="2" t="s"/>
@@ -853,7 +888,7 @@
       <x:c r="N24" s="2" t="s"/>
       <x:c r="O24" s="2" t="s"/>
       <x:c r="P24" s="3">
-        <x:v>44278</x:v>
+        <x:v>44295</x:v>
       </x:c>
       <x:c r="Q24" s="4" t="s"/>
       <x:c r="R24" s="4" t="s"/>
@@ -877,7 +912,7 @@
       <x:c r="N25" s="2" t="s"/>
       <x:c r="O25" s="2" t="s"/>
       <x:c r="P25" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q25" s="4" t="s"/>
       <x:c r="R25" s="4" t="s"/>
@@ -962,9 +997,7 @@
     </x:row>
     <x:row r="31" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="32" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D32" s="7" t="s">
-        <x:v>6</x:v>
-      </x:c>
+      <x:c r="D32" s="7" t="s"/>
       <x:c r="E32" s="7" t="s"/>
       <x:c r="F32" s="7" t="s"/>
       <x:c r="G32" s="7" t="s"/>
@@ -974,7 +1007,9 @@
       <x:c r="K32" s="7" t="s"/>
       <x:c r="L32" s="7" t="s"/>
       <x:c r="M32" s="7" t="s"/>
-      <x:c r="N32" s="7" t="s"/>
+      <x:c r="N32" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="O32" s="7" t="s"/>
       <x:c r="P32" s="7" t="s">
         <x:v>4</x:v>
@@ -983,15 +1018,15 @@
       <x:c r="R32" s="7" t="s"/>
       <x:c r="S32" s="7" t="s"/>
     </x:row>
-    <x:row r="33" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+    <x:row r="33" spans="1:20" customFormat="1" ht="32.25" customHeight="1">
       <x:c r="A33" s="8" t="n">
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B33" s="9" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C33" s="9" t="n">
-        <x:v>23</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D33" s="8" t="s"/>
       <x:c r="E33" s="8" t="s"/>
@@ -999,25 +1034,25 @@
       <x:c r="G33" s="8" t="s"/>
       <x:c r="H33" s="8" t="s"/>
       <x:c r="I33" s="8" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J33" s="8" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K33" s="8" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L33" s="8" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M33" s="8" t="n">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:20" customFormat="1" ht="27" customHeight="1"/>
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
     <x:row r="35" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A35" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s"/>
       <x:c r="C35" s="2" t="s"/>
@@ -1034,7 +1069,7 @@
       <x:c r="N35" s="2" t="s"/>
       <x:c r="O35" s="2" t="s"/>
       <x:c r="P35" s="3">
-        <x:v>44277</x:v>
+        <x:v>44295</x:v>
       </x:c>
       <x:c r="Q35" s="4" t="s"/>
       <x:c r="R35" s="4" t="s"/>
@@ -1058,7 +1093,7 @@
       <x:c r="N36" s="2" t="s"/>
       <x:c r="O36" s="2" t="s"/>
       <x:c r="P36" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q36" s="4" t="s"/>
       <x:c r="R36" s="4" t="s"/>
@@ -1143,9 +1178,7 @@
     </x:row>
     <x:row r="42" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="43" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D43" s="7" t="s">
-        <x:v>9</x:v>
-      </x:c>
+      <x:c r="D43" s="7" t="s"/>
       <x:c r="E43" s="7" t="s"/>
       <x:c r="F43" s="7" t="s"/>
       <x:c r="G43" s="7" t="s"/>
@@ -1155,7 +1188,9 @@
       <x:c r="K43" s="7" t="s"/>
       <x:c r="L43" s="7" t="s"/>
       <x:c r="M43" s="7" t="s"/>
-      <x:c r="N43" s="7" t="s"/>
+      <x:c r="N43" s="7" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="O43" s="7" t="s"/>
       <x:c r="P43" s="7" t="s">
         <x:v>4</x:v>
@@ -1164,37 +1199,763 @@
       <x:c r="R43" s="7" t="s"/>
       <x:c r="S43" s="7" t="s"/>
     </x:row>
-    <x:row r="44" spans="1:20" customFormat="1" ht="29.25" customHeight="1">
+    <x:row r="44" spans="1:20" customFormat="1" ht="32.25" customHeight="1">
       <x:c r="A44" s="8" t="n">
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B44" s="9" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C44" s="9" t="n">
-        <x:v>23</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D44" s="8" t="s"/>
       <x:c r="E44" s="8" t="s"/>
       <x:c r="F44" s="8" t="s"/>
       <x:c r="G44" s="8" t="s"/>
       <x:c r="H44" s="8" t="s"/>
-      <x:c r="I44" s="8" t="s"/>
+      <x:c r="I44" s="8" t="n">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="J44" s="8" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="K44" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L44" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M44" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
+    <x:row r="46" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A46" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s"/>
+      <x:c r="C46" s="2" t="s"/>
+      <x:c r="D46" s="2" t="s"/>
+      <x:c r="E46" s="2" t="s"/>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="3">
+        <x:v>44295</x:v>
+      </x:c>
+      <x:c r="Q46" s="4" t="s"/>
+      <x:c r="R46" s="4" t="s"/>
+      <x:c r="S46" s="4" t="s"/>
+      <x:c r="T46" s="4" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A47" s="2" t="s"/>
+      <x:c r="B47" s="2" t="s"/>
+      <x:c r="C47" s="2" t="s"/>
+      <x:c r="D47" s="2" t="s"/>
+      <x:c r="E47" s="2" t="s"/>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="5" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="Q47" s="4" t="s"/>
+      <x:c r="R47" s="4" t="s"/>
+      <x:c r="S47" s="4" t="s"/>
+      <x:c r="T47" s="4" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A48" s="2" t="s"/>
+      <x:c r="B48" s="2" t="s"/>
+      <x:c r="C48" s="2" t="s"/>
+      <x:c r="D48" s="2" t="s"/>
+      <x:c r="E48" s="2" t="s"/>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="5" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="5" t="s"/>
+      <x:c r="Q48" s="5" t="s"/>
+      <x:c r="R48" s="5" t="s"/>
+      <x:c r="S48" s="5" t="s"/>
+      <x:c r="T48" s="5" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A49" s="2" t="s"/>
+      <x:c r="B49" s="2" t="s"/>
+      <x:c r="C49" s="2" t="s"/>
+      <x:c r="D49" s="2" t="s"/>
+      <x:c r="E49" s="2" t="s"/>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="5" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="5" t="s"/>
+      <x:c r="Q49" s="5" t="s"/>
+      <x:c r="R49" s="5" t="s"/>
+      <x:c r="S49" s="5" t="s"/>
+      <x:c r="T49" s="5" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A50" s="2" t="s"/>
+      <x:c r="B50" s="2" t="s"/>
+      <x:c r="C50" s="2" t="s"/>
+      <x:c r="D50" s="2" t="s"/>
+      <x:c r="E50" s="2" t="s"/>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="5" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="5" t="s"/>
+      <x:c r="Q50" s="5" t="s"/>
+      <x:c r="R50" s="5" t="s"/>
+      <x:c r="S50" s="5" t="s"/>
+      <x:c r="T50" s="5" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="T51" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T52" s="6" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="54" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D54" s="7" t="s"/>
+      <x:c r="E54" s="7" t="s"/>
+      <x:c r="F54" s="7" t="s"/>
+      <x:c r="G54" s="7" t="s"/>
+      <x:c r="H54" s="7" t="s"/>
+      <x:c r="I54" s="7" t="s"/>
+      <x:c r="J54" s="7" t="s"/>
+      <x:c r="K54" s="7" t="s"/>
+      <x:c r="L54" s="7" t="s"/>
+      <x:c r="M54" s="7" t="s"/>
+      <x:c r="N54" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="O54" s="7" t="s"/>
+      <x:c r="P54" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="Q54" s="7" t="s"/>
+      <x:c r="R54" s="7" t="s"/>
+      <x:c r="S54" s="7" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:20" customFormat="1" ht="32.25" customHeight="1">
+      <x:c r="A55" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B55" s="9" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C55" s="9" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D55" s="8" t="s"/>
+      <x:c r="E55" s="8" t="s"/>
+      <x:c r="F55" s="8" t="s"/>
+      <x:c r="G55" s="8" t="s"/>
+      <x:c r="H55" s="8" t="s"/>
+      <x:c r="I55" s="8" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J55" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K55" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L55" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M55" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
+    <x:row r="57" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A57" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s"/>
+      <x:c r="C57" s="2" t="s"/>
+      <x:c r="D57" s="2" t="s"/>
+      <x:c r="E57" s="2" t="s"/>
+      <x:c r="F57" s="2" t="s"/>
+      <x:c r="G57" s="2" t="s"/>
+      <x:c r="H57" s="2" t="s"/>
+      <x:c r="I57" s="2" t="s"/>
+      <x:c r="J57" s="2" t="s"/>
+      <x:c r="K57" s="2" t="s"/>
+      <x:c r="L57" s="2" t="s"/>
+      <x:c r="M57" s="2" t="s"/>
+      <x:c r="N57" s="2" t="s"/>
+      <x:c r="O57" s="2" t="s"/>
+      <x:c r="P57" s="3">
+        <x:v>44295</x:v>
+      </x:c>
+      <x:c r="Q57" s="4" t="s"/>
+      <x:c r="R57" s="4" t="s"/>
+      <x:c r="S57" s="4" t="s"/>
+      <x:c r="T57" s="4" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A58" s="2" t="s"/>
+      <x:c r="B58" s="2" t="s"/>
+      <x:c r="C58" s="2" t="s"/>
+      <x:c r="D58" s="2" t="s"/>
+      <x:c r="E58" s="2" t="s"/>
+      <x:c r="F58" s="2" t="s"/>
+      <x:c r="G58" s="2" t="s"/>
+      <x:c r="H58" s="2" t="s"/>
+      <x:c r="I58" s="2" t="s"/>
+      <x:c r="J58" s="5" t="s"/>
+      <x:c r="K58" s="2" t="s"/>
+      <x:c r="L58" s="2" t="s"/>
+      <x:c r="M58" s="2" t="s"/>
+      <x:c r="N58" s="2" t="s"/>
+      <x:c r="O58" s="2" t="s"/>
+      <x:c r="P58" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="Q58" s="4" t="s"/>
+      <x:c r="R58" s="4" t="s"/>
+      <x:c r="S58" s="4" t="s"/>
+      <x:c r="T58" s="4" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A59" s="2" t="s"/>
+      <x:c r="B59" s="2" t="s"/>
+      <x:c r="C59" s="2" t="s"/>
+      <x:c r="D59" s="2" t="s"/>
+      <x:c r="E59" s="2" t="s"/>
+      <x:c r="F59" s="2" t="s"/>
+      <x:c r="G59" s="2" t="s"/>
+      <x:c r="H59" s="2" t="s"/>
+      <x:c r="I59" s="2" t="s"/>
+      <x:c r="J59" s="5" t="s"/>
+      <x:c r="K59" s="2" t="s"/>
+      <x:c r="L59" s="2" t="s"/>
+      <x:c r="M59" s="2" t="s"/>
+      <x:c r="N59" s="2" t="s"/>
+      <x:c r="O59" s="2" t="s"/>
+      <x:c r="P59" s="5" t="s"/>
+      <x:c r="Q59" s="5" t="s"/>
+      <x:c r="R59" s="5" t="s"/>
+      <x:c r="S59" s="5" t="s"/>
+      <x:c r="T59" s="5" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A60" s="2" t="s"/>
+      <x:c r="B60" s="2" t="s"/>
+      <x:c r="C60" s="2" t="s"/>
+      <x:c r="D60" s="2" t="s"/>
+      <x:c r="E60" s="2" t="s"/>
+      <x:c r="F60" s="2" t="s"/>
+      <x:c r="G60" s="2" t="s"/>
+      <x:c r="H60" s="2" t="s"/>
+      <x:c r="I60" s="2" t="s"/>
+      <x:c r="J60" s="5" t="s"/>
+      <x:c r="K60" s="2" t="s"/>
+      <x:c r="L60" s="2" t="s"/>
+      <x:c r="M60" s="2" t="s"/>
+      <x:c r="N60" s="2" t="s"/>
+      <x:c r="O60" s="2" t="s"/>
+      <x:c r="P60" s="5" t="s"/>
+      <x:c r="Q60" s="5" t="s"/>
+      <x:c r="R60" s="5" t="s"/>
+      <x:c r="S60" s="5" t="s"/>
+      <x:c r="T60" s="5" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A61" s="2" t="s"/>
+      <x:c r="B61" s="2" t="s"/>
+      <x:c r="C61" s="2" t="s"/>
+      <x:c r="D61" s="2" t="s"/>
+      <x:c r="E61" s="2" t="s"/>
+      <x:c r="F61" s="2" t="s"/>
+      <x:c r="G61" s="2" t="s"/>
+      <x:c r="H61" s="2" t="s"/>
+      <x:c r="I61" s="2" t="s"/>
+      <x:c r="J61" s="5" t="s"/>
+      <x:c r="K61" s="2" t="s"/>
+      <x:c r="L61" s="2" t="s"/>
+      <x:c r="M61" s="2" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
+      <x:c r="P61" s="5" t="s"/>
+      <x:c r="Q61" s="5" t="s"/>
+      <x:c r="R61" s="5" t="s"/>
+      <x:c r="S61" s="5" t="s"/>
+      <x:c r="T61" s="5" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A62" s="2" t="s"/>
+      <x:c r="K62" s="2" t="s"/>
+      <x:c r="T62" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T63" s="6" t="s"/>
+    </x:row>
+    <x:row r="64" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="65" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D65" s="7" t="s"/>
+      <x:c r="E65" s="7" t="s"/>
+      <x:c r="F65" s="7" t="s"/>
+      <x:c r="G65" s="7" t="s"/>
+      <x:c r="H65" s="7" t="s"/>
+      <x:c r="I65" s="7" t="s"/>
+      <x:c r="J65" s="7" t="s"/>
+      <x:c r="K65" s="7" t="s"/>
+      <x:c r="L65" s="7" t="s"/>
+      <x:c r="M65" s="7" t="s"/>
+      <x:c r="N65" s="7" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="O65" s="7" t="s"/>
+      <x:c r="P65" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Q65" s="7" t="s"/>
+      <x:c r="R65" s="7" t="s"/>
+      <x:c r="S65" s="7" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:20" customFormat="1" ht="32.25" customHeight="1">
+      <x:c r="A66" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B66" s="9" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C66" s="9" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D66" s="8" t="s"/>
+      <x:c r="E66" s="8" t="s"/>
+      <x:c r="F66" s="8" t="s"/>
+      <x:c r="G66" s="8" t="s"/>
+      <x:c r="H66" s="8" t="s"/>
+      <x:c r="I66" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J66" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K66" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L66" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M66" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
+    <x:row r="68" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A68" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s"/>
+      <x:c r="C68" s="2" t="s"/>
+      <x:c r="D68" s="2" t="s"/>
+      <x:c r="E68" s="2" t="s"/>
+      <x:c r="F68" s="2" t="s"/>
+      <x:c r="G68" s="2" t="s"/>
+      <x:c r="H68" s="2" t="s"/>
+      <x:c r="I68" s="2" t="s"/>
+      <x:c r="J68" s="2" t="s"/>
+      <x:c r="K68" s="2" t="s"/>
+      <x:c r="L68" s="2" t="s"/>
+      <x:c r="M68" s="2" t="s"/>
+      <x:c r="N68" s="2" t="s"/>
+      <x:c r="O68" s="2" t="s"/>
+      <x:c r="P68" s="3">
+        <x:v>44295</x:v>
+      </x:c>
+      <x:c r="Q68" s="4" t="s"/>
+      <x:c r="R68" s="4" t="s"/>
+      <x:c r="S68" s="4" t="s"/>
+      <x:c r="T68" s="4" t="s"/>
+    </x:row>
+    <x:row r="69" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A69" s="2" t="s"/>
+      <x:c r="B69" s="2" t="s"/>
+      <x:c r="C69" s="2" t="s"/>
+      <x:c r="D69" s="2" t="s"/>
+      <x:c r="E69" s="2" t="s"/>
+      <x:c r="F69" s="2" t="s"/>
+      <x:c r="G69" s="2" t="s"/>
+      <x:c r="H69" s="2" t="s"/>
+      <x:c r="I69" s="2" t="s"/>
+      <x:c r="J69" s="5" t="s"/>
+      <x:c r="K69" s="2" t="s"/>
+      <x:c r="L69" s="2" t="s"/>
+      <x:c r="M69" s="2" t="s"/>
+      <x:c r="N69" s="2" t="s"/>
+      <x:c r="O69" s="2" t="s"/>
+      <x:c r="P69" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="Q69" s="4" t="s"/>
+      <x:c r="R69" s="4" t="s"/>
+      <x:c r="S69" s="4" t="s"/>
+      <x:c r="T69" s="4" t="s"/>
+    </x:row>
+    <x:row r="70" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A70" s="2" t="s"/>
+      <x:c r="B70" s="2" t="s"/>
+      <x:c r="C70" s="2" t="s"/>
+      <x:c r="D70" s="2" t="s"/>
+      <x:c r="E70" s="2" t="s"/>
+      <x:c r="F70" s="2" t="s"/>
+      <x:c r="G70" s="2" t="s"/>
+      <x:c r="H70" s="2" t="s"/>
+      <x:c r="I70" s="2" t="s"/>
+      <x:c r="J70" s="5" t="s"/>
+      <x:c r="K70" s="2" t="s"/>
+      <x:c r="L70" s="2" t="s"/>
+      <x:c r="M70" s="2" t="s"/>
+      <x:c r="N70" s="2" t="s"/>
+      <x:c r="O70" s="2" t="s"/>
+      <x:c r="P70" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="Q70" s="5" t="s"/>
+      <x:c r="R70" s="5" t="s"/>
+      <x:c r="S70" s="5" t="s"/>
+      <x:c r="T70" s="5" t="s"/>
+    </x:row>
+    <x:row r="71" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A71" s="2" t="s"/>
+      <x:c r="B71" s="2" t="s"/>
+      <x:c r="C71" s="2" t="s"/>
+      <x:c r="D71" s="2" t="s"/>
+      <x:c r="E71" s="2" t="s"/>
+      <x:c r="F71" s="2" t="s"/>
+      <x:c r="G71" s="2" t="s"/>
+      <x:c r="H71" s="2" t="s"/>
+      <x:c r="I71" s="2" t="s"/>
+      <x:c r="J71" s="5" t="s"/>
+      <x:c r="K71" s="2" t="s"/>
+      <x:c r="L71" s="2" t="s"/>
+      <x:c r="M71" s="2" t="s"/>
+      <x:c r="N71" s="2" t="s"/>
+      <x:c r="O71" s="2" t="s"/>
+      <x:c r="P71" s="5" t="s"/>
+      <x:c r="Q71" s="5" t="s"/>
+      <x:c r="R71" s="5" t="s"/>
+      <x:c r="S71" s="5" t="s"/>
+      <x:c r="T71" s="5" t="s"/>
+    </x:row>
+    <x:row r="72" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A72" s="2" t="s"/>
+      <x:c r="B72" s="2" t="s"/>
+      <x:c r="C72" s="2" t="s"/>
+      <x:c r="D72" s="2" t="s"/>
+      <x:c r="E72" s="2" t="s"/>
+      <x:c r="F72" s="2" t="s"/>
+      <x:c r="G72" s="2" t="s"/>
+      <x:c r="H72" s="2" t="s"/>
+      <x:c r="I72" s="2" t="s"/>
+      <x:c r="J72" s="5" t="s"/>
+      <x:c r="K72" s="2" t="s"/>
+      <x:c r="L72" s="2" t="s"/>
+      <x:c r="M72" s="2" t="s"/>
+      <x:c r="N72" s="2" t="s"/>
+      <x:c r="O72" s="2" t="s"/>
+      <x:c r="P72" s="5" t="s"/>
+      <x:c r="Q72" s="5" t="s"/>
+      <x:c r="R72" s="5" t="s"/>
+      <x:c r="S72" s="5" t="s"/>
+      <x:c r="T72" s="5" t="s"/>
+    </x:row>
+    <x:row r="73" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A73" s="2" t="s"/>
+      <x:c r="K73" s="2" t="s"/>
+      <x:c r="T73" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T74" s="6" t="s"/>
+    </x:row>
+    <x:row r="75" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="76" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D76" s="7" t="s"/>
+      <x:c r="E76" s="7" t="s"/>
+      <x:c r="F76" s="7" t="s"/>
+      <x:c r="G76" s="7" t="s"/>
+      <x:c r="H76" s="7" t="s"/>
+      <x:c r="I76" s="7" t="s"/>
+      <x:c r="J76" s="7" t="s"/>
+      <x:c r="K76" s="7" t="s"/>
+      <x:c r="L76" s="7" t="s"/>
+      <x:c r="M76" s="7" t="s"/>
+      <x:c r="N76" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O76" s="7" t="s"/>
+      <x:c r="P76" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Q76" s="7" t="s"/>
+      <x:c r="R76" s="7" t="s"/>
+      <x:c r="S76" s="7" t="s"/>
+    </x:row>
+    <x:row r="77" spans="1:20" customFormat="1" ht="32.25" customHeight="1">
+      <x:c r="A77" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B77" s="9" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C77" s="9" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D77" s="8" t="s"/>
+      <x:c r="E77" s="8" t="s"/>
+      <x:c r="F77" s="8" t="s"/>
+      <x:c r="G77" s="8" t="s"/>
+      <x:c r="H77" s="8" t="s"/>
+      <x:c r="I77" s="8" t="s"/>
+      <x:c r="J77" s="8" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="L44" s="8" t="n">
+      <x:c r="K77" s="8" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L77" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M77" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
+    <x:row r="79" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A79" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B79" s="2" t="s"/>
+      <x:c r="C79" s="2" t="s"/>
+      <x:c r="D79" s="2" t="s"/>
+      <x:c r="E79" s="2" t="s"/>
+      <x:c r="F79" s="2" t="s"/>
+      <x:c r="G79" s="2" t="s"/>
+      <x:c r="H79" s="2" t="s"/>
+      <x:c r="I79" s="2" t="s"/>
+      <x:c r="J79" s="2" t="s"/>
+      <x:c r="K79" s="2" t="s"/>
+      <x:c r="L79" s="2" t="s"/>
+      <x:c r="M79" s="2" t="s"/>
+      <x:c r="N79" s="2" t="s"/>
+      <x:c r="O79" s="2" t="s"/>
+      <x:c r="P79" s="3">
+        <x:v>44295</x:v>
+      </x:c>
+      <x:c r="Q79" s="4" t="s"/>
+      <x:c r="R79" s="4" t="s"/>
+      <x:c r="S79" s="4" t="s"/>
+      <x:c r="T79" s="4" t="s"/>
+    </x:row>
+    <x:row r="80" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A80" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B80" s="2" t="s"/>
+      <x:c r="C80" s="2" t="s"/>
+      <x:c r="D80" s="2" t="s"/>
+      <x:c r="E80" s="2" t="s"/>
+      <x:c r="F80" s="2" t="s"/>
+      <x:c r="G80" s="2" t="s"/>
+      <x:c r="H80" s="2" t="s"/>
+      <x:c r="I80" s="2" t="s"/>
+      <x:c r="J80" s="5" t="s"/>
+      <x:c r="K80" s="2" t="s"/>
+      <x:c r="L80" s="2" t="s"/>
+      <x:c r="M80" s="2" t="s"/>
+      <x:c r="N80" s="2" t="s"/>
+      <x:c r="O80" s="2" t="s"/>
+      <x:c r="P80" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="M44" s="8" t="n">
+      <x:c r="Q80" s="4" t="s"/>
+      <x:c r="R80" s="4" t="s"/>
+      <x:c r="S80" s="4" t="s"/>
+      <x:c r="T80" s="4" t="s"/>
+    </x:row>
+    <x:row r="81" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A81" s="2" t="s"/>
+      <x:c r="B81" s="2" t="s"/>
+      <x:c r="C81" s="2" t="s"/>
+      <x:c r="D81" s="2" t="s"/>
+      <x:c r="E81" s="2" t="s"/>
+      <x:c r="F81" s="2" t="s"/>
+      <x:c r="G81" s="2" t="s"/>
+      <x:c r="H81" s="2" t="s"/>
+      <x:c r="I81" s="2" t="s"/>
+      <x:c r="J81" s="5" t="s"/>
+      <x:c r="K81" s="2" t="s"/>
+      <x:c r="L81" s="2" t="s"/>
+      <x:c r="M81" s="2" t="s"/>
+      <x:c r="N81" s="2" t="s"/>
+      <x:c r="O81" s="2" t="s"/>
+      <x:c r="P81" s="5" t="s"/>
+      <x:c r="Q81" s="5" t="s"/>
+      <x:c r="R81" s="5" t="s"/>
+      <x:c r="S81" s="5" t="s"/>
+      <x:c r="T81" s="5" t="s"/>
+    </x:row>
+    <x:row r="82" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A82" s="2" t="s"/>
+      <x:c r="B82" s="2" t="s"/>
+      <x:c r="C82" s="2" t="s"/>
+      <x:c r="D82" s="2" t="s"/>
+      <x:c r="E82" s="2" t="s"/>
+      <x:c r="F82" s="2" t="s"/>
+      <x:c r="G82" s="2" t="s"/>
+      <x:c r="H82" s="2" t="s"/>
+      <x:c r="I82" s="2" t="s"/>
+      <x:c r="J82" s="5" t="s"/>
+      <x:c r="K82" s="2" t="s"/>
+      <x:c r="L82" s="2" t="s"/>
+      <x:c r="M82" s="2" t="s"/>
+      <x:c r="N82" s="2" t="s"/>
+      <x:c r="O82" s="2" t="s"/>
+      <x:c r="P82" s="5" t="s"/>
+      <x:c r="Q82" s="5" t="s"/>
+      <x:c r="R82" s="5" t="s"/>
+      <x:c r="S82" s="5" t="s"/>
+      <x:c r="T82" s="5" t="s"/>
+    </x:row>
+    <x:row r="83" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A83" s="2" t="s"/>
+      <x:c r="B83" s="2" t="s"/>
+      <x:c r="C83" s="2" t="s"/>
+      <x:c r="D83" s="2" t="s"/>
+      <x:c r="E83" s="2" t="s"/>
+      <x:c r="F83" s="2" t="s"/>
+      <x:c r="G83" s="2" t="s"/>
+      <x:c r="H83" s="2" t="s"/>
+      <x:c r="I83" s="2" t="s"/>
+      <x:c r="J83" s="5" t="s"/>
+      <x:c r="K83" s="2" t="s"/>
+      <x:c r="L83" s="2" t="s"/>
+      <x:c r="M83" s="2" t="s"/>
+      <x:c r="N83" s="2" t="s"/>
+      <x:c r="O83" s="2" t="s"/>
+      <x:c r="P83" s="5" t="s"/>
+      <x:c r="Q83" s="5" t="s"/>
+      <x:c r="R83" s="5" t="s"/>
+      <x:c r="S83" s="5" t="s"/>
+      <x:c r="T83" s="5" t="s"/>
+    </x:row>
+    <x:row r="84" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A84" s="2" t="s"/>
+      <x:c r="K84" s="2" t="s"/>
+      <x:c r="T84" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T85" s="6" t="s"/>
+    </x:row>
+    <x:row r="86" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="87" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D87" s="7" t="s"/>
+      <x:c r="E87" s="7" t="s"/>
+      <x:c r="F87" s="7" t="s"/>
+      <x:c r="G87" s="7" t="s"/>
+      <x:c r="H87" s="7" t="s"/>
+      <x:c r="I87" s="7" t="s"/>
+      <x:c r="J87" s="7" t="s"/>
+      <x:c r="K87" s="7" t="s"/>
+      <x:c r="L87" s="7" t="s"/>
+      <x:c r="M87" s="7" t="s"/>
+      <x:c r="N87" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="O87" s="7" t="s"/>
+      <x:c r="P87" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="Q87" s="7" t="s"/>
+      <x:c r="R87" s="7" t="s"/>
+      <x:c r="S87" s="7" t="s"/>
+    </x:row>
+    <x:row r="88" spans="1:20" customFormat="1" ht="32.25" customHeight="1">
+      <x:c r="A88" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B88" s="9" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C88" s="9" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D88" s="8" t="s"/>
+      <x:c r="E88" s="8" t="s"/>
+      <x:c r="F88" s="8" t="s"/>
+      <x:c r="G88" s="8" t="s"/>
+      <x:c r="H88" s="8" t="s"/>
+      <x:c r="I88" s="8" t="s"/>
+      <x:c r="J88" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K88" s="8" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L88" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M88" s="8" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="76">
+  <x:mergeCells count="152">
     <x:mergeCell ref="A2:I2"/>
     <x:mergeCell ref="K2:O2"/>
     <x:mergeCell ref="P2:T2"/>
@@ -1271,6 +2032,82 @@
     <x:mergeCell ref="D43:M43"/>
     <x:mergeCell ref="N43:O43"/>
     <x:mergeCell ref="P43:S43"/>
+    <x:mergeCell ref="A46:I46"/>
+    <x:mergeCell ref="K46:O46"/>
+    <x:mergeCell ref="P46:T46"/>
+    <x:mergeCell ref="A47:I47"/>
+    <x:mergeCell ref="K47:O47"/>
+    <x:mergeCell ref="P47:T47"/>
+    <x:mergeCell ref="A48:I48"/>
+    <x:mergeCell ref="K48:O48"/>
+    <x:mergeCell ref="P48:T48"/>
+    <x:mergeCell ref="A49:I49"/>
+    <x:mergeCell ref="K49:O49"/>
+    <x:mergeCell ref="P49:T49"/>
+    <x:mergeCell ref="A50:I50"/>
+    <x:mergeCell ref="K50:O50"/>
+    <x:mergeCell ref="R51:R52"/>
+    <x:mergeCell ref="T51:T52"/>
+    <x:mergeCell ref="D54:M54"/>
+    <x:mergeCell ref="N54:O54"/>
+    <x:mergeCell ref="P54:S54"/>
+    <x:mergeCell ref="A57:I57"/>
+    <x:mergeCell ref="K57:O57"/>
+    <x:mergeCell ref="P57:T57"/>
+    <x:mergeCell ref="A58:I58"/>
+    <x:mergeCell ref="K58:O58"/>
+    <x:mergeCell ref="P58:T58"/>
+    <x:mergeCell ref="A59:I59"/>
+    <x:mergeCell ref="K59:O59"/>
+    <x:mergeCell ref="P59:T59"/>
+    <x:mergeCell ref="A60:I60"/>
+    <x:mergeCell ref="K60:O60"/>
+    <x:mergeCell ref="P60:T60"/>
+    <x:mergeCell ref="A61:I61"/>
+    <x:mergeCell ref="K61:O61"/>
+    <x:mergeCell ref="R62:R63"/>
+    <x:mergeCell ref="T62:T63"/>
+    <x:mergeCell ref="D65:M65"/>
+    <x:mergeCell ref="N65:O65"/>
+    <x:mergeCell ref="P65:S65"/>
+    <x:mergeCell ref="A68:I68"/>
+    <x:mergeCell ref="K68:O68"/>
+    <x:mergeCell ref="P68:T68"/>
+    <x:mergeCell ref="A69:I69"/>
+    <x:mergeCell ref="K69:O69"/>
+    <x:mergeCell ref="P69:T69"/>
+    <x:mergeCell ref="A70:I70"/>
+    <x:mergeCell ref="K70:O70"/>
+    <x:mergeCell ref="P70:T70"/>
+    <x:mergeCell ref="A71:I71"/>
+    <x:mergeCell ref="K71:O71"/>
+    <x:mergeCell ref="P71:T71"/>
+    <x:mergeCell ref="A72:I72"/>
+    <x:mergeCell ref="K72:O72"/>
+    <x:mergeCell ref="R73:R74"/>
+    <x:mergeCell ref="T73:T74"/>
+    <x:mergeCell ref="D76:M76"/>
+    <x:mergeCell ref="N76:O76"/>
+    <x:mergeCell ref="P76:S76"/>
+    <x:mergeCell ref="A79:I79"/>
+    <x:mergeCell ref="K79:O79"/>
+    <x:mergeCell ref="P79:T79"/>
+    <x:mergeCell ref="A80:I80"/>
+    <x:mergeCell ref="K80:O80"/>
+    <x:mergeCell ref="P80:T80"/>
+    <x:mergeCell ref="A81:I81"/>
+    <x:mergeCell ref="K81:O81"/>
+    <x:mergeCell ref="P81:T81"/>
+    <x:mergeCell ref="A82:I82"/>
+    <x:mergeCell ref="K82:O82"/>
+    <x:mergeCell ref="P82:T82"/>
+    <x:mergeCell ref="A83:I83"/>
+    <x:mergeCell ref="K83:O83"/>
+    <x:mergeCell ref="R84:R85"/>
+    <x:mergeCell ref="T84:T85"/>
+    <x:mergeCell ref="D87:M87"/>
+    <x:mergeCell ref="N87:O87"/>
+    <x:mergeCell ref="P87:S87"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7874" right="0.19685" top="0" bottom="0" header="0.5" footer="0.75"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>受　納　証</x:t>
   </x:si>
@@ -22,16 +22,16 @@
     <x:t>(控え)</x:t>
   </x:si>
   <x:si>
-    <x:t>2021年04月17日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>小辻　様</x:t>
+    <x:t>2021年04月21日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>あ　様</x:t>
   </x:si>
   <x:si>
     <x:t>冥加金</x:t>
   </x:si>
   <x:si>
-    <x:t>1,043,800-</x:t>
+    <x:t>212-</x:t>
   </x:si>
   <x:si>
     <x:t>円也</x:t>
@@ -40,25 +40,16 @@
     <x:t>但し</x:t>
   </x:si>
   <x:si>
-    <x:t>お布施 : 30,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ビール、ライター : 900 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>骨壺 : 2,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ワイズコア : 1,010,000 円</x:t>
+    <x:t>管理料 2021,2022年度分</x:t>
   </x:si>
   <x:si>
     <x:t>上記有難くお受けいたしました</x:t>
   </x:si>
   <x:si>
-    <x:t>信行寺</x:t>
-  </x:si>
-  <x:si>
-    <x:t>浄土真宗本願寺派</x:t>
+    <x:t>春秋苑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宗教法人信行寺</x:t>
   </x:si>
   <x:si>
     <x:t>係</x:t>
@@ -73,7 +64,7 @@
     <x:t>林飛</x:t>
   </x:si>
   <x:si>
-    <x:t>電話０４４－９７７－３４６６㈹</x:t>
+    <x:t>電話０４４－９７６－０１１５㈹</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -711,42 +702,30 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B7" s="12" t="s">
-        <x:v>8</x:v>
-      </x:c>
+      <x:c r="B7" s="12" t="s"/>
       <x:c r="C7" s="12" t="s"/>
       <x:c r="D7" s="12" t="s"/>
       <x:c r="E7" s="12" t="s"/>
-      <x:c r="F7" s="12" t="s">
-        <x:v>9</x:v>
-      </x:c>
+      <x:c r="F7" s="12" t="s"/>
       <x:c r="G7" s="12" t="s"/>
       <x:c r="H7" s="12" t="s"/>
-      <x:c r="L7" s="12" t="s">
-        <x:v>8</x:v>
-      </x:c>
+      <x:c r="L7" s="12" t="s"/>
       <x:c r="M7" s="12" t="s"/>
       <x:c r="N7" s="12" t="s"/>
       <x:c r="O7" s="12" t="s"/>
-      <x:c r="P7" s="12" t="s">
-        <x:v>9</x:v>
-      </x:c>
+      <x:c r="P7" s="12" t="s"/>
       <x:c r="Q7" s="12" t="s"/>
       <x:c r="R7" s="12" t="s"/>
     </x:row>
     <x:row r="8" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B8" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="B8" s="12" t="s"/>
       <x:c r="C8" s="12" t="s"/>
       <x:c r="D8" s="12" t="s"/>
       <x:c r="E8" s="12" t="s"/>
       <x:c r="F8" s="12" t="s"/>
       <x:c r="G8" s="12" t="s"/>
       <x:c r="H8" s="12" t="s"/>
-      <x:c r="L8" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="L8" s="12" t="s"/>
       <x:c r="M8" s="12" t="s"/>
       <x:c r="N8" s="12" t="s"/>
       <x:c r="O8" s="12" t="s"/>
@@ -755,18 +734,14 @@
       <x:c r="R8" s="12" t="s"/>
     </x:row>
     <x:row r="9" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B9" s="12" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="B9" s="12" t="s"/>
       <x:c r="C9" s="12" t="s"/>
       <x:c r="D9" s="12" t="s"/>
       <x:c r="E9" s="12" t="s"/>
       <x:c r="F9" s="12" t="s"/>
       <x:c r="G9" s="12" t="s"/>
       <x:c r="H9" s="12" t="s"/>
-      <x:c r="L9" s="12" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="L9" s="12" t="s"/>
       <x:c r="M9" s="12" t="s"/>
       <x:c r="N9" s="12" t="s"/>
       <x:c r="O9" s="12" t="s"/>
@@ -776,7 +751,7 @@
     </x:row>
     <x:row r="10" spans="1:19" customFormat="1" ht="18" customHeight="1">
       <x:c r="B10" s="13" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="13" t="s"/>
       <x:c r="D10" s="13" t="s"/>
@@ -785,7 +760,7 @@
       <x:c r="G10" s="13" t="s"/>
       <x:c r="H10" s="13" t="s"/>
       <x:c r="L10" s="13" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M10" s="13" t="s"/>
       <x:c r="N10" s="13" t="s"/>
@@ -796,73 +771,73 @@
     </x:row>
     <x:row r="11" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
       <x:c r="B11" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L11" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:19" customFormat="1" ht="18" customHeight="1"/>
     <x:row r="13" spans="1:19" customFormat="1" ht="18.5" customHeight="1">
       <x:c r="E13" s="15" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O13" s="15" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:19" customFormat="1" ht="18.5" customHeight="1">
       <x:c r="A14" s="16" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H14" s="17" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I14" s="17" t="s"/>
       <x:c r="K14" s="16" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="R14" s="17" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="S14" s="17" t="s"/>
     </x:row>
     <x:row r="15" spans="1:19" customFormat="1" ht="18" customHeight="1">
       <x:c r="A15" s="18" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C15" s="19" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="17" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I15" s="17" t="s"/>
       <x:c r="K15" s="18" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="R15" s="17" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="S15" s="17" t="s"/>
     </x:row>
     <x:row r="16" spans="1:19" customFormat="1" ht="18" customHeight="1">
       <x:c r="B16" s="20" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H16" s="17" t="s"/>
       <x:c r="I16" s="17" t="s"/>
       <x:c r="L16" s="20" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="R16" s="17" t="s"/>
       <x:c r="S16" s="17" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="43">
+  <x:mergeCells count="35">
     <x:mergeCell ref="A1:I1"/>
     <x:mergeCell ref="K1:P1"/>
     <x:mergeCell ref="Q1:S1"/>
@@ -874,22 +849,14 @@
     <x:mergeCell ref="G5:H5"/>
     <x:mergeCell ref="M5:P5"/>
     <x:mergeCell ref="Q5:R5"/>
-    <x:mergeCell ref="B7:E7"/>
-    <x:mergeCell ref="F7:H7"/>
-    <x:mergeCell ref="L7:O7"/>
-    <x:mergeCell ref="P7:R7"/>
-    <x:mergeCell ref="B8:E8"/>
-    <x:mergeCell ref="F8:H8"/>
-    <x:mergeCell ref="L8:O8"/>
-    <x:mergeCell ref="P8:R8"/>
-    <x:mergeCell ref="B9:E9"/>
-    <x:mergeCell ref="F9:H9"/>
-    <x:mergeCell ref="L9:O9"/>
-    <x:mergeCell ref="P9:R9"/>
-    <x:mergeCell ref="B10:E10"/>
-    <x:mergeCell ref="F10:H10"/>
-    <x:mergeCell ref="L10:O10"/>
-    <x:mergeCell ref="P10:R10"/>
+    <x:mergeCell ref="B7:H7"/>
+    <x:mergeCell ref="L7:R7"/>
+    <x:mergeCell ref="B8:H8"/>
+    <x:mergeCell ref="L8:R8"/>
+    <x:mergeCell ref="B9:H9"/>
+    <x:mergeCell ref="L9:R9"/>
+    <x:mergeCell ref="B10:H10"/>
+    <x:mergeCell ref="L10:R10"/>
     <x:mergeCell ref="B11:H11"/>
     <x:mergeCell ref="L11:R11"/>
     <x:mergeCell ref="E13:F14"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,36 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <x:si>
-    <x:t>納骨 笹川家 \40,000-</x:t>
+    <x:t>彫刻代 松添家　中11-33-13 \44,000-</x:t>
   </x:si>
   <x:si>
-    <x:t>青蓮堂</x:t>
+    <x:t>管理事務所</x:t>
   </x:si>
   <x:si>
     <x:t>林飛</x:t>
   </x:si>
   <x:si>
-    <x:t>納骨冥加 : 811</x:t>
+    <x:t>石材工事部勘定 : 254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理料 松田雷太 2021,2022年度分 \13,200-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>複合勘定 : 527</x:t>
   </x:si>
   <x:si>
     <x:t>春秋苑</x:t>
   </x:si>
   <x:si>
-    <x:t>焼香台 河野家 \13,000-</x:t>
+    <x:t>納骨 清水家 \40,000-</x:t>
   </x:si>
   <x:si>
-    <x:t>焼香台冥加 : 812</x:t>
+    <x:t>納骨 松添家 \40,000-</x:t>
   </x:si>
   <x:si>
-    <x:t>御布施 河野家 \30,000-</x:t>
+    <x:t>納骨冥加 : 811</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御布施 鏡味家 \30,000-</x:t>
   </x:si>
   <x:si>
     <x:t>冥加読経料 : 815</x:t>
   </x:si>
   <x:si>
     <x:t>法務部</x:t>
+  </x:si>
+  <x:si>
+    <x:t>敷砂利 清水家　大磯6袋 \33,000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>墓域清掃料 : 821</x:t>
+  </x:si>
+  <x:si>
+    <x:t>桂林寺  \15,000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>懇志読経料 : 831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御車代 鏡味家 \10,000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御車代 山根家 \3,000-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>志納金 : 832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>物販 ライター　2件 \200-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>その他茶所収入 : 874</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -443,7 +479,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T88"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -489,7 +525,7 @@
       <x:c r="N2" s="2" t="s"/>
       <x:c r="O2" s="2" t="s"/>
       <x:c r="P2" s="3">
-        <x:v>44314</x:v>
+        <x:v>44317</x:v>
       </x:c>
       <x:c r="Q2" s="4" t="s"/>
       <x:c r="R2" s="4" t="s"/>
@@ -612,9 +648,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O10" s="7" t="s"/>
-      <x:c r="P10" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="P10" s="7" t="s"/>
       <x:c r="Q10" s="7" t="s"/>
       <x:c r="R10" s="7" t="s"/>
       <x:c r="S10" s="7" t="s"/>
@@ -624,10 +658,10 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B11" s="9" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="9" t="n">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s"/>
       <x:c r="E11" s="8" t="s"/>
@@ -638,7 +672,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="J11" s="8" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K11" s="8" t="n">
         <x:v>0</x:v>
@@ -653,7 +687,7 @@
     <x:row r="12" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
     <x:row r="13" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A13" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s"/>
       <x:c r="C13" s="2" t="s"/>
@@ -670,7 +704,7 @@
       <x:c r="N13" s="2" t="s"/>
       <x:c r="O13" s="2" t="s"/>
       <x:c r="P13" s="3">
-        <x:v>44314</x:v>
+        <x:v>44317</x:v>
       </x:c>
       <x:c r="Q13" s="4" t="s"/>
       <x:c r="R13" s="4" t="s"/>
@@ -790,11 +824,11 @@
       <x:c r="L21" s="7" t="s"/>
       <x:c r="M21" s="7" t="s"/>
       <x:c r="N21" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O21" s="7" t="s"/>
       <x:c r="P21" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q21" s="7" t="s"/>
       <x:c r="R21" s="7" t="s"/>
@@ -805,10 +839,10 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B22" s="9" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C22" s="9" t="n">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D22" s="8" t="s"/>
       <x:c r="E22" s="8" t="s"/>
@@ -822,7 +856,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="K22" s="8" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L22" s="8" t="n">
         <x:v>0</x:v>
@@ -851,7 +885,7 @@
       <x:c r="N24" s="2" t="s"/>
       <x:c r="O24" s="2" t="s"/>
       <x:c r="P24" s="3">
-        <x:v>44314</x:v>
+        <x:v>44317</x:v>
       </x:c>
       <x:c r="Q24" s="4" t="s"/>
       <x:c r="R24" s="4" t="s"/>
@@ -859,7 +893,9 @@
       <x:c r="T24" s="4" t="s"/>
     </x:row>
     <x:row r="25" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A25" s="2" t="s"/>
+      <x:c r="A25" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="B25" s="2" t="s"/>
       <x:c r="C25" s="2" t="s"/>
       <x:c r="D25" s="2" t="s"/>
@@ -971,11 +1007,11 @@
       <x:c r="L32" s="7" t="s"/>
       <x:c r="M32" s="7" t="s"/>
       <x:c r="N32" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O32" s="7" t="s"/>
       <x:c r="P32" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q32" s="7" t="s"/>
       <x:c r="R32" s="7" t="s"/>
@@ -986,10 +1022,10 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B33" s="9" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C33" s="9" t="n">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D33" s="8" t="s"/>
       <x:c r="E33" s="8" t="s"/>
@@ -997,23 +1033,926 @@
       <x:c r="G33" s="8" t="s"/>
       <x:c r="H33" s="8" t="s"/>
       <x:c r="I33" s="8" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J33" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K33" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L33" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M33" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
+    <x:row r="35" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A35" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s"/>
+      <x:c r="C35" s="2" t="s"/>
+      <x:c r="D35" s="2" t="s"/>
+      <x:c r="E35" s="2" t="s"/>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="3">
+        <x:v>44317</x:v>
+      </x:c>
+      <x:c r="Q35" s="4" t="s"/>
+      <x:c r="R35" s="4" t="s"/>
+      <x:c r="S35" s="4" t="s"/>
+      <x:c r="T35" s="4" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A36" s="2" t="s"/>
+      <x:c r="B36" s="2" t="s"/>
+      <x:c r="C36" s="2" t="s"/>
+      <x:c r="D36" s="2" t="s"/>
+      <x:c r="E36" s="2" t="s"/>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="5" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q36" s="4" t="s"/>
+      <x:c r="R36" s="4" t="s"/>
+      <x:c r="S36" s="4" t="s"/>
+      <x:c r="T36" s="4" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A37" s="2" t="s"/>
+      <x:c r="B37" s="2" t="s"/>
+      <x:c r="C37" s="2" t="s"/>
+      <x:c r="D37" s="2" t="s"/>
+      <x:c r="E37" s="2" t="s"/>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="5" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="5" t="s"/>
+      <x:c r="Q37" s="5" t="s"/>
+      <x:c r="R37" s="5" t="s"/>
+      <x:c r="S37" s="5" t="s"/>
+      <x:c r="T37" s="5" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A38" s="2" t="s"/>
+      <x:c r="B38" s="2" t="s"/>
+      <x:c r="C38" s="2" t="s"/>
+      <x:c r="D38" s="2" t="s"/>
+      <x:c r="E38" s="2" t="s"/>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="5" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="5" t="s"/>
+      <x:c r="Q38" s="5" t="s"/>
+      <x:c r="R38" s="5" t="s"/>
+      <x:c r="S38" s="5" t="s"/>
+      <x:c r="T38" s="5" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A39" s="2" t="s"/>
+      <x:c r="B39" s="2" t="s"/>
+      <x:c r="C39" s="2" t="s"/>
+      <x:c r="D39" s="2" t="s"/>
+      <x:c r="E39" s="2" t="s"/>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="5" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="5" t="s"/>
+      <x:c r="Q39" s="5" t="s"/>
+      <x:c r="R39" s="5" t="s"/>
+      <x:c r="S39" s="5" t="s"/>
+      <x:c r="T39" s="5" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="T40" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T41" s="6" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="43" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D43" s="7" t="s"/>
+      <x:c r="E43" s="7" t="s"/>
+      <x:c r="F43" s="7" t="s"/>
+      <x:c r="G43" s="7" t="s"/>
+      <x:c r="H43" s="7" t="s"/>
+      <x:c r="I43" s="7" t="s"/>
+      <x:c r="J43" s="7" t="s"/>
+      <x:c r="K43" s="7" t="s"/>
+      <x:c r="L43" s="7" t="s"/>
+      <x:c r="M43" s="7" t="s"/>
+      <x:c r="N43" s="7" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O43" s="7" t="s"/>
+      <x:c r="P43" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="Q43" s="7" t="s"/>
+      <x:c r="R43" s="7" t="s"/>
+      <x:c r="S43" s="7" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20" customFormat="1" ht="32.25" customHeight="1">
+      <x:c r="A44" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B44" s="9" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C44" s="9" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D44" s="8" t="s"/>
+      <x:c r="E44" s="8" t="s"/>
+      <x:c r="F44" s="8" t="s"/>
+      <x:c r="G44" s="8" t="s"/>
+      <x:c r="H44" s="8" t="s"/>
+      <x:c r="I44" s="8" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="J33" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K33" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L33" s="8" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M33" s="8" t="n">
+      <x:c r="J44" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K44" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L44" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M44" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
+    <x:row r="46" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A46" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s"/>
+      <x:c r="C46" s="2" t="s"/>
+      <x:c r="D46" s="2" t="s"/>
+      <x:c r="E46" s="2" t="s"/>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="3">
+        <x:v>44317</x:v>
+      </x:c>
+      <x:c r="Q46" s="4" t="s"/>
+      <x:c r="R46" s="4" t="s"/>
+      <x:c r="S46" s="4" t="s"/>
+      <x:c r="T46" s="4" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A47" s="2" t="s"/>
+      <x:c r="B47" s="2" t="s"/>
+      <x:c r="C47" s="2" t="s"/>
+      <x:c r="D47" s="2" t="s"/>
+      <x:c r="E47" s="2" t="s"/>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="5" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q47" s="4" t="s"/>
+      <x:c r="R47" s="4" t="s"/>
+      <x:c r="S47" s="4" t="s"/>
+      <x:c r="T47" s="4" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A48" s="2" t="s"/>
+      <x:c r="B48" s="2" t="s"/>
+      <x:c r="C48" s="2" t="s"/>
+      <x:c r="D48" s="2" t="s"/>
+      <x:c r="E48" s="2" t="s"/>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="5" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="5" t="s"/>
+      <x:c r="Q48" s="5" t="s"/>
+      <x:c r="R48" s="5" t="s"/>
+      <x:c r="S48" s="5" t="s"/>
+      <x:c r="T48" s="5" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A49" s="2" t="s"/>
+      <x:c r="B49" s="2" t="s"/>
+      <x:c r="C49" s="2" t="s"/>
+      <x:c r="D49" s="2" t="s"/>
+      <x:c r="E49" s="2" t="s"/>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="5" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="5" t="s"/>
+      <x:c r="Q49" s="5" t="s"/>
+      <x:c r="R49" s="5" t="s"/>
+      <x:c r="S49" s="5" t="s"/>
+      <x:c r="T49" s="5" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A50" s="2" t="s"/>
+      <x:c r="B50" s="2" t="s"/>
+      <x:c r="C50" s="2" t="s"/>
+      <x:c r="D50" s="2" t="s"/>
+      <x:c r="E50" s="2" t="s"/>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="5" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="5" t="s"/>
+      <x:c r="Q50" s="5" t="s"/>
+      <x:c r="R50" s="5" t="s"/>
+      <x:c r="S50" s="5" t="s"/>
+      <x:c r="T50" s="5" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="T51" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T52" s="6" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="54" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D54" s="7" t="s"/>
+      <x:c r="E54" s="7" t="s"/>
+      <x:c r="F54" s="7" t="s"/>
+      <x:c r="G54" s="7" t="s"/>
+      <x:c r="H54" s="7" t="s"/>
+      <x:c r="I54" s="7" t="s"/>
+      <x:c r="J54" s="7" t="s"/>
+      <x:c r="K54" s="7" t="s"/>
+      <x:c r="L54" s="7" t="s"/>
+      <x:c r="M54" s="7" t="s"/>
+      <x:c r="N54" s="7" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="O54" s="7" t="s"/>
+      <x:c r="P54" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="Q54" s="7" t="s"/>
+      <x:c r="R54" s="7" t="s"/>
+      <x:c r="S54" s="7" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:20" customFormat="1" ht="32.25" customHeight="1">
+      <x:c r="A55" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B55" s="9" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C55" s="9" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D55" s="8" t="s"/>
+      <x:c r="E55" s="8" t="s"/>
+      <x:c r="F55" s="8" t="s"/>
+      <x:c r="G55" s="8" t="s"/>
+      <x:c r="H55" s="8" t="s"/>
+      <x:c r="I55" s="8" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J55" s="8" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K55" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L55" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M55" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
+    <x:row r="57" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A57" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s"/>
+      <x:c r="C57" s="2" t="s"/>
+      <x:c r="D57" s="2" t="s"/>
+      <x:c r="E57" s="2" t="s"/>
+      <x:c r="F57" s="2" t="s"/>
+      <x:c r="G57" s="2" t="s"/>
+      <x:c r="H57" s="2" t="s"/>
+      <x:c r="I57" s="2" t="s"/>
+      <x:c r="J57" s="2" t="s"/>
+      <x:c r="K57" s="2" t="s"/>
+      <x:c r="L57" s="2" t="s"/>
+      <x:c r="M57" s="2" t="s"/>
+      <x:c r="N57" s="2" t="s"/>
+      <x:c r="O57" s="2" t="s"/>
+      <x:c r="P57" s="3">
+        <x:v>44317</x:v>
+      </x:c>
+      <x:c r="Q57" s="4" t="s"/>
+      <x:c r="R57" s="4" t="s"/>
+      <x:c r="S57" s="4" t="s"/>
+      <x:c r="T57" s="4" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A58" s="2" t="s"/>
+      <x:c r="B58" s="2" t="s"/>
+      <x:c r="C58" s="2" t="s"/>
+      <x:c r="D58" s="2" t="s"/>
+      <x:c r="E58" s="2" t="s"/>
+      <x:c r="F58" s="2" t="s"/>
+      <x:c r="G58" s="2" t="s"/>
+      <x:c r="H58" s="2" t="s"/>
+      <x:c r="I58" s="2" t="s"/>
+      <x:c r="J58" s="5" t="s"/>
+      <x:c r="K58" s="2" t="s"/>
+      <x:c r="L58" s="2" t="s"/>
+      <x:c r="M58" s="2" t="s"/>
+      <x:c r="N58" s="2" t="s"/>
+      <x:c r="O58" s="2" t="s"/>
+      <x:c r="P58" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q58" s="4" t="s"/>
+      <x:c r="R58" s="4" t="s"/>
+      <x:c r="S58" s="4" t="s"/>
+      <x:c r="T58" s="4" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A59" s="2" t="s"/>
+      <x:c r="B59" s="2" t="s"/>
+      <x:c r="C59" s="2" t="s"/>
+      <x:c r="D59" s="2" t="s"/>
+      <x:c r="E59" s="2" t="s"/>
+      <x:c r="F59" s="2" t="s"/>
+      <x:c r="G59" s="2" t="s"/>
+      <x:c r="H59" s="2" t="s"/>
+      <x:c r="I59" s="2" t="s"/>
+      <x:c r="J59" s="5" t="s"/>
+      <x:c r="K59" s="2" t="s"/>
+      <x:c r="L59" s="2" t="s"/>
+      <x:c r="M59" s="2" t="s"/>
+      <x:c r="N59" s="2" t="s"/>
+      <x:c r="O59" s="2" t="s"/>
+      <x:c r="P59" s="5" t="s"/>
+      <x:c r="Q59" s="5" t="s"/>
+      <x:c r="R59" s="5" t="s"/>
+      <x:c r="S59" s="5" t="s"/>
+      <x:c r="T59" s="5" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A60" s="2" t="s"/>
+      <x:c r="B60" s="2" t="s"/>
+      <x:c r="C60" s="2" t="s"/>
+      <x:c r="D60" s="2" t="s"/>
+      <x:c r="E60" s="2" t="s"/>
+      <x:c r="F60" s="2" t="s"/>
+      <x:c r="G60" s="2" t="s"/>
+      <x:c r="H60" s="2" t="s"/>
+      <x:c r="I60" s="2" t="s"/>
+      <x:c r="J60" s="5" t="s"/>
+      <x:c r="K60" s="2" t="s"/>
+      <x:c r="L60" s="2" t="s"/>
+      <x:c r="M60" s="2" t="s"/>
+      <x:c r="N60" s="2" t="s"/>
+      <x:c r="O60" s="2" t="s"/>
+      <x:c r="P60" s="5" t="s"/>
+      <x:c r="Q60" s="5" t="s"/>
+      <x:c r="R60" s="5" t="s"/>
+      <x:c r="S60" s="5" t="s"/>
+      <x:c r="T60" s="5" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A61" s="2" t="s"/>
+      <x:c r="B61" s="2" t="s"/>
+      <x:c r="C61" s="2" t="s"/>
+      <x:c r="D61" s="2" t="s"/>
+      <x:c r="E61" s="2" t="s"/>
+      <x:c r="F61" s="2" t="s"/>
+      <x:c r="G61" s="2" t="s"/>
+      <x:c r="H61" s="2" t="s"/>
+      <x:c r="I61" s="2" t="s"/>
+      <x:c r="J61" s="5" t="s"/>
+      <x:c r="K61" s="2" t="s"/>
+      <x:c r="L61" s="2" t="s"/>
+      <x:c r="M61" s="2" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
+      <x:c r="P61" s="5" t="s"/>
+      <x:c r="Q61" s="5" t="s"/>
+      <x:c r="R61" s="5" t="s"/>
+      <x:c r="S61" s="5" t="s"/>
+      <x:c r="T61" s="5" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A62" s="2" t="s"/>
+      <x:c r="K62" s="2" t="s"/>
+      <x:c r="T62" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T63" s="6" t="s"/>
+    </x:row>
+    <x:row r="64" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="65" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D65" s="7" t="s"/>
+      <x:c r="E65" s="7" t="s"/>
+      <x:c r="F65" s="7" t="s"/>
+      <x:c r="G65" s="7" t="s"/>
+      <x:c r="H65" s="7" t="s"/>
+      <x:c r="I65" s="7" t="s"/>
+      <x:c r="J65" s="7" t="s"/>
+      <x:c r="K65" s="7" t="s"/>
+      <x:c r="L65" s="7" t="s"/>
+      <x:c r="M65" s="7" t="s"/>
+      <x:c r="N65" s="7" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="O65" s="7" t="s"/>
+      <x:c r="P65" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="Q65" s="7" t="s"/>
+      <x:c r="R65" s="7" t="s"/>
+      <x:c r="S65" s="7" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:20" customFormat="1" ht="32.25" customHeight="1">
+      <x:c r="A66" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B66" s="9" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C66" s="9" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D66" s="8" t="s"/>
+      <x:c r="E66" s="8" t="s"/>
+      <x:c r="F66" s="8" t="s"/>
+      <x:c r="G66" s="8" t="s"/>
+      <x:c r="H66" s="8" t="s"/>
+      <x:c r="I66" s="8" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J66" s="8" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K66" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L66" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M66" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
+    <x:row r="68" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A68" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s"/>
+      <x:c r="C68" s="2" t="s"/>
+      <x:c r="D68" s="2" t="s"/>
+      <x:c r="E68" s="2" t="s"/>
+      <x:c r="F68" s="2" t="s"/>
+      <x:c r="G68" s="2" t="s"/>
+      <x:c r="H68" s="2" t="s"/>
+      <x:c r="I68" s="2" t="s"/>
+      <x:c r="J68" s="2" t="s"/>
+      <x:c r="K68" s="2" t="s"/>
+      <x:c r="L68" s="2" t="s"/>
+      <x:c r="M68" s="2" t="s"/>
+      <x:c r="N68" s="2" t="s"/>
+      <x:c r="O68" s="2" t="s"/>
+      <x:c r="P68" s="3">
+        <x:v>44317</x:v>
+      </x:c>
+      <x:c r="Q68" s="4" t="s"/>
+      <x:c r="R68" s="4" t="s"/>
+      <x:c r="S68" s="4" t="s"/>
+      <x:c r="T68" s="4" t="s"/>
+    </x:row>
+    <x:row r="69" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A69" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="s"/>
+      <x:c r="C69" s="2" t="s"/>
+      <x:c r="D69" s="2" t="s"/>
+      <x:c r="E69" s="2" t="s"/>
+      <x:c r="F69" s="2" t="s"/>
+      <x:c r="G69" s="2" t="s"/>
+      <x:c r="H69" s="2" t="s"/>
+      <x:c r="I69" s="2" t="s"/>
+      <x:c r="J69" s="5" t="s"/>
+      <x:c r="K69" s="2" t="s"/>
+      <x:c r="L69" s="2" t="s"/>
+      <x:c r="M69" s="2" t="s"/>
+      <x:c r="N69" s="2" t="s"/>
+      <x:c r="O69" s="2" t="s"/>
+      <x:c r="P69" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q69" s="4" t="s"/>
+      <x:c r="R69" s="4" t="s"/>
+      <x:c r="S69" s="4" t="s"/>
+      <x:c r="T69" s="4" t="s"/>
+    </x:row>
+    <x:row r="70" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A70" s="2" t="s"/>
+      <x:c r="B70" s="2" t="s"/>
+      <x:c r="C70" s="2" t="s"/>
+      <x:c r="D70" s="2" t="s"/>
+      <x:c r="E70" s="2" t="s"/>
+      <x:c r="F70" s="2" t="s"/>
+      <x:c r="G70" s="2" t="s"/>
+      <x:c r="H70" s="2" t="s"/>
+      <x:c r="I70" s="2" t="s"/>
+      <x:c r="J70" s="5" t="s"/>
+      <x:c r="K70" s="2" t="s"/>
+      <x:c r="L70" s="2" t="s"/>
+      <x:c r="M70" s="2" t="s"/>
+      <x:c r="N70" s="2" t="s"/>
+      <x:c r="O70" s="2" t="s"/>
+      <x:c r="P70" s="5" t="s"/>
+      <x:c r="Q70" s="5" t="s"/>
+      <x:c r="R70" s="5" t="s"/>
+      <x:c r="S70" s="5" t="s"/>
+      <x:c r="T70" s="5" t="s"/>
+    </x:row>
+    <x:row r="71" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A71" s="2" t="s"/>
+      <x:c r="B71" s="2" t="s"/>
+      <x:c r="C71" s="2" t="s"/>
+      <x:c r="D71" s="2" t="s"/>
+      <x:c r="E71" s="2" t="s"/>
+      <x:c r="F71" s="2" t="s"/>
+      <x:c r="G71" s="2" t="s"/>
+      <x:c r="H71" s="2" t="s"/>
+      <x:c r="I71" s="2" t="s"/>
+      <x:c r="J71" s="5" t="s"/>
+      <x:c r="K71" s="2" t="s"/>
+      <x:c r="L71" s="2" t="s"/>
+      <x:c r="M71" s="2" t="s"/>
+      <x:c r="N71" s="2" t="s"/>
+      <x:c r="O71" s="2" t="s"/>
+      <x:c r="P71" s="5" t="s"/>
+      <x:c r="Q71" s="5" t="s"/>
+      <x:c r="R71" s="5" t="s"/>
+      <x:c r="S71" s="5" t="s"/>
+      <x:c r="T71" s="5" t="s"/>
+    </x:row>
+    <x:row r="72" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A72" s="2" t="s"/>
+      <x:c r="B72" s="2" t="s"/>
+      <x:c r="C72" s="2" t="s"/>
+      <x:c r="D72" s="2" t="s"/>
+      <x:c r="E72" s="2" t="s"/>
+      <x:c r="F72" s="2" t="s"/>
+      <x:c r="G72" s="2" t="s"/>
+      <x:c r="H72" s="2" t="s"/>
+      <x:c r="I72" s="2" t="s"/>
+      <x:c r="J72" s="5" t="s"/>
+      <x:c r="K72" s="2" t="s"/>
+      <x:c r="L72" s="2" t="s"/>
+      <x:c r="M72" s="2" t="s"/>
+      <x:c r="N72" s="2" t="s"/>
+      <x:c r="O72" s="2" t="s"/>
+      <x:c r="P72" s="5" t="s"/>
+      <x:c r="Q72" s="5" t="s"/>
+      <x:c r="R72" s="5" t="s"/>
+      <x:c r="S72" s="5" t="s"/>
+      <x:c r="T72" s="5" t="s"/>
+    </x:row>
+    <x:row r="73" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A73" s="2" t="s"/>
+      <x:c r="K73" s="2" t="s"/>
+      <x:c r="T73" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T74" s="6" t="s"/>
+    </x:row>
+    <x:row r="75" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="76" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D76" s="7" t="s"/>
+      <x:c r="E76" s="7" t="s"/>
+      <x:c r="F76" s="7" t="s"/>
+      <x:c r="G76" s="7" t="s"/>
+      <x:c r="H76" s="7" t="s"/>
+      <x:c r="I76" s="7" t="s"/>
+      <x:c r="J76" s="7" t="s"/>
+      <x:c r="K76" s="7" t="s"/>
+      <x:c r="L76" s="7" t="s"/>
+      <x:c r="M76" s="7" t="s"/>
+      <x:c r="N76" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="O76" s="7" t="s"/>
+      <x:c r="P76" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="Q76" s="7" t="s"/>
+      <x:c r="R76" s="7" t="s"/>
+      <x:c r="S76" s="7" t="s"/>
+    </x:row>
+    <x:row r="77" spans="1:20" customFormat="1" ht="32.25" customHeight="1">
+      <x:c r="A77" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B77" s="9" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C77" s="9" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D77" s="8" t="s"/>
+      <x:c r="E77" s="8" t="s"/>
+      <x:c r="F77" s="8" t="s"/>
+      <x:c r="G77" s="8" t="s"/>
+      <x:c r="H77" s="8" t="s"/>
+      <x:c r="I77" s="8" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J77" s="8" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K77" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L77" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M77" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
+    <x:row r="79" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A79" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B79" s="2" t="s"/>
+      <x:c r="C79" s="2" t="s"/>
+      <x:c r="D79" s="2" t="s"/>
+      <x:c r="E79" s="2" t="s"/>
+      <x:c r="F79" s="2" t="s"/>
+      <x:c r="G79" s="2" t="s"/>
+      <x:c r="H79" s="2" t="s"/>
+      <x:c r="I79" s="2" t="s"/>
+      <x:c r="J79" s="2" t="s"/>
+      <x:c r="K79" s="2" t="s"/>
+      <x:c r="L79" s="2" t="s"/>
+      <x:c r="M79" s="2" t="s"/>
+      <x:c r="N79" s="2" t="s"/>
+      <x:c r="O79" s="2" t="s"/>
+      <x:c r="P79" s="3">
+        <x:v>44316</x:v>
+      </x:c>
+      <x:c r="Q79" s="4" t="s"/>
+      <x:c r="R79" s="4" t="s"/>
+      <x:c r="S79" s="4" t="s"/>
+      <x:c r="T79" s="4" t="s"/>
+    </x:row>
+    <x:row r="80" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A80" s="2" t="s"/>
+      <x:c r="B80" s="2" t="s"/>
+      <x:c r="C80" s="2" t="s"/>
+      <x:c r="D80" s="2" t="s"/>
+      <x:c r="E80" s="2" t="s"/>
+      <x:c r="F80" s="2" t="s"/>
+      <x:c r="G80" s="2" t="s"/>
+      <x:c r="H80" s="2" t="s"/>
+      <x:c r="I80" s="2" t="s"/>
+      <x:c r="J80" s="5" t="s"/>
+      <x:c r="K80" s="2" t="s"/>
+      <x:c r="L80" s="2" t="s"/>
+      <x:c r="M80" s="2" t="s"/>
+      <x:c r="N80" s="2" t="s"/>
+      <x:c r="O80" s="2" t="s"/>
+      <x:c r="P80" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q80" s="4" t="s"/>
+      <x:c r="R80" s="4" t="s"/>
+      <x:c r="S80" s="4" t="s"/>
+      <x:c r="T80" s="4" t="s"/>
+    </x:row>
+    <x:row r="81" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A81" s="2" t="s"/>
+      <x:c r="B81" s="2" t="s"/>
+      <x:c r="C81" s="2" t="s"/>
+      <x:c r="D81" s="2" t="s"/>
+      <x:c r="E81" s="2" t="s"/>
+      <x:c r="F81" s="2" t="s"/>
+      <x:c r="G81" s="2" t="s"/>
+      <x:c r="H81" s="2" t="s"/>
+      <x:c r="I81" s="2" t="s"/>
+      <x:c r="J81" s="5" t="s"/>
+      <x:c r="K81" s="2" t="s"/>
+      <x:c r="L81" s="2" t="s"/>
+      <x:c r="M81" s="2" t="s"/>
+      <x:c r="N81" s="2" t="s"/>
+      <x:c r="O81" s="2" t="s"/>
+      <x:c r="P81" s="5" t="s"/>
+      <x:c r="Q81" s="5" t="s"/>
+      <x:c r="R81" s="5" t="s"/>
+      <x:c r="S81" s="5" t="s"/>
+      <x:c r="T81" s="5" t="s"/>
+    </x:row>
+    <x:row r="82" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A82" s="2" t="s"/>
+      <x:c r="B82" s="2" t="s"/>
+      <x:c r="C82" s="2" t="s"/>
+      <x:c r="D82" s="2" t="s"/>
+      <x:c r="E82" s="2" t="s"/>
+      <x:c r="F82" s="2" t="s"/>
+      <x:c r="G82" s="2" t="s"/>
+      <x:c r="H82" s="2" t="s"/>
+      <x:c r="I82" s="2" t="s"/>
+      <x:c r="J82" s="5" t="s"/>
+      <x:c r="K82" s="2" t="s"/>
+      <x:c r="L82" s="2" t="s"/>
+      <x:c r="M82" s="2" t="s"/>
+      <x:c r="N82" s="2" t="s"/>
+      <x:c r="O82" s="2" t="s"/>
+      <x:c r="P82" s="5" t="s"/>
+      <x:c r="Q82" s="5" t="s"/>
+      <x:c r="R82" s="5" t="s"/>
+      <x:c r="S82" s="5" t="s"/>
+      <x:c r="T82" s="5" t="s"/>
+    </x:row>
+    <x:row r="83" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A83" s="2" t="s"/>
+      <x:c r="B83" s="2" t="s"/>
+      <x:c r="C83" s="2" t="s"/>
+      <x:c r="D83" s="2" t="s"/>
+      <x:c r="E83" s="2" t="s"/>
+      <x:c r="F83" s="2" t="s"/>
+      <x:c r="G83" s="2" t="s"/>
+      <x:c r="H83" s="2" t="s"/>
+      <x:c r="I83" s="2" t="s"/>
+      <x:c r="J83" s="5" t="s"/>
+      <x:c r="K83" s="2" t="s"/>
+      <x:c r="L83" s="2" t="s"/>
+      <x:c r="M83" s="2" t="s"/>
+      <x:c r="N83" s="2" t="s"/>
+      <x:c r="O83" s="2" t="s"/>
+      <x:c r="P83" s="5" t="s"/>
+      <x:c r="Q83" s="5" t="s"/>
+      <x:c r="R83" s="5" t="s"/>
+      <x:c r="S83" s="5" t="s"/>
+      <x:c r="T83" s="5" t="s"/>
+    </x:row>
+    <x:row r="84" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A84" s="2" t="s"/>
+      <x:c r="K84" s="2" t="s"/>
+      <x:c r="T84" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="T85" s="6" t="s"/>
+    </x:row>
+    <x:row r="86" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="87" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D87" s="7" t="s"/>
+      <x:c r="E87" s="7" t="s"/>
+      <x:c r="F87" s="7" t="s"/>
+      <x:c r="G87" s="7" t="s"/>
+      <x:c r="H87" s="7" t="s"/>
+      <x:c r="I87" s="7" t="s"/>
+      <x:c r="J87" s="7" t="s"/>
+      <x:c r="K87" s="7" t="s"/>
+      <x:c r="L87" s="7" t="s"/>
+      <x:c r="M87" s="7" t="s"/>
+      <x:c r="N87" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="O87" s="7" t="s"/>
+      <x:c r="P87" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="Q87" s="7" t="s"/>
+      <x:c r="R87" s="7" t="s"/>
+      <x:c r="S87" s="7" t="s"/>
+    </x:row>
+    <x:row r="88" spans="1:20" customFormat="1" ht="32.25" customHeight="1">
+      <x:c r="A88" s="8" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B88" s="9" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C88" s="9" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D88" s="8" t="s"/>
+      <x:c r="E88" s="8" t="s"/>
+      <x:c r="F88" s="8" t="s"/>
+      <x:c r="G88" s="8" t="s"/>
+      <x:c r="H88" s="8" t="s"/>
+      <x:c r="I88" s="8" t="s"/>
+      <x:c r="J88" s="8" t="s"/>
+      <x:c r="K88" s="8" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L88" s="8" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M88" s="8" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="57">
+  <x:mergeCells count="152">
     <x:mergeCell ref="A2:I2"/>
     <x:mergeCell ref="K2:O2"/>
     <x:mergeCell ref="P2:T2"/>
@@ -1071,6 +2010,101 @@
     <x:mergeCell ref="D32:M32"/>
     <x:mergeCell ref="N32:O32"/>
     <x:mergeCell ref="P32:S32"/>
+    <x:mergeCell ref="A35:I35"/>
+    <x:mergeCell ref="K35:O35"/>
+    <x:mergeCell ref="P35:T35"/>
+    <x:mergeCell ref="A36:I36"/>
+    <x:mergeCell ref="K36:O36"/>
+    <x:mergeCell ref="P36:T36"/>
+    <x:mergeCell ref="A37:I37"/>
+    <x:mergeCell ref="K37:O37"/>
+    <x:mergeCell ref="P37:T37"/>
+    <x:mergeCell ref="A38:I38"/>
+    <x:mergeCell ref="K38:O38"/>
+    <x:mergeCell ref="P38:T38"/>
+    <x:mergeCell ref="A39:I39"/>
+    <x:mergeCell ref="K39:O39"/>
+    <x:mergeCell ref="R40:R41"/>
+    <x:mergeCell ref="T40:T41"/>
+    <x:mergeCell ref="D43:M43"/>
+    <x:mergeCell ref="N43:O43"/>
+    <x:mergeCell ref="P43:S43"/>
+    <x:mergeCell ref="A46:I46"/>
+    <x:mergeCell ref="K46:O46"/>
+    <x:mergeCell ref="P46:T46"/>
+    <x:mergeCell ref="A47:I47"/>
+    <x:mergeCell ref="K47:O47"/>
+    <x:mergeCell ref="P47:T47"/>
+    <x:mergeCell ref="A48:I48"/>
+    <x:mergeCell ref="K48:O48"/>
+    <x:mergeCell ref="P48:T48"/>
+    <x:mergeCell ref="A49:I49"/>
+    <x:mergeCell ref="K49:O49"/>
+    <x:mergeCell ref="P49:T49"/>
+    <x:mergeCell ref="A50:I50"/>
+    <x:mergeCell ref="K50:O50"/>
+    <x:mergeCell ref="R51:R52"/>
+    <x:mergeCell ref="T51:T52"/>
+    <x:mergeCell ref="D54:M54"/>
+    <x:mergeCell ref="N54:O54"/>
+    <x:mergeCell ref="P54:S54"/>
+    <x:mergeCell ref="A57:I57"/>
+    <x:mergeCell ref="K57:O57"/>
+    <x:mergeCell ref="P57:T57"/>
+    <x:mergeCell ref="A58:I58"/>
+    <x:mergeCell ref="K58:O58"/>
+    <x:mergeCell ref="P58:T58"/>
+    <x:mergeCell ref="A59:I59"/>
+    <x:mergeCell ref="K59:O59"/>
+    <x:mergeCell ref="P59:T59"/>
+    <x:mergeCell ref="A60:I60"/>
+    <x:mergeCell ref="K60:O60"/>
+    <x:mergeCell ref="P60:T60"/>
+    <x:mergeCell ref="A61:I61"/>
+    <x:mergeCell ref="K61:O61"/>
+    <x:mergeCell ref="R62:R63"/>
+    <x:mergeCell ref="T62:T63"/>
+    <x:mergeCell ref="D65:M65"/>
+    <x:mergeCell ref="N65:O65"/>
+    <x:mergeCell ref="P65:S65"/>
+    <x:mergeCell ref="A68:I68"/>
+    <x:mergeCell ref="K68:O68"/>
+    <x:mergeCell ref="P68:T68"/>
+    <x:mergeCell ref="A69:I69"/>
+    <x:mergeCell ref="K69:O69"/>
+    <x:mergeCell ref="P69:T69"/>
+    <x:mergeCell ref="A70:I70"/>
+    <x:mergeCell ref="K70:O70"/>
+    <x:mergeCell ref="P70:T70"/>
+    <x:mergeCell ref="A71:I71"/>
+    <x:mergeCell ref="K71:O71"/>
+    <x:mergeCell ref="P71:T71"/>
+    <x:mergeCell ref="A72:I72"/>
+    <x:mergeCell ref="K72:O72"/>
+    <x:mergeCell ref="R73:R74"/>
+    <x:mergeCell ref="T73:T74"/>
+    <x:mergeCell ref="D76:M76"/>
+    <x:mergeCell ref="N76:O76"/>
+    <x:mergeCell ref="P76:S76"/>
+    <x:mergeCell ref="A79:I79"/>
+    <x:mergeCell ref="K79:O79"/>
+    <x:mergeCell ref="P79:T79"/>
+    <x:mergeCell ref="A80:I80"/>
+    <x:mergeCell ref="K80:O80"/>
+    <x:mergeCell ref="P80:T80"/>
+    <x:mergeCell ref="A81:I81"/>
+    <x:mergeCell ref="K81:O81"/>
+    <x:mergeCell ref="P81:T81"/>
+    <x:mergeCell ref="A82:I82"/>
+    <x:mergeCell ref="K82:O82"/>
+    <x:mergeCell ref="P82:T82"/>
+    <x:mergeCell ref="A83:I83"/>
+    <x:mergeCell ref="K83:O83"/>
+    <x:mergeCell ref="R84:R85"/>
+    <x:mergeCell ref="T84:T85"/>
+    <x:mergeCell ref="D87:M87"/>
+    <x:mergeCell ref="N87:O87"/>
+    <x:mergeCell ref="P87:S87"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7874" right="0.19685" top="0" bottom="0" header="0.5" footer="0.75"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <x:si>
-    <x:t>2021年05月02日（日）</x:t>
-  </x:si>
-  <x:si>
-    <x:t>証憑綴り</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <x:si>
+    <x:t>2021年05月05日</x:t>
   </x:si>
   <x:si>
     <x:t>本部長</x:t>
@@ -34,59 +31,84 @@
     <x:t>林飛</x:t>
   </x:si>
   <x:si>
-    <x:t>収支</x:t>
-  </x:si>
-  <x:si>
-    <x:t>前日より繰越</x:t>
-  </x:si>
-  <x:si>
-    <x:t>入金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>出金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>社内振替</x:t>
-  </x:si>
-  <x:si>
-    <x:t>残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,038,804 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,220,200 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75,190 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,530,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,653,814 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>横浜銀行残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>セレサ川崎残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ワイズコア仮受金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>信行寺　春秋苑</x:t>
+    <x:t>金種</x:t>
+  </x:si>
+  <x:si>
+    <x:t>数量</x:t>
+  </x:si>
+  <x:si>
+    <x:t>金額</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1万円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5千円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1千円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50枚束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>釣り銭等</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内容</x:t>
+  </x:si>
+  <x:si>
+    <x:t>青蓮堂</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香華売り場</x:t>
+  </x:si>
+  <x:si>
+    <x:t>春秋庵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>石材工事部</x:t>
+  </x:si>
+  <x:si>
+    <x:t>合計　0 円</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="165" formatCode="@"/>
   </x:numFmts>
-  <x:fonts count="7">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -102,37 +124,9 @@
       <x:family val="2"/>
     </x:font>
     <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="28"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="16"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
       <x:b/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
+      <x:sz val="20"/>
       <x:color rgb="FF000000"/>
       <x:name val="ＭＳ ゴシック"/>
       <x:family val="2"/>
@@ -182,13 +176,13 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
+      <x:left style="double">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="none">
+      <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="none">
+      <x:top style="thin">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
@@ -199,33 +193,27 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -234,47 +222,55 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -573,131 +569,413 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E16"/>
+  <x:dimension ref="A1:L21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="5" width="16.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="13.570625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="7.590625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="15.090625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="13.570625" style="1" customWidth="1"/>
+    <x:col min="5" max="7" width="7.460625" style="1" customWidth="1"/>
+    <x:col min="8" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" customFormat="1" ht="51" customHeight="1"/>
-    <x:row r="2" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="D2" s="2" t="s">
+    <x:row r="1" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:5" customFormat="1" ht="64.5" customHeight="1">
+      <x:c r="B1" s="3" t="s"/>
+      <x:c r="C1" s="3" t="s"/>
+      <x:c r="D1" s="3" t="s"/>
+      <x:c r="E1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:12" customFormat="1" ht="41.25" customHeight="1">
+      <x:c r="A2" s="3" t="s"/>
+      <x:c r="B2" s="3" t="s"/>
+      <x:c r="C2" s="3" t="s"/>
+      <x:c r="D2" s="3" t="s"/>
+      <x:c r="E2" s="4" t="s"/>
+      <x:c r="F2" s="4" t="s"/>
+      <x:c r="G2" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A3" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B3" s="5" t="s"/>
-      <x:c r="C3" s="5" t="s"/>
-      <x:c r="D3" s="5" t="s"/>
-      <x:c r="E3" s="5" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:5" customFormat="1" ht="57" customHeight="1"/>
-    <x:row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="C5" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D5" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="C6" s="7" t="s"/>
-      <x:c r="D6" s="7" t="s"/>
-      <x:c r="E6" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5" customFormat="1" ht="126" customHeight="1"/>
-    <x:row r="8" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A8" s="9" t="s">
+      <x:c r="B3" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A9" s="6" t="s">
+      <x:c r="C3" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B9" s="6" t="s">
+      <x:c r="D3" s="3" t="s"/>
+      <x:c r="E3" s="3" t="s"/>
+      <x:c r="F3" s="3" t="s"/>
+      <x:c r="G3" s="3" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A4" s="5" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C9" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D9" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E9" s="6" t="s">
+      <x:c r="B4" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C4" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D4" s="3" t="s"/>
+      <x:c r="E4" s="3" t="s"/>
+      <x:c r="F4" s="3" t="s"/>
+      <x:c r="G4" s="3" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A5" s="5" t="s">
         <x:v>11</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="A10" s="10" t="s">
+      <x:c r="B5" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s"/>
+      <x:c r="E5" s="3" t="s"/>
+      <x:c r="F5" s="3" t="s"/>
+      <x:c r="G5" s="3" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A6" s="5" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B10" s="10" t="s">
+      <x:c r="B6" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D6" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C10" s="10" t="s">
+      <x:c r="E6" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F6" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G6" s="7" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A7" s="5" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D10" s="10" t="s">
+      <x:c r="B7" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C7" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E7" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F7" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G7" s="4" t="s"/>
+      <x:c r="H7" s="9" t="s"/>
+      <x:c r="I7" s="9" t="s"/>
+      <x:c r="J7" s="9" t="s"/>
+      <x:c r="K7" s="9" t="s"/>
+      <x:c r="L7" s="9" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A8" s="5" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E10" s="10" t="s">
+      <x:c r="B8" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C8" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E8" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F8" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G8" s="4" t="s"/>
+      <x:c r="H8" s="9" t="s"/>
+      <x:c r="I8" s="9" t="s"/>
+      <x:c r="J8" s="9" t="s"/>
+      <x:c r="K8" s="9" t="s"/>
+      <x:c r="L8" s="9" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A9" s="5" t="s">
         <x:v>16</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5" customFormat="1" ht="27.75" customHeight="1"/>
-    <x:row r="12" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A12" s="1" t="s">
+      <x:c r="B9" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C9" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="8" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E9" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F9" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G9" s="4" t="s"/>
+      <x:c r="H9" s="9" t="s"/>
+      <x:c r="I9" s="9" t="s"/>
+      <x:c r="J9" s="9" t="s"/>
+      <x:c r="K9" s="9" t="s"/>
+      <x:c r="L9" s="9" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A10" s="5" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B12" s="11" t="s"/>
-      <x:c r="C12" s="11" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A13" s="1" t="s">
+      <x:c r="B10" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C10" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E10" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F10" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G10" s="4" t="s"/>
+      <x:c r="H10" s="9" t="s"/>
+      <x:c r="I10" s="9" t="s"/>
+      <x:c r="J10" s="9" t="s"/>
+      <x:c r="K10" s="9" t="s"/>
+      <x:c r="L10" s="9" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A11" s="5" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B13" s="11" t="s"/>
-      <x:c r="C13" s="11" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A14" s="1" t="s">
+      <x:c r="B11" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C11" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D11" s="8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E11" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F11" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G11" s="4" t="s"/>
+      <x:c r="H11" s="9" t="s"/>
+      <x:c r="I11" s="9" t="s"/>
+      <x:c r="J11" s="9" t="s"/>
+      <x:c r="K11" s="9" t="s"/>
+      <x:c r="L11" s="9" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A12" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B14" s="11" t="s"/>
-      <x:c r="C14" s="11" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:5" customFormat="1" ht="40.5" customHeight="1"/>
-    <x:row r="16" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="D16" s="12" t="s">
+      <x:c r="B12" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C12" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D12" s="8" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E12" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F12" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G12" s="4" t="s"/>
+      <x:c r="H12" s="9" t="s"/>
+      <x:c r="I12" s="9" t="s"/>
+      <x:c r="J12" s="9" t="s"/>
+      <x:c r="K12" s="9" t="s"/>
+      <x:c r="L12" s="9" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A13" s="3" t="s"/>
+      <x:c r="B13" s="3" t="s"/>
+      <x:c r="C13" s="3" t="s"/>
+      <x:c r="D13" s="3" t="s"/>
+      <x:c r="E13" s="3" t="s"/>
+      <x:c r="F13" s="3" t="s"/>
+      <x:c r="G13" s="3" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A14" s="10" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E16" s="12" t="s"/>
+      <x:c r="B14" s="3" t="s"/>
+      <x:c r="C14" s="3" t="s"/>
+      <x:c r="D14" s="3" t="s"/>
+      <x:c r="E14" s="3" t="s"/>
+      <x:c r="F14" s="3" t="s"/>
+      <x:c r="G14" s="3" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A15" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B15" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C15" s="4" t="s"/>
+      <x:c r="D15" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E15" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F15" s="4" t="s"/>
+      <x:c r="G15" s="4" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A16" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B16" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C16" s="12" t="s"/>
+      <x:c r="D16" s="11" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E16" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F16" s="12" t="s"/>
+      <x:c r="G16" s="12" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A17" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B17" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C17" s="12" t="s"/>
+      <x:c r="D17" s="11" t="s"/>
+      <x:c r="E17" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F17" s="12" t="s"/>
+      <x:c r="G17" s="12" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A18" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B18" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C18" s="12" t="s"/>
+      <x:c r="D18" s="11" t="s"/>
+      <x:c r="E18" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F18" s="12" t="s"/>
+      <x:c r="G18" s="12" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A19" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B19" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C19" s="12" t="s"/>
+      <x:c r="D19" s="11" t="s"/>
+      <x:c r="E19" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F19" s="12" t="s"/>
+      <x:c r="G19" s="12" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A20" s="3" t="s"/>
+      <x:c r="B20" s="3" t="s"/>
+      <x:c r="C20" s="3" t="s"/>
+      <x:c r="D20" s="3" t="s"/>
+      <x:c r="E20" s="3" t="s"/>
+      <x:c r="F20" s="3" t="s"/>
+      <x:c r="G20" s="3" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:12" customFormat="1" ht="32.25" customHeight="1">
+      <x:c r="A21" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B21" s="14" t="s"/>
+      <x:c r="C21" s="14" t="s"/>
+      <x:c r="D21" s="14" t="s"/>
+      <x:c r="E21" s="14" t="s"/>
+      <x:c r="F21" s="14" t="s"/>
+      <x:c r="G21" s="14" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="6">
-    <x:mergeCell ref="D2:E2"/>
-    <x:mergeCell ref="A3:E3"/>
-    <x:mergeCell ref="B12:C12"/>
-    <x:mergeCell ref="B13:C13"/>
-    <x:mergeCell ref="B14:C14"/>
-    <x:mergeCell ref="D16:E16"/>
+  <x:mergeCells count="19">
+    <x:mergeCell ref="A1:C1"/>
+    <x:mergeCell ref="F6:G6"/>
+    <x:mergeCell ref="F7:G7"/>
+    <x:mergeCell ref="F8:G8"/>
+    <x:mergeCell ref="F9:G9"/>
+    <x:mergeCell ref="F10:G10"/>
+    <x:mergeCell ref="F11:G11"/>
+    <x:mergeCell ref="F12:G12"/>
+    <x:mergeCell ref="B15:C15"/>
+    <x:mergeCell ref="E15:G15"/>
+    <x:mergeCell ref="B16:C16"/>
+    <x:mergeCell ref="E16:G16"/>
+    <x:mergeCell ref="B17:C17"/>
+    <x:mergeCell ref="E17:G17"/>
+    <x:mergeCell ref="B18:C18"/>
+    <x:mergeCell ref="E18:G18"/>
+    <x:mergeCell ref="B19:C19"/>
+    <x:mergeCell ref="E19:G19"/>
+    <x:mergeCell ref="A21:G21"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.3937" right="0.19685" top="0.51181" bottom="0.47243999999999997" header="0.5" footer="0.75"/>
+  <x:pageMargins left="0.700786" right="0.700786" top="0.75196699999999994" bottom="0.75196699999999994" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,68 +14,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <x:si>
-    <x:t>受　納　証</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021年05月07日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>受納証テスト　様</x:t>
-  </x:si>
-  <x:si>
-    <x:t>冥加金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138,000-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>円也</x:t>
-  </x:si>
-  <x:si>
-    <x:t>但し</x:t>
-  </x:si>
-  <x:si>
-    <x:t>お堂 : 50,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>彫刻代 : 44,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>上記有難くお受けいたしました</x:t>
-  </x:si>
-  <x:si>
-    <x:t>春秋苑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>宗教法人信行寺</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <x:si>
+    <x:t>2021年05月08日（土）</x:t>
+  </x:si>
+  <x:si>
+    <x:t>証憑綴り</x:t>
+  </x:si>
+  <x:si>
+    <x:t>本部長</x:t>
+  </x:si>
+  <x:si>
+    <x:t>副住職</x:t>
   </x:si>
   <x:si>
     <x:t>係</x:t>
   </x:si>
   <x:si>
-    <x:t>〒214-0036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>川崎市多摩区南生田８－１－１</x:t>
-  </x:si>
-  <x:si>
     <x:t>林飛</x:t>
   </x:si>
   <x:si>
-    <x:t>電話０４４－９７６－０１１５㈹</x:t>
+    <x:t>収支</x:t>
+  </x:si>
+  <x:si>
+    <x:t>前日より繰越</x:t>
+  </x:si>
+  <x:si>
+    <x:t>入金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>出金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>社内振替</x:t>
+  </x:si>
+  <x:si>
+    <x:t>残高</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,085,800 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>291,068 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,260,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-4,465,268 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>横浜銀行残高</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,111,111,111 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>変化なしです</x:t>
+  </x:si>
+  <x:si>
+    <x:t>セレサ川崎残高</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,111 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ワイズコア仮受金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>信行寺　春秋苑</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="2">
+  <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="@"/>
   </x:numFmts>
-  <x:fonts count="6">
+  <x:fonts count="7">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -87,35 +107,43 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ 明朝"/>
+      <x:name val="ＭＳ ゴシック"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="26"/>
+      <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ 明朝"/>
+      <x:name val="ＭＳ ゴシック"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="18"/>
+      <x:sz val="28"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ 明朝"/>
+      <x:name val="ＭＳ ゴシック"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="24"/>
+      <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ 明朝"/>
+      <x:name val="ＭＳ ゴシック"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="10"/>
+      <x:sz val="16"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ 明朝"/>
+      <x:name val="ＭＳ ゴシック"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="14"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ ゴシック"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -146,13 +174,13 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
+      <x:left style="thin">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="none">
+      <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="none">
+      <x:top style="thin">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
@@ -163,127 +191,100 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
+      <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="thin">
+      <x:right style="none">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="thin">
+      <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
-      <x:diagonal style="thin">
+      <x:diagonal style="none">
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="9">
+  <x:cellStyleXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="19">
+  <x:cellXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="distributed" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -581,287 +582,142 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:S16"/>
+  <x:dimension ref="A1:E16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="3.840625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="7.590625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="3.840625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="2.090625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="7.590625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="13.340625" style="1" customWidth="1"/>
-    <x:col min="7" max="8" width="3.840625" style="1" customWidth="1"/>
-    <x:col min="9" max="9" width="4.210625" style="1" customWidth="1"/>
-    <x:col min="10" max="10" width="15.570625" style="1" customWidth="1"/>
-    <x:col min="11" max="11" width="3.840625" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="7.590625" style="1" customWidth="1"/>
-    <x:col min="13" max="13" width="3.840625" style="1" customWidth="1"/>
-    <x:col min="14" max="14" width="2.090625" style="1" customWidth="1"/>
-    <x:col min="15" max="15" width="7.590625" style="1" customWidth="1"/>
-    <x:col min="16" max="16" width="13.340625" style="1" customWidth="1"/>
-    <x:col min="17" max="18" width="3.840625" style="1" customWidth="1"/>
-    <x:col min="19" max="19" width="4.210625" style="1" customWidth="1"/>
-    <x:col min="20" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="5" width="16.710625" style="1" customWidth="1"/>
+    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:19" customFormat="1" ht="37" customHeight="1">
-      <x:c r="A1" s="2" t="s">
+    <x:row r="1" spans="1:5" customFormat="1" ht="51" customHeight="1"/>
+    <x:row r="2" spans="1:5" customFormat="1" ht="18" customHeight="1">
+      <x:c r="D2" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="F2" s="3" t="s">
+      <x:c r="E2" s="3" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:5" customFormat="1" ht="64.5" customHeight="1">
+      <x:c r="A3" s="4" t="s">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="P2" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="A3" s="4" t="s">
-        <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="5" t="s"/>
       <x:c r="C3" s="5" t="s"/>
       <x:c r="D3" s="5" t="s"/>
       <x:c r="E3" s="5" t="s"/>
-      <x:c r="K3" s="4" t="s">
+    </x:row>
+    <x:row r="4" spans="1:5" customFormat="1" ht="57" customHeight="1"/>
+    <x:row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1">
+      <x:c r="C5" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="L3" s="5" t="s"/>
-      <x:c r="M3" s="5" t="s"/>
-      <x:c r="N3" s="5" t="s"/>
-      <x:c r="O3" s="5" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B4" s="6" t="s">
+      <x:c r="D5" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="L4" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B5" s="7" t="s"/>
-      <x:c r="C5" s="8" t="s">
+      <x:c r="E5" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D5" s="7" t="s"/>
-      <x:c r="E5" s="7" t="s"/>
-      <x:c r="F5" s="7" t="s"/>
-      <x:c r="G5" s="9" t="s">
+    </x:row>
+    <x:row r="6" spans="1:5" customFormat="1" ht="42" customHeight="1">
+      <x:c r="C6" s="7" t="s"/>
+      <x:c r="D6" s="7" t="s"/>
+      <x:c r="E6" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H5" s="7" t="s"/>
-      <x:c r="L5" s="7" t="s"/>
-      <x:c r="M5" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="N5" s="7" t="s"/>
-      <x:c r="O5" s="7" t="s"/>
-      <x:c r="P5" s="7" t="s"/>
-      <x:c r="Q5" s="9" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="R5" s="7" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B6" s="6" t="s">
+    </x:row>
+    <x:row r="7" spans="1:5" customFormat="1" ht="126" customHeight="1"/>
+    <x:row r="8" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A8" s="9" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="L6" s="6" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B7" s="10" t="s"/>
-      <x:c r="C7" s="10" t="s"/>
-      <x:c r="D7" s="10" t="s"/>
-      <x:c r="E7" s="10" t="s"/>
-      <x:c r="F7" s="10" t="s"/>
-      <x:c r="G7" s="10" t="s"/>
-      <x:c r="H7" s="10" t="s"/>
-      <x:c r="L7" s="10" t="s"/>
-      <x:c r="M7" s="10" t="s"/>
-      <x:c r="N7" s="10" t="s"/>
-      <x:c r="O7" s="10" t="s"/>
-      <x:c r="P7" s="10" t="s"/>
-      <x:c r="Q7" s="10" t="s"/>
-      <x:c r="R7" s="10" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B8" s="10" t="s">
+    </x:row>
+    <x:row r="9" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A9" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C8" s="10" t="s"/>
-      <x:c r="D8" s="10" t="s"/>
-      <x:c r="E8" s="10" t="s"/>
-      <x:c r="F8" s="10" t="s"/>
-      <x:c r="G8" s="10" t="s"/>
-      <x:c r="H8" s="10" t="s"/>
-      <x:c r="L8" s="10" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="M8" s="10" t="s"/>
-      <x:c r="N8" s="10" t="s"/>
-      <x:c r="O8" s="10" t="s"/>
-      <x:c r="P8" s="10" t="s"/>
-      <x:c r="Q8" s="10" t="s"/>
-      <x:c r="R8" s="10" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B9" s="10" t="s">
+      <x:c r="B9" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C9" s="10" t="s"/>
-      <x:c r="D9" s="10" t="s"/>
-      <x:c r="E9" s="10" t="s"/>
-      <x:c r="F9" s="10" t="s"/>
-      <x:c r="G9" s="10" t="s"/>
-      <x:c r="H9" s="10" t="s"/>
-      <x:c r="L9" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="M9" s="10" t="s"/>
-      <x:c r="N9" s="10" t="s"/>
-      <x:c r="O9" s="10" t="s"/>
-      <x:c r="P9" s="10" t="s"/>
-      <x:c r="Q9" s="10" t="s"/>
-      <x:c r="R9" s="10" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B10" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C10" s="11" t="s"/>
-      <x:c r="D10" s="11" t="s"/>
-      <x:c r="E10" s="11" t="s"/>
-      <x:c r="F10" s="11" t="s"/>
-      <x:c r="G10" s="11" t="s"/>
-      <x:c r="H10" s="11" t="s"/>
-      <x:c r="L10" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="M10" s="11" t="s"/>
-      <x:c r="N10" s="11" t="s"/>
-      <x:c r="O10" s="11" t="s"/>
-      <x:c r="P10" s="11" t="s"/>
-      <x:c r="Q10" s="11" t="s"/>
-      <x:c r="R10" s="11" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B11" s="12" t="s">
+      <x:c r="C9" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="L11" s="12" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:19" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="13" spans="1:19" customFormat="1" ht="18.5" customHeight="1">
-      <x:c r="E13" s="13" t="s">
+      <x:c r="D9" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="O13" s="13" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:19" customFormat="1" ht="18.5" customHeight="1">
-      <x:c r="A14" s="14" t="s">
+      <x:c r="E9" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="H14" s="15" t="s">
+    </x:row>
+    <x:row r="10" spans="1:5" customFormat="1" ht="42" customHeight="1">
+      <x:c r="A10" s="10" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="I14" s="15" t="s"/>
-      <x:c r="K14" s="14" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="R14" s="15" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="S14" s="15" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A15" s="16" t="s">
+      <x:c r="B10" s="10" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C15" s="17" t="s">
+      <x:c r="C10" s="10" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="H15" s="15" t="s">
+      <x:c r="D10" s="10" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="I15" s="15" t="s"/>
-      <x:c r="K15" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="M15" s="17" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="R15" s="15" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="S15" s="15" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B16" s="18" t="s">
+      <x:c r="E10" s="10" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="H16" s="15" t="s"/>
-      <x:c r="I16" s="15" t="s"/>
-      <x:c r="L16" s="18" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="R16" s="15" t="s"/>
-      <x:c r="S16" s="15" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:5" customFormat="1" ht="27.75" customHeight="1"/>
+    <x:row r="12" spans="1:5" customFormat="1" ht="21" customHeight="1">
+      <x:c r="A12" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B12" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C12" s="11" t="s"/>
+      <x:c r="D12" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5" customFormat="1" ht="21" customHeight="1">
+      <x:c r="A13" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B13" s="11" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C13" s="11" t="s"/>
+      <x:c r="D13" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5" customFormat="1" ht="21" customHeight="1">
+      <x:c r="A14" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B14" s="11" t="s"/>
+      <x:c r="C14" s="11" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:5" customFormat="1" ht="40.5" customHeight="1"/>
+    <x:row r="16" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="D16" s="12" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E16" s="12" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="34">
-    <x:mergeCell ref="A1:I1"/>
-    <x:mergeCell ref="K1:S1"/>
-    <x:mergeCell ref="F2:I2"/>
-    <x:mergeCell ref="P2:S2"/>
+  <x:mergeCells count="6">
+    <x:mergeCell ref="D2:E2"/>
     <x:mergeCell ref="A3:E3"/>
-    <x:mergeCell ref="K3:O3"/>
-    <x:mergeCell ref="C5:F5"/>
-    <x:mergeCell ref="G5:H5"/>
-    <x:mergeCell ref="M5:P5"/>
-    <x:mergeCell ref="Q5:R5"/>
-    <x:mergeCell ref="B7:H7"/>
-    <x:mergeCell ref="L7:R7"/>
-    <x:mergeCell ref="B8:H8"/>
-    <x:mergeCell ref="L8:R8"/>
-    <x:mergeCell ref="B9:H9"/>
-    <x:mergeCell ref="L9:R9"/>
-    <x:mergeCell ref="B10:H10"/>
-    <x:mergeCell ref="L10:R10"/>
-    <x:mergeCell ref="B11:H11"/>
-    <x:mergeCell ref="L11:R11"/>
-    <x:mergeCell ref="E13:F14"/>
-    <x:mergeCell ref="O13:P14"/>
-    <x:mergeCell ref="A14:C14"/>
-    <x:mergeCell ref="H14:I14"/>
-    <x:mergeCell ref="K14:M14"/>
-    <x:mergeCell ref="R14:S14"/>
-    <x:mergeCell ref="A15:B15"/>
-    <x:mergeCell ref="C15:F15"/>
-    <x:mergeCell ref="H15:I16"/>
-    <x:mergeCell ref="K15:L15"/>
-    <x:mergeCell ref="M15:P15"/>
-    <x:mergeCell ref="R15:S16"/>
-    <x:mergeCell ref="B16:F16"/>
-    <x:mergeCell ref="L16:P16"/>
+    <x:mergeCell ref="B12:C12"/>
+    <x:mergeCell ref="B13:C13"/>
+    <x:mergeCell ref="B14:C14"/>
+    <x:mergeCell ref="D16:E16"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.51181" right="0.51181" top="0.74803" bottom="0.55118" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageMargins left="0.3937" right="0.19685" top="0.51181" bottom="0.47243999999999997" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,88 +14,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <x:si>
-    <x:t>2021年05月08日（土）</x:t>
-  </x:si>
-  <x:si>
-    <x:t>証憑綴り</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <x:si>
+    <x:t>令和 3 年</x:t>
+  </x:si>
+  <x:si>
+    <x:t>日付</x:t>
+  </x:si>
+  <x:si>
+    <x:t>施主名</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内容</x:t>
+  </x:si>
+  <x:si>
+    <x:t>担当僧侶</x:t>
+  </x:si>
+  <x:si>
+    <x:t>合計金額</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御布施</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御車代</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御膳料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御車代御膳料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>窓口</x:t>
+  </x:si>
+  <x:si>
+    <x:t>郵送</x:t>
+  </x:si>
+  <x:si>
+    <x:t>支配人</x:t>
   </x:si>
   <x:si>
     <x:t>本部長</x:t>
   </x:si>
   <x:si>
-    <x:t>副住職</x:t>
-  </x:si>
-  <x:si>
-    <x:t>係</x:t>
+    <x:t>備考</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/9
+(日)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ううう家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>葬儀</x:t>
   </x:si>
   <x:si>
     <x:t>林飛</x:t>
   </x:si>
   <x:si>
-    <x:t>収支</x:t>
-  </x:si>
-  <x:si>
-    <x:t>前日より繰越</x:t>
-  </x:si>
-  <x:si>
-    <x:t>入金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>出金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>社内振替</x:t>
-  </x:si>
-  <x:si>
-    <x:t>残高</x:t>
+    <x:t>320,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,000 円</x:t>
   </x:si>
   <x:si>
     <x:t>0 円</x:t>
   </x:si>
   <x:si>
-    <x:t>2,085,800 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>291,068 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,260,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-4,465,268 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>横浜銀行残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,111,111,111 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>変化なしです</x:t>
-  </x:si>
-  <x:si>
-    <x:t>セレサ川崎残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,111 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ワイズコア仮受金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>信行寺　春秋苑</x:t>
+    <x:t>藤井</x:t>
+  </x:si>
+  <x:si>
+    <x:t>大成祭典</x:t>
+  </x:si>
+  <x:si>
+    <x:t>えええ家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法事</x:t>
+  </x:si>
+  <x:si>
+    <x:t>安田</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>深瀬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/10
+(月)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>あああ家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>佐野商店</x:t>
+  </x:si>
+  <x:si>
+    <x:t>いいい家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55,000 円</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="165" formatCode="@"/>
   </x:numFmts>
-  <x:fonts count="7">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -110,42 +155,6 @@
       <x:name val="ＭＳ ゴシック"/>
       <x:family val="2"/>
     </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="28"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="16"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
   </x:fonts>
   <x:fills count="2">
     <x:fill>
@@ -155,7 +164,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="3">
+  <x:borders count="5">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -191,10 +200,44 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
+      <x:left style="thin">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="none">
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="none">
@@ -208,29 +251,23 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -239,52 +276,52 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -582,142 +619,1087 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E16"/>
+  <x:dimension ref="A1:N38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="5" width="16.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="5.710625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="9.710625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="8.260625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="8.890625" style="1" customWidth="1"/>
+    <x:col min="5" max="9" width="13.710625" style="1" customWidth="1"/>
+    <x:col min="10" max="13" width="6.890625" style="1" customWidth="1"/>
+    <x:col min="14" max="14" width="14.160625" style="1" customWidth="1"/>
+    <x:col min="15" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" customFormat="1" ht="51" customHeight="1"/>
-    <x:row r="2" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="D2" s="2" t="s">
+    <x:row r="1" spans="1:14" customFormat="1" ht="20.5" customHeight="1">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:5" customFormat="1" ht="64.5" customHeight="1">
+      <x:c r="B1" s="2" t="s"/>
+      <x:c r="C1" s="2" t="s"/>
+      <x:c r="D1" s="2" t="s"/>
+      <x:c r="E1" s="2" t="s"/>
+      <x:c r="F1" s="2" t="s"/>
+      <x:c r="G1" s="2" t="s"/>
+      <x:c r="H1" s="2" t="s"/>
+      <x:c r="I1" s="2" t="s"/>
+      <x:c r="J1" s="2" t="s"/>
+      <x:c r="K1" s="2" t="s"/>
+      <x:c r="L1" s="2" t="s"/>
+      <x:c r="M1" s="2" t="s"/>
+      <x:c r="N1" s="2" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:14" customFormat="1" ht="13" customHeight="1">
+      <x:c r="A2" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D2" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E2" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G2" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H2" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="I2" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J2" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K2" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="L2" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="M2" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="N2" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
       <x:c r="A3" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C3" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D3" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E3" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F3" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G3" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H3" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I3" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J3" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K3" s="3" t="s"/>
+      <x:c r="L3" s="6" t="s"/>
+      <x:c r="M3" s="6" t="s"/>
+      <x:c r="N3" s="7" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A4" s="8" t="s"/>
+      <x:c r="B4" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D4" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E4" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F4" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G4" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H4" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I4" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J4" s="3" t="s"/>
+      <x:c r="K4" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L4" s="6" t="s"/>
+      <x:c r="M4" s="6" t="s"/>
+      <x:c r="N4" s="7" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A5" s="8" t="s"/>
+      <x:c r="B5" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E5" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F5" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G5" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H5" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I5" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J5" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K5" s="3" t="s"/>
+      <x:c r="L5" s="6" t="s"/>
+      <x:c r="M5" s="6" t="s"/>
+      <x:c r="N5" s="7" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A6" s="8" t="s"/>
+      <x:c r="B6" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E6" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F6" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G6" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H6" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I6" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J6" s="3" t="s"/>
+      <x:c r="K6" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L6" s="6" t="s"/>
+      <x:c r="M6" s="6" t="s"/>
+      <x:c r="N6" s="7" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A7" s="8" t="s"/>
+      <x:c r="B7" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E7" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F7" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G7" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H7" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I7" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J7" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K7" s="3" t="s"/>
+      <x:c r="L7" s="6" t="s"/>
+      <x:c r="M7" s="6" t="s"/>
+      <x:c r="N7" s="7" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A8" s="8" t="s"/>
+      <x:c r="B8" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E8" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F8" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G8" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H8" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I8" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J8" s="3" t="s"/>
+      <x:c r="K8" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L8" s="6" t="s"/>
+      <x:c r="M8" s="6" t="s"/>
+      <x:c r="N8" s="7" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A9" s="8" t="s"/>
+      <x:c r="B9" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D9" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E9" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F9" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G9" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H9" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I9" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J9" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K9" s="3" t="s"/>
+      <x:c r="L9" s="6" t="s"/>
+      <x:c r="M9" s="6" t="s"/>
+      <x:c r="N9" s="7" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A10" s="8" t="s"/>
+      <x:c r="B10" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D10" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E10" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F10" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G10" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H10" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I10" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J10" s="3" t="s"/>
+      <x:c r="K10" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L10" s="6" t="s"/>
+      <x:c r="M10" s="6" t="s"/>
+      <x:c r="N10" s="7" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A11" s="8" t="s"/>
+      <x:c r="B11" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D11" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E11" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F11" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G11" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H11" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I11" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J11" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K11" s="3" t="s"/>
+      <x:c r="L11" s="6" t="s"/>
+      <x:c r="M11" s="6" t="s"/>
+      <x:c r="N11" s="7" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A12" s="9" t="s"/>
+      <x:c r="B12" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D12" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E12" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F12" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G12" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H12" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I12" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J12" s="3" t="s"/>
+      <x:c r="K12" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L12" s="6" t="s"/>
+      <x:c r="M12" s="6" t="s"/>
+      <x:c r="N12" s="7" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A13" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B13" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D13" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E13" s="5" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F13" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G13" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H13" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I13" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J13" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K13" s="3" t="s"/>
+      <x:c r="L13" s="6" t="s"/>
+      <x:c r="M13" s="6" t="s"/>
+      <x:c r="N13" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A14" s="8" t="s"/>
+      <x:c r="B14" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C14" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D14" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E14" s="5" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F14" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G14" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H14" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I14" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J14" s="3" t="s"/>
+      <x:c r="K14" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L14" s="6" t="s"/>
+      <x:c r="M14" s="6" t="s"/>
+      <x:c r="N14" s="7" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A15" s="8" t="s"/>
+      <x:c r="B15" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C15" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D15" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E15" s="5" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F15" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G15" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H15" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I15" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J15" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K15" s="3" t="s"/>
+      <x:c r="L15" s="6" t="s"/>
+      <x:c r="M15" s="6" t="s"/>
+      <x:c r="N15" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A16" s="8" t="s"/>
+      <x:c r="B16" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C16" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D16" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E16" s="5" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F16" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G16" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H16" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I16" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J16" s="3" t="s"/>
+      <x:c r="K16" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L16" s="6" t="s"/>
+      <x:c r="M16" s="6" t="s"/>
+      <x:c r="N16" s="7" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A17" s="8" t="s"/>
+      <x:c r="B17" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C17" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D17" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E17" s="5" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F17" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G17" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H17" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I17" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J17" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K17" s="3" t="s"/>
+      <x:c r="L17" s="6" t="s"/>
+      <x:c r="M17" s="6" t="s"/>
+      <x:c r="N17" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A18" s="8" t="s"/>
+      <x:c r="B18" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C18" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D18" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E18" s="5" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F18" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G18" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H18" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I18" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J18" s="3" t="s"/>
+      <x:c r="K18" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L18" s="6" t="s"/>
+      <x:c r="M18" s="6" t="s"/>
+      <x:c r="N18" s="7" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A19" s="9" t="s"/>
+      <x:c r="B19" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C19" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D19" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E19" s="5" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F19" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G19" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H19" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I19" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J19" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K19" s="3" t="s"/>
+      <x:c r="L19" s="6" t="s"/>
+      <x:c r="M19" s="6" t="s"/>
+      <x:c r="N19" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:14" customFormat="1" ht="20.5" customHeight="1">
+      <x:c r="A20" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s"/>
+      <x:c r="C20" s="2" t="s"/>
+      <x:c r="D20" s="2" t="s"/>
+      <x:c r="E20" s="2" t="s"/>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:14" customFormat="1" ht="13" customHeight="1">
+      <x:c r="A21" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="5" t="s"/>
-      <x:c r="C3" s="5" t="s"/>
-      <x:c r="D3" s="5" t="s"/>
-      <x:c r="E3" s="5" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:5" customFormat="1" ht="57" customHeight="1"/>
-    <x:row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="C5" s="6" t="s">
+      <x:c r="B21" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D5" s="6" t="s">
+      <x:c r="C21" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E5" s="6" t="s">
+      <x:c r="D21" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="C6" s="7" t="s"/>
-      <x:c r="D6" s="7" t="s"/>
-      <x:c r="E6" s="8" t="s">
+      <x:c r="E21" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5" customFormat="1" ht="126" customHeight="1"/>
-    <x:row r="8" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A8" s="9" t="s">
+      <x:c r="F21" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A9" s="6" t="s">
+      <x:c r="G21" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B9" s="6" t="s">
+      <x:c r="H21" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C9" s="6" t="s">
+      <x:c r="I21" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D9" s="6" t="s">
+      <x:c r="J21" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E9" s="6" t="s">
+      <x:c r="K21" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="A10" s="10" t="s">
+      <x:c r="L21" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B10" s="10" t="s">
+      <x:c r="M21" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C10" s="10" t="s">
+      <x:c r="N21" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D10" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E10" s="10" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5" customFormat="1" ht="27.75" customHeight="1"/>
-    <x:row r="12" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A12" s="1" t="s">
+    </x:row>
+    <x:row r="22" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A22" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B22" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C22" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D22" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E22" s="5" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F22" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G22" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H22" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I22" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J22" s="3" t="s"/>
+      <x:c r="K22" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L22" s="6" t="s"/>
+      <x:c r="M22" s="6" t="s"/>
+      <x:c r="N22" s="7" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A23" s="8" t="s"/>
+      <x:c r="B23" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C23" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B12" s="11" t="s">
+      <x:c r="D23" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C12" s="11" t="s"/>
-      <x:c r="D12" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A13" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B13" s="11" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C13" s="11" t="s"/>
-      <x:c r="D13" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A14" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B14" s="11" t="s"/>
-      <x:c r="C14" s="11" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:5" customFormat="1" ht="40.5" customHeight="1"/>
-    <x:row r="16" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="D16" s="12" t="s">
+      <x:c r="E23" s="5" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F23" s="5" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G23" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H23" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I23" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J23" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K23" s="3" t="s"/>
+      <x:c r="L23" s="6" t="s"/>
+      <x:c r="M23" s="6" t="s"/>
+      <x:c r="N23" s="7" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A24" s="9" t="s"/>
+      <x:c r="B24" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C24" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D24" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E24" s="5" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F24" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G24" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H24" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I24" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J24" s="3" t="s"/>
+      <x:c r="K24" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E16" s="12" t="s"/>
+      <x:c r="L24" s="6" t="s"/>
+      <x:c r="M24" s="6" t="s"/>
+      <x:c r="N24" s="7" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A25" s="2" t="s"/>
+      <x:c r="B25" s="2" t="s"/>
+      <x:c r="C25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s"/>
+      <x:c r="E25" s="10" t="s"/>
+      <x:c r="F25" s="10" t="s"/>
+      <x:c r="G25" s="10" t="s"/>
+      <x:c r="H25" s="10" t="s"/>
+      <x:c r="I25" s="10" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="11" t="s"/>
+      <x:c r="M25" s="11" t="s"/>
+      <x:c r="N25" s="12" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A26" s="2" t="s"/>
+      <x:c r="B26" s="2" t="s"/>
+      <x:c r="C26" s="2" t="s"/>
+      <x:c r="D26" s="2" t="s"/>
+      <x:c r="E26" s="10" t="s"/>
+      <x:c r="F26" s="10" t="s"/>
+      <x:c r="G26" s="10" t="s"/>
+      <x:c r="H26" s="10" t="s"/>
+      <x:c r="I26" s="10" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="11" t="s"/>
+      <x:c r="M26" s="11" t="s"/>
+      <x:c r="N26" s="12" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A27" s="2" t="s"/>
+      <x:c r="B27" s="2" t="s"/>
+      <x:c r="C27" s="2" t="s"/>
+      <x:c r="D27" s="2" t="s"/>
+      <x:c r="E27" s="10" t="s"/>
+      <x:c r="F27" s="10" t="s"/>
+      <x:c r="G27" s="10" t="s"/>
+      <x:c r="H27" s="10" t="s"/>
+      <x:c r="I27" s="10" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="11" t="s"/>
+      <x:c r="M27" s="11" t="s"/>
+      <x:c r="N27" s="12" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A28" s="2" t="s"/>
+      <x:c r="B28" s="2" t="s"/>
+      <x:c r="C28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s"/>
+      <x:c r="E28" s="10" t="s"/>
+      <x:c r="F28" s="10" t="s"/>
+      <x:c r="G28" s="10" t="s"/>
+      <x:c r="H28" s="10" t="s"/>
+      <x:c r="I28" s="10" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="11" t="s"/>
+      <x:c r="M28" s="11" t="s"/>
+      <x:c r="N28" s="12" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A29" s="2" t="s"/>
+      <x:c r="B29" s="2" t="s"/>
+      <x:c r="C29" s="2" t="s"/>
+      <x:c r="D29" s="2" t="s"/>
+      <x:c r="E29" s="10" t="s"/>
+      <x:c r="F29" s="10" t="s"/>
+      <x:c r="G29" s="10" t="s"/>
+      <x:c r="H29" s="10" t="s"/>
+      <x:c r="I29" s="10" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="11" t="s"/>
+      <x:c r="M29" s="11" t="s"/>
+      <x:c r="N29" s="12" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A30" s="2" t="s"/>
+      <x:c r="B30" s="2" t="s"/>
+      <x:c r="C30" s="2" t="s"/>
+      <x:c r="D30" s="2" t="s"/>
+      <x:c r="E30" s="10" t="s"/>
+      <x:c r="F30" s="10" t="s"/>
+      <x:c r="G30" s="10" t="s"/>
+      <x:c r="H30" s="10" t="s"/>
+      <x:c r="I30" s="10" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="11" t="s"/>
+      <x:c r="M30" s="11" t="s"/>
+      <x:c r="N30" s="12" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A31" s="2" t="s"/>
+      <x:c r="B31" s="2" t="s"/>
+      <x:c r="C31" s="2" t="s"/>
+      <x:c r="D31" s="2" t="s"/>
+      <x:c r="E31" s="10" t="s"/>
+      <x:c r="F31" s="10" t="s"/>
+      <x:c r="G31" s="10" t="s"/>
+      <x:c r="H31" s="10" t="s"/>
+      <x:c r="I31" s="10" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="11" t="s"/>
+      <x:c r="M31" s="11" t="s"/>
+      <x:c r="N31" s="12" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A32" s="2" t="s"/>
+      <x:c r="B32" s="2" t="s"/>
+      <x:c r="C32" s="2" t="s"/>
+      <x:c r="D32" s="2" t="s"/>
+      <x:c r="E32" s="10" t="s"/>
+      <x:c r="F32" s="10" t="s"/>
+      <x:c r="G32" s="10" t="s"/>
+      <x:c r="H32" s="10" t="s"/>
+      <x:c r="I32" s="10" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="11" t="s"/>
+      <x:c r="M32" s="11" t="s"/>
+      <x:c r="N32" s="12" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A33" s="2" t="s"/>
+      <x:c r="B33" s="2" t="s"/>
+      <x:c r="C33" s="2" t="s"/>
+      <x:c r="D33" s="2" t="s"/>
+      <x:c r="E33" s="10" t="s"/>
+      <x:c r="F33" s="10" t="s"/>
+      <x:c r="G33" s="10" t="s"/>
+      <x:c r="H33" s="10" t="s"/>
+      <x:c r="I33" s="10" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="11" t="s"/>
+      <x:c r="M33" s="11" t="s"/>
+      <x:c r="N33" s="12" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A34" s="2" t="s"/>
+      <x:c r="B34" s="2" t="s"/>
+      <x:c r="C34" s="2" t="s"/>
+      <x:c r="D34" s="2" t="s"/>
+      <x:c r="E34" s="10" t="s"/>
+      <x:c r="F34" s="10" t="s"/>
+      <x:c r="G34" s="10" t="s"/>
+      <x:c r="H34" s="10" t="s"/>
+      <x:c r="I34" s="10" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="11" t="s"/>
+      <x:c r="M34" s="11" t="s"/>
+      <x:c r="N34" s="12" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A35" s="2" t="s"/>
+      <x:c r="B35" s="2" t="s"/>
+      <x:c r="C35" s="2" t="s"/>
+      <x:c r="D35" s="2" t="s"/>
+      <x:c r="E35" s="10" t="s"/>
+      <x:c r="F35" s="10" t="s"/>
+      <x:c r="G35" s="10" t="s"/>
+      <x:c r="H35" s="10" t="s"/>
+      <x:c r="I35" s="10" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="11" t="s"/>
+      <x:c r="M35" s="11" t="s"/>
+      <x:c r="N35" s="12" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A36" s="2" t="s"/>
+      <x:c r="B36" s="2" t="s"/>
+      <x:c r="C36" s="2" t="s"/>
+      <x:c r="D36" s="2" t="s"/>
+      <x:c r="E36" s="10" t="s"/>
+      <x:c r="F36" s="10" t="s"/>
+      <x:c r="G36" s="10" t="s"/>
+      <x:c r="H36" s="10" t="s"/>
+      <x:c r="I36" s="10" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="11" t="s"/>
+      <x:c r="M36" s="11" t="s"/>
+      <x:c r="N36" s="12" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A37" s="2" t="s"/>
+      <x:c r="B37" s="2" t="s"/>
+      <x:c r="C37" s="2" t="s"/>
+      <x:c r="D37" s="2" t="s"/>
+      <x:c r="E37" s="10" t="s"/>
+      <x:c r="F37" s="10" t="s"/>
+      <x:c r="G37" s="10" t="s"/>
+      <x:c r="H37" s="10" t="s"/>
+      <x:c r="I37" s="10" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="11" t="s"/>
+      <x:c r="M37" s="11" t="s"/>
+      <x:c r="N37" s="12" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:14" customFormat="1" ht="27.5" customHeight="1">
+      <x:c r="A38" s="2" t="s"/>
+      <x:c r="B38" s="2" t="s"/>
+      <x:c r="C38" s="2" t="s"/>
+      <x:c r="D38" s="2" t="s"/>
+      <x:c r="E38" s="10" t="s"/>
+      <x:c r="F38" s="10" t="s"/>
+      <x:c r="G38" s="10" t="s"/>
+      <x:c r="H38" s="10" t="s"/>
+      <x:c r="I38" s="10" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="11" t="s"/>
+      <x:c r="M38" s="11" t="s"/>
+      <x:c r="N38" s="12" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="6">
-    <x:mergeCell ref="D2:E2"/>
-    <x:mergeCell ref="A3:E3"/>
-    <x:mergeCell ref="B12:C12"/>
-    <x:mergeCell ref="B13:C13"/>
-    <x:mergeCell ref="B14:C14"/>
-    <x:mergeCell ref="D16:E16"/>
+  <x:mergeCells count="5">
+    <x:mergeCell ref="A1:N1"/>
+    <x:mergeCell ref="A3:A12"/>
+    <x:mergeCell ref="A13:A19"/>
+    <x:mergeCell ref="A20:N20"/>
+    <x:mergeCell ref="A22:A24"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.3937" right="0.19685" top="0.51181" bottom="0.47243999999999997" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageMargins left="0.23621999999999999" right="0.23621999999999999" top="0.74803" bottom="0.55118" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -61,60 +61,60 @@
     <x:t>備考</x:t>
   </x:si>
   <x:si>
-    <x:t>5/9
-(日)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ううう家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>葬儀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>林飛</x:t>
-  </x:si>
-  <x:si>
-    <x:t>320,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>藤井</x:t>
-  </x:si>
-  <x:si>
-    <x:t>大成祭典</x:t>
-  </x:si>
-  <x:si>
-    <x:t>えええ家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>法事</x:t>
-  </x:si>
-  <x:si>
-    <x:t>安田</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>深瀬</x:t>
-  </x:si>
-  <x:si>
     <x:t>5/10
 (月)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ううう家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>葬儀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>林飛</x:t>
+  </x:si>
+  <x:si>
+    <x:t>320,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>藤井</x:t>
+  </x:si>
+  <x:si>
+    <x:t>大成祭典</x:t>
+  </x:si>
+  <x:si>
+    <x:t>えええ家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法事</x:t>
+  </x:si>
+  <x:si>
+    <x:t>安田</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>深瀬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/11
+(火)</x:t>
   </x:si>
   <x:si>
     <x:t>あああ家</x:t>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,54 +14,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <x:si>
-    <x:t>受　納　証</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021年05月16日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>宇田　様</x:t>
-  </x:si>
-  <x:si>
-    <x:t>冥加金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30,000-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>円也</x:t>
-  </x:si>
-  <x:si>
-    <x:t>但し</x:t>
-  </x:si>
-  <x:si>
-    <x:t>御布施</x:t>
-  </x:si>
-  <x:si>
-    <x:t>上記有難くお受けいたしました</x:t>
-  </x:si>
-  <x:si>
-    <x:t>信行寺</x:t>
-  </x:si>
-  <x:si>
-    <x:t>浄土真宗本願寺派</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <x:si>
+    <x:t>2021年05月19日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>本部長</x:t>
+  </x:si>
+  <x:si>
+    <x:t>副住職</x:t>
   </x:si>
   <x:si>
     <x:t>係</x:t>
   </x:si>
   <x:si>
-    <x:t>〒214-0036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>川崎市多摩区南生田８－１－１</x:t>
-  </x:si>
-  <x:si>
     <x:t>林飛</x:t>
   </x:si>
   <x:si>
-    <x:t>電話０４４－９７７－３４６６㈹</x:t>
+    <x:t>金種</x:t>
+  </x:si>
+  <x:si>
+    <x:t>数量</x:t>
+  </x:si>
+  <x:si>
+    <x:t>金額</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1万円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5千円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1千円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50枚束</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>釣り銭等</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内容</x:t>
+  </x:si>
+  <x:si>
+    <x:t>青蓮堂</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香華売り場</x:t>
+  </x:si>
+  <x:si>
+    <x:t>春秋庵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>石材工事部</x:t>
+  </x:si>
+  <x:si>
+    <x:t>合計　10 円</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -72,7 +111,7 @@
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="165" formatCode="@"/>
   </x:numFmts>
-  <x:fonts count="7">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -84,42 +123,15 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ 明朝"/>
+      <x:name val="ＭＳ ゴシック"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
+      <x:b/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="26"/>
+      <x:sz val="20"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ 明朝"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="18"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ 明朝"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="24"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ 明朝"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ 明朝"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="10"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ 明朝"/>
+      <x:name val="ＭＳ ゴシック"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -150,13 +162,13 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
+      <x:left style="thin">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="none">
+      <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="none">
+      <x:top style="thin">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
@@ -167,7 +179,7 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
+      <x:left style="double">
         <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
@@ -179,121 +191,90 @@
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
-      <x:diagonal style="thin">
+      <x:diagonal style="none">
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="11">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="19">
+  <x:cellXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="distributed" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -591,280 +572,415 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:S16"/>
+  <x:dimension ref="A1:L21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="3.840625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="13.570625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="7.590625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="3.840625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="2.090625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="7.590625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="13.340625" style="1" customWidth="1"/>
-    <x:col min="7" max="8" width="3.840625" style="1" customWidth="1"/>
-    <x:col min="9" max="9" width="4.210625" style="1" customWidth="1"/>
-    <x:col min="10" max="10" width="15.570625" style="1" customWidth="1"/>
-    <x:col min="11" max="11" width="3.840625" style="1" customWidth="1"/>
-    <x:col min="12" max="12" width="7.590625" style="1" customWidth="1"/>
-    <x:col min="13" max="13" width="3.840625" style="1" customWidth="1"/>
-    <x:col min="14" max="14" width="2.090625" style="1" customWidth="1"/>
-    <x:col min="15" max="15" width="7.590625" style="1" customWidth="1"/>
-    <x:col min="16" max="16" width="13.340625" style="1" customWidth="1"/>
-    <x:col min="17" max="18" width="3.840625" style="1" customWidth="1"/>
-    <x:col min="19" max="19" width="4.210625" style="1" customWidth="1"/>
-    <x:col min="20" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="15.090625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="13.570625" style="1" customWidth="1"/>
+    <x:col min="5" max="7" width="7.460625" style="1" customWidth="1"/>
+    <x:col min="8" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:19" customFormat="1" ht="37" customHeight="1">
+    <x:row r="1" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="K1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="F2" s="3" t="s">
+      <x:c r="B1" s="3" t="s"/>
+      <x:c r="C1" s="3" t="s"/>
+      <x:c r="D1" s="3" t="s"/>
+      <x:c r="E1" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="P2" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
+      <x:c r="F1" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:12" customFormat="1" ht="41.25" customHeight="1">
+      <x:c r="A2" s="3" t="s"/>
+      <x:c r="B2" s="3" t="s"/>
+      <x:c r="C2" s="3" t="s"/>
+      <x:c r="D2" s="3" t="s"/>
+      <x:c r="E2" s="4" t="s"/>
+      <x:c r="F2" s="4" t="s"/>
+      <x:c r="G2" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A3" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="5" t="s"/>
-      <x:c r="C3" s="5" t="s"/>
-      <x:c r="D3" s="5" t="s"/>
-      <x:c r="E3" s="5" t="s"/>
-      <x:c r="K3" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L3" s="5" t="s"/>
-      <x:c r="M3" s="5" t="s"/>
-      <x:c r="N3" s="5" t="s"/>
-      <x:c r="O3" s="5" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B4" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="L4" s="6" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B5" s="7" t="s"/>
-      <x:c r="C5" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D5" s="7" t="s"/>
-      <x:c r="E5" s="7" t="s"/>
-      <x:c r="F5" s="7" t="s"/>
-      <x:c r="G5" s="9" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H5" s="7" t="s"/>
-      <x:c r="L5" s="7" t="s"/>
-      <x:c r="M5" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="N5" s="7" t="s"/>
-      <x:c r="O5" s="7" t="s"/>
-      <x:c r="P5" s="7" t="s"/>
-      <x:c r="Q5" s="9" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="R5" s="7" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B6" s="6" t="s">
+      <x:c r="B3" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="L6" s="6" t="s">
+      <x:c r="C3" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="3" t="s"/>
+      <x:c r="E3" s="3" t="s"/>
+      <x:c r="F3" s="3" t="s"/>
+      <x:c r="G3" s="3" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A4" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C4" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D4" s="3" t="s"/>
+      <x:c r="E4" s="3" t="s"/>
+      <x:c r="F4" s="3" t="s"/>
+      <x:c r="G4" s="3" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A5" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s"/>
+      <x:c r="E5" s="3" t="s"/>
+      <x:c r="F5" s="3" t="s"/>
+      <x:c r="G5" s="3" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A6" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D6" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E6" s="4" t="s">
         <x:v>6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:19" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B7" s="10" t="s"/>
-      <x:c r="C7" s="10" t="s"/>
-      <x:c r="D7" s="10" t="s"/>
-      <x:c r="E7" s="10" t="s"/>
-      <x:c r="F7" s="10" t="s"/>
-      <x:c r="G7" s="10" t="s"/>
-      <x:c r="H7" s="10" t="s"/>
-      <x:c r="L7" s="10" t="s"/>
-      <x:c r="M7" s="10" t="s"/>
-      <x:c r="N7" s="10" t="s"/>
-      <x:c r="O7" s="10" t="s"/>
-      <x:c r="P7" s="10" t="s"/>
-      <x:c r="Q7" s="10" t="s"/>
-      <x:c r="R7" s="10" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:19" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B8" s="10" t="s"/>
-      <x:c r="C8" s="10" t="s"/>
-      <x:c r="D8" s="10" t="s"/>
-      <x:c r="E8" s="10" t="s"/>
-      <x:c r="F8" s="10" t="s"/>
-      <x:c r="G8" s="10" t="s"/>
-      <x:c r="H8" s="10" t="s"/>
-      <x:c r="L8" s="10" t="s"/>
-      <x:c r="M8" s="10" t="s"/>
-      <x:c r="N8" s="10" t="s"/>
-      <x:c r="O8" s="10" t="s"/>
-      <x:c r="P8" s="10" t="s"/>
-      <x:c r="Q8" s="10" t="s"/>
-      <x:c r="R8" s="10" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:19" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B9" s="10" t="s"/>
-      <x:c r="C9" s="10" t="s"/>
-      <x:c r="D9" s="10" t="s"/>
-      <x:c r="E9" s="10" t="s"/>
-      <x:c r="F9" s="10" t="s"/>
-      <x:c r="G9" s="10" t="s"/>
-      <x:c r="H9" s="10" t="s"/>
-      <x:c r="L9" s="10" t="s"/>
-      <x:c r="M9" s="10" t="s"/>
-      <x:c r="N9" s="10" t="s"/>
-      <x:c r="O9" s="10" t="s"/>
-      <x:c r="P9" s="10" t="s"/>
-      <x:c r="Q9" s="10" t="s"/>
-      <x:c r="R9" s="10" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:19" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B10" s="11" t="s">
+      <x:c r="F6" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C10" s="11" t="s"/>
-      <x:c r="D10" s="11" t="s"/>
-      <x:c r="E10" s="11" t="s"/>
-      <x:c r="F10" s="11" t="s"/>
-      <x:c r="G10" s="11" t="s"/>
-      <x:c r="H10" s="11" t="s"/>
-      <x:c r="L10" s="11" t="s">
+      <x:c r="G6" s="7" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A7" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B7" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C7" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E7" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F7" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G7" s="4" t="s"/>
+      <x:c r="H7" s="9" t="s"/>
+      <x:c r="I7" s="9" t="s"/>
+      <x:c r="J7" s="9" t="s"/>
+      <x:c r="K7" s="9" t="s"/>
+      <x:c r="L7" s="9" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A8" s="5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B8" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C8" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E8" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F8" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G8" s="4" t="s"/>
+      <x:c r="H8" s="9" t="s"/>
+      <x:c r="I8" s="9" t="s"/>
+      <x:c r="J8" s="9" t="s"/>
+      <x:c r="K8" s="9" t="s"/>
+      <x:c r="L8" s="9" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A9" s="5" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B9" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C9" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="8" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E9" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F9" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G9" s="4" t="s"/>
+      <x:c r="H9" s="9" t="s"/>
+      <x:c r="I9" s="9" t="s"/>
+      <x:c r="J9" s="9" t="s"/>
+      <x:c r="K9" s="9" t="s"/>
+      <x:c r="L9" s="9" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A10" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B10" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C10" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E10" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F10" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G10" s="4" t="s"/>
+      <x:c r="H10" s="9" t="s"/>
+      <x:c r="I10" s="9" t="s"/>
+      <x:c r="J10" s="9" t="s"/>
+      <x:c r="K10" s="9" t="s"/>
+      <x:c r="L10" s="9" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A11" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B11" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C11" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D11" s="8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E11" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F11" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G11" s="4" t="s"/>
+      <x:c r="H11" s="9" t="s"/>
+      <x:c r="I11" s="9" t="s"/>
+      <x:c r="J11" s="9" t="s"/>
+      <x:c r="K11" s="9" t="s"/>
+      <x:c r="L11" s="9" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A12" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B12" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C12" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D12" s="8" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E12" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F12" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G12" s="4" t="s"/>
+      <x:c r="H12" s="9" t="s"/>
+      <x:c r="I12" s="9" t="s"/>
+      <x:c r="J12" s="9" t="s"/>
+      <x:c r="K12" s="9" t="s"/>
+      <x:c r="L12" s="9" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A13" s="3" t="s"/>
+      <x:c r="B13" s="3" t="s"/>
+      <x:c r="C13" s="3" t="s"/>
+      <x:c r="D13" s="3" t="s"/>
+      <x:c r="E13" s="3" t="s"/>
+      <x:c r="F13" s="3" t="s"/>
+      <x:c r="G13" s="3" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A14" s="10" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B14" s="3" t="s"/>
+      <x:c r="C14" s="3" t="s"/>
+      <x:c r="D14" s="3" t="s"/>
+      <x:c r="E14" s="3" t="s"/>
+      <x:c r="F14" s="3" t="s"/>
+      <x:c r="G14" s="3" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A15" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B15" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="M10" s="11" t="s"/>
-      <x:c r="N10" s="11" t="s"/>
-      <x:c r="O10" s="11" t="s"/>
-      <x:c r="P10" s="11" t="s"/>
-      <x:c r="Q10" s="11" t="s"/>
-      <x:c r="R10" s="11" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B11" s="12" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="L11" s="12" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:19" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="13" spans="1:19" customFormat="1" ht="18.5" customHeight="1">
-      <x:c r="E13" s="13" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="O13" s="13" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:19" customFormat="1" ht="18.5" customHeight="1">
-      <x:c r="A14" s="14" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="H14" s="15" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="I14" s="15" t="s"/>
-      <x:c r="K14" s="14" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="R14" s="15" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="S14" s="15" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A15" s="16" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C15" s="17" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="H15" s="15" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I15" s="15" t="s"/>
-      <x:c r="K15" s="16" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="M15" s="17" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="R15" s="15" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="S15" s="15" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B16" s="18" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H16" s="15" t="s"/>
-      <x:c r="I16" s="15" t="s"/>
-      <x:c r="L16" s="18" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="R16" s="15" t="s"/>
-      <x:c r="S16" s="15" t="s"/>
+      <x:c r="C15" s="4" t="s"/>
+      <x:c r="D15" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E15" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F15" s="4" t="s"/>
+      <x:c r="G15" s="4" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A16" s="11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B16" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C16" s="12" t="s"/>
+      <x:c r="D16" s="11" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E16" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F16" s="12" t="s"/>
+      <x:c r="G16" s="12" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A17" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B17" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C17" s="12" t="s"/>
+      <x:c r="D17" s="11" t="s"/>
+      <x:c r="E17" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F17" s="12" t="s"/>
+      <x:c r="G17" s="12" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A18" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B18" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C18" s="12" t="s"/>
+      <x:c r="D18" s="11" t="s"/>
+      <x:c r="E18" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F18" s="12" t="s"/>
+      <x:c r="G18" s="12" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A19" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B19" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C19" s="12" t="s"/>
+      <x:c r="D19" s="11" t="s"/>
+      <x:c r="E19" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F19" s="12" t="s"/>
+      <x:c r="G19" s="12" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:12" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A20" s="3" t="s"/>
+      <x:c r="B20" s="3" t="s"/>
+      <x:c r="C20" s="3" t="s"/>
+      <x:c r="D20" s="3" t="s"/>
+      <x:c r="E20" s="3" t="s"/>
+      <x:c r="F20" s="3" t="s"/>
+      <x:c r="G20" s="3" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:12" customFormat="1" ht="32.25" customHeight="1">
+      <x:c r="A21" s="13" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B21" s="14" t="s"/>
+      <x:c r="C21" s="14" t="s"/>
+      <x:c r="D21" s="14" t="s"/>
+      <x:c r="E21" s="14" t="s"/>
+      <x:c r="F21" s="14" t="s"/>
+      <x:c r="G21" s="14" t="s"/>
     </x:row>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>
-  <x:mergeCells count="34">
-    <x:mergeCell ref="A1:I1"/>
-    <x:mergeCell ref="K1:S1"/>
-    <x:mergeCell ref="F2:I2"/>
-    <x:mergeCell ref="P2:S2"/>
-    <x:mergeCell ref="A3:E3"/>
-    <x:mergeCell ref="K3:O3"/>
-    <x:mergeCell ref="C5:F5"/>
-    <x:mergeCell ref="G5:H5"/>
-    <x:mergeCell ref="M5:P5"/>
-    <x:mergeCell ref="Q5:R5"/>
-    <x:mergeCell ref="B7:H7"/>
-    <x:mergeCell ref="L7:R7"/>
-    <x:mergeCell ref="B8:H8"/>
-    <x:mergeCell ref="L8:R8"/>
-    <x:mergeCell ref="B9:H9"/>
-    <x:mergeCell ref="L9:R9"/>
-    <x:mergeCell ref="B10:H10"/>
-    <x:mergeCell ref="L10:R10"/>
-    <x:mergeCell ref="B11:H11"/>
-    <x:mergeCell ref="L11:R11"/>
-    <x:mergeCell ref="E13:F14"/>
-    <x:mergeCell ref="O13:P14"/>
-    <x:mergeCell ref="A14:C14"/>
-    <x:mergeCell ref="H14:I14"/>
-    <x:mergeCell ref="K14:M14"/>
-    <x:mergeCell ref="R14:S14"/>
-    <x:mergeCell ref="A15:B15"/>
-    <x:mergeCell ref="C15:F15"/>
-    <x:mergeCell ref="H15:I16"/>
-    <x:mergeCell ref="K15:L15"/>
-    <x:mergeCell ref="M15:P15"/>
-    <x:mergeCell ref="R15:S16"/>
-    <x:mergeCell ref="B16:F16"/>
-    <x:mergeCell ref="L16:P16"/>
+  <x:mergeCells count="19">
+    <x:mergeCell ref="A1:C1"/>
+    <x:mergeCell ref="F6:G6"/>
+    <x:mergeCell ref="F7:G7"/>
+    <x:mergeCell ref="F8:G8"/>
+    <x:mergeCell ref="F9:G9"/>
+    <x:mergeCell ref="F10:G10"/>
+    <x:mergeCell ref="F11:G11"/>
+    <x:mergeCell ref="F12:G12"/>
+    <x:mergeCell ref="B15:C15"/>
+    <x:mergeCell ref="E15:G15"/>
+    <x:mergeCell ref="B16:C16"/>
+    <x:mergeCell ref="E16:G16"/>
+    <x:mergeCell ref="B17:C17"/>
+    <x:mergeCell ref="E17:G17"/>
+    <x:mergeCell ref="B18:C18"/>
+    <x:mergeCell ref="E18:G18"/>
+    <x:mergeCell ref="B19:C19"/>
+    <x:mergeCell ref="E19:G19"/>
+    <x:mergeCell ref="A21:G21"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.51181" right="0.51181" top="0.74803" bottom="0.55118" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageMargins left="0.700786" right="0.700786" top="0.75196699999999994" bottom="0.75196699999999994" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,24 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:t>受　納　証</x:t>
   </x:si>
   <x:si>
-    <x:t>№0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021年05月21日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>武本　様</x:t>
+    <x:t>№1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021年05月22日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>鎌田　様</x:t>
   </x:si>
   <x:si>
     <x:t>冥加金</x:t>
   </x:si>
   <x:si>
-    <x:t>300,000-</x:t>
+    <x:t>55,000-</x:t>
   </x:si>
   <x:si>
     <x:t>円也</x:t>
@@ -40,7 +40,10 @@
     <x:t>但し</x:t>
   </x:si>
   <x:si>
-    <x:t>御布施</x:t>
+    <x:t>御布施 : 50,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御車代 : 5,000 円</x:t>
   </x:si>
   <x:si>
     <x:t>上記有難くお受けいたしました</x:t>
@@ -61,7 +64,7 @@
     <x:t>川崎市多摩区南生田８－１－１</x:t>
   </x:si>
   <x:si>
-    <x:t>林飛</x:t>
+    <x:t>安田</x:t>
   </x:si>
   <x:si>
     <x:t>電話０４４－９７７－３４６６㈹</x:t>
@@ -222,7 +225,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="19">
+  <x:cellXfs count="20">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -233,6 +236,10 @@
     </x:xf>
     <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -624,214 +631,218 @@
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G1" s="1" t="s">
+      <x:c r="G1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Q1" s="1" t="s">
+      <x:c r="Q1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="F2" s="3" t="s">
+      <x:c r="F2" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="P2" s="3" t="s">
+      <x:c r="P2" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="A3" s="4" t="s">
+      <x:c r="A3" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B3" s="5" t="s"/>
-      <x:c r="C3" s="5" t="s"/>
-      <x:c r="D3" s="5" t="s"/>
-      <x:c r="E3" s="5" t="s"/>
-      <x:c r="K3" s="4" t="s">
+      <x:c r="B3" s="6" t="s"/>
+      <x:c r="C3" s="6" t="s"/>
+      <x:c r="D3" s="6" t="s"/>
+      <x:c r="E3" s="6" t="s"/>
+      <x:c r="K3" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="L3" s="5" t="s"/>
-      <x:c r="M3" s="5" t="s"/>
-      <x:c r="N3" s="5" t="s"/>
-      <x:c r="O3" s="5" t="s"/>
+      <x:c r="L3" s="6" t="s"/>
+      <x:c r="M3" s="6" t="s"/>
+      <x:c r="N3" s="6" t="s"/>
+      <x:c r="O3" s="6" t="s"/>
     </x:row>
     <x:row r="4" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B4" s="6" t="s">
+      <x:c r="B4" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="L4" s="6" t="s">
+      <x:c r="L4" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B5" s="7" t="s"/>
-      <x:c r="C5" s="8" t="s">
+      <x:c r="B5" s="8" t="s"/>
+      <x:c r="C5" s="9" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D5" s="7" t="s"/>
-      <x:c r="E5" s="7" t="s"/>
-      <x:c r="F5" s="7" t="s"/>
-      <x:c r="G5" s="9" t="s">
+      <x:c r="D5" s="8" t="s"/>
+      <x:c r="E5" s="8" t="s"/>
+      <x:c r="F5" s="8" t="s"/>
+      <x:c r="G5" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H5" s="7" t="s"/>
-      <x:c r="L5" s="7" t="s"/>
-      <x:c r="M5" s="8" t="s">
+      <x:c r="H5" s="8" t="s"/>
+      <x:c r="L5" s="8" t="s"/>
+      <x:c r="M5" s="9" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="N5" s="7" t="s"/>
-      <x:c r="O5" s="7" t="s"/>
-      <x:c r="P5" s="7" t="s"/>
-      <x:c r="Q5" s="9" t="s">
+      <x:c r="N5" s="8" t="s"/>
+      <x:c r="O5" s="8" t="s"/>
+      <x:c r="P5" s="8" t="s"/>
+      <x:c r="Q5" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="R5" s="7" t="s"/>
+      <x:c r="R5" s="8" t="s"/>
     </x:row>
     <x:row r="6" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B6" s="6" t="s">
+      <x:c r="B6" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L6" s="6" t="s">
+      <x:c r="L6" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:19" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B7" s="10" t="s"/>
-      <x:c r="C7" s="10" t="s"/>
-      <x:c r="D7" s="10" t="s"/>
-      <x:c r="E7" s="10" t="s"/>
-      <x:c r="F7" s="10" t="s"/>
-      <x:c r="G7" s="10" t="s"/>
-      <x:c r="H7" s="10" t="s"/>
-      <x:c r="L7" s="10" t="s"/>
-      <x:c r="M7" s="10" t="s"/>
-      <x:c r="N7" s="10" t="s"/>
-      <x:c r="O7" s="10" t="s"/>
-      <x:c r="P7" s="10" t="s"/>
-      <x:c r="Q7" s="10" t="s"/>
-      <x:c r="R7" s="10" t="s"/>
+      <x:c r="B7" s="11" t="s"/>
+      <x:c r="C7" s="11" t="s"/>
+      <x:c r="D7" s="11" t="s"/>
+      <x:c r="E7" s="11" t="s"/>
+      <x:c r="F7" s="11" t="s"/>
+      <x:c r="G7" s="11" t="s"/>
+      <x:c r="H7" s="11" t="s"/>
+      <x:c r="L7" s="11" t="s"/>
+      <x:c r="M7" s="11" t="s"/>
+      <x:c r="N7" s="11" t="s"/>
+      <x:c r="O7" s="11" t="s"/>
+      <x:c r="P7" s="11" t="s"/>
+      <x:c r="Q7" s="11" t="s"/>
+      <x:c r="R7" s="11" t="s"/>
     </x:row>
     <x:row r="8" spans="1:19" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B8" s="10" t="s"/>
-      <x:c r="C8" s="10" t="s"/>
-      <x:c r="D8" s="10" t="s"/>
-      <x:c r="E8" s="10" t="s"/>
-      <x:c r="F8" s="10" t="s"/>
-      <x:c r="G8" s="10" t="s"/>
-      <x:c r="H8" s="10" t="s"/>
-      <x:c r="L8" s="10" t="s"/>
-      <x:c r="M8" s="10" t="s"/>
-      <x:c r="N8" s="10" t="s"/>
-      <x:c r="O8" s="10" t="s"/>
-      <x:c r="P8" s="10" t="s"/>
-      <x:c r="Q8" s="10" t="s"/>
-      <x:c r="R8" s="10" t="s"/>
+      <x:c r="B8" s="11" t="s"/>
+      <x:c r="C8" s="11" t="s"/>
+      <x:c r="D8" s="11" t="s"/>
+      <x:c r="E8" s="11" t="s"/>
+      <x:c r="F8" s="11" t="s"/>
+      <x:c r="G8" s="11" t="s"/>
+      <x:c r="H8" s="11" t="s"/>
+      <x:c r="L8" s="11" t="s"/>
+      <x:c r="M8" s="11" t="s"/>
+      <x:c r="N8" s="11" t="s"/>
+      <x:c r="O8" s="11" t="s"/>
+      <x:c r="P8" s="11" t="s"/>
+      <x:c r="Q8" s="11" t="s"/>
+      <x:c r="R8" s="11" t="s"/>
     </x:row>
     <x:row r="9" spans="1:19" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B9" s="10" t="s"/>
-      <x:c r="C9" s="10" t="s"/>
-      <x:c r="D9" s="10" t="s"/>
-      <x:c r="E9" s="10" t="s"/>
-      <x:c r="F9" s="10" t="s"/>
-      <x:c r="G9" s="10" t="s"/>
-      <x:c r="H9" s="10" t="s"/>
-      <x:c r="L9" s="10" t="s"/>
-      <x:c r="M9" s="10" t="s"/>
-      <x:c r="N9" s="10" t="s"/>
-      <x:c r="O9" s="10" t="s"/>
-      <x:c r="P9" s="10" t="s"/>
-      <x:c r="Q9" s="10" t="s"/>
-      <x:c r="R9" s="10" t="s"/>
+      <x:c r="B9" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C9" s="11" t="s"/>
+      <x:c r="D9" s="11" t="s"/>
+      <x:c r="E9" s="11" t="s"/>
+      <x:c r="F9" s="11" t="s"/>
+      <x:c r="G9" s="11" t="s"/>
+      <x:c r="H9" s="11" t="s"/>
+      <x:c r="L9" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="M9" s="11" t="s"/>
+      <x:c r="N9" s="11" t="s"/>
+      <x:c r="O9" s="11" t="s"/>
+      <x:c r="P9" s="11" t="s"/>
+      <x:c r="Q9" s="11" t="s"/>
+      <x:c r="R9" s="11" t="s"/>
     </x:row>
     <x:row r="10" spans="1:19" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B10" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C10" s="11" t="s"/>
-      <x:c r="D10" s="11" t="s"/>
-      <x:c r="E10" s="11" t="s"/>
-      <x:c r="F10" s="11" t="s"/>
-      <x:c r="G10" s="11" t="s"/>
-      <x:c r="H10" s="11" t="s"/>
-      <x:c r="L10" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="M10" s="11" t="s"/>
-      <x:c r="N10" s="11" t="s"/>
-      <x:c r="O10" s="11" t="s"/>
-      <x:c r="P10" s="11" t="s"/>
-      <x:c r="Q10" s="11" t="s"/>
-      <x:c r="R10" s="11" t="s"/>
+      <x:c r="B10" s="12" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C10" s="12" t="s"/>
+      <x:c r="D10" s="12" t="s"/>
+      <x:c r="E10" s="12" t="s"/>
+      <x:c r="F10" s="12" t="s"/>
+      <x:c r="G10" s="12" t="s"/>
+      <x:c r="H10" s="12" t="s"/>
+      <x:c r="L10" s="12" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="M10" s="12" t="s"/>
+      <x:c r="N10" s="12" t="s"/>
+      <x:c r="O10" s="12" t="s"/>
+      <x:c r="P10" s="12" t="s"/>
+      <x:c r="Q10" s="12" t="s"/>
+      <x:c r="R10" s="12" t="s"/>
     </x:row>
     <x:row r="11" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="B11" s="12" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="L11" s="12" t="s">
-        <x:v>9</x:v>
+      <x:c r="B11" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L11" s="13" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:19" customFormat="1" ht="18" customHeight="1"/>
     <x:row r="13" spans="1:19" customFormat="1" ht="18.5" customHeight="1">
-      <x:c r="E13" s="13" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="O13" s="13" t="s">
-        <x:v>10</x:v>
+      <x:c r="E13" s="14" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O13" s="14" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:19" customFormat="1" ht="18.5" customHeight="1">
-      <x:c r="A14" s="14" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H14" s="15" t="s">
+      <x:c r="A14" s="15" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="I14" s="15" t="s"/>
-      <x:c r="K14" s="14" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="R14" s="15" t="s">
+      <x:c r="H14" s="16" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I14" s="16" t="s"/>
+      <x:c r="K14" s="15" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="S14" s="15" t="s"/>
+      <x:c r="R14" s="16" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="S14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A15" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C15" s="17" t="s">
+      <x:c r="A15" s="17" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="H15" s="15" t="s">
+      <x:c r="C15" s="18" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="I15" s="15" t="s"/>
-      <x:c r="K15" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="M15" s="17" t="s">
+      <x:c r="H15" s="16" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I15" s="16" t="s"/>
+      <x:c r="K15" s="17" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="R15" s="15" t="s">
+      <x:c r="M15" s="18" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="S15" s="15" t="s"/>
+      <x:c r="R15" s="16" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="S15" s="16" t="s"/>
     </x:row>
     <x:row r="16" spans="1:19" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B16" s="18" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H16" s="15" t="s"/>
-      <x:c r="I16" s="15" t="s"/>
-      <x:c r="L16" s="18" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="R16" s="15" t="s"/>
-      <x:c r="S16" s="15" t="s"/>
+      <x:c r="B16" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H16" s="16" t="s"/>
+      <x:c r="I16" s="16" t="s"/>
+      <x:c r="L16" s="19" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="R16" s="16" t="s"/>
+      <x:c r="S16" s="16" t="s"/>
     </x:row>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,24 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>受　納　証</x:t>
   </x:si>
   <x:si>
-    <x:t>№1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021年05月22日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>鎌田　様</x:t>
+    <x:t>№0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021年05月27日</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">　様</x:t>
   </x:si>
   <x:si>
     <x:t>冥加金</x:t>
   </x:si>
   <x:si>
-    <x:t>55,000-</x:t>
+    <x:t>1,010,000-</x:t>
   </x:si>
   <x:si>
     <x:t>円也</x:t>
@@ -40,19 +40,16 @@
     <x:t>但し</x:t>
   </x:si>
   <x:si>
-    <x:t>御布施 : 50,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>御車代 : 5,000 円</x:t>
+    <x:t>法事冥加</x:t>
   </x:si>
   <x:si>
     <x:t>上記有難くお受けいたしました</x:t>
   </x:si>
   <x:si>
-    <x:t>信行寺</x:t>
-  </x:si>
-  <x:si>
-    <x:t>浄土真宗本願寺派</x:t>
+    <x:t>春秋苑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宗教法人信行寺</x:t>
   </x:si>
   <x:si>
     <x:t>係</x:t>
@@ -64,10 +61,10 @@
     <x:t>川崎市多摩区南生田８－１－１</x:t>
   </x:si>
   <x:si>
-    <x:t>安田</x:t>
-  </x:si>
-  <x:si>
-    <x:t>電話０４４－９７７－３４６６㈹</x:t>
+    <x:t>林飛</x:t>
+  </x:si>
+  <x:si>
+    <x:t>電話０４４－９７６－０１１５㈹</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -311,6 +308,42 @@
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
 </x:styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1609725" cy="1619250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1609725" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -738,18 +771,14 @@
       <x:c r="R8" s="11" t="s"/>
     </x:row>
     <x:row r="9" spans="1:19" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B9" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
+      <x:c r="B9" s="11" t="s"/>
       <x:c r="C9" s="11" t="s"/>
       <x:c r="D9" s="11" t="s"/>
       <x:c r="E9" s="11" t="s"/>
       <x:c r="F9" s="11" t="s"/>
       <x:c r="G9" s="11" t="s"/>
       <x:c r="H9" s="11" t="s"/>
-      <x:c r="L9" s="11" t="s">
-        <x:v>8</x:v>
-      </x:c>
+      <x:c r="L9" s="11" t="s"/>
       <x:c r="M9" s="11" t="s"/>
       <x:c r="N9" s="11" t="s"/>
       <x:c r="O9" s="11" t="s"/>
@@ -759,7 +788,7 @@
     </x:row>
     <x:row r="10" spans="1:19" customFormat="1" ht="22.5" customHeight="1">
       <x:c r="B10" s="12" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="12" t="s"/>
       <x:c r="D10" s="12" t="s"/>
@@ -768,7 +797,7 @@
       <x:c r="G10" s="12" t="s"/>
       <x:c r="H10" s="12" t="s"/>
       <x:c r="L10" s="12" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M10" s="12" t="s"/>
       <x:c r="N10" s="12" t="s"/>
@@ -779,67 +808,67 @@
     </x:row>
     <x:row r="11" spans="1:19" customFormat="1" ht="37.5" customHeight="1">
       <x:c r="B11" s="13" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L11" s="13" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:19" customFormat="1" ht="18" customHeight="1"/>
     <x:row r="13" spans="1:19" customFormat="1" ht="18.5" customHeight="1">
       <x:c r="E13" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O13" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:19" customFormat="1" ht="18.5" customHeight="1">
       <x:c r="A14" s="15" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H14" s="16" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="H14" s="16" t="s">
-        <x:v>13</x:v>
       </x:c>
       <x:c r="I14" s="16" t="s"/>
       <x:c r="K14" s="15" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="R14" s="16" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="R14" s="16" t="s">
-        <x:v>13</x:v>
       </x:c>
       <x:c r="S14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:19" customFormat="1" ht="18" customHeight="1">
       <x:c r="A15" s="17" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C15" s="18" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C15" s="18" t="s">
+      <x:c r="H15" s="16" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="H15" s="16" t="s">
-        <x:v>16</x:v>
       </x:c>
       <x:c r="I15" s="16" t="s"/>
       <x:c r="K15" s="17" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="M15" s="18" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="M15" s="18" t="s">
+      <x:c r="R15" s="16" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="R15" s="16" t="s">
-        <x:v>16</x:v>
       </x:c>
       <x:c r="S15" s="16" t="s"/>
     </x:row>
     <x:row r="16" spans="1:19" customFormat="1" ht="18" customHeight="1">
       <x:c r="B16" s="19" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H16" s="16" t="s"/>
       <x:c r="I16" s="16" t="s"/>
       <x:c r="L16" s="19" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="R16" s="16" t="s"/>
       <x:c r="S16" s="16" t="s"/>
@@ -888,6 +917,7 @@
   <x:pageMargins left="0.51181" right="0.51181" top="0.74803" bottom="0.55118" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <x:si>
+    <x:t>令和 3 年</x:t>
+  </x:si>
   <x:si>
     <x:t>日付</x:t>
   </x:si>
@@ -22,13 +25,115 @@
     <x:t>コード</x:t>
   </x:si>
   <x:si>
-    <x:t>収支</x:t>
-  </x:si>
-  <x:si>
-    <x:t>内容</x:t>
-  </x:si>
-  <x:si>
-    <x:t>詳細</x:t>
+    <x:t>勘定科目</x:t>
+  </x:si>
+  <x:si>
+    <x:t>摘要</x:t>
+  </x:si>
+  <x:si>
+    <x:t>入金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>出金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>合計</x:t>
+  </x:si>
+  <x:si>
+    <x:t>前月より繰越</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>セレサ川崎普通貯金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>口座入金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021/05/31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,130,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>仮払金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法事両替用</x:t>
+  </x:si>
+  <x:si>
+    <x:t>藤井泰子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>消耗品費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>コード、マウスパッド</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ヤマダ電機</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>621</x:t>
+  </x:si>
+  <x:si>
+    <x:t>車両費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ヴィッツ　ガソリン代</x:t>
+  </x:si>
+  <x:si>
+    <x:t>アセント</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>苑内整備費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>花苗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ビバホーム</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,827</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-3,252,674</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>416</x:t>
   </x:si>
   <x:si>
     <x:t>仮受金</x:t>
@@ -37,13 +142,28 @@
     <x:t>ワイズコア</x:t>
   </x:si>
   <x:si>
+    <x:t>他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,020,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>822</x:t>
+  </x:si>
+  <x:si>
     <x:t>その他冥加金</x:t>
   </x:si>
   <x:si>
     <x:t>骨壺</x:t>
   </x:si>
   <x:si>
-    <x:t>坂村家</x:t>
+    <x:t>坂村家他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>874</x:t>
   </x:si>
   <x:si>
     <x:t>その他茶所収入</x:t>
@@ -52,28 +172,25 @@
     <x:t>ビール、ライター</x:t>
   </x:si>
   <x:si>
+    <x:t>1,800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>815</x:t>
+  </x:si>
+  <x:si>
     <x:t>冥加読経料</x:t>
   </x:si>
   <x:si>
     <x:t>管理料</x:t>
   </x:si>
   <x:si>
-    <x:t>山口家 2021年度分</x:t>
-  </x:si>
-  <x:si>
-    <x:t>セレサ川崎普通貯金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>口座入金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>仮払金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>法事両替用</x:t>
-  </x:si>
-  <x:si>
-    <x:t>藤井泰子</x:t>
+    <x:t>山口家 2021年度分他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>611</x:t>
   </x:si>
   <x:si>
     <x:t>旅費交通費</x:t>
@@ -82,34 +199,25 @@
     <x:t>3ヶ月交通費</x:t>
   </x:si>
   <x:si>
-    <x:t>坂本邦夫</x:t>
-  </x:si>
-  <x:si>
-    <x:t>消耗品費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>コード、マウスパッド</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ヤマダ電機</x:t>
-  </x:si>
-  <x:si>
-    <x:t>車両費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ヴィッツ　ガソリン代</x:t>
-  </x:si>
-  <x:si>
-    <x:t>アセント</x:t>
-  </x:si>
-  <x:si>
-    <x:t>苑内整備費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>花苗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ビバホーム</x:t>
+    <x:t>坂本邦夫他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25,720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-4,455,268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>計</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,085,800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,551,068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>翌月へ繰越</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -118,7 +226,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,##0"/>
+    <x:numFmt numFmtId="165" formatCode="@"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -144,7 +252,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="2">
+  <x:borders count="13">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -166,10 +274,197 @@
       <x:left style="thin">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="thin">
+      <x:right style="dashed">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="dashed">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="double">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="double">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="dashed">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="dashed">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="double">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="double">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
@@ -180,46 +475,113 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="16">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -517,319 +879,460 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H50"/>
+  <x:dimension ref="A1:I50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="9" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="1" width="11.570625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="5.420625" style="1" customWidth="1"/>
-    <x:col min="3" max="5" width="17.140625" style="1" customWidth="1"/>
-    <x:col min="6" max="8" width="9.850625" style="1" customWidth="1"/>
+    <x:col min="10" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="3.350625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="5.420625" style="1" customWidth="1"/>
+    <x:col min="4" max="6" width="17.140625" style="1" customWidth="1"/>
+    <x:col min="7" max="9" width="10.710625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A1" s="2" t="s"/>
-      <x:c r="B1" s="3" t="s"/>
-      <x:c r="C1" s="2" t="s"/>
-      <x:c r="D1" s="2" t="s"/>
-      <x:c r="E1" s="2" t="s"/>
-      <x:c r="F1" s="4" t="s"/>
-      <x:c r="G1" s="4" t="s"/>
-      <x:c r="H1" s="4" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1">
+    <x:row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="B2" s="3" t="s"/>
+      <x:c r="C2" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s">
+      <x:c r="D2" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="s">
+      <x:c r="E2" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F2" s="4" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G2" s="4" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" s="4" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A3" s="5">
-        <x:v>44347</x:v>
-      </x:c>
+      <x:c r="F2" s="6" t="s"/>
+      <x:c r="G2" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H2" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="I2" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A3" s="2" t="s"/>
       <x:c r="B3" s="3" t="s"/>
-      <x:c r="C3" s="2" t="s"/>
-      <x:c r="D3" s="2" t="s"/>
-      <x:c r="E3" s="2" t="s"/>
-      <x:c r="F3" s="4" t="s"/>
-      <x:c r="G3" s="4" t="s"/>
-      <x:c r="H3" s="4" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A4" s="2" t="s"/>
-      <x:c r="B4" s="3" t="n">
-        <x:v>416</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E4" s="2" t="s"/>
-      <x:c r="F4" s="4" t="n">
-        <x:v>1010000</x:v>
-      </x:c>
-      <x:c r="G4" s="4" t="s"/>
-      <x:c r="H4" s="4" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="C3" s="4" t="s"/>
+      <x:c r="D3" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E3" s="5" t="s"/>
+      <x:c r="F3" s="6" t="s"/>
+      <x:c r="G3" s="7" t="s"/>
+      <x:c r="H3" s="7" t="s"/>
+      <x:c r="I3" s="8" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F4" s="6" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G4" s="7" t="s"/>
+      <x:c r="H4" s="7" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I4" s="8" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A5" s="2" t="s"/>
-      <x:c r="B5" s="3" t="n">
-        <x:v>822</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F5" s="4" t="n">
-        <x:v>2000</x:v>
-      </x:c>
-      <x:c r="G5" s="4" t="s"/>
-      <x:c r="H5" s="4" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B5" s="3" t="s"/>
+      <x:c r="C5" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E5" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F5" s="6" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G5" s="7" t="s"/>
+      <x:c r="H5" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I5" s="8" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A6" s="2" t="s"/>
-      <x:c r="B6" s="3" t="n">
-        <x:v>874</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E6" s="2" t="s"/>
-      <x:c r="F6" s="4" t="n">
-        <x:v>900</x:v>
-      </x:c>
-      <x:c r="G6" s="4" t="s"/>
-      <x:c r="H6" s="4" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="B6" s="3" t="s"/>
+      <x:c r="C6" s="4" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E6" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F6" s="6" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G6" s="7" t="s"/>
+      <x:c r="H6" s="7" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I6" s="8" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A7" s="2" t="s"/>
-      <x:c r="B7" s="3" t="n">
-        <x:v>815</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="B7" s="3" t="s"/>
+      <x:c r="C7" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D7" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E7" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F7" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G7" s="7" t="s"/>
+      <x:c r="H7" s="7" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I7" s="8" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A8" s="2" t="s"/>
+      <x:c r="B8" s="3" t="s"/>
+      <x:c r="C8" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D8" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E8" s="5" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F8" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G8" s="7" t="s"/>
+      <x:c r="H8" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I8" s="8" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A9" s="2" t="s"/>
+      <x:c r="B9" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C9" s="4" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D9" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E9" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F9" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G9" s="7" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H9" s="7" t="s"/>
+      <x:c r="I9" s="8" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A10" s="2" t="s"/>
+      <x:c r="B10" s="3" t="s"/>
+      <x:c r="C10" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D10" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E10" s="5" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F10" s="6" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G10" s="7" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H10" s="7" t="s"/>
+      <x:c r="I10" s="8" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A11" s="2" t="s"/>
+      <x:c r="B11" s="3" t="s"/>
+      <x:c r="C11" s="4" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D11" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E11" s="5" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F11" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G11" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H11" s="7" t="s"/>
+      <x:c r="I11" s="8" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A12" s="2" t="s"/>
+      <x:c r="B12" s="3" t="s"/>
+      <x:c r="C12" s="4" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D12" s="5" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E12" s="5" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F12" s="6" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G12" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H12" s="7" t="s"/>
+      <x:c r="I12" s="8" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A13" s="2" t="s"/>
+      <x:c r="B13" s="3" t="s"/>
+      <x:c r="C13" s="4" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
+      <x:c r="D13" s="5" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E7" s="2" t="s">
+      <x:c r="E13" s="5" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F7" s="4" t="n">
-        <x:v>30000</x:v>
-      </x:c>
-      <x:c r="G7" s="4" t="s"/>
-      <x:c r="H7" s="4" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A8" s="2" t="s"/>
-      <x:c r="B8" s="3" t="n">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="F13" s="6" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
+      <x:c r="G13" s="7" t="s"/>
+      <x:c r="H13" s="7" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E8" s="5">
-        <x:v>44346</x:v>
-      </x:c>
-      <x:c r="F8" s="4" t="s"/>
-      <x:c r="G8" s="4" t="n">
-        <x:v>3130000</x:v>
-      </x:c>
-      <x:c r="H8" s="4" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A9" s="2" t="s"/>
-      <x:c r="B9" s="3" t="n">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E9" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F9" s="4" t="s"/>
-      <x:c r="G9" s="4" t="n">
-        <x:v>120000</x:v>
-      </x:c>
-      <x:c r="H9" s="4" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A10" s="2" t="s"/>
-      <x:c r="B10" s="3" t="n">
-        <x:v>611</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E10" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F10" s="4" t="s"/>
-      <x:c r="G10" s="4" t="n">
-        <x:v>12860</x:v>
-      </x:c>
-      <x:c r="H10" s="4" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A11" s="2" t="s"/>
-      <x:c r="B11" s="3" t="n">
-        <x:v>616</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E11" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F11" s="4" t="s"/>
-      <x:c r="G11" s="4" t="n">
-        <x:v>2247</x:v>
-      </x:c>
-      <x:c r="H11" s="4" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A12" s="2" t="s"/>
-      <x:c r="B12" s="3" t="n">
-        <x:v>621</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E12" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F12" s="4" t="s"/>
-      <x:c r="G12" s="4" t="n">
-        <x:v>4600</x:v>
-      </x:c>
-      <x:c r="H12" s="4" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:8" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A13" s="2" t="s"/>
-      <x:c r="B13" s="3" t="n">
-        <x:v>735</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E13" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F13" s="4" t="s"/>
-      <x:c r="G13" s="4" t="n">
-        <x:v>5827</x:v>
-      </x:c>
-      <x:c r="H13" s="4" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:8" customFormat="1" ht="15" customHeight="1">
+      <x:c r="I13" s="8" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A14" s="2" t="s"/>
       <x:c r="B14" s="3" t="s"/>
-      <x:c r="C14" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s"/>
-      <x:c r="E14" s="2" t="s"/>
-      <x:c r="F14" s="4" t="n">
-        <x:v>1042900</x:v>
-      </x:c>
-      <x:c r="G14" s="4" t="n">
-        <x:v>3275534</x:v>
-      </x:c>
-      <x:c r="H14" s="4" t="n">
-        <x:v>-2232634</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="16" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="17" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="18" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="19" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="20" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="21" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="22" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="23" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="24" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="25" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="26" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="27" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="28" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="29" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="30" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="31" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="32" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="33" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="34" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="35" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="36" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="37" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="38" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="39" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="40" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="41" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="42" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="43" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="44" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="45" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="46" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="47" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="48" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="49" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="50" spans="1:8" customFormat="1" ht="15" customHeight="1"/>
+      <x:c r="C14" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D14" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E14" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F14" s="6" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G14" s="7" t="s"/>
+      <x:c r="H14" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I14" s="8" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A15" s="2" t="s"/>
+      <x:c r="B15" s="3" t="s"/>
+      <x:c r="C15" s="4" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D15" s="5" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E15" s="5" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F15" s="6" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G15" s="7" t="s"/>
+      <x:c r="H15" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I15" s="8" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A16" s="2" t="s"/>
+      <x:c r="B16" s="3" t="s"/>
+      <x:c r="C16" s="4" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D16" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E16" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F16" s="6" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G16" s="7" t="s"/>
+      <x:c r="H16" s="7" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I16" s="8" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A17" s="2" t="s"/>
+      <x:c r="B17" s="3" t="s"/>
+      <x:c r="C17" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D17" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E17" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F17" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G17" s="7" t="s"/>
+      <x:c r="H17" s="7" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I17" s="8" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A18" s="2" t="s"/>
+      <x:c r="B18" s="3" t="s"/>
+      <x:c r="C18" s="4" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D18" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E18" s="5" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F18" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G18" s="7" t="s"/>
+      <x:c r="H18" s="7" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I18" s="8" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A19" s="9" t="s"/>
+      <x:c r="B19" s="10" t="s"/>
+      <x:c r="C19" s="11" t="s"/>
+      <x:c r="D19" s="12" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E19" s="12" t="s"/>
+      <x:c r="F19" s="13" t="s"/>
+      <x:c r="G19" s="14" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H19" s="14" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I19" s="15" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A20" s="2" t="s"/>
+      <x:c r="B20" s="3" t="s"/>
+      <x:c r="C20" s="4" t="s"/>
+      <x:c r="D20" s="5" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E20" s="5" t="s"/>
+      <x:c r="F20" s="6" t="s"/>
+      <x:c r="G20" s="7" t="s"/>
+      <x:c r="H20" s="7" t="s"/>
+      <x:c r="I20" s="8" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="22" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="23" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="25" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="26" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="27" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="28" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="29" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="30" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="31" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="32" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="33" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="34" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="35" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="36" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="37" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="38" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="39" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="40" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="41" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="42" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="43" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="44" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="45" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="46" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="47" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="48" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="49" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="50" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="A1:I1"/>
+    <x:mergeCell ref="A2:B2"/>
+    <x:mergeCell ref="E2:F2"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.27559" right="0.27559" top="0.3937" bottom="0.3937" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>令和 3 年</x:t>
   </x:si>
@@ -43,13 +43,217 @@
     <x:t>前月より繰越</x:t>
   </x:si>
   <x:si>
+    <x:t>649,404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>複合勘定</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>島﨑 喜代恵 2021,2022年度分</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>814</x:t>
+  </x:si>
+  <x:si>
+    <x:t>各種変更冥加</x:t>
+  </x:si>
+  <x:si>
+    <x:t>名義変更</x:t>
+  </x:si>
+  <x:si>
+    <x:t>髙橋正樹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50,400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>822</x:t>
+  </x:si>
+  <x:si>
+    <x:t>その他冥加金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>卒塔婆</x:t>
+  </x:si>
+  <x:si>
+    <x:t>石川家 7/13分</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>懇志読経料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>古物預かり</x:t>
+  </x:si>
+  <x:si>
+    <x:t>班目様</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>874</x:t>
+  </x:si>
+  <x:si>
+    <x:t>その他茶所収入</x:t>
+  </x:si>
+  <x:si>
+    <x:t>物販</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ライター</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>718,104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>石材工事部勘定</x:t>
+  </x:si>
+  <x:si>
+    <x:t>彫刻代</x:t>
+  </x:si>
+  <x:si>
+    <x:t>高島忠弘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>椎名家北7-7-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>811</x:t>
+  </x:si>
+  <x:si>
+    <x:t>納骨冥加</x:t>
+  </x:si>
+  <x:si>
+    <x:t>納骨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>高島家他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>椎名家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>812</x:t>
+  </x:si>
+  <x:si>
+    <x:t>焼香台冥加</x:t>
+  </x:si>
+  <x:si>
+    <x:t>焼香台</x:t>
+  </x:si>
+  <x:si>
+    <x:t>髙橋家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>813</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法事冥加</x:t>
+  </x:si>
+  <x:si>
+    <x:t>会食室</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>土屋 悦子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>815</x:t>
+  </x:si>
+  <x:si>
+    <x:t>冥加読経料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御布施</x:t>
+  </x:si>
+  <x:si>
+    <x:t>650,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>龍昌寺</x:t>
+  </x:si>
+  <x:si>
+    <x:t>髙橋家 椎名家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>志納金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>御車代</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中野家</x:t>
+  </x:si>
+  <x:si>
     <x:t>10,000</x:t>
   </x:si>
   <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
+    <x:t>871</x:t>
+  </x:si>
+  <x:si>
+    <x:t>式場売上</x:t>
+  </x:si>
+  <x:si>
+    <x:t>供物</x:t>
+  </x:si>
+  <x:si>
+    <x:t>高島家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,400</x:t>
   </x:si>
   <x:si>
     <x:t>133</x:t>
@@ -61,160 +265,28 @@
     <x:t>口座入金</x:t>
   </x:si>
   <x:si>
-    <x:t>2021/05/31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,130,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>仮払金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>法事両替用</x:t>
-  </x:si>
-  <x:si>
-    <x:t>藤井泰子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>616</x:t>
-  </x:si>
-  <x:si>
-    <x:t>消耗品費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>コード、マウスパッド</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ヤマダ電機</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>621</x:t>
-  </x:si>
-  <x:si>
-    <x:t>車両費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ヴィッツ　ガソリン代</x:t>
-  </x:si>
-  <x:si>
-    <x:t>アセント</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>735</x:t>
-  </x:si>
-  <x:si>
-    <x:t>苑内整備費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>花苗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ビバホーム</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,827</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-3,252,674</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>仮受金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ワイズコア</x:t>
-  </x:si>
-  <x:si>
-    <x:t>他1件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,020,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>822</x:t>
-  </x:si>
-  <x:si>
-    <x:t>その他冥加金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>骨壺</x:t>
-  </x:si>
-  <x:si>
-    <x:t>坂村家他1件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>874</x:t>
-  </x:si>
-  <x:si>
-    <x:t>その他茶所収入</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ビール、ライター</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>815</x:t>
-  </x:si>
-  <x:si>
-    <x:t>冥加読経料</x:t>
-  </x:si>
-  <x:si>
-    <x:t>管理料</x:t>
-  </x:si>
-  <x:si>
-    <x:t>山口家 2021年度分他1件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>611</x:t>
-  </x:si>
-  <x:si>
-    <x:t>旅費交通費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3ヶ月交通費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>坂本邦夫他1件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25,720</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-4,455,268</x:t>
+    <x:t>1,080,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>その他</x:t>
+  </x:si>
+  <x:si>
+    <x:t>面接交通費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>658,404</x:t>
   </x:si>
   <x:si>
     <x:t>計</x:t>
   </x:si>
   <x:si>
-    <x:t>2,085,800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,551,068</x:t>
+    <x:t>1,090,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,081,000</x:t>
   </x:si>
   <x:si>
     <x:t>翌月へ繰越</x:t>
@@ -879,7 +951,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I50"/>
+  <x:dimension ref="A1:I54"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -956,10 +1028,10 @@
       <x:c r="F4" s="6" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G4" s="7" t="s"/>
-      <x:c r="H4" s="7" t="s">
+      <x:c r="G4" s="7" t="s">
         <x:v>16</x:v>
       </x:c>
+      <x:c r="H4" s="7" t="s"/>
       <x:c r="I4" s="8" t="s"/>
     </x:row>
     <x:row r="5" spans="1:9" customFormat="1" ht="15" customHeight="1">
@@ -977,10 +1049,10 @@
       <x:c r="F5" s="6" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G5" s="7" t="s"/>
-      <x:c r="H5" s="7" t="s">
+      <x:c r="G5" s="7" t="s">
         <x:v>21</x:v>
       </x:c>
+      <x:c r="H5" s="7" t="s"/>
       <x:c r="I5" s="8" t="s"/>
     </x:row>
     <x:row r="6" spans="1:9" customFormat="1" ht="15" customHeight="1">
@@ -998,10 +1070,10 @@
       <x:c r="F6" s="6" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="G6" s="7" t="s"/>
-      <x:c r="H6" s="7" t="s">
+      <x:c r="G6" s="7" t="s">
         <x:v>26</x:v>
       </x:c>
+      <x:c r="H6" s="7" t="s"/>
       <x:c r="I6" s="8" t="s"/>
     </x:row>
     <x:row r="7" spans="1:9" customFormat="1" ht="15" customHeight="1">
@@ -1019,10 +1091,10 @@
       <x:c r="F7" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="G7" s="7" t="s"/>
-      <x:c r="H7" s="7" t="s">
+      <x:c r="G7" s="7" t="s">
         <x:v>31</x:v>
       </x:c>
+      <x:c r="H7" s="7" t="s"/>
       <x:c r="I7" s="8" t="s"/>
     </x:row>
     <x:row r="8" spans="1:9" customFormat="1" ht="15" customHeight="1">
@@ -1040,10 +1112,10 @@
       <x:c r="F8" s="6" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G8" s="7" t="s"/>
-      <x:c r="H8" s="7" t="s">
+      <x:c r="G8" s="7" t="s">
         <x:v>36</x:v>
       </x:c>
+      <x:c r="H8" s="7" t="s"/>
       <x:c r="I8" s="8" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -1075,19 +1147,19 @@
       <x:c r="A10" s="2" t="s"/>
       <x:c r="B10" s="3" t="s"/>
       <x:c r="C10" s="4" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D10" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E10" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F10" s="6" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D10" s="5" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E10" s="5" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F10" s="6" t="s">
-        <x:v>47</x:v>
-      </x:c>
       <x:c r="G10" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H10" s="7" t="s"/>
       <x:c r="I10" s="8" t="s"/>
@@ -1096,19 +1168,19 @@
       <x:c r="A11" s="2" t="s"/>
       <x:c r="B11" s="3" t="s"/>
       <x:c r="C11" s="4" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D11" s="5" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E11" s="5" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F11" s="6" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G11" s="7" t="s">
         <x:v>49</x:v>
-      </x:c>
-      <x:c r="D11" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E11" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F11" s="6" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G11" s="7" t="s">
-        <x:v>52</x:v>
       </x:c>
       <x:c r="H11" s="7" t="s"/>
       <x:c r="I11" s="8" t="s"/>
@@ -1117,19 +1189,19 @@
       <x:c r="A12" s="2" t="s"/>
       <x:c r="B12" s="3" t="s"/>
       <x:c r="C12" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D12" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E12" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F12" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G12" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H12" s="7" t="s"/>
       <x:c r="I12" s="8" t="s"/>
@@ -1138,168 +1210,246 @@
       <x:c r="A13" s="2" t="s"/>
       <x:c r="B13" s="3" t="s"/>
       <x:c r="C13" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F13" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G13" s="7" t="s"/>
-      <x:c r="H13" s="7" t="s">
-        <x:v>16</x:v>
-      </x:c>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G13" s="7" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H13" s="7" t="s"/>
       <x:c r="I13" s="8" t="s"/>
     </x:row>
     <x:row r="14" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A14" s="2" t="s"/>
       <x:c r="B14" s="3" t="s"/>
       <x:c r="C14" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D14" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E14" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F14" s="6" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G14" s="7" t="s"/>
-      <x:c r="H14" s="7" t="s">
-        <x:v>21</x:v>
-      </x:c>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G14" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H14" s="7" t="s"/>
       <x:c r="I14" s="8" t="s"/>
     </x:row>
     <x:row r="15" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A15" s="2" t="s"/>
       <x:c r="B15" s="3" t="s"/>
       <x:c r="C15" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D15" s="5" t="s">
-        <x:v>59</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E15" s="5" t="s">
-        <x:v>60</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F15" s="6" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="G15" s="7" t="s"/>
-      <x:c r="H15" s="7" t="s">
-        <x:v>62</x:v>
-      </x:c>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G15" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H15" s="7" t="s"/>
       <x:c r="I15" s="8" t="s"/>
     </x:row>
     <x:row r="16" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A16" s="2" t="s"/>
       <x:c r="B16" s="3" t="s"/>
       <x:c r="C16" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D16" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E16" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F16" s="6" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G16" s="7" t="s"/>
-      <x:c r="H16" s="7" t="s">
-        <x:v>26</x:v>
-      </x:c>
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G16" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H16" s="7" t="s"/>
       <x:c r="I16" s="8" t="s"/>
     </x:row>
     <x:row r="17" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A17" s="2" t="s"/>
       <x:c r="B17" s="3" t="s"/>
       <x:c r="C17" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D17" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E17" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F17" s="6" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G17" s="7" t="s"/>
-      <x:c r="H17" s="7" t="s">
-        <x:v>31</x:v>
-      </x:c>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G17" s="7" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H17" s="7" t="s"/>
       <x:c r="I17" s="8" t="s"/>
     </x:row>
     <x:row r="18" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A18" s="2" t="s"/>
       <x:c r="B18" s="3" t="s"/>
       <x:c r="C18" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D18" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E18" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F18" s="6" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G18" s="7" t="s"/>
-      <x:c r="H18" s="7" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="I18" s="8" t="s">
-        <x:v>63</x:v>
-      </x:c>
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G18" s="7" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H18" s="7" t="s"/>
+      <x:c r="I18" s="8" t="s"/>
     </x:row>
     <x:row r="19" spans="1:9" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A19" s="9" t="s"/>
-      <x:c r="B19" s="10" t="s"/>
-      <x:c r="C19" s="11" t="s"/>
-      <x:c r="D19" s="12" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E19" s="12" t="s"/>
-      <x:c r="F19" s="13" t="s"/>
-      <x:c r="G19" s="14" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H19" s="14" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="I19" s="15" t="s">
-        <x:v>63</x:v>
-      </x:c>
+      <x:c r="A19" s="2" t="s"/>
+      <x:c r="B19" s="3" t="s"/>
+      <x:c r="C19" s="4" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D19" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E19" s="5" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F19" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G19" s="7" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H19" s="7" t="s"/>
+      <x:c r="I19" s="8" t="s"/>
     </x:row>
     <x:row r="20" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A20" s="2" t="s"/>
       <x:c r="B20" s="3" t="s"/>
-      <x:c r="C20" s="4" t="s"/>
+      <x:c r="C20" s="4" t="s">
+        <x:v>75</x:v>
+      </x:c>
       <x:c r="D20" s="5" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E20" s="5" t="s"/>
-      <x:c r="F20" s="6" t="s"/>
-      <x:c r="G20" s="7" t="s"/>
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E20" s="5" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F20" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G20" s="7" t="s">
+        <x:v>79</x:v>
+      </x:c>
       <x:c r="H20" s="7" t="s"/>
-      <x:c r="I20" s="8" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="22" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="23" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+      <x:c r="I20" s="8" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A21" s="2" t="s"/>
+      <x:c r="B21" s="3" t="s"/>
+      <x:c r="C21" s="4" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D21" s="5" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E21" s="5" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F21" s="6" t="s"/>
+      <x:c r="G21" s="7" t="s"/>
+      <x:c r="H21" s="7" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="I21" s="8" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A22" s="2" t="s"/>
+      <x:c r="B22" s="3" t="s"/>
+      <x:c r="C22" s="4" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D22" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E22" s="5" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F22" s="6" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G22" s="7" t="s"/>
+      <x:c r="H22" s="7" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="I22" s="8" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A23" s="9" t="s"/>
+      <x:c r="B23" s="10" t="s"/>
+      <x:c r="C23" s="11" t="s"/>
+      <x:c r="D23" s="12" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E23" s="12" t="s"/>
+      <x:c r="F23" s="13" t="s"/>
+      <x:c r="G23" s="14" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H23" s="14" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="I23" s="15" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A24" s="2" t="s"/>
+      <x:c r="B24" s="3" t="s"/>
+      <x:c r="C24" s="4" t="s"/>
+      <x:c r="D24" s="5" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E24" s="5" t="s"/>
+      <x:c r="F24" s="6" t="s"/>
+      <x:c r="G24" s="7" t="s"/>
+      <x:c r="H24" s="7" t="s"/>
+      <x:c r="I24" s="8" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
     <x:row r="25" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
     <x:row r="26" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
     <x:row r="27" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
@@ -1326,6 +1476,10 @@
     <x:row r="48" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
     <x:row r="49" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
     <x:row r="50" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="51" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="52" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="53" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="54" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>
   <x:mergeCells count="3">

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,14 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <x:si>
-    <x:t>2021年06月05日（土）</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <x:si>
+    <x:t>2021年06月06日（日）</x:t>
   </x:si>
   <x:si>
     <x:t>証憑綴り</x:t>
   </x:si>
   <x:si>
+    <x:t>本部長</x:t>
+  </x:si>
+  <x:si>
+    <x:t>副住職</x:t>
+  </x:si>
+  <x:si>
     <x:t>係</x:t>
   </x:si>
   <x:si>
@@ -31,7 +37,7 @@
     <x:t>収支</x:t>
   </x:si>
   <x:si>
-    <x:t>預り金</x:t>
+    <x:t>前日より繰越</x:t>
   </x:si>
   <x:si>
     <x:t>入金</x:t>
@@ -40,19 +46,40 @@
     <x:t>出金</x:t>
   </x:si>
   <x:si>
+    <x:t>社内振替</x:t>
+  </x:si>
+  <x:si>
     <x:t>残高</x:t>
   </x:si>
   <x:si>
-    <x:t>10 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,995,550 円</x:t>
+    <x:t>1,961,444 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,039,970 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,806 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,190,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,807,608 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>横浜銀行残高</x:t>
   </x:si>
   <x:si>
     <x:t>0 円</x:t>
   </x:si>
   <x:si>
-    <x:t>1,995,560 円</x:t>
+    <x:t>セレサ川崎残高</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ﾜｲｽﾞｺｱ仮受金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>信行寺　春秋苑</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -122,7 +149,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="2">
+  <x:borders count="3">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -148,6 +175,23 @@
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
@@ -180,7 +224,7 @@
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -209,14 +253,14 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -229,7 +273,7 @@
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -560,69 +604,94 @@
     </x:row>
     <x:row r="4" spans="1:5" customFormat="1" ht="57" customHeight="1"/>
     <x:row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="C5" s="6" t="s"/>
-      <x:c r="D5" s="6" t="s"/>
-      <x:c r="E5" s="7" t="s">
+      <x:c r="C5" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
+      <x:c r="D5" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E5" s="6" t="s">
+        <x:v>4</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:5" customFormat="1" ht="42" customHeight="1">
+      <x:c r="C6" s="7" t="s"/>
+      <x:c r="D6" s="7" t="s"/>
       <x:c r="E6" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" customFormat="1" ht="126" customHeight="1"/>
     <x:row r="8" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A8" s="9" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A9" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B9" s="7" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C9" s="7" t="s">
+      <x:c r="A9" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D9" s="7" t="s"/>
-      <x:c r="E9" s="7" t="s">
+      <x:c r="B9" s="6" t="s">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="C9" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D9" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E9" s="6" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" customFormat="1" ht="42" customHeight="1">
       <x:c r="A10" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B10" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D10" s="10" t="s"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D10" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
       <x:c r="E10" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" customFormat="1" ht="27.75" customHeight="1"/>
     <x:row r="12" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="B12" s="11" t="s"/>
+      <x:c r="A12" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B12" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="C12" s="11" t="s"/>
     </x:row>
     <x:row r="13" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="B13" s="11" t="s"/>
+      <x:c r="A13" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B13" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="C13" s="11" t="s"/>
     </x:row>
     <x:row r="14" spans="1:5" customFormat="1" ht="21" customHeight="1">
+      <x:c r="A14" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
       <x:c r="B14" s="11" t="s"/>
       <x:c r="C14" s="11" t="s"/>
     </x:row>
     <x:row r="15" spans="1:5" customFormat="1" ht="40.5" customHeight="1"/>
     <x:row r="16" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="D16" s="12" t="s"/>
+      <x:c r="D16" s="12" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="E16" s="12" t="s"/>
     </x:row>
   </x:sheetData>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,20 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <x:si>
-    <x:t>2021年06月06日（日）</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <x:si>
+    <x:t>2021年06月08日（火）</x:t>
   </x:si>
   <x:si>
     <x:t>証憑綴り</x:t>
   </x:si>
   <x:si>
-    <x:t>本部長</x:t>
-  </x:si>
-  <x:si>
-    <x:t>副住職</x:t>
-  </x:si>
-  <x:si>
     <x:t>係</x:t>
   </x:si>
   <x:si>
@@ -37,7 +31,7 @@
     <x:t>収支</x:t>
   </x:si>
   <x:si>
-    <x:t>前日より繰越</x:t>
+    <x:t>預り金</x:t>
   </x:si>
   <x:si>
     <x:t>入金</x:t>
@@ -46,40 +40,19 @@
     <x:t>出金</x:t>
   </x:si>
   <x:si>
-    <x:t>社内振替</x:t>
-  </x:si>
-  <x:si>
     <x:t>残高</x:t>
   </x:si>
   <x:si>
-    <x:t>1,961,444 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,039,970 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,806 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,190,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,807,608 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>横浜銀行残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>セレサ川崎残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ﾜｲｽﾞｺｱ仮受金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>信行寺　春秋苑</x:t>
+    <x:t>10 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,085,800 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>291,068 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-4,465,258 円</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -149,7 +122,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="3">
+  <x:borders count="2">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -175,23 +148,6 @@
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
@@ -224,7 +180,7 @@
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -253,14 +209,14 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -273,7 +229,7 @@
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -604,94 +560,69 @@
     </x:row>
     <x:row r="4" spans="1:5" customFormat="1" ht="57" customHeight="1"/>
     <x:row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="C5" s="6" t="s">
+      <x:c r="C5" s="6" t="s"/>
+      <x:c r="D5" s="6" t="s"/>
+      <x:c r="E5" s="7" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D5" s="6" t="s">
+    </x:row>
+    <x:row r="6" spans="1:5" customFormat="1" ht="42" customHeight="1">
+      <x:c r="E6" s="8" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="6" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="C6" s="7" t="s"/>
-      <x:c r="D6" s="7" t="s"/>
-      <x:c r="E6" s="8" t="s">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" customFormat="1" ht="126" customHeight="1"/>
     <x:row r="8" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A8" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A9" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B9" s="7" t="s">
         <x:v>6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A9" s="6" t="s">
+      <x:c r="C9" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B9" s="6" t="s">
+      <x:c r="D9" s="7" t="s"/>
+      <x:c r="E9" s="7" t="s">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="C9" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D9" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E9" s="6" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" customFormat="1" ht="42" customHeight="1">
       <x:c r="A10" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B10" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C10" s="10" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D10" s="10" t="s"/>
+      <x:c r="E10" s="10" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="B10" s="10" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C10" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D10" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E10" s="10" t="s">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" customFormat="1" ht="27.75" customHeight="1"/>
     <x:row r="12" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A12" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B12" s="11" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="B12" s="11" t="s"/>
       <x:c r="C12" s="11" t="s"/>
     </x:row>
     <x:row r="13" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A13" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B13" s="11" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="B13" s="11" t="s"/>
       <x:c r="C13" s="11" t="s"/>
     </x:row>
     <x:row r="14" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A14" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="B14" s="11" t="s"/>
       <x:c r="C14" s="11" t="s"/>
     </x:row>
     <x:row r="15" spans="1:5" customFormat="1" ht="40.5" customHeight="1"/>
     <x:row r="16" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="D16" s="12" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="D16" s="12" t="s"/>
       <x:c r="E16" s="12" t="s"/>
     </x:row>
   </x:sheetData>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,53 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <x:si>
-    <x:t>2021年06月08日（火）</x:t>
-  </x:si>
-  <x:si>
-    <x:t>証憑綴り</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <x:si>
+    <x:t>受　納　証</x:t>
+  </x:si>
+  <x:si>
+    <x:t>№0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021年10月15日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>あ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>様</x:t>
+  </x:si>
+  <x:si>
+    <x:t>冥加金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,247-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>円也</x:t>
+  </x:si>
+  <x:si>
+    <x:t>但し</x:t>
+  </x:si>
+  <x:si>
+    <x:t>コード、マウスパッド</x:t>
+  </x:si>
+  <x:si>
+    <x:t>上記有難くお受けいたしました</x:t>
+  </x:si>
+  <x:si>
+    <x:t>春秋苑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宗教法人信行寺</x:t>
   </x:si>
   <x:si>
     <x:t>係</x:t>
   </x:si>
   <x:si>
+    <x:t>〒214-0036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>川崎市多摩区南生田８－１－１</x:t>
+  </x:si>
+  <x:si>
     <x:t>林飛</x:t>
   </x:si>
   <x:si>
-    <x:t>収支</x:t>
-  </x:si>
-  <x:si>
-    <x:t>預り金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>入金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>出金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,085,800 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>291,068 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-4,465,258 円</x:t>
+    <x:t>電話０４４－９７６－０１１５㈹</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="165" formatCode="@"/>
   </x:numFmts>
   <x:fonts count="7">
     <x:font>
@@ -74,43 +90,42 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
+      <x:name val="ＭＳ 明朝"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="26"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ 明朝"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="18"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ 明朝"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="24"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ 明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
+      <x:name val="ＭＳ 明朝"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="28"/>
+      <x:sz val="10"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="16"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
+      <x:name val="ＭＳ 明朝"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -122,7 +137,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="2">
+  <x:borders count="3">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -134,6 +149,23 @@
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -153,88 +185,129 @@
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
-      <x:diagonal style="none">
+      <x:diagonal style="thin">
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="21">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="distributed" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -242,6 +315,73 @@
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
 </x:styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="733425" cy="733425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="733425" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="733425" cy="733425"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="733425" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,113 +672,308 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E16"/>
+  <x:dimension ref="A1:U16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="5" width="16.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="3.840625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="7.590625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="3.840625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="2.090625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="7.590625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="4.710625" style="1" customWidth="1"/>
+    <x:col min="7" max="7" width="8.570625" style="1" customWidth="1"/>
+    <x:col min="8" max="9" width="3.840625" style="1" customWidth="1"/>
+    <x:col min="10" max="10" width="4.210625" style="1" customWidth="1"/>
+    <x:col min="11" max="11" width="15.570625" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="3.840625" style="1" customWidth="1"/>
+    <x:col min="13" max="13" width="7.590625" style="1" customWidth="1"/>
+    <x:col min="14" max="14" width="3.840625" style="1" customWidth="1"/>
+    <x:col min="15" max="15" width="2.090625" style="1" customWidth="1"/>
+    <x:col min="16" max="16" width="7.590625" style="1" customWidth="1"/>
+    <x:col min="17" max="17" width="4.710625" style="1" customWidth="1"/>
+    <x:col min="18" max="18" width="8.570625" style="1" customWidth="1"/>
+    <x:col min="19" max="20" width="3.840625" style="1" customWidth="1"/>
+    <x:col min="21" max="21" width="4.210625" style="1" customWidth="1"/>
+    <x:col min="22" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" customFormat="1" ht="51" customHeight="1"/>
-    <x:row r="2" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="D2" s="2" t="s">
+    <x:row r="1" spans="1:21" customFormat="1" ht="37" customHeight="1">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:5" customFormat="1" ht="64.5" customHeight="1">
-      <x:c r="A3" s="4" t="s">
+      <x:c r="H1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="5" t="s"/>
-      <x:c r="C3" s="5" t="s"/>
-      <x:c r="D3" s="5" t="s"/>
-      <x:c r="E3" s="5" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:5" customFormat="1" ht="57" customHeight="1"/>
-    <x:row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="C5" s="6" t="s"/>
-      <x:c r="D5" s="6" t="s"/>
-      <x:c r="E5" s="7" t="s">
+      <x:c r="L1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:21" customFormat="1" ht="18" customHeight="1">
+      <x:c r="G2" s="4" t="s">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="E6" s="8" t="s">
+      <x:c r="R2" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
+      <x:c r="A3" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5" customFormat="1" ht="126" customHeight="1"/>
-    <x:row r="8" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A8" s="9" t="s">
+      <x:c r="B3" s="6" t="s"/>
+      <x:c r="C3" s="6" t="s"/>
+      <x:c r="D3" s="6" t="s"/>
+      <x:c r="E3" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A9" s="7" t="s">
+      <x:c r="L3" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M3" s="6" t="s"/>
+      <x:c r="N3" s="6" t="s"/>
+      <x:c r="O3" s="6" t="s"/>
+      <x:c r="P3" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
+      <x:c r="B4" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B9" s="7" t="s">
+      <x:c r="M4" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
+      <x:c r="B5" s="9" t="s"/>
+      <x:c r="C5" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C9" s="7" t="s">
+      <x:c r="D5" s="9" t="s"/>
+      <x:c r="E5" s="9" t="s"/>
+      <x:c r="F5" s="9" t="s"/>
+      <x:c r="G5" s="9" t="s"/>
+      <x:c r="H5" s="11" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D9" s="7" t="s"/>
-      <x:c r="E9" s="7" t="s">
+      <x:c r="I5" s="9" t="s"/>
+      <x:c r="M5" s="9" t="s"/>
+      <x:c r="N5" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="O5" s="9" t="s"/>
+      <x:c r="P5" s="9" t="s"/>
+      <x:c r="Q5" s="9" t="s"/>
+      <x:c r="R5" s="9" t="s"/>
+      <x:c r="S5" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="T5" s="9" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
+      <x:c r="B6" s="8" t="s">
         <x:v>8</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="A10" s="10" t="s">
+      <x:c r="M6" s="8" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
+      <x:c r="B7" s="12" t="s"/>
+      <x:c r="C7" s="12" t="s"/>
+      <x:c r="D7" s="12" t="s"/>
+      <x:c r="E7" s="12" t="s"/>
+      <x:c r="F7" s="12" t="s"/>
+      <x:c r="G7" s="12" t="s"/>
+      <x:c r="H7" s="12" t="s"/>
+      <x:c r="I7" s="12" t="s"/>
+      <x:c r="M7" s="12" t="s"/>
+      <x:c r="N7" s="12" t="s"/>
+      <x:c r="O7" s="12" t="s"/>
+      <x:c r="P7" s="12" t="s"/>
+      <x:c r="Q7" s="12" t="s"/>
+      <x:c r="R7" s="12" t="s"/>
+      <x:c r="S7" s="12" t="s"/>
+      <x:c r="T7" s="12" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
+      <x:c r="B8" s="12" t="s"/>
+      <x:c r="C8" s="12" t="s"/>
+      <x:c r="D8" s="12" t="s"/>
+      <x:c r="E8" s="12" t="s"/>
+      <x:c r="F8" s="12" t="s"/>
+      <x:c r="G8" s="12" t="s"/>
+      <x:c r="H8" s="12" t="s"/>
+      <x:c r="I8" s="12" t="s"/>
+      <x:c r="M8" s="12" t="s"/>
+      <x:c r="N8" s="12" t="s"/>
+      <x:c r="O8" s="12" t="s"/>
+      <x:c r="P8" s="12" t="s"/>
+      <x:c r="Q8" s="12" t="s"/>
+      <x:c r="R8" s="12" t="s"/>
+      <x:c r="S8" s="12" t="s"/>
+      <x:c r="T8" s="12" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
+      <x:c r="B9" s="12" t="s"/>
+      <x:c r="C9" s="12" t="s"/>
+      <x:c r="D9" s="12" t="s"/>
+      <x:c r="E9" s="12" t="s"/>
+      <x:c r="F9" s="12" t="s"/>
+      <x:c r="G9" s="12" t="s"/>
+      <x:c r="H9" s="12" t="s"/>
+      <x:c r="I9" s="12" t="s"/>
+      <x:c r="M9" s="12" t="s"/>
+      <x:c r="N9" s="12" t="s"/>
+      <x:c r="O9" s="12" t="s"/>
+      <x:c r="P9" s="12" t="s"/>
+      <x:c r="Q9" s="12" t="s"/>
+      <x:c r="R9" s="12" t="s"/>
+      <x:c r="S9" s="12" t="s"/>
+      <x:c r="T9" s="12" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
+      <x:c r="B10" s="13" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B10" s="10" t="s">
+      <x:c r="C10" s="13" t="s"/>
+      <x:c r="D10" s="13" t="s"/>
+      <x:c r="E10" s="13" t="s"/>
+      <x:c r="F10" s="13" t="s"/>
+      <x:c r="G10" s="13" t="s"/>
+      <x:c r="H10" s="13" t="s"/>
+      <x:c r="I10" s="13" t="s"/>
+      <x:c r="M10" s="13" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="N10" s="13" t="s"/>
+      <x:c r="O10" s="13" t="s"/>
+      <x:c r="P10" s="13" t="s"/>
+      <x:c r="Q10" s="13" t="s"/>
+      <x:c r="R10" s="13" t="s"/>
+      <x:c r="S10" s="13" t="s"/>
+      <x:c r="T10" s="13" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
+      <x:c r="B11" s="14" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C10" s="10" t="s">
+      <x:c r="M11" s="14" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:21" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="13" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="E13" s="15" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D10" s="10" t="s"/>
-      <x:c r="E10" s="10" t="s">
+      <x:c r="P13" s="15" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
+      <x:c r="A14" s="16" t="s">
         <x:v>12</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5" customFormat="1" ht="27.75" customHeight="1"/>
-    <x:row r="12" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="B12" s="11" t="s"/>
-      <x:c r="C12" s="11" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="B13" s="11" t="s"/>
-      <x:c r="C13" s="11" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="B14" s="11" t="s"/>
-      <x:c r="C14" s="11" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:5" customFormat="1" ht="40.5" customHeight="1"/>
-    <x:row r="16" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="D16" s="12" t="s"/>
-      <x:c r="E16" s="12" t="s"/>
+      <x:c r="I14" s="17" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J14" s="17" t="s"/>
+      <x:c r="L14" s="16" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="T14" s="17" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="U14" s="17" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:21" customFormat="1" ht="18" customHeight="1">
+      <x:c r="A15" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C15" s="19" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I15" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J15" s="17" t="s"/>
+      <x:c r="L15" s="18" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N15" s="19" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="T15" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="U15" s="17" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:21" customFormat="1" ht="18" customHeight="1">
+      <x:c r="B16" s="20" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I16" s="17" t="s"/>
+      <x:c r="J16" s="17" t="s"/>
+      <x:c r="M16" s="20" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="T16" s="17" t="s"/>
+      <x:c r="U16" s="17" t="s"/>
     </x:row>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>
-  <x:mergeCells count="6">
-    <x:mergeCell ref="D2:E2"/>
-    <x:mergeCell ref="A3:E3"/>
-    <x:mergeCell ref="B12:C12"/>
-    <x:mergeCell ref="B13:C13"/>
-    <x:mergeCell ref="B14:C14"/>
-    <x:mergeCell ref="D16:E16"/>
+  <x:mergeCells count="38">
+    <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="H1:J1"/>
+    <x:mergeCell ref="L1:R1"/>
+    <x:mergeCell ref="S1:U1"/>
+    <x:mergeCell ref="B2:E2"/>
+    <x:mergeCell ref="G2:J2"/>
+    <x:mergeCell ref="M2:P2"/>
+    <x:mergeCell ref="R2:U2"/>
+    <x:mergeCell ref="A3:D3"/>
+    <x:mergeCell ref="L3:O3"/>
+    <x:mergeCell ref="C5:G5"/>
+    <x:mergeCell ref="H5:I5"/>
+    <x:mergeCell ref="N5:R5"/>
+    <x:mergeCell ref="S5:T5"/>
+    <x:mergeCell ref="B7:I7"/>
+    <x:mergeCell ref="M7:T7"/>
+    <x:mergeCell ref="B8:I8"/>
+    <x:mergeCell ref="M8:T8"/>
+    <x:mergeCell ref="B9:I9"/>
+    <x:mergeCell ref="M9:T9"/>
+    <x:mergeCell ref="B10:I10"/>
+    <x:mergeCell ref="M10:T10"/>
+    <x:mergeCell ref="B11:I11"/>
+    <x:mergeCell ref="M11:T11"/>
+    <x:mergeCell ref="E13:G14"/>
+    <x:mergeCell ref="P13:R14"/>
+    <x:mergeCell ref="A14:C14"/>
+    <x:mergeCell ref="I14:J14"/>
+    <x:mergeCell ref="L14:N14"/>
+    <x:mergeCell ref="T14:U14"/>
+    <x:mergeCell ref="A15:B15"/>
+    <x:mergeCell ref="C15:G15"/>
+    <x:mergeCell ref="I15:J16"/>
+    <x:mergeCell ref="L15:M15"/>
+    <x:mergeCell ref="N15:R15"/>
+    <x:mergeCell ref="T15:U16"/>
+    <x:mergeCell ref="B16:G16"/>
+    <x:mergeCell ref="M16:R16"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.3937" right="0.19685" top="0.51181" bottom="0.47243999999999997" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageMargins left="0.51181" right="0.51181" top="0.74803" bottom="0.51181" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <x:si>
     <x:t>受　納　証</x:t>
   </x:si>
@@ -22,7 +22,7 @@
     <x:t>№0</x:t>
   </x:si>
   <x:si>
-    <x:t>2021年10月15日</x:t>
+    <x:t>2021年06月13日</x:t>
   </x:si>
   <x:si>
     <x:t>あ</x:t>
@@ -34,7 +34,7 @@
     <x:t>冥加金</x:t>
   </x:si>
   <x:si>
-    <x:t>2,247-</x:t>
+    <x:t>1,042,000-</x:t>
   </x:si>
   <x:si>
     <x:t>円也</x:t>
@@ -43,7 +43,16 @@
     <x:t>但し</x:t>
   </x:si>
   <x:si>
-    <x:t>コード、マウスパッド</x:t>
+    <x:t>※6/23ご法事</x:t>
+  </x:si>
+  <x:si>
+    <x:t>骨壺 : 2,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理料 2021年度分 : 30,000 円※軽減税率</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ワイズコア : 1,010,000 円</x:t>
   </x:si>
   <x:si>
     <x:t>上記有難くお受けいたしました</x:t>
@@ -225,7 +234,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="21">
+  <x:cellXfs count="20">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -300,10 +309,6 @@
     </x:xf>
     <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -780,8 +785,14 @@
       <x:c r="B6" s="8" t="s">
         <x:v>8</x:v>
       </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="M6" s="8" t="s">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="R6" s="1" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
@@ -803,7 +814,9 @@
       <x:c r="T7" s="12" t="s"/>
     </x:row>
     <x:row r="8" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B8" s="12" t="s"/>
+      <x:c r="B8" s="12" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="C8" s="12" t="s"/>
       <x:c r="D8" s="12" t="s"/>
       <x:c r="E8" s="12" t="s"/>
@@ -811,7 +824,9 @@
       <x:c r="G8" s="12" t="s"/>
       <x:c r="H8" s="12" t="s"/>
       <x:c r="I8" s="12" t="s"/>
-      <x:c r="M8" s="12" t="s"/>
+      <x:c r="M8" s="12" t="s">
+        <x:v>10</x:v>
+      </x:c>
       <x:c r="N8" s="12" t="s"/>
       <x:c r="O8" s="12" t="s"/>
       <x:c r="P8" s="12" t="s"/>
@@ -821,7 +836,9 @@
       <x:c r="T8" s="12" t="s"/>
     </x:row>
     <x:row r="9" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B9" s="12" t="s"/>
+      <x:c r="B9" s="12" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="C9" s="12" t="s"/>
       <x:c r="D9" s="12" t="s"/>
       <x:c r="E9" s="12" t="s"/>
@@ -829,7 +846,9 @@
       <x:c r="G9" s="12" t="s"/>
       <x:c r="H9" s="12" t="s"/>
       <x:c r="I9" s="12" t="s"/>
-      <x:c r="M9" s="12" t="s"/>
+      <x:c r="M9" s="12" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="N9" s="12" t="s"/>
       <x:c r="O9" s="12" t="s"/>
       <x:c r="P9" s="12" t="s"/>
@@ -840,7 +859,7 @@
     </x:row>
     <x:row r="10" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
       <x:c r="B10" s="13" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="13" t="s"/>
       <x:c r="D10" s="13" t="s"/>
@@ -850,7 +869,7 @@
       <x:c r="H10" s="13" t="s"/>
       <x:c r="I10" s="13" t="s"/>
       <x:c r="M10" s="13" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N10" s="13" t="s"/>
       <x:c r="O10" s="13" t="s"/>
@@ -862,74 +881,74 @@
     </x:row>
     <x:row r="11" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
       <x:c r="B11" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M11" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21" customFormat="1" ht="18" customHeight="1"/>
     <x:row r="13" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
       <x:c r="E13" s="15" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="P13" s="15" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
       <x:c r="A14" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I14" s="17" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J14" s="17" t="s"/>
       <x:c r="L14" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="T14" s="17" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="U14" s="17" t="s"/>
     </x:row>
     <x:row r="15" spans="1:21" customFormat="1" ht="18" customHeight="1">
       <x:c r="A15" s="18" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C15" s="19" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C15" s="18" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I15" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J15" s="17" t="s"/>
       <x:c r="L15" s="18" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="N15" s="19" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="N15" s="18" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="T15" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="U15" s="17" t="s"/>
     </x:row>
     <x:row r="16" spans="1:21" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B16" s="20" t="s">
-        <x:v>17</x:v>
+      <x:c r="B16" s="19" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I16" s="17" t="s"/>
       <x:c r="J16" s="17" t="s"/>
-      <x:c r="M16" s="20" t="s">
-        <x:v>17</x:v>
+      <x:c r="M16" s="19" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="T16" s="17" t="s"/>
       <x:c r="U16" s="17" t="s"/>
     </x:row>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>
-  <x:mergeCells count="38">
+  <x:mergeCells count="40">
     <x:mergeCell ref="A1:G1"/>
     <x:mergeCell ref="H1:J1"/>
     <x:mergeCell ref="L1:R1"/>
@@ -944,6 +963,8 @@
     <x:mergeCell ref="H5:I5"/>
     <x:mergeCell ref="N5:R5"/>
     <x:mergeCell ref="S5:T5"/>
+    <x:mergeCell ref="G6:I6"/>
+    <x:mergeCell ref="R6:T6"/>
     <x:mergeCell ref="B7:I7"/>
     <x:mergeCell ref="M7:T7"/>
     <x:mergeCell ref="B8:I8"/>
@@ -956,15 +977,15 @@
     <x:mergeCell ref="M11:T11"/>
     <x:mergeCell ref="E13:G14"/>
     <x:mergeCell ref="P13:R14"/>
-    <x:mergeCell ref="A14:C14"/>
+    <x:mergeCell ref="A14:D14"/>
     <x:mergeCell ref="I14:J14"/>
-    <x:mergeCell ref="L14:N14"/>
+    <x:mergeCell ref="L14:O14"/>
     <x:mergeCell ref="T14:U14"/>
     <x:mergeCell ref="A15:B15"/>
-    <x:mergeCell ref="C15:G15"/>
+    <x:mergeCell ref="C15:H15"/>
     <x:mergeCell ref="I15:J16"/>
     <x:mergeCell ref="L15:M15"/>
-    <x:mergeCell ref="N15:R15"/>
+    <x:mergeCell ref="N15:S15"/>
     <x:mergeCell ref="T15:U16"/>
     <x:mergeCell ref="B16:G16"/>
     <x:mergeCell ref="M16:R16"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>受　納　証</x:t>
   </x:si>
@@ -22,10 +22,7 @@
     <x:t>№0</x:t>
   </x:si>
   <x:si>
-    <x:t>2021年06月13日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>あ</x:t>
+    <x:t>2021年06月15日</x:t>
   </x:si>
   <x:si>
     <x:t>様</x:t>
@@ -34,7 +31,7 @@
     <x:t>冥加金</x:t>
   </x:si>
   <x:si>
-    <x:t>1,042,000-</x:t>
+    <x:t>2,000-</x:t>
   </x:si>
   <x:si>
     <x:t>円也</x:t>
@@ -43,16 +40,7 @@
     <x:t>但し</x:t>
   </x:si>
   <x:si>
-    <x:t>※6/23ご法事</x:t>
-  </x:si>
-  <x:si>
-    <x:t>骨壺 : 2,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>管理料 2021年度分 : 30,000 円※軽減税率</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ワイズコア : 1,010,000 円</x:t>
+    <x:t>骨壺</x:t>
   </x:si>
   <x:si>
     <x:t>上記有難くお受けいたしました</x:t>
@@ -331,7 +319,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="733425" cy="733425"/>
+    <xdr:ext cx="488950" cy="488950"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Picture 1"/>
@@ -348,7 +336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="733425" cy="733425"/>
+          <a:ext cx="488950" cy="488950"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -362,7 +350,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="733425" cy="733425"/>
+    <xdr:ext cx="488950" cy="488950"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 2"/>
@@ -379,7 +367,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="733425" cy="733425"/>
+          <a:ext cx="488950" cy="488950"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -728,71 +716,61 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
-      <x:c r="A3" s="5" t="s">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="A3" s="5" t="s"/>
       <x:c r="B3" s="6" t="s"/>
       <x:c r="C3" s="6" t="s"/>
       <x:c r="D3" s="6" t="s"/>
       <x:c r="E3" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="L3" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
+      <x:c r="L3" s="5" t="s"/>
       <x:c r="M3" s="6" t="s"/>
       <x:c r="N3" s="6" t="s"/>
       <x:c r="O3" s="6" t="s"/>
       <x:c r="P3" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
       <x:c r="B4" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M4" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
       <x:c r="B5" s="9" t="s"/>
       <x:c r="C5" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D5" s="9" t="s"/>
       <x:c r="E5" s="9" t="s"/>
       <x:c r="F5" s="9" t="s"/>
       <x:c r="G5" s="9" t="s"/>
       <x:c r="H5" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I5" s="9" t="s"/>
       <x:c r="M5" s="9" t="s"/>
       <x:c r="N5" s="10" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O5" s="9" t="s"/>
       <x:c r="P5" s="9" t="s"/>
       <x:c r="Q5" s="9" t="s"/>
       <x:c r="R5" s="9" t="s"/>
       <x:c r="S5" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T5" s="9" t="s"/>
     </x:row>
     <x:row r="6" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
       <x:c r="B6" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M6" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="R6" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
@@ -814,9 +792,7 @@
       <x:c r="T7" s="12" t="s"/>
     </x:row>
     <x:row r="8" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B8" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="B8" s="12" t="s"/>
       <x:c r="C8" s="12" t="s"/>
       <x:c r="D8" s="12" t="s"/>
       <x:c r="E8" s="12" t="s"/>
@@ -824,9 +800,7 @@
       <x:c r="G8" s="12" t="s"/>
       <x:c r="H8" s="12" t="s"/>
       <x:c r="I8" s="12" t="s"/>
-      <x:c r="M8" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="M8" s="12" t="s"/>
       <x:c r="N8" s="12" t="s"/>
       <x:c r="O8" s="12" t="s"/>
       <x:c r="P8" s="12" t="s"/>
@@ -836,9 +810,7 @@
       <x:c r="T8" s="12" t="s"/>
     </x:row>
     <x:row r="9" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="B9" s="12" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="B9" s="12" t="s"/>
       <x:c r="C9" s="12" t="s"/>
       <x:c r="D9" s="12" t="s"/>
       <x:c r="E9" s="12" t="s"/>
@@ -846,9 +818,7 @@
       <x:c r="G9" s="12" t="s"/>
       <x:c r="H9" s="12" t="s"/>
       <x:c r="I9" s="12" t="s"/>
-      <x:c r="M9" s="12" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="M9" s="12" t="s"/>
       <x:c r="N9" s="12" t="s"/>
       <x:c r="O9" s="12" t="s"/>
       <x:c r="P9" s="12" t="s"/>
@@ -859,7 +829,7 @@
     </x:row>
     <x:row r="10" spans="1:21" customFormat="1" ht="22.5" customHeight="1">
       <x:c r="B10" s="13" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="13" t="s"/>
       <x:c r="D10" s="13" t="s"/>
@@ -869,7 +839,7 @@
       <x:c r="H10" s="13" t="s"/>
       <x:c r="I10" s="13" t="s"/>
       <x:c r="M10" s="13" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N10" s="13" t="s"/>
       <x:c r="O10" s="13" t="s"/>
@@ -881,67 +851,67 @@
     </x:row>
     <x:row r="11" spans="1:21" customFormat="1" ht="37.5" customHeight="1">
       <x:c r="B11" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M11" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21" customFormat="1" ht="18" customHeight="1"/>
     <x:row r="13" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
       <x:c r="E13" s="15" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P13" s="15" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21" customFormat="1" ht="18.5" customHeight="1">
       <x:c r="A14" s="16" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I14" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J14" s="17" t="s"/>
       <x:c r="L14" s="16" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="T14" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="U14" s="17" t="s"/>
     </x:row>
     <x:row r="15" spans="1:21" customFormat="1" ht="18" customHeight="1">
       <x:c r="A15" s="18" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I15" s="17" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J15" s="17" t="s"/>
       <x:c r="L15" s="18" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N15" s="18" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="T15" s="17" t="s">
-        <x:v>19</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="U15" s="17" t="s"/>
     </x:row>
     <x:row r="16" spans="1:21" customFormat="1" ht="18" customHeight="1">
       <x:c r="B16" s="19" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I16" s="17" t="s"/>
       <x:c r="J16" s="17" t="s"/>
       <x:c r="M16" s="19" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="T16" s="17" t="s"/>
       <x:c r="U16" s="17" t="s"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -70,6 +70,36 @@
     <x:t>13,200</x:t>
   </x:si>
   <x:si>
+    <x:t>874</x:t>
+  </x:si>
+  <x:si>
+    <x:t>その他茶所収入</x:t>
+  </x:si>
+  <x:si>
+    <x:t>物販</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ライター</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>875</x:t>
+  </x:si>
+  <x:si>
+    <x:t>委託手数料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>紹介料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>大成祭典６/８萱場家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85,000</x:t>
+  </x:si>
+  <x:si>
     <x:t>815</x:t>
   </x:si>
   <x:si>
@@ -109,36 +139,6 @@
     <x:t>溝神ハスミ 代理参拝</x:t>
   </x:si>
   <x:si>
-    <x:t>874</x:t>
-  </x:si>
-  <x:si>
-    <x:t>その他茶所収入</x:t>
-  </x:si>
-  <x:si>
-    <x:t>物販</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ライター</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>875</x:t>
-  </x:si>
-  <x:si>
-    <x:t>委託手数料</x:t>
-  </x:si>
-  <x:si>
-    <x:t>紹介料</x:t>
-  </x:si>
-  <x:si>
-    <x:t>大成祭典６/８萱場家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85,000</x:t>
-  </x:si>
-  <x:si>
     <x:t>133</x:t>
   </x:si>
   <x:si>
@@ -166,6 +166,51 @@
     <x:t>9,250</x:t>
   </x:si>
   <x:si>
+    <x:t>626</x:t>
+  </x:si>
+  <x:si>
+    <x:t>報酬支払手数料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>日本郵便(株)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>レターパック交換手数料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>634</x:t>
+  </x:si>
+  <x:si>
+    <x:t>一般雑費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>会費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>多摩防犯協会 令和3年度</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>743</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法務雑費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ブラン生花</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5月分</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,500</x:t>
+  </x:si>
+  <x:si>
     <x:t>616</x:t>
   </x:si>
   <x:si>
@@ -181,51 +226,6 @@
     <x:t>1,628</x:t>
   </x:si>
   <x:si>
-    <x:t>626</x:t>
-  </x:si>
-  <x:si>
-    <x:t>報酬支払手数料</x:t>
-  </x:si>
-  <x:si>
-    <x:t>日本郵便(株)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>レターパック交換手数料</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>634</x:t>
-  </x:si>
-  <x:si>
-    <x:t>一般雑費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>会費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>多摩防犯協会 令和3年度</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>743</x:t>
-  </x:si>
-  <x:si>
-    <x:t>法務雑費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ブラン生花</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5月分</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16,500</x:t>
-  </x:si>
-  <x:si>
     <x:t>703,747</x:t>
   </x:si>
   <x:si>
@@ -262,18 +262,30 @@
     <x:t>50,000</x:t>
   </x:si>
   <x:si>
+    <x:t>琴平神社</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>871</x:t>
+  </x:si>
+  <x:si>
+    <x:t>式場売上</x:t>
+  </x:si>
+  <x:si>
+    <x:t>供物</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,400</x:t>
+  </x:si>
+  <x:si>
     <x:t>萩原家</x:t>
   </x:si>
   <x:si>
     <x:t>380,000</x:t>
   </x:si>
   <x:si>
-    <x:t>琴平神社</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20,000</x:t>
-  </x:si>
-  <x:si>
     <x:t>832</x:t>
   </x:si>
   <x:si>
@@ -283,18 +295,6 @@
     <x:t>御車代</x:t>
   </x:si>
   <x:si>
-    <x:t>871</x:t>
-  </x:si>
-  <x:si>
-    <x:t>式場売上</x:t>
-  </x:si>
-  <x:si>
-    <x:t>供物</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,400</x:t>
-  </x:si>
-  <x:si>
     <x:t>560,000</x:t>
   </x:si>
   <x:si>
@@ -442,6 +442,156 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
+    <x:t>250,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>岩田家他4件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山口家他2件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>焼香台</x:t>
+  </x:si>
+  <x:si>
+    <x:t>高見澤家他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>北田家他2件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中平家他4件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210,500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山口家他4件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>173,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>武本晋太郎</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>髙山隆一他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>821</x:t>
+  </x:si>
+  <x:si>
+    <x:t>墓域清掃料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>草取り</x:t>
+  </x:si>
+  <x:si>
+    <x:t>白石剛 単発他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36,960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>骨壺</x:t>
+  </x:si>
+  <x:si>
+    <x:t>吉田家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>式場懇志</x:t>
+  </x:si>
+  <x:si>
+    <x:t>竹内聖代他2件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>桂林寺</x:t>
+  </x:si>
+  <x:si>
+    <x:t>本庄家他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>岩田家他2件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>計</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,769,160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,064,012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,702,057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>前頁より繰越</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山口家他6件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81,600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>念珠３個</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中平家他3件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>北田家他3件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>飯塚温子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>飯塚温子他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中村家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宍戸家</x:t>
+  </x:si>
+  <x:si>
     <x:t>254</x:t>
   </x:si>
   <x:si>
@@ -455,156 +605,6 @@
   </x:si>
   <x:si>
     <x:t>44,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>岩田家他4件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>山口家他2件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>焼香台</x:t>
-  </x:si>
-  <x:si>
-    <x:t>高見澤家他1件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>北田家他2件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>中平家他4件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210,500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>山口家他4件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>173,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>武本晋太郎</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>髙山隆一他1件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>中平家他3件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>北田家他3件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>821</x:t>
-  </x:si>
-  <x:si>
-    <x:t>墓域清掃料</x:t>
-  </x:si>
-  <x:si>
-    <x:t>草取り</x:t>
-  </x:si>
-  <x:si>
-    <x:t>白石剛 単発他1件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36,960</x:t>
-  </x:si>
-  <x:si>
-    <x:t>骨壺</x:t>
-  </x:si>
-  <x:si>
-    <x:t>吉田家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>計</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,984,160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,064,012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,917,057</x:t>
-  </x:si>
-  <x:si>
-    <x:t>前頁より繰越</x:t>
-  </x:si>
-  <x:si>
-    <x:t>飯塚温子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>式場懇志</x:t>
-  </x:si>
-  <x:si>
-    <x:t>竹内聖代他2件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>桂林寺</x:t>
-  </x:si>
-  <x:si>
-    <x:t>本庄家他1件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>飯塚温子他1件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>中村家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>宍戸家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>岩田家他2件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>山口家他6件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81,600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>念珠３個</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,300</x:t>
   </x:si>
   <x:si>
     <x:t>1,770,000</x:t>
@@ -1468,7 +1468,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G6" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H6" s="10" t="s"/>
       <x:c r="I6" s="11" t="s"/>
@@ -1477,19 +1477,19 @@
       <x:c r="A7" s="5" t="s"/>
       <x:c r="B7" s="6" t="s"/>
       <x:c r="C7" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D7" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E7" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F7" s="9" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G7" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H7" s="10" t="s"/>
       <x:c r="I7" s="11" t="s"/>
@@ -1498,19 +1498,19 @@
       <x:c r="A8" s="5" t="s"/>
       <x:c r="B8" s="6" t="s"/>
       <x:c r="C8" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E8" s="8" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F8" s="9" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G8" s="10" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="E8" s="8" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F8" s="9" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G8" s="10" t="s">
-        <x:v>35</x:v>
       </x:c>
       <x:c r="H8" s="10" t="s"/>
       <x:c r="I8" s="11" t="s"/>
@@ -1519,19 +1519,19 @@
       <x:c r="A9" s="5" t="s"/>
       <x:c r="B9" s="6" t="s"/>
       <x:c r="C9" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D9" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F9" s="9" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G9" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H9" s="10" t="s"/>
       <x:c r="I9" s="11" t="s"/>
@@ -1731,16 +1731,16 @@
       <x:c r="A19" s="5" t="s"/>
       <x:c r="B19" s="6" t="s"/>
       <x:c r="C19" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D19" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E19" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F19" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G19" s="10" t="s">
         <x:v>83</x:v>
@@ -1752,19 +1752,19 @@
       <x:c r="A20" s="5" t="s"/>
       <x:c r="B20" s="6" t="s"/>
       <x:c r="C20" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D20" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E20" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F20" s="9" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="G20" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H20" s="10" t="s"/>
       <x:c r="I20" s="11" t="s"/>
@@ -1773,19 +1773,19 @@
       <x:c r="A21" s="5" t="s"/>
       <x:c r="B21" s="6" t="s"/>
       <x:c r="C21" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D21" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E21" s="8" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F21" s="9" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="F21" s="9" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="G21" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H21" s="10" t="s"/>
       <x:c r="I21" s="11" t="s"/>
@@ -1794,19 +1794,19 @@
       <x:c r="A22" s="5" t="s"/>
       <x:c r="B22" s="6" t="s"/>
       <x:c r="C22" s="7" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D22" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E22" s="8" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F22" s="9" t="s">
-        <x:v>77</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G22" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H22" s="10" t="s"/>
       <x:c r="I22" s="11" t="s"/>
@@ -1897,13 +1897,13 @@
       <x:c r="A27" s="5" t="s"/>
       <x:c r="B27" s="6" t="s"/>
       <x:c r="C27" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D27" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E27" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F27" s="9" t="s">
         <x:v>109</x:v>
@@ -1918,10 +1918,10 @@
       <x:c r="A28" s="5" t="s"/>
       <x:c r="B28" s="6" t="s"/>
       <x:c r="C28" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D28" s="8" t="s">
-        <x:v>66</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E28" s="8" t="s">
         <x:v>96</x:v>
@@ -2039,7 +2039,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="G33" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H33" s="10" t="s"/>
       <x:c r="I33" s="11" t="s"/>
@@ -2069,13 +2069,13 @@
       <x:c r="A35" s="5" t="s"/>
       <x:c r="B35" s="6" t="s"/>
       <x:c r="C35" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D35" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E35" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F35" s="9" t="s">
         <x:v>130</x:v>
@@ -2090,19 +2090,19 @@
       <x:c r="A36" s="5" t="s"/>
       <x:c r="B36" s="6" t="s"/>
       <x:c r="C36" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D36" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E36" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F36" s="9" t="s">
         <x:v>132</x:v>
       </x:c>
       <x:c r="G36" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H36" s="10" t="s"/>
       <x:c r="I36" s="11" t="s"/>
@@ -2111,13 +2111,13 @@
       <x:c r="A37" s="5" t="s"/>
       <x:c r="B37" s="6" t="s"/>
       <x:c r="C37" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D37" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E37" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F37" s="9" t="s">
         <x:v>133</x:v>
@@ -2132,10 +2132,10 @@
       <x:c r="A38" s="5" t="s"/>
       <x:c r="B38" s="6" t="s"/>
       <x:c r="C38" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D38" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E38" s="8" t="s">
         <x:v>135</x:v>
@@ -2153,10 +2153,10 @@
       <x:c r="A39" s="5" t="s"/>
       <x:c r="B39" s="6" t="s"/>
       <x:c r="C39" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D39" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E39" s="8" t="s">
         <x:v>138</x:v>
@@ -2178,19 +2178,17 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="C40" s="7" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D40" s="8" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E40" s="8" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F40" s="9" t="s"/>
+      <x:c r="G40" s="10" t="s">
         <x:v>142</x:v>
-      </x:c>
-      <x:c r="D40" s="8" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="E40" s="8" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="F40" s="9" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="G40" s="10" t="s">
-        <x:v>146</x:v>
       </x:c>
       <x:c r="H40" s="10" t="s"/>
       <x:c r="I40" s="11" t="s"/>
@@ -2199,17 +2197,19 @@
       <x:c r="A41" s="5" t="s"/>
       <x:c r="B41" s="6" t="s"/>
       <x:c r="C41" s="7" t="s">
-        <x:v>94</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D41" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E41" s="8" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="F41" s="9" t="s"/>
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F41" s="9" t="s">
+        <x:v>143</x:v>
+      </x:c>
       <x:c r="G41" s="10" t="s">
-        <x:v>147</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H41" s="10" t="s"/>
       <x:c r="I41" s="11" t="s"/>
@@ -2227,10 +2227,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F42" s="9" t="s">
-        <x:v>148</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G42" s="10" t="s">
-        <x:v>149</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="H42" s="10" t="s"/>
       <x:c r="I42" s="11" t="s"/>
@@ -2239,19 +2239,19 @@
       <x:c r="A43" s="5" t="s"/>
       <x:c r="B43" s="6" t="s"/>
       <x:c r="C43" s="7" t="s">
-        <x:v>72</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D43" s="8" t="s">
-        <x:v>73</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E43" s="8" t="s">
-        <x:v>74</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F43" s="9" t="s">
-        <x:v>150</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G43" s="10" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H43" s="10" t="s"/>
       <x:c r="I43" s="11" t="s"/>
@@ -2266,13 +2266,13 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E44" s="8" t="s">
-        <x:v>152</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F44" s="9" t="s">
-        <x:v>153</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G44" s="10" t="s">
-        <x:v>154</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H44" s="10" t="s"/>
       <x:c r="I44" s="11" t="s"/>
@@ -2281,19 +2281,19 @@
       <x:c r="A45" s="5" t="s"/>
       <x:c r="B45" s="6" t="s"/>
       <x:c r="C45" s="7" t="s">
-        <x:v>117</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D45" s="8" t="s">
-        <x:v>118</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E45" s="8" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F45" s="9" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="F45" s="9" t="s">
-        <x:v>155</x:v>
-      </x:c>
       <x:c r="G45" s="10" t="s">
-        <x:v>156</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H45" s="10" t="s"/>
       <x:c r="I45" s="11" t="s"/>
@@ -2311,10 +2311,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F46" s="9" t="s">
-        <x:v>157</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G46" s="10" t="s">
-        <x:v>158</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H46" s="10" t="s"/>
       <x:c r="I46" s="11" t="s"/>
@@ -2323,19 +2323,19 @@
       <x:c r="A47" s="5" t="s"/>
       <x:c r="B47" s="6" t="s"/>
       <x:c r="C47" s="7" t="s">
-        <x:v>78</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D47" s="8" t="s">
-        <x:v>79</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E47" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F47" s="9" t="s">
-        <x:v>159</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G47" s="10" t="s">
-        <x:v>160</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H47" s="10" t="s"/>
       <x:c r="I47" s="11" t="s"/>
@@ -2353,10 +2353,10 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="F48" s="9" t="s">
-        <x:v>161</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G48" s="10" t="s">
-        <x:v>162</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H48" s="10" t="s"/>
       <x:c r="I48" s="11" t="s"/>
@@ -2365,13 +2365,13 @@
       <x:c r="A49" s="5" t="s"/>
       <x:c r="B49" s="6" t="s"/>
       <x:c r="C49" s="7" t="s">
-        <x:v>126</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D49" s="8" t="s">
-        <x:v>127</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E49" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F49" s="9" t="s">
         <x:v>163</x:v>
@@ -2386,19 +2386,19 @@
       <x:c r="A50" s="5" t="s"/>
       <x:c r="B50" s="6" t="s"/>
       <x:c r="C50" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D50" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E50" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F50" s="9" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G50" s="10" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="H50" s="10" t="s"/>
       <x:c r="I50" s="11" t="s"/>
@@ -2407,19 +2407,19 @@
       <x:c r="A51" s="5" t="s"/>
       <x:c r="B51" s="6" t="s"/>
       <x:c r="C51" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D51" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E51" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F51" s="9" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G51" s="10" t="s">
-        <x:v>166</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H51" s="10" t="s"/>
       <x:c r="I51" s="11" t="s"/>
@@ -2428,19 +2428,19 @@
       <x:c r="A52" s="5" t="s"/>
       <x:c r="B52" s="6" t="s"/>
       <x:c r="C52" s="7" t="s">
-        <x:v>168</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D52" s="8" t="s">
-        <x:v>169</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E52" s="8" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F52" s="9" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G52" s="10" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H52" s="10" t="s"/>
       <x:c r="I52" s="11" t="s"/>
@@ -2449,19 +2449,19 @@
       <x:c r="A53" s="5" t="s"/>
       <x:c r="B53" s="6" t="s"/>
       <x:c r="C53" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D53" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E53" s="8" t="s">
-        <x:v>173</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F53" s="9" t="s">
         <x:v>174</x:v>
       </x:c>
       <x:c r="G53" s="10" t="s">
-        <x:v>175</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H53" s="10" t="s"/>
       <x:c r="I53" s="11" t="s"/>
@@ -2471,18 +2471,18 @@
       <x:c r="B54" s="13" t="s"/>
       <x:c r="C54" s="14" t="s"/>
       <x:c r="D54" s="15" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E54" s="15" t="s"/>
       <x:c r="F54" s="16" t="s"/>
       <x:c r="G54" s="17" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="H54" s="17" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="H54" s="17" t="s">
+      <x:c r="I54" s="18" t="s">
         <x:v>178</x:v>
-      </x:c>
-      <x:c r="I54" s="18" t="s">
-        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9" customFormat="1" ht="15" customHeight="1">
@@ -2530,14 +2530,14 @@
       <x:c r="B57" s="6" t="s"/>
       <x:c r="C57" s="7" t="s"/>
       <x:c r="D57" s="8" t="s">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E57" s="8" t="s"/>
       <x:c r="F57" s="9" t="s"/>
       <x:c r="G57" s="10" t="s"/>
       <x:c r="H57" s="10" t="s"/>
       <x:c r="I57" s="11" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9" customFormat="1" ht="15" customHeight="1">
@@ -2548,19 +2548,19 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="C58" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D58" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E58" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F58" s="9" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="G58" s="10" t="s">
         <x:v>181</x:v>
-      </x:c>
-      <x:c r="G58" s="10" t="s">
-        <x:v>22</x:v>
       </x:c>
       <x:c r="H58" s="10" t="s"/>
       <x:c r="I58" s="11" t="s"/>
@@ -2569,19 +2569,19 @@
       <x:c r="A59" s="5" t="s"/>
       <x:c r="B59" s="6" t="s"/>
       <x:c r="C59" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D59" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E59" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F59" s="9" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="F59" s="9" t="s">
+      <x:c r="G59" s="10" t="s">
         <x:v>183</x:v>
-      </x:c>
-      <x:c r="G59" s="10" t="s">
-        <x:v>184</x:v>
       </x:c>
       <x:c r="H59" s="10" t="s"/>
       <x:c r="I59" s="11" t="s"/>
@@ -2590,19 +2590,19 @@
       <x:c r="A60" s="5" t="s"/>
       <x:c r="B60" s="6" t="s"/>
       <x:c r="C60" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D60" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E60" s="8" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F60" s="9" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="G60" s="10" t="s">
         <x:v>185</x:v>
-      </x:c>
-      <x:c r="F60" s="9" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="G60" s="10" t="s">
-        <x:v>187</x:v>
       </x:c>
       <x:c r="H60" s="10" t="s"/>
       <x:c r="I60" s="11" t="s"/>
@@ -2611,19 +2611,19 @@
       <x:c r="A61" s="5" t="s"/>
       <x:c r="B61" s="6" t="s"/>
       <x:c r="C61" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D61" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E61" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F61" s="9" t="s">
-        <x:v>188</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G61" s="10" t="s">
-        <x:v>189</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="H61" s="10" t="s"/>
       <x:c r="I61" s="11" t="s"/>
@@ -2632,19 +2632,19 @@
       <x:c r="A62" s="5" t="s"/>
       <x:c r="B62" s="6" t="s"/>
       <x:c r="C62" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D62" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E62" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F62" s="9" t="s">
-        <x:v>190</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G62" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H62" s="10" t="s"/>
       <x:c r="I62" s="11" t="s"/>
@@ -2653,19 +2653,19 @@
       <x:c r="A63" s="5" t="s"/>
       <x:c r="B63" s="6" t="s"/>
       <x:c r="C63" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D63" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E63" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F63" s="9" t="s">
-        <x:v>191</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G63" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="H63" s="10" t="s"/>
       <x:c r="I63" s="11" t="s"/>
@@ -2674,19 +2674,19 @@
       <x:c r="A64" s="5" t="s"/>
       <x:c r="B64" s="6" t="s"/>
       <x:c r="C64" s="7" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D64" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E64" s="8" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F64" s="9" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G64" s="10" t="s">
-        <x:v>184</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H64" s="10" t="s"/>
       <x:c r="I64" s="11" t="s"/>
@@ -2695,19 +2695,19 @@
       <x:c r="A65" s="5" t="s"/>
       <x:c r="B65" s="6" t="s"/>
       <x:c r="C65" s="7" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D65" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E65" s="8" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F65" s="9" t="s">
-        <x:v>193</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G65" s="10" t="s">
-        <x:v>194</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H65" s="10" t="s"/>
       <x:c r="I65" s="11" t="s"/>
@@ -2716,13 +2716,13 @@
       <x:c r="A66" s="5" t="s"/>
       <x:c r="B66" s="6" t="s"/>
       <x:c r="C66" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D66" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E66" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F66" s="9" t="s">
         <x:v>195</x:v>
@@ -2759,7 +2759,7 @@
       <x:c r="B68" s="13" t="s"/>
       <x:c r="C68" s="14" t="s"/>
       <x:c r="D68" s="15" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E68" s="15" t="s"/>
       <x:c r="F68" s="16" t="s"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,39 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <x:si>
-    <x:t>口座入金  \610,000-</x:t>
+    <x:t>管理料 山口家 2021年度分 \30,000-</x:t>
   </x:si>
   <x:si>
     <x:t>管理事務所</x:t>
   </x:si>
   <x:si>
-    <x:t>深瀬</x:t>
+    <x:t>林飛</x:t>
   </x:si>
   <x:si>
-    <x:t>セレサ川崎普通貯金 : 133</x:t>
+    <x:t>秋間</x:t>
   </x:si>
   <x:si>
-    <x:t>春秋苑</x:t>
+    <x:t>冥加読経料 : 822</x:t>
   </x:si>
   <x:si>
-    <x:t>備品 INS 電気ポット \5,500-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>消耗品費 : 616</x:t>
-  </x:si>
-  <x:si>
-    <x:t>文房具 イオンスタイル新百合丘 筆ペン他 \497-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>事務用品費 : 623</x:t>
-  </x:si>
-  <x:si>
-    <x:t>雑費 工具ランドヤフーショップ \9,212-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>苑内整備費 : 735</x:t>
+    <x:t>法務部</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -450,7 +435,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -490,13 +475,15 @@
       <x:c r="H2" s="2" t="s"/>
       <x:c r="I2" s="2" t="s"/>
       <x:c r="J2" s="2" t="s"/>
-      <x:c r="K2" s="2" t="s"/>
+      <x:c r="K2" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="L2" s="2" t="s"/>
       <x:c r="M2" s="2" t="s"/>
       <x:c r="N2" s="2" t="s"/>
       <x:c r="O2" s="2" t="s"/>
       <x:c r="P2" s="3">
-        <x:v>44407</x:v>
+        <x:v>44418</x:v>
       </x:c>
       <x:c r="Q2" s="4" t="s"/>
       <x:c r="R2" s="4" t="s"/>
@@ -504,7 +491,9 @@
       <x:c r="T2" s="4" t="s"/>
     </x:row>
     <x:row r="3" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A3" s="2" t="s"/>
+      <x:c r="A3" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="B3" s="2" t="s"/>
       <x:c r="C3" s="2" t="s"/>
       <x:c r="D3" s="2" t="s"/>
@@ -514,7 +503,9 @@
       <x:c r="H3" s="2" t="s"/>
       <x:c r="I3" s="2" t="s"/>
       <x:c r="J3" s="5" t="s"/>
-      <x:c r="K3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="L3" s="2" t="s"/>
       <x:c r="M3" s="2" t="s"/>
       <x:c r="N3" s="2" t="s"/>
@@ -528,7 +519,9 @@
       <x:c r="T3" s="4" t="s"/>
     </x:row>
     <x:row r="4" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A4" s="2" t="s"/>
+      <x:c r="A4" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="B4" s="2" t="s"/>
       <x:c r="C4" s="2" t="s"/>
       <x:c r="D4" s="2" t="s"/>
@@ -538,7 +531,9 @@
       <x:c r="H4" s="2" t="s"/>
       <x:c r="I4" s="2" t="s"/>
       <x:c r="J4" s="5" t="s"/>
-      <x:c r="K4" s="2" t="s"/>
+      <x:c r="K4" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="L4" s="2" t="s"/>
       <x:c r="M4" s="2" t="s"/>
       <x:c r="N4" s="2" t="s"/>
@@ -550,7 +545,9 @@
       <x:c r="T4" s="4" t="s"/>
     </x:row>
     <x:row r="5" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A5" s="2" t="s"/>
+      <x:c r="A5" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="B5" s="2" t="s"/>
       <x:c r="C5" s="2" t="s"/>
       <x:c r="D5" s="2" t="s"/>
@@ -560,7 +557,9 @@
       <x:c r="H5" s="2" t="s"/>
       <x:c r="I5" s="2" t="s"/>
       <x:c r="J5" s="5" t="s"/>
-      <x:c r="K5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="L5" s="2" t="s"/>
       <x:c r="M5" s="2" t="s"/>
       <x:c r="N5" s="2" t="s"/>
@@ -572,7 +571,9 @@
       <x:c r="T5" s="5" t="s"/>
     </x:row>
     <x:row r="6" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A6" s="2" t="s"/>
+      <x:c r="A6" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="B6" s="2" t="s"/>
       <x:c r="C6" s="2" t="s"/>
       <x:c r="D6" s="2" t="s"/>
@@ -582,7 +583,9 @@
       <x:c r="H6" s="2" t="s"/>
       <x:c r="I6" s="2" t="s"/>
       <x:c r="J6" s="5" t="s"/>
-      <x:c r="K6" s="2" t="s"/>
+      <x:c r="K6" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="L6" s="2" t="s"/>
       <x:c r="M6" s="2" t="s"/>
       <x:c r="N6" s="2" t="s"/>
@@ -596,10 +599,12 @@
     <x:row r="7" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A7" s="2" t="s"/>
       <x:c r="K7" s="2" t="s"/>
-      <x:c r="R7" s="6" t="s"/>
+      <x:c r="R7" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="S7" s="6" t="s"/>
       <x:c r="T7" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
@@ -608,9 +613,7 @@
     </x:row>
     <x:row r="9" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="10" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D10" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="D10" s="7" t="s"/>
       <x:c r="E10" s="7" t="s"/>
       <x:c r="F10" s="7" t="s"/>
       <x:c r="G10" s="7" t="s"/>
@@ -620,10 +623,12 @@
       <x:c r="K10" s="7" t="s"/>
       <x:c r="L10" s="7" t="s"/>
       <x:c r="M10" s="7" t="s"/>
-      <x:c r="N10" s="8" t="s"/>
+      <x:c r="N10" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="O10" s="8" t="s"/>
       <x:c r="P10" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q10" s="8" t="s"/>
       <x:c r="R10" s="8" t="s"/>
@@ -634,20 +639,20 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B11" s="10" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="10" t="n">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D11" s="9" t="s"/>
       <x:c r="E11" s="9" t="s"/>
       <x:c r="F11" s="9" t="s"/>
       <x:c r="G11" s="9" t="s"/>
       <x:c r="H11" s="9" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I11" s="9" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J11" s="9" t="n">
         <x:v>0</x:v>
@@ -665,7 +670,7 @@
     <x:row r="12" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
     <x:row r="13" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A13" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s"/>
       <x:c r="C13" s="2" t="s"/>
@@ -682,7 +687,7 @@
       <x:c r="N13" s="2" t="s"/>
       <x:c r="O13" s="2" t="s"/>
       <x:c r="P13" s="3">
-        <x:v>44407</x:v>
+        <x:v>44418</x:v>
       </x:c>
       <x:c r="Q13" s="4" t="s"/>
       <x:c r="R13" s="4" t="s"/>
@@ -782,10 +787,12 @@
     <x:row r="18" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A18" s="2" t="s"/>
       <x:c r="K18" s="2" t="s"/>
-      <x:c r="R18" s="6" t="s"/>
+      <x:c r="R18" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="S18" s="6" t="s"/>
       <x:c r="T18" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
@@ -794,9 +801,7 @@
     </x:row>
     <x:row r="20" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="21" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D21" s="7" t="s">
-        <x:v>6</x:v>
-      </x:c>
+      <x:c r="D21" s="7" t="s"/>
       <x:c r="E21" s="7" t="s"/>
       <x:c r="F21" s="7" t="s"/>
       <x:c r="G21" s="7" t="s"/>
@@ -806,10 +811,12 @@
       <x:c r="K21" s="7" t="s"/>
       <x:c r="L21" s="7" t="s"/>
       <x:c r="M21" s="7" t="s"/>
-      <x:c r="N21" s="8" t="s"/>
+      <x:c r="N21" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="O21" s="8" t="s"/>
       <x:c r="P21" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q21" s="8" t="s"/>
       <x:c r="R21" s="8" t="s"/>
@@ -820,395 +827,35 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B22" s="10" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C22" s="10" t="n">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D22" s="9" t="s"/>
       <x:c r="E22" s="9" t="s"/>
       <x:c r="F22" s="9" t="s"/>
       <x:c r="G22" s="9" t="s"/>
       <x:c r="H22" s="9" t="s"/>
-      <x:c r="I22" s="9" t="s"/>
+      <x:c r="I22" s="9" t="n">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="J22" s="9" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K22" s="9" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L22" s="9" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M22" s="9" t="n">
         <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
-    <x:row r="24" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A24" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s"/>
-      <x:c r="C24" s="2" t="s"/>
-      <x:c r="D24" s="2" t="s"/>
-      <x:c r="E24" s="2" t="s"/>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="3">
-        <x:v>44407</x:v>
-      </x:c>
-      <x:c r="Q24" s="4" t="s"/>
-      <x:c r="R24" s="4" t="s"/>
-      <x:c r="S24" s="4" t="s"/>
-      <x:c r="T24" s="4" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A25" s="2" t="s"/>
-      <x:c r="B25" s="2" t="s"/>
-      <x:c r="C25" s="2" t="s"/>
-      <x:c r="D25" s="2" t="s"/>
-      <x:c r="E25" s="2" t="s"/>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="5" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q25" s="4" t="s"/>
-      <x:c r="R25" s="4" t="s"/>
-      <x:c r="S25" s="4" t="s"/>
-      <x:c r="T25" s="4" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A26" s="2" t="s"/>
-      <x:c r="B26" s="2" t="s"/>
-      <x:c r="C26" s="2" t="s"/>
-      <x:c r="D26" s="2" t="s"/>
-      <x:c r="E26" s="2" t="s"/>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="5" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="4" t="s"/>
-      <x:c r="Q26" s="4" t="s"/>
-      <x:c r="R26" s="4" t="s"/>
-      <x:c r="S26" s="4" t="s"/>
-      <x:c r="T26" s="4" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A27" s="2" t="s"/>
-      <x:c r="B27" s="2" t="s"/>
-      <x:c r="C27" s="2" t="s"/>
-      <x:c r="D27" s="2" t="s"/>
-      <x:c r="E27" s="2" t="s"/>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="5" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="5" t="s"/>
-      <x:c r="Q27" s="5" t="s"/>
-      <x:c r="R27" s="5" t="s"/>
-      <x:c r="S27" s="5" t="s"/>
-      <x:c r="T27" s="5" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A28" s="2" t="s"/>
-      <x:c r="B28" s="2" t="s"/>
-      <x:c r="C28" s="2" t="s"/>
-      <x:c r="D28" s="2" t="s"/>
-      <x:c r="E28" s="2" t="s"/>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="5" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="5" t="s"/>
-      <x:c r="Q28" s="5" t="s"/>
-      <x:c r="R28" s="5" t="s"/>
-      <x:c r="S28" s="5" t="s"/>
-      <x:c r="T28" s="5" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="R29" s="6" t="s"/>
-      <x:c r="S29" s="6" t="s"/>
-      <x:c r="T29" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="R30" s="6" t="s"/>
-      <x:c r="T30" s="6" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
-    <x:row r="32" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D32" s="7" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E32" s="7" t="s"/>
-      <x:c r="F32" s="7" t="s"/>
-      <x:c r="G32" s="7" t="s"/>
-      <x:c r="H32" s="7" t="s"/>
-      <x:c r="I32" s="7" t="s"/>
-      <x:c r="J32" s="7" t="s"/>
-      <x:c r="K32" s="7" t="s"/>
-      <x:c r="L32" s="7" t="s"/>
-      <x:c r="M32" s="7" t="s"/>
-      <x:c r="N32" s="8" t="s"/>
-      <x:c r="O32" s="8" t="s"/>
-      <x:c r="P32" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="Q32" s="8" t="s"/>
-      <x:c r="R32" s="8" t="s"/>
-      <x:c r="S32" s="8" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="A33" s="9" t="n">
-        <x:v>2021</x:v>
-      </x:c>
-      <x:c r="B33" s="10" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C33" s="10" t="n">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D33" s="9" t="s"/>
-      <x:c r="E33" s="9" t="s"/>
-      <x:c r="F33" s="9" t="s"/>
-      <x:c r="G33" s="9" t="s"/>
-      <x:c r="H33" s="9" t="s"/>
-      <x:c r="I33" s="9" t="s"/>
-      <x:c r="J33" s="9" t="s"/>
-      <x:c r="K33" s="9" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="L33" s="9" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="M33" s="9" t="n">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
-    <x:row r="35" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A35" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s"/>
-      <x:c r="C35" s="2" t="s"/>
-      <x:c r="D35" s="2" t="s"/>
-      <x:c r="E35" s="2" t="s"/>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="3">
-        <x:v>44407</x:v>
-      </x:c>
-      <x:c r="Q35" s="4" t="s"/>
-      <x:c r="R35" s="4" t="s"/>
-      <x:c r="S35" s="4" t="s"/>
-      <x:c r="T35" s="4" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A36" s="2" t="s"/>
-      <x:c r="B36" s="2" t="s"/>
-      <x:c r="C36" s="2" t="s"/>
-      <x:c r="D36" s="2" t="s"/>
-      <x:c r="E36" s="2" t="s"/>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="5" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q36" s="4" t="s"/>
-      <x:c r="R36" s="4" t="s"/>
-      <x:c r="S36" s="4" t="s"/>
-      <x:c r="T36" s="4" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A37" s="2" t="s"/>
-      <x:c r="B37" s="2" t="s"/>
-      <x:c r="C37" s="2" t="s"/>
-      <x:c r="D37" s="2" t="s"/>
-      <x:c r="E37" s="2" t="s"/>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="5" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="4" t="s"/>
-      <x:c r="Q37" s="4" t="s"/>
-      <x:c r="R37" s="4" t="s"/>
-      <x:c r="S37" s="4" t="s"/>
-      <x:c r="T37" s="4" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A38" s="2" t="s"/>
-      <x:c r="B38" s="2" t="s"/>
-      <x:c r="C38" s="2" t="s"/>
-      <x:c r="D38" s="2" t="s"/>
-      <x:c r="E38" s="2" t="s"/>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="5" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="5" t="s"/>
-      <x:c r="Q38" s="5" t="s"/>
-      <x:c r="R38" s="5" t="s"/>
-      <x:c r="S38" s="5" t="s"/>
-      <x:c r="T38" s="5" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A39" s="2" t="s"/>
-      <x:c r="B39" s="2" t="s"/>
-      <x:c r="C39" s="2" t="s"/>
-      <x:c r="D39" s="2" t="s"/>
-      <x:c r="E39" s="2" t="s"/>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="5" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="5" t="s"/>
-      <x:c r="Q39" s="5" t="s"/>
-      <x:c r="R39" s="5" t="s"/>
-      <x:c r="S39" s="5" t="s"/>
-      <x:c r="T39" s="5" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="R40" s="6" t="s"/>
-      <x:c r="S40" s="6" t="s"/>
-      <x:c r="T40" s="6" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="R41" s="6" t="s"/>
-      <x:c r="T41" s="6" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
-    <x:row r="43" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D43" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E43" s="7" t="s"/>
-      <x:c r="F43" s="7" t="s"/>
-      <x:c r="G43" s="7" t="s"/>
-      <x:c r="H43" s="7" t="s"/>
-      <x:c r="I43" s="7" t="s"/>
-      <x:c r="J43" s="7" t="s"/>
-      <x:c r="K43" s="7" t="s"/>
-      <x:c r="L43" s="7" t="s"/>
-      <x:c r="M43" s="7" t="s"/>
-      <x:c r="N43" s="8" t="s"/>
-      <x:c r="O43" s="8" t="s"/>
-      <x:c r="P43" s="8" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="Q43" s="8" t="s"/>
-      <x:c r="R43" s="8" t="s"/>
-      <x:c r="S43" s="8" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="A44" s="9" t="n">
-        <x:v>2021</x:v>
-      </x:c>
-      <x:c r="B44" s="10" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C44" s="10" t="n">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D44" s="9" t="s"/>
-      <x:c r="E44" s="9" t="s"/>
-      <x:c r="F44" s="9" t="s"/>
-      <x:c r="G44" s="9" t="s"/>
-      <x:c r="H44" s="9" t="s"/>
-      <x:c r="I44" s="9" t="s"/>
-      <x:c r="J44" s="9" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="K44" s="9" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L44" s="9" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M44" s="9" t="n">
-        <x:v>2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>
-  <x:mergeCells count="76">
+  <x:mergeCells count="38">
     <x:mergeCell ref="A2:I2"/>
     <x:mergeCell ref="K2:O2"/>
     <x:mergeCell ref="P2:T2"/>
@@ -1247,44 +894,6 @@
     <x:mergeCell ref="D21:M21"/>
     <x:mergeCell ref="N21:O21"/>
     <x:mergeCell ref="P21:S21"/>
-    <x:mergeCell ref="A24:I24"/>
-    <x:mergeCell ref="K24:O24"/>
-    <x:mergeCell ref="P24:T24"/>
-    <x:mergeCell ref="A25:I25"/>
-    <x:mergeCell ref="K25:O25"/>
-    <x:mergeCell ref="P25:T25"/>
-    <x:mergeCell ref="A26:I26"/>
-    <x:mergeCell ref="K26:O26"/>
-    <x:mergeCell ref="P26:T26"/>
-    <x:mergeCell ref="A27:I27"/>
-    <x:mergeCell ref="K27:O27"/>
-    <x:mergeCell ref="P27:T27"/>
-    <x:mergeCell ref="A28:I28"/>
-    <x:mergeCell ref="K28:O28"/>
-    <x:mergeCell ref="R29:R30"/>
-    <x:mergeCell ref="T29:T30"/>
-    <x:mergeCell ref="D32:M32"/>
-    <x:mergeCell ref="N32:O32"/>
-    <x:mergeCell ref="P32:S32"/>
-    <x:mergeCell ref="A35:I35"/>
-    <x:mergeCell ref="K35:O35"/>
-    <x:mergeCell ref="P35:T35"/>
-    <x:mergeCell ref="A36:I36"/>
-    <x:mergeCell ref="K36:O36"/>
-    <x:mergeCell ref="P36:T36"/>
-    <x:mergeCell ref="A37:I37"/>
-    <x:mergeCell ref="K37:O37"/>
-    <x:mergeCell ref="P37:T37"/>
-    <x:mergeCell ref="A38:I38"/>
-    <x:mergeCell ref="K38:O38"/>
-    <x:mergeCell ref="P38:T38"/>
-    <x:mergeCell ref="A39:I39"/>
-    <x:mergeCell ref="K39:O39"/>
-    <x:mergeCell ref="R40:R41"/>
-    <x:mergeCell ref="T40:T41"/>
-    <x:mergeCell ref="D43:M43"/>
-    <x:mergeCell ref="N43:O43"/>
-    <x:mergeCell ref="P43:S43"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7874" right="0.19685" top="0" bottom="0" header="0.5" footer="0.75"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,21 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
-    <x:t>墓地 大内田 光生 残金 \2,360,000-</x:t>
+    <x:t>違算金 9/24 \1,000-</x:t>
   </x:si>
   <x:si>
     <x:t>管理事務所</x:t>
   </x:si>
   <x:si>
-    <x:t>中山</x:t>
+    <x:t>林飛</x:t>
   </x:si>
   <x:si>
-    <x:t>使用料 : 841</x:t>
+    <x:t>深瀬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>仮受金 : 416</x:t>
   </x:si>
   <x:si>
     <x:t>春秋苑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>アルバイト 会澤嘉高 \13,430-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>複合勘定 : 527</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -432,7 +441,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -478,7 +487,7 @@
       <x:c r="N2" s="2" t="s"/>
       <x:c r="O2" s="2" t="s"/>
       <x:c r="P2" s="3">
-        <x:v>44450</x:v>
+        <x:v>44463</x:v>
       </x:c>
       <x:c r="Q2" s="4" t="s"/>
       <x:c r="R2" s="4" t="s"/>
@@ -578,10 +587,12 @@
     <x:row r="7" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
       <x:c r="A7" s="2" t="s"/>
       <x:c r="K7" s="2" t="s"/>
-      <x:c r="R7" s="6" t="s"/>
+      <x:c r="R7" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="S7" s="6" t="s"/>
       <x:c r="T7" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
@@ -590,7 +601,9 @@
     </x:row>
     <x:row r="9" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
     <x:row r="10" spans="1:20" customFormat="1" ht="30" customHeight="1">
-      <x:c r="D10" s="7" t="s"/>
+      <x:c r="D10" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
       <x:c r="E10" s="7" t="s"/>
       <x:c r="F10" s="7" t="s"/>
       <x:c r="G10" s="7" t="s"/>
@@ -600,12 +613,10 @@
       <x:c r="K10" s="7" t="s"/>
       <x:c r="L10" s="7" t="s"/>
       <x:c r="M10" s="7" t="s"/>
-      <x:c r="N10" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="N10" s="8" t="s"/>
       <x:c r="O10" s="8" t="s"/>
       <x:c r="P10" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q10" s="8" t="s"/>
       <x:c r="R10" s="8" t="s"/>
@@ -619,22 +630,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="10" t="n">
-        <x:v>11</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D11" s="9" t="s"/>
       <x:c r="E11" s="9" t="s"/>
       <x:c r="F11" s="9" t="s"/>
-      <x:c r="G11" s="9" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H11" s="9" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I11" s="9" t="n">
-        <x:v>6</x:v>
-      </x:c>
+      <x:c r="G11" s="9" t="s"/>
+      <x:c r="H11" s="9" t="s"/>
+      <x:c r="I11" s="9" t="s"/>
       <x:c r="J11" s="9" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K11" s="9" t="n">
         <x:v>0</x:v>
@@ -646,9 +651,195 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="12" spans="1:20" customFormat="1" ht="24" customHeight="1"/>
+    <x:row r="13" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A13" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s"/>
+      <x:c r="C13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s"/>
+      <x:c r="E13" s="2" t="s"/>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="3">
+        <x:v>44463</x:v>
+      </x:c>
+      <x:c r="Q13" s="4" t="s"/>
+      <x:c r="R13" s="4" t="s"/>
+      <x:c r="S13" s="4" t="s"/>
+      <x:c r="T13" s="4" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A14" s="2" t="s"/>
+      <x:c r="B14" s="2" t="s"/>
+      <x:c r="C14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s"/>
+      <x:c r="E14" s="2" t="s"/>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="5" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q14" s="4" t="s"/>
+      <x:c r="R14" s="4" t="s"/>
+      <x:c r="S14" s="4" t="s"/>
+      <x:c r="T14" s="4" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A15" s="2" t="s"/>
+      <x:c r="B15" s="2" t="s"/>
+      <x:c r="C15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s"/>
+      <x:c r="E15" s="2" t="s"/>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="5" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="4" t="s"/>
+      <x:c r="Q15" s="4" t="s"/>
+      <x:c r="R15" s="4" t="s"/>
+      <x:c r="S15" s="4" t="s"/>
+      <x:c r="T15" s="4" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A16" s="2" t="s"/>
+      <x:c r="B16" s="2" t="s"/>
+      <x:c r="C16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s"/>
+      <x:c r="E16" s="2" t="s"/>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="5" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="5" t="s"/>
+      <x:c r="Q16" s="5" t="s"/>
+      <x:c r="R16" s="5" t="s"/>
+      <x:c r="S16" s="5" t="s"/>
+      <x:c r="T16" s="5" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A17" s="2" t="s"/>
+      <x:c r="B17" s="2" t="s"/>
+      <x:c r="C17" s="2" t="s"/>
+      <x:c r="D17" s="2" t="s"/>
+      <x:c r="E17" s="2" t="s"/>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="5" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="5" t="s"/>
+      <x:c r="Q17" s="5" t="s"/>
+      <x:c r="R17" s="5" t="s"/>
+      <x:c r="S17" s="5" t="s"/>
+      <x:c r="T17" s="5" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="R18" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="S18" s="6" t="s"/>
+      <x:c r="T18" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:20" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="R19" s="6" t="s"/>
+      <x:c r="T19" s="6" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20" customFormat="1" ht="9" customHeight="1"/>
+    <x:row r="21" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="D21" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E21" s="7" t="s"/>
+      <x:c r="F21" s="7" t="s"/>
+      <x:c r="G21" s="7" t="s"/>
+      <x:c r="H21" s="7" t="s"/>
+      <x:c r="I21" s="7" t="s"/>
+      <x:c r="J21" s="7" t="s"/>
+      <x:c r="K21" s="7" t="s"/>
+      <x:c r="L21" s="7" t="s"/>
+      <x:c r="M21" s="7" t="s"/>
+      <x:c r="N21" s="8" t="s"/>
+      <x:c r="O21" s="8" t="s"/>
+      <x:c r="P21" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="Q21" s="8" t="s"/>
+      <x:c r="R21" s="8" t="s"/>
+      <x:c r="S21" s="8" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20" customFormat="1" ht="30" customHeight="1">
+      <x:c r="A22" s="9" t="n">
+        <x:v>2021</x:v>
+      </x:c>
+      <x:c r="B22" s="10" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C22" s="10" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D22" s="9" t="s"/>
+      <x:c r="E22" s="9" t="s"/>
+      <x:c r="F22" s="9" t="s"/>
+      <x:c r="G22" s="9" t="s"/>
+      <x:c r="H22" s="9" t="s"/>
+      <x:c r="I22" s="9" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J22" s="9" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K22" s="9" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L22" s="9" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M22" s="9" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>
-  <x:mergeCells count="19">
+  <x:mergeCells count="38">
     <x:mergeCell ref="A2:I2"/>
     <x:mergeCell ref="K2:O2"/>
     <x:mergeCell ref="P2:T2"/>
@@ -668,6 +859,25 @@
     <x:mergeCell ref="D10:M10"/>
     <x:mergeCell ref="N10:O10"/>
     <x:mergeCell ref="P10:S10"/>
+    <x:mergeCell ref="A13:I13"/>
+    <x:mergeCell ref="K13:O13"/>
+    <x:mergeCell ref="P13:T13"/>
+    <x:mergeCell ref="A14:I14"/>
+    <x:mergeCell ref="K14:O14"/>
+    <x:mergeCell ref="P14:T14"/>
+    <x:mergeCell ref="A15:I15"/>
+    <x:mergeCell ref="K15:O15"/>
+    <x:mergeCell ref="P15:T15"/>
+    <x:mergeCell ref="A16:I16"/>
+    <x:mergeCell ref="K16:O16"/>
+    <x:mergeCell ref="P16:T16"/>
+    <x:mergeCell ref="A17:I17"/>
+    <x:mergeCell ref="K17:O17"/>
+    <x:mergeCell ref="R18:R19"/>
+    <x:mergeCell ref="T18:T19"/>
+    <x:mergeCell ref="D21:M21"/>
+    <x:mergeCell ref="N21:O21"/>
+    <x:mergeCell ref="P21:S21"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7874" right="0.19685" top="0" bottom="0" header="0.5" footer="0.75"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,30 +14,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <x:si>
-    <x:t>2021年10月16日（土）</x:t>
-  </x:si>
-  <x:si>
-    <x:t>証憑綴り</x:t>
-  </x:si>
-  <x:si>
-    <x:t>本部長</x:t>
-  </x:si>
-  <x:si>
-    <x:t>副住職</x:t>
-  </x:si>
-  <x:si>
-    <x:t>係</x:t>
-  </x:si>
-  <x:si>
-    <x:t>林飛</x:t>
-  </x:si>
-  <x:si>
-    <x:t>収支</x:t>
-  </x:si>
-  <x:si>
-    <x:t>前日より繰越</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <x:si>
+    <x:t>収支日報</x:t>
+  </x:si>
+  <x:si>
+    <x:t>令和3年10月19日（火）</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(株)ワイズ・コア</x:t>
+  </x:si>
+  <x:si>
+    <x:t>承認印</x:t>
+  </x:si>
+  <x:si>
+    <x:t>経理印</x:t>
+  </x:si>
+  <x:si>
+    <x:t>係印</x:t>
+  </x:si>
+  <x:si>
+    <x:t>横浜銀行残高</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>春秋苑仮払金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内訳</x:t>
+  </x:si>
+  <x:si>
+    <x:t>前日より
+繰越</x:t>
   </x:si>
   <x:si>
     <x:t>入金</x:t>
@@ -46,47 +56,72 @@
     <x:t>出金</x:t>
   </x:si>
   <x:si>
-    <x:t>社内振替</x:t>
+    <x:t>銀行振替</x:t>
   </x:si>
   <x:si>
     <x:t>残高</x:t>
   </x:si>
   <x:si>
-    <x:t>853,665 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>767,700 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13,550 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,607,815 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>横浜銀行残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>セレサ川崎残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ﾜｲｽﾞｺｱ仮受金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>信行寺　春秋苑</x:t>
+    <x:t>蓮華庵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>233,568 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61,936 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171,632 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>春秋庵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>257,126 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88,596 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168,530 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>香華</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200,956 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42,700 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123,656 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>現金合計</x:t>
+  </x:si>
+  <x:si>
+    <x:t>691,650 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150,532 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>463,818 円</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="165" formatCode="@"/>
   </x:numFmts>
-  <x:fonts count="7">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -98,43 +133,15 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
+      <x:name val="游ゴシック"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
+      <x:u val="single"/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
+      <x:sz val="22"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="28"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="16"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
+      <x:name val="游ゴシック"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -199,83 +206,78 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -573,138 +575,204 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E16"/>
+  <x:dimension ref="A1:H12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="5" width="16.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="9.130625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="3.460625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="9.290625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="6.790625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="5.960625" style="1" customWidth="1"/>
+    <x:col min="6" max="8" width="12.630625" style="1" customWidth="1"/>
+    <x:col min="9" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" customFormat="1" ht="51" customHeight="1"/>
-    <x:row r="2" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="D2" s="2" t="s">
+    <x:row r="1" spans="1:8" customFormat="1" ht="42" customHeight="1">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:5" customFormat="1" ht="64.5" customHeight="1">
-      <x:c r="A3" s="4" t="s">
+    </x:row>
+    <x:row r="2" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="G2" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="5" t="s"/>
-      <x:c r="C3" s="5" t="s"/>
-      <x:c r="D3" s="5" t="s"/>
-      <x:c r="E3" s="5" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:5" customFormat="1" ht="57" customHeight="1"/>
-    <x:row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="C5" s="6" t="s">
+    </x:row>
+    <x:row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="G3" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D5" s="6" t="s">
+    </x:row>
+    <x:row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="F4" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E5" s="6" t="s">
+      <x:c r="G4" s="4" t="s">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="C6" s="7" t="s"/>
-      <x:c r="D6" s="7" t="s"/>
-      <x:c r="E6" s="8" t="s">
+      <x:c r="H4" s="4" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:5" customFormat="1" ht="126" customHeight="1"/>
-    <x:row r="8" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A8" s="9" t="s">
+    <x:row r="5" spans="1:8" customFormat="1" ht="55.5" customHeight="1">
+      <x:c r="A5" s="5" t="s">
         <x:v>6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A9" s="6" t="s">
+      <x:c r="B5" s="6" t="s"/>
+      <x:c r="C5" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B9" s="6" t="s">
+      <x:c r="D5" s="6" t="s"/>
+      <x:c r="F5" s="8" t="s"/>
+      <x:c r="G5" s="8" t="s"/>
+      <x:c r="H5" s="8" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A6" s="9" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C9" s="6" t="s">
+      <x:c r="B6" s="10" t="s"/>
+      <x:c r="C6" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D6" s="6" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:8" customFormat="1" ht="18.75" customHeight="1"/>
+    <x:row r="8" spans="1:8" customFormat="1" ht="41.25" customHeight="1">
+      <x:c r="A8" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D9" s="6" t="s">
+      <x:c r="B8" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E9" s="6" t="s">
+      <x:c r="C8" s="4" t="s"/>
+      <x:c r="D8" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="A10" s="10" t="s">
+      <x:c r="E8" s="4" t="s"/>
+      <x:c r="F8" s="4" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B10" s="10" t="s">
+      <x:c r="G8" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C10" s="10" t="s">
+      <x:c r="H8" s="4" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D10" s="10" t="s">
+    </x:row>
+    <x:row r="9" spans="1:8" customFormat="1" ht="45" customHeight="1">
+      <x:c r="A9" s="4" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E10" s="10" t="s">
+      <x:c r="B9" s="13" t="s">
         <x:v>16</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5" customFormat="1" ht="27.75" customHeight="1"/>
-    <x:row r="12" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A12" s="1" t="s">
+      <x:c r="C9" s="13" t="s"/>
+      <x:c r="D9" s="13" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E9" s="13" t="s"/>
+      <x:c r="F9" s="13" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B12" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C12" s="11" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A13" s="1" t="s">
+      <x:c r="G9" s="13" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H9" s="13" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B13" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C13" s="11" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="A14" s="1" t="s">
+    </x:row>
+    <x:row r="10" spans="1:8" customFormat="1" ht="45" customHeight="1">
+      <x:c r="A10" s="4" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B14" s="11" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C14" s="11" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:5" customFormat="1" ht="40.5" customHeight="1"/>
-    <x:row r="16" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="D16" s="12" t="s">
+      <x:c r="B10" s="13" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E16" s="12" t="s"/>
+      <x:c r="C10" s="13" t="s"/>
+      <x:c r="D10" s="13" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E10" s="13" t="s"/>
+      <x:c r="F10" s="13" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G10" s="13" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H10" s="13" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8" customFormat="1" ht="45" customHeight="1">
+      <x:c r="A11" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B11" s="13" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C11" s="13" t="s"/>
+      <x:c r="D11" s="13" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E11" s="13" t="s"/>
+      <x:c r="F11" s="13" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G11" s="13" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H11" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8" customFormat="1" ht="45" customHeight="1">
+      <x:c r="A12" s="4" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B12" s="13" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C12" s="13" t="s"/>
+      <x:c r="D12" s="13" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E12" s="13" t="s"/>
+      <x:c r="F12" s="13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G12" s="13" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H12" s="13" t="s">
+        <x:v>31</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>
-  <x:mergeCells count="6">
-    <x:mergeCell ref="D2:E2"/>
-    <x:mergeCell ref="A3:E3"/>
+  <x:mergeCells count="17">
+    <x:mergeCell ref="A1:H1"/>
+    <x:mergeCell ref="G2:H2"/>
+    <x:mergeCell ref="G3:H3"/>
+    <x:mergeCell ref="A5:B5"/>
+    <x:mergeCell ref="C5:D5"/>
+    <x:mergeCell ref="A6:B6"/>
+    <x:mergeCell ref="C6:D6"/>
+    <x:mergeCell ref="B8:C8"/>
+    <x:mergeCell ref="D8:E8"/>
+    <x:mergeCell ref="B9:C9"/>
+    <x:mergeCell ref="D9:E9"/>
+    <x:mergeCell ref="B10:C10"/>
+    <x:mergeCell ref="D10:E10"/>
+    <x:mergeCell ref="B11:C11"/>
+    <x:mergeCell ref="D11:E11"/>
     <x:mergeCell ref="B12:C12"/>
-    <x:mergeCell ref="B13:C13"/>
-    <x:mergeCell ref="B14:C14"/>
-    <x:mergeCell ref="D16:E16"/>
+    <x:mergeCell ref="D12:E12"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.3937" right="0.19685" top="0.51181" bottom="0.47243999999999997" header="0.5" footer="0.75"/>
+  <x:pageMargins left="0.51181" right="0.51181" top="0.74803" bottom="0.74803" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,40 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <x:si>
-    <x:t>収支日報</x:t>
-  </x:si>
-  <x:si>
-    <x:t>令和3年10月19日（火）</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(株)ワイズ・コア</x:t>
-  </x:si>
-  <x:si>
-    <x:t>承認印</x:t>
-  </x:si>
-  <x:si>
-    <x:t>経理印</x:t>
-  </x:si>
-  <x:si>
-    <x:t>係印</x:t>
-  </x:si>
-  <x:si>
-    <x:t>横浜銀行残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>春秋苑仮払金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>内訳</x:t>
-  </x:si>
-  <x:si>
-    <x:t>前日より
-繰越</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <x:si>
+    <x:t>2021年10月20日（水）</x:t>
+  </x:si>
+  <x:si>
+    <x:t>証憑綴り</x:t>
+  </x:si>
+  <x:si>
+    <x:t>係</x:t>
+  </x:si>
+  <x:si>
+    <x:t>林飛</x:t>
+  </x:si>
+  <x:si>
+    <x:t>収支</x:t>
+  </x:si>
+  <x:si>
+    <x:t>預り金</x:t>
   </x:si>
   <x:si>
     <x:t>入金</x:t>
@@ -56,72 +40,29 @@
     <x:t>出金</x:t>
   </x:si>
   <x:si>
-    <x:t>銀行振替</x:t>
-  </x:si>
-  <x:si>
     <x:t>残高</x:t>
   </x:si>
   <x:si>
-    <x:t>蓮華庵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>233,568 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61,936 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171,632 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>春秋庵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>257,126 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88,596 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>168,530 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>香華</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200,956 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42,700 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123,656 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>現金合計</x:t>
-  </x:si>
-  <x:si>
-    <x:t>691,650 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150,532 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>463,818 円</x:t>
+    <x:t>10 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>660,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30,000 円</x:t>
+  </x:si>
+  <x:si>
+    <x:t>630,010 円</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="2">
+  <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="@"/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="7">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -133,15 +74,43 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="游ゴシック"/>
+      <x:name val="ＭＳ ゴシック"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
-      <x:u val="single"/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="22"/>
+      <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="游ゴシック"/>
+      <x:name val="ＭＳ ゴシック"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="28"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ ゴシック"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ ゴシック"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="16"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ ゴシック"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="14"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="ＭＳ ゴシック"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -153,7 +122,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="3">
+  <x:borders count="2">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -188,96 +157,84 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="14">
+  <x:cellXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -575,204 +532,111 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H12"/>
+  <x:dimension ref="A1:E16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.130625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="3.460625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="9.290625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="6.790625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="5.960625" style="1" customWidth="1"/>
-    <x:col min="6" max="8" width="12.630625" style="1" customWidth="1"/>
-    <x:col min="9" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="5" width="16.710625" style="1" customWidth="1"/>
+    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8" customFormat="1" ht="42" customHeight="1">
-      <x:c r="A1" s="2" t="s">
+    <x:row r="1" spans="1:5" customFormat="1" ht="51" customHeight="1"/>
+    <x:row r="2" spans="1:5" customFormat="1" ht="18" customHeight="1">
+      <x:c r="D2" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="G2" s="3" t="s">
+      <x:c r="E2" s="3" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:5" customFormat="1" ht="64.5" customHeight="1">
+      <x:c r="A3" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="G3" s="3" t="s">
+      <x:c r="B3" s="5" t="s"/>
+      <x:c r="C3" s="5" t="s"/>
+      <x:c r="D3" s="5" t="s"/>
+      <x:c r="E3" s="5" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:5" customFormat="1" ht="57" customHeight="1"/>
+    <x:row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1">
+      <x:c r="C5" s="6" t="s"/>
+      <x:c r="D5" s="6" t="s"/>
+      <x:c r="E5" s="7" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="F4" s="4" t="s">
+    <x:row r="6" spans="1:5" customFormat="1" ht="42" customHeight="1">
+      <x:c r="E6" s="8" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G4" s="4" t="s">
+    </x:row>
+    <x:row r="7" spans="1:5" customFormat="1" ht="126" customHeight="1"/>
+    <x:row r="8" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
+      <x:c r="A8" s="9" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="H4" s="4" t="s">
+    </x:row>
+    <x:row r="9" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="A9" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8" customFormat="1" ht="55.5" customHeight="1">
-      <x:c r="A5" s="5" t="s">
+      <x:c r="B9" s="7" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B5" s="6" t="s"/>
-      <x:c r="C5" s="7" t="s">
+      <x:c r="C9" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D5" s="6" t="s"/>
-      <x:c r="F5" s="8" t="s"/>
-      <x:c r="G5" s="8" t="s"/>
-      <x:c r="H5" s="8" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:8" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A6" s="9" t="s">
+      <x:c r="D9" s="7" t="s"/>
+      <x:c r="E9" s="7" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B6" s="10" t="s"/>
-      <x:c r="C6" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D6" s="6" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:8" customFormat="1" ht="18.75" customHeight="1"/>
-    <x:row r="8" spans="1:8" customFormat="1" ht="41.25" customHeight="1">
-      <x:c r="A8" s="4" t="s">
+    </x:row>
+    <x:row r="10" spans="1:5" customFormat="1" ht="42" customHeight="1">
+      <x:c r="A10" s="10" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B8" s="12" t="s">
+      <x:c r="B10" s="10" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C8" s="4" t="s"/>
-      <x:c r="D8" s="4" t="s">
+      <x:c r="C10" s="10" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E8" s="4" t="s"/>
-      <x:c r="F8" s="4" t="s">
+      <x:c r="D10" s="10" t="s"/>
+      <x:c r="E10" s="10" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="G8" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="H8" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8" customFormat="1" ht="45" customHeight="1">
-      <x:c r="A9" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B9" s="13" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C9" s="13" t="s"/>
-      <x:c r="D9" s="13" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E9" s="13" t="s"/>
-      <x:c r="F9" s="13" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G9" s="13" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H9" s="13" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:8" customFormat="1" ht="45" customHeight="1">
-      <x:c r="A10" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B10" s="13" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C10" s="13" t="s"/>
-      <x:c r="D10" s="13" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E10" s="13" t="s"/>
-      <x:c r="F10" s="13" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G10" s="13" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H10" s="13" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:8" customFormat="1" ht="45" customHeight="1">
-      <x:c r="A11" s="4" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B11" s="13" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C11" s="13" t="s"/>
-      <x:c r="D11" s="13" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E11" s="13" t="s"/>
-      <x:c r="F11" s="13" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G11" s="13" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H11" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:8" customFormat="1" ht="45" customHeight="1">
-      <x:c r="A12" s="4" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B12" s="13" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C12" s="13" t="s"/>
-      <x:c r="D12" s="13" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E12" s="13" t="s"/>
-      <x:c r="F12" s="13" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G12" s="13" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H12" s="13" t="s">
-        <x:v>31</x:v>
-      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5" customFormat="1" ht="27.75" customHeight="1"/>
+    <x:row r="12" spans="1:5" customFormat="1" ht="21" customHeight="1">
+      <x:c r="B12" s="11" t="s"/>
+      <x:c r="C12" s="11" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:5" customFormat="1" ht="21" customHeight="1">
+      <x:c r="B13" s="11" t="s"/>
+      <x:c r="C13" s="11" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:5" customFormat="1" ht="21" customHeight="1">
+      <x:c r="B14" s="11" t="s"/>
+      <x:c r="C14" s="11" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:5" customFormat="1" ht="40.5" customHeight="1"/>
+    <x:row r="16" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
+      <x:c r="D16" s="12" t="s"/>
+      <x:c r="E16" s="12" t="s"/>
     </x:row>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>
-  <x:mergeCells count="17">
-    <x:mergeCell ref="A1:H1"/>
-    <x:mergeCell ref="G2:H2"/>
-    <x:mergeCell ref="G3:H3"/>
-    <x:mergeCell ref="A5:B5"/>
-    <x:mergeCell ref="C5:D5"/>
-    <x:mergeCell ref="A6:B6"/>
-    <x:mergeCell ref="C6:D6"/>
-    <x:mergeCell ref="B8:C8"/>
-    <x:mergeCell ref="D8:E8"/>
-    <x:mergeCell ref="B9:C9"/>
-    <x:mergeCell ref="D9:E9"/>
-    <x:mergeCell ref="B10:C10"/>
-    <x:mergeCell ref="D10:E10"/>
-    <x:mergeCell ref="B11:C11"/>
-    <x:mergeCell ref="D11:E11"/>
+  <x:mergeCells count="6">
+    <x:mergeCell ref="D2:E2"/>
+    <x:mergeCell ref="A3:E3"/>
     <x:mergeCell ref="B12:C12"/>
-    <x:mergeCell ref="D12:E12"/>
+    <x:mergeCell ref="B13:C13"/>
+    <x:mergeCell ref="B14:C14"/>
+    <x:mergeCell ref="D16:E16"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.51181" right="0.51181" top="0.74803" bottom="0.74803" header="0.5" footer="0.75"/>
+  <x:pageMargins left="0.3937" right="0.19685" top="0.51181" bottom="0.47243999999999997" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,24 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <x:si>
-    <x:t>2021年10月20日（水）</x:t>
-  </x:si>
-  <x:si>
-    <x:t>証憑綴り</x:t>
-  </x:si>
-  <x:si>
-    <x:t>係</x:t>
-  </x:si>
-  <x:si>
-    <x:t>林飛</x:t>
-  </x:si>
-  <x:si>
-    <x:t>収支</x:t>
-  </x:si>
-  <x:si>
-    <x:t>預り金</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <x:si>
+    <x:t>令和 3 年</x:t>
+  </x:si>
+  <x:si>
+    <x:t>発行 : R3.10.25 林飛</x:t>
+  </x:si>
+  <x:si>
+    <x:t>日付</x:t>
+  </x:si>
+  <x:si>
+    <x:t>コード</x:t>
+  </x:si>
+  <x:si>
+    <x:t>勘定科目</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内容</x:t>
   </x:si>
   <x:si>
     <x:t>入金</x:t>
@@ -40,29 +40,78 @@
     <x:t>出金</x:t>
   </x:si>
   <x:si>
-    <x:t>残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>660,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>630,010 円</x:t>
+    <x:t>差引残高</x:t>
+  </x:si>
+  <x:si>
+    <x:t>前月より繰越</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>822</x:t>
+  </x:si>
+  <x:si>
+    <x:t>冥加読経料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山口家1 2021年度分他9件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山口家13 2021年度分他9件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>懇志読経料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山口家3 2021年度分他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>山口家23 2021年度分</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>640,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>計</x:t>
+  </x:si>
+  <x:si>
+    <x:t>660,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>翌月へ繰越</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="165" formatCode="@"/>
   </x:numFmts>
-  <x:fonts count="7">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -74,43 +123,14 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
+      <x:name val="ＭＳ Ｐゴシック"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
+      <x:sz val="9"/>
       <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="28"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="16"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="14"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="ＭＳ ゴシック"/>
+      <x:name val="ＭＳ Ｐゴシック"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -122,7 +142,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="2">
+  <x:borders count="13">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -144,6 +164,40 @@
       <x:left style="thin">
         <x:color rgb="FF000000"/>
       </x:left>
+      <x:right style="dashed">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="dashed">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="double">
+        <x:color rgb="FF000000"/>
+      </x:left>
       <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
@@ -157,84 +211,282 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="double">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="dashed">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="dashed">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="double">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="double">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="19">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -532,113 +784,255 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E16"/>
+  <x:dimension ref="A1:I46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="5" width="16.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="10" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="2.850625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="5.420625" style="1" customWidth="1"/>
+    <x:col min="4" max="5" width="13.570625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="14.280625" style="1" customWidth="1"/>
+    <x:col min="7" max="9" width="10.570625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" customFormat="1" ht="51" customHeight="1"/>
-    <x:row r="2" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="D2" s="2" t="s">
+    <x:row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="s"/>
+      <x:c r="B1" s="2" t="s"/>
+      <x:c r="C1" s="2" t="s"/>
+      <x:c r="D1" s="2" t="s"/>
+      <x:c r="E1" s="2" t="s"/>
+      <x:c r="F1" s="2" t="s"/>
+      <x:c r="G1" s="2" t="s"/>
+      <x:c r="H1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1" s="4" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:5" customFormat="1" ht="64.5" customHeight="1">
-      <x:c r="A3" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B3" s="5" t="s"/>
-      <x:c r="C3" s="5" t="s"/>
-      <x:c r="D3" s="5" t="s"/>
-      <x:c r="E3" s="5" t="s"/>
+    <x:row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A2" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="6" t="s"/>
+      <x:c r="C2" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D2" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E2" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F2" s="9" t="s"/>
+      <x:c r="G2" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H2" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I2" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:5" customFormat="1" ht="57" customHeight="1"/>
-    <x:row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1">
-      <x:c r="C5" s="6" t="s"/>
-      <x:c r="D5" s="6" t="s"/>
-      <x:c r="E5" s="7" t="s">
-        <x:v>2</x:v>
+    <x:row r="3" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A3" s="5" t="s"/>
+      <x:c r="B3" s="6" t="s"/>
+      <x:c r="C3" s="7" t="s"/>
+      <x:c r="D3" s="8" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E3" s="8" t="s"/>
+      <x:c r="F3" s="9" t="s"/>
+      <x:c r="G3" s="10" t="s"/>
+      <x:c r="H3" s="10" t="s"/>
+      <x:c r="I3" s="11" t="s">
+        <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5" customFormat="1" ht="42" customHeight="1">
+    <x:row r="4" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A4" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B4" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C4" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D4" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E4" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F4" s="9" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G4" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H4" s="10" t="s"/>
+      <x:c r="I4" s="11" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A5" s="5" t="s"/>
+      <x:c r="B5" s="6" t="s"/>
+      <x:c r="C5" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D5" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E5" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F5" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G5" s="10" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H5" s="10" t="s"/>
+      <x:c r="I5" s="11" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A6" s="5" t="s"/>
+      <x:c r="B6" s="6" t="s"/>
+      <x:c r="C6" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D6" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>3</x:v>
-      </x:c>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F6" s="9" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G6" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H6" s="10" t="s"/>
+      <x:c r="I6" s="11" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:5" customFormat="1" ht="126" customHeight="1"/>
-    <x:row r="8" spans="1:5" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A8" s="9" t="s">
-        <x:v>4</x:v>
+    <x:row r="7" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A7" s="5" t="s"/>
+      <x:c r="B7" s="6" t="s"/>
+      <x:c r="C7" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D7" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E7" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F7" s="9" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G7" s="10" t="s"/>
+      <x:c r="H7" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I7" s="11" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="A9" s="7" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B9" s="7" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C9" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D9" s="7" t="s"/>
-      <x:c r="E9" s="7" t="s">
-        <x:v>8</x:v>
+    <x:row r="8" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A8" s="12" t="s"/>
+      <x:c r="B8" s="13" t="s"/>
+      <x:c r="C8" s="14" t="s"/>
+      <x:c r="D8" s="15" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E8" s="15" t="s"/>
+      <x:c r="F8" s="16" t="s"/>
+      <x:c r="G8" s="17" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H8" s="17" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I8" s="18" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5" customFormat="1" ht="42" customHeight="1">
-      <x:c r="A10" s="10" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B10" s="10" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C10" s="10" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D10" s="10" t="s"/>
-      <x:c r="E10" s="10" t="s">
-        <x:v>12</x:v>
+    <x:row r="9" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A9" s="5" t="s"/>
+      <x:c r="B9" s="6" t="s"/>
+      <x:c r="C9" s="7" t="s"/>
+      <x:c r="D9" s="8" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="8" t="s"/>
+      <x:c r="F9" s="9" t="s"/>
+      <x:c r="G9" s="10" t="s"/>
+      <x:c r="H9" s="10" t="s"/>
+      <x:c r="I9" s="11" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:5" customFormat="1" ht="27.75" customHeight="1"/>
-    <x:row r="12" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="B12" s="11" t="s"/>
-      <x:c r="C12" s="11" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="B13" s="11" t="s"/>
-      <x:c r="C13" s="11" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:5" customFormat="1" ht="21" customHeight="1">
-      <x:c r="B14" s="11" t="s"/>
-      <x:c r="C14" s="11" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:5" customFormat="1" ht="40.5" customHeight="1"/>
-    <x:row r="16" spans="1:5" customFormat="1" ht="20.25" customHeight="1">
-      <x:c r="D16" s="12" t="s"/>
-      <x:c r="E16" s="12" t="s"/>
-    </x:row>
+    <x:row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="11" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="12" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="13" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="14" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="15" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="16" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="17" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="18" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="19" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="20" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="21" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="22" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="23" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="25" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="26" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="27" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="28" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="29" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="30" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="31" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="32" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="33" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="34" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="35" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="36" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="37" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="38" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="39" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="40" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="41" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="42" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="43" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="44" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="45" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="46" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>
-  <x:mergeCells count="6">
-    <x:mergeCell ref="D2:E2"/>
-    <x:mergeCell ref="A3:E3"/>
-    <x:mergeCell ref="B12:C12"/>
-    <x:mergeCell ref="B13:C13"/>
-    <x:mergeCell ref="B14:C14"/>
-    <x:mergeCell ref="D16:E16"/>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="H1:I1"/>
+    <x:mergeCell ref="A2:B2"/>
+    <x:mergeCell ref="E2:F2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.3937" right="0.19685" top="0.51181" bottom="0.47243999999999997" header="0.5" footer="0.75"/>
+  <x:pageMargins left="0.27559" right="0.27559" top="0.3937" bottom="0.3937" header="0.5" footer="0.19685"/>
   <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader/>
+    <x:oddFooter>&amp;C&amp;09令和3年10 月 - &amp;P </x:oddFooter>
+    <x:evenHeader/>
+    <x:evenFooter>&amp;C&amp;09令和3年10 月 - &amp;P </x:evenFooter>
+    <x:firstHeader/>
+    <x:firstFooter>&amp;C&amp;09令和3年10 月 - &amp;P </x:firstFooter>
+  </x:headerFooter>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="717">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="791">
   <x:si>
     <x:t>令和 3 年</x:t>
   </x:si>
   <x:si>
-    <x:t>発行 : R3.10.25 林飛</x:t>
+    <x:t>発行 : R3.10.28 林飛</x:t>
   </x:si>
   <x:si>
     <x:t>日付</x:t>
@@ -46,7 +46,7 @@
     <x:t>前月より繰越</x:t>
   </x:si>
   <x:si>
-    <x:t>926,233</x:t>
+    <x:t>646,083</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -184,7 +184,7 @@
     <x:t>1,020</x:t>
   </x:si>
   <x:si>
-    <x:t>1,145,394</x:t>
+    <x:t>865,244</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -292,7 +292,7 @@
     <x:t>44,000</x:t>
   </x:si>
   <x:si>
-    <x:t>2,058,094</x:t>
+    <x:t>1,777,944</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
@@ -451,7 +451,7 @@
     <x:t>57,339</x:t>
   </x:si>
   <x:si>
-    <x:t>4,420,454</x:t>
+    <x:t>4,140,304</x:t>
   </x:si>
   <x:si>
     <x:t>前頁より繰越</x:t>
@@ -490,7 +490,7 @@
     <x:t>2,198</x:t>
   </x:si>
   <x:si>
-    <x:t>2,000,256</x:t>
+    <x:t>1,720,106</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
@@ -682,7 +682,7 @@
     <x:t>15,034</x:t>
   </x:si>
   <x:si>
-    <x:t>1,091,412</x:t>
+    <x:t>811,262</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -718,7 +718,7 @@
     <x:t>8,106</x:t>
   </x:si>
   <x:si>
-    <x:t>1,128,496</x:t>
+    <x:t>848,346</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -742,7 +742,7 @@
     <x:t>7,406,787</x:t>
   </x:si>
   <x:si>
-    <x:t>1,260,996</x:t>
+    <x:t>980,846</x:t>
   </x:si>
   <x:si>
     <x:t>10/2伴家</x:t>
@@ -844,7 +844,7 @@
     <x:t>190,661</x:t>
   </x:si>
   <x:si>
-    <x:t>1,027,115</x:t>
+    <x:t>746,965</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
@@ -943,7 +943,7 @@
     <x:t>57,300</x:t>
   </x:si>
   <x:si>
-    <x:t>1,060,005</x:t>
+    <x:t>779,855</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -997,7 +997,7 @@
     <x:t>9,714,007</x:t>
   </x:si>
   <x:si>
-    <x:t>1,130,828</x:t>
+    <x:t>850,678</x:t>
   </x:si>
   <x:si>
     <x:t>624</x:t>
@@ -1024,7 +1024,7 @@
     <x:t>32,522</x:t>
   </x:si>
   <x:si>
-    <x:t>1,036,306</x:t>
+    <x:t>756,156</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
@@ -1090,7 +1090,7 @@
     <x:t>狛江教会 中6-4-7-2.8他2件</x:t>
   </x:si>
   <x:si>
-    <x:t>2,165,106</x:t>
+    <x:t>1,884,956</x:t>
   </x:si>
   <x:si>
     <x:t>430,000</x:t>
@@ -1195,7 +1195,7 @@
     <x:t>2,680,000</x:t>
   </x:si>
   <x:si>
-    <x:t>1,986,086</x:t>
+    <x:t>1,705,936</x:t>
   </x:si>
   <x:si>
     <x:t>11</x:t>
@@ -1213,7 +1213,7 @@
     <x:t>12,488,529</x:t>
   </x:si>
   <x:si>
-    <x:t>2,526,086</x:t>
+    <x:t>2,245,936</x:t>
   </x:si>
   <x:si>
     <x:t>簡易塔婆立</x:t>
@@ -1285,7 +1285,7 @@
     <x:t>16,800</x:t>
   </x:si>
   <x:si>
-    <x:t>1,065,286</x:t>
+    <x:t>785,136</x:t>
   </x:si>
   <x:si>
     <x:t>12</x:t>
@@ -1312,7 +1312,7 @@
     <x:t>坂本邦夫 ３ヶ月</x:t>
   </x:si>
   <x:si>
-    <x:t>1,099,276</x:t>
+    <x:t>819,126</x:t>
   </x:si>
   <x:si>
     <x:t>13</x:t>
@@ -1402,7 +1402,7 @@
     <x:t>6,160</x:t>
   </x:si>
   <x:si>
-    <x:t>1,187,883</x:t>
+    <x:t>907,733</x:t>
   </x:si>
   <x:si>
     <x:t>14</x:t>
@@ -1423,7 +1423,7 @@
     <x:t>16,774,032</x:t>
   </x:si>
   <x:si>
-    <x:t>1,529,883</x:t>
+    <x:t>1,249,733</x:t>
   </x:si>
   <x:si>
     <x:t>福井家</x:t>
@@ -1441,7 +1441,7 @@
     <x:t>2,640</x:t>
   </x:si>
   <x:si>
-    <x:t>1,194,443</x:t>
+    <x:t>914,293</x:t>
   </x:si>
   <x:si>
     <x:t>15</x:t>
@@ -1501,7 +1501,7 @@
     <x:t>37,268</x:t>
   </x:si>
   <x:si>
-    <x:t>1,133,815</x:t>
+    <x:t>853,665</x:t>
   </x:si>
   <x:si>
     <x:t>16</x:t>
@@ -1570,7 +1570,7 @@
     <x:t>11,220</x:t>
   </x:si>
   <x:si>
-    <x:t>2,495,635</x:t>
+    <x:t>2,215,485</x:t>
   </x:si>
   <x:si>
     <x:t>17</x:t>
@@ -1624,7 +1624,7 @@
     <x:t>18,016,580</x:t>
   </x:si>
   <x:si>
-    <x:t>4,009,065</x:t>
+    <x:t>3,728,915</x:t>
   </x:si>
   <x:si>
     <x:t>851</x:t>
@@ -1669,7 +1669,7 @@
     <x:t>2,650</x:t>
   </x:si>
   <x:si>
-    <x:t>1,607,415</x:t>
+    <x:t>1,327,265</x:t>
   </x:si>
   <x:si>
     <x:t>18</x:t>
@@ -1765,7 +1765,7 @@
     <x:t>470</x:t>
   </x:si>
   <x:si>
-    <x:t>957,935</x:t>
+    <x:t>677,785</x:t>
   </x:si>
   <x:si>
     <x:t>19</x:t>
@@ -1807,7 +1807,7 @@
     <x:t>23,158,620</x:t>
   </x:si>
   <x:si>
-    <x:t>1,082,518</x:t>
+    <x:t>802,368</x:t>
   </x:si>
   <x:si>
     <x:t>20</x:t>
@@ -1849,7 +1849,7 @@
     <x:t>960</x:t>
   </x:si>
   <x:si>
-    <x:t>1,011,598</x:t>
+    <x:t>731,448</x:t>
   </x:si>
   <x:si>
     <x:t>21</x:t>
@@ -1891,7 +1891,7 @@
     <x:t>小口現金</x:t>
   </x:si>
   <x:si>
-    <x:t>868,688</x:t>
+    <x:t>588,538</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
@@ -1939,7 +1939,7 @@
     <x:t>54,350</x:t>
   </x:si>
   <x:si>
-    <x:t>962,918</x:t>
+    <x:t>682,768</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
@@ -1999,13 +1999,13 @@
     <x:t>25,633,330</x:t>
   </x:si>
   <x:si>
-    <x:t>1,594,298</x:t>
+    <x:t>1,314,148</x:t>
   </x:si>
   <x:si>
     <x:t>竹内聖代</x:t>
   </x:si>
   <x:si>
-    <x:t>1,174,298</x:t>
+    <x:t>894,148</x:t>
   </x:si>
   <x:si>
     <x:t>24</x:t>
@@ -2098,7 +2098,7 @@
     <x:t>宮川家法事</x:t>
   </x:si>
   <x:si>
-    <x:t>2,068,028</x:t>
+    <x:t>1,787,878</x:t>
   </x:si>
   <x:si>
     <x:t>25</x:t>
@@ -2116,6 +2116,9 @@
     <x:t>240,000</x:t>
   </x:si>
   <x:si>
+    <x:t>中山家他1件</x:t>
+  </x:si>
+  <x:si>
     <x:t>内田家他6件</x:t>
   </x:si>
   <x:si>
@@ -2128,6 +2131,9 @@
     <x:t>104,000</x:t>
   </x:si>
   <x:si>
+    <x:t>角田淳郎</x:t>
+  </x:si>
+  <x:si>
     <x:t>服部 幸男</x:t>
   </x:si>
   <x:si>
@@ -2137,31 +2143,247 @@
     <x:t>35,000</x:t>
   </x:si>
   <x:si>
+    <x:t>(株)ピュアハーツ他2件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99,000</x:t>
+  </x:si>
+  <x:si>
     <x:t>近藤家他1件</x:t>
   </x:si>
   <x:si>
     <x:t>近藤家他6件</x:t>
   </x:si>
   <x:si>
+    <x:t>中村家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230,000</x:t>
+  </x:si>
+  <x:si>
     <x:t>過去帳記帳料</x:t>
   </x:si>
   <x:si>
     <x:t>過去帳記入 森岡家</x:t>
   </x:si>
   <x:si>
+    <x:t>大原家他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,000</x:t>
+  </x:si>
+  <x:si>
     <x:t>山田茂 北2-1-39他3件</x:t>
   </x:si>
   <x:si>
     <x:t>2,970,000</x:t>
   </x:si>
   <x:si>
-    <x:t>877,028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30,754,125</x:t>
+    <x:t>31,237,325</x:t>
   </x:si>
   <x:si>
     <x:t>30,803,330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,080,078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>320,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>田代研二 ３ヶ月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39,690</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>クリーニング代</x:t>
+  </x:si>
+  <x:si>
+    <x:t>和光</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31,457</x:t>
+  </x:si>
+  <x:si>
+    <x:t>仏事のイロハ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>本願寺出版社</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85,800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>581,685</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>前受金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>前納管理料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>塩﨑 善規 追加7年度分</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92,400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>姫野家 11/21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>大谷家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中西家 10/28他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>植村家他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>杉﨑健一 9日分</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,840</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参拝ホール設置ミスト タブレット</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>682,585</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>解良家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>鈴木家他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/31石井家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>齋藤家葬儀 10/25.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>鈴木家 小関家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小川 美和</x:t>
+  </x:si>
+  <x:si>
+    <x:t>550,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>810,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ダスキン玉川 ペーパータオル他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>マットレンタル</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18,244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>くろがねや他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,535</x:t>
+  </x:si>
+  <x:si>
+    <x:t>骨壺</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/2寺島史雄 返金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>瀨川健太 ３ヶ月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23,660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>594,864</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>川又家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>返還冥加</x:t>
+  </x:si>
+  <x:si>
+    <x:t>岡田君子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>式場懇志</x:t>
+  </x:si>
+  <x:si>
+    <x:t>岡田家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>横山家他2件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>堀内昭男</x:t>
+  </x:si>
+  <x:si>
+    <x:t>横山家他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>470,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22,200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小松建材店</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>711,184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32,969,525</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32,904,424</x:t>
   </x:si>
   <x:si>
     <x:t>翌月へ繰越</x:t>
@@ -2883,7 +3105,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I414"/>
+  <x:dimension ref="A1:I460"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -11094,17 +11316,17 @@
       <x:c r="A398" s="5" t="s"/>
       <x:c r="B398" s="6" t="s"/>
       <x:c r="C398" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D398" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E398" s="8" t="s"/>
       <x:c r="F398" s="9" t="s">
         <x:v>700</x:v>
       </x:c>
       <x:c r="G398" s="10" t="s">
-        <x:v>701</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H398" s="10" t="s"/>
       <x:c r="I398" s="11" t="s"/>
@@ -11113,19 +11335,17 @@
       <x:c r="A399" s="5" t="s"/>
       <x:c r="B399" s="6" t="s"/>
       <x:c r="C399" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D399" s="8" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E399" s="8" t="s">
-        <x:v>25</x:v>
-      </x:c>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E399" s="8" t="s"/>
       <x:c r="F399" s="9" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="G399" s="10" t="s">
         <x:v>702</x:v>
-      </x:c>
-      <x:c r="G399" s="10" t="s">
-        <x:v>703</x:v>
       </x:c>
       <x:c r="H399" s="10" t="s"/>
       <x:c r="I399" s="11" t="s"/>
@@ -11134,19 +11354,19 @@
       <x:c r="A400" s="5" t="s"/>
       <x:c r="B400" s="6" t="s"/>
       <x:c r="C400" s="7" t="s">
-        <x:v>108</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D400" s="8" t="s">
-        <x:v>109</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E400" s="8" t="s">
-        <x:v>371</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F400" s="9" t="s">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="G400" s="10" t="s">
         <x:v>704</x:v>
-      </x:c>
-      <x:c r="G400" s="10" t="s">
-        <x:v>184</x:v>
       </x:c>
       <x:c r="H400" s="10" t="s"/>
       <x:c r="I400" s="11" t="s"/>
@@ -11155,19 +11375,19 @@
       <x:c r="A401" s="5" t="s"/>
       <x:c r="B401" s="6" t="s"/>
       <x:c r="C401" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D401" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E401" s="8" t="s">
-        <x:v>218</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F401" s="9" t="s">
         <x:v>705</x:v>
       </x:c>
       <x:c r="G401" s="10" t="s">
-        <x:v>706</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="H401" s="10" t="s"/>
       <x:c r="I401" s="11" t="s"/>
@@ -11176,19 +11396,19 @@
       <x:c r="A402" s="5" t="s"/>
       <x:c r="B402" s="6" t="s"/>
       <x:c r="C402" s="7" t="s">
-        <x:v>71</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D402" s="8" t="s">
-        <x:v>72</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E402" s="8" t="s">
-        <x:v>73</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="F402" s="9" t="s">
-        <x:v>707</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="G402" s="10" t="s">
-        <x:v>178</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="H402" s="10" t="s"/>
       <x:c r="I402" s="11" t="s"/>
@@ -11197,19 +11417,19 @@
       <x:c r="A403" s="5" t="s"/>
       <x:c r="B403" s="6" t="s"/>
       <x:c r="C403" s="7" t="s">
-        <x:v>127</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D403" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E403" s="8" t="s">
-        <x:v>129</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="F403" s="9" t="s">
-        <x:v>684</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="G403" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="H403" s="10" t="s"/>
       <x:c r="I403" s="11" t="s"/>
@@ -11218,19 +11438,19 @@
       <x:c r="A404" s="5" t="s"/>
       <x:c r="B404" s="6" t="s"/>
       <x:c r="C404" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D404" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E404" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F404" s="9" t="s">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="G404" s="10" t="s">
-        <x:v>472</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="H404" s="10" t="s"/>
       <x:c r="I404" s="11" t="s"/>
@@ -11239,19 +11459,19 @@
       <x:c r="A405" s="5" t="s"/>
       <x:c r="B405" s="6" t="s"/>
       <x:c r="C405" s="7" t="s">
-        <x:v>79</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D405" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E405" s="8" t="s">
-        <x:v>709</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F405" s="9" t="s">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="G405" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="H405" s="10" t="s"/>
       <x:c r="I405" s="11" t="s"/>
@@ -11260,19 +11480,19 @@
       <x:c r="A406" s="5" t="s"/>
       <x:c r="B406" s="6" t="s"/>
       <x:c r="C406" s="7" t="s">
-        <x:v>87</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D406" s="8" t="s">
-        <x:v>88</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E406" s="8" t="s">
-        <x:v>89</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F406" s="9" t="s">
-        <x:v>711</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="G406" s="10" t="s">
-        <x:v>442</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H406" s="10" t="s"/>
       <x:c r="I406" s="11" t="s"/>
@@ -11281,65 +11501,1057 @@
       <x:c r="A407" s="5" t="s"/>
       <x:c r="B407" s="6" t="s"/>
       <x:c r="C407" s="7" t="s">
-        <x:v>149</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D407" s="8" t="s">
-        <x:v>150</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E407" s="8" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="F407" s="9" t="s"/>
-      <x:c r="G407" s="10" t="s"/>
-      <x:c r="H407" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F407" s="9" t="s">
         <x:v>712</x:v>
       </x:c>
-      <x:c r="I407" s="11" t="s">
+      <x:c r="G407" s="10" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="H407" s="10" t="s"/>
+      <x:c r="I407" s="11" t="s"/>
+    </x:row>
+    <x:row r="408" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A408" s="5" t="s"/>
+      <x:c r="B408" s="6" t="s"/>
+      <x:c r="C408" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D408" s="8" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E408" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F408" s="9" t="s">
         <x:v>713</x:v>
       </x:c>
-    </x:row>
-    <x:row r="408" spans="1:9" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A408" s="12" t="s"/>
-      <x:c r="B408" s="13" t="s"/>
-      <x:c r="C408" s="14" t="s"/>
-      <x:c r="D408" s="15" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="E408" s="15" t="s"/>
-      <x:c r="F408" s="16" t="s"/>
-      <x:c r="G408" s="17" t="s">
+      <x:c r="G408" s="10" t="s">
         <x:v>714</x:v>
       </x:c>
-      <x:c r="H408" s="17" t="s">
-        <x:v>715</x:v>
-      </x:c>
-      <x:c r="I408" s="18" t="s">
-        <x:v>713</x:v>
-      </x:c>
+      <x:c r="H408" s="10" t="s"/>
+      <x:c r="I408" s="11" t="s"/>
     </x:row>
     <x:row r="409" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A409" s="5" t="s"/>
       <x:c r="B409" s="6" t="s"/>
-      <x:c r="C409" s="7" t="s"/>
+      <x:c r="C409" s="7" t="s">
+        <x:v>79</x:v>
+      </x:c>
       <x:c r="D409" s="8" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E409" s="8" t="s">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c r="F409" s="9" t="s">
         <x:v>716</x:v>
       </x:c>
-      <x:c r="E409" s="8" t="s"/>
-      <x:c r="F409" s="9" t="s"/>
-      <x:c r="G409" s="10" t="s"/>
+      <x:c r="G409" s="10" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="H409" s="10" t="s"/>
-      <x:c r="I409" s="11" t="s">
+      <x:c r="I409" s="11" t="s"/>
+    </x:row>
+    <x:row r="410" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A410" s="5" t="s"/>
+      <x:c r="B410" s="6" t="s"/>
+      <x:c r="C410" s="7" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D410" s="8" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E410" s="8" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F410" s="9" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="G410" s="10" t="s">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="H410" s="10" t="s"/>
+      <x:c r="I410" s="11" t="s"/>
+    </x:row>
+    <x:row r="411" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A411" s="5" t="s"/>
+      <x:c r="B411" s="6" t="s"/>
+      <x:c r="C411" s="7" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D411" s="8" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E411" s="8" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="F411" s="9" t="s">
         <x:v>713</x:v>
       </x:c>
-    </x:row>
-    <x:row r="410" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="411" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="412" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="413" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="414" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+      <x:c r="G411" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="H411" s="10" t="s"/>
+      <x:c r="I411" s="11" t="s"/>
+    </x:row>
+    <x:row r="412" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A412" s="5" t="s"/>
+      <x:c r="B412" s="6" t="s"/>
+      <x:c r="C412" s="7" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D412" s="8" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E412" s="8" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F412" s="9" t="s">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c r="G412" s="10" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="H412" s="10" t="s"/>
+      <x:c r="I412" s="11" t="s"/>
+    </x:row>
+    <x:row r="413" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A413" s="5" t="s"/>
+      <x:c r="B413" s="6" t="s"/>
+      <x:c r="C413" s="7" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D413" s="8" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E413" s="8" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="F413" s="9" t="s"/>
+      <x:c r="G413" s="10" t="s"/>
+      <x:c r="H413" s="10" t="s">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c r="I413" s="11" t="s"/>
+    </x:row>
+    <x:row r="414" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A414" s="12" t="s"/>
+      <x:c r="B414" s="13" t="s"/>
+      <x:c r="C414" s="14" t="s"/>
+      <x:c r="D414" s="15" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E414" s="15" t="s"/>
+      <x:c r="F414" s="16" t="s"/>
+      <x:c r="G414" s="17" t="s">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c r="H414" s="17" t="s">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c r="I414" s="18" t="s">
+        <x:v>723</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="415" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A415" s="19" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B415" s="19" t="s"/>
+      <x:c r="C415" s="19" t="s"/>
+      <x:c r="D415" s="19" t="s"/>
+      <x:c r="E415" s="19" t="s"/>
+      <x:c r="F415" s="19" t="s"/>
+      <x:c r="G415" s="19" t="s"/>
+      <x:c r="H415" s="20" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I415" s="21" t="s"/>
+    </x:row>
+    <x:row r="416" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A416" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B416" s="6" t="s"/>
+      <x:c r="C416" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D416" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E416" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F416" s="9" t="s"/>
+      <x:c r="G416" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H416" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I416" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="417" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A417" s="5" t="s"/>
+      <x:c r="B417" s="6" t="s"/>
+      <x:c r="C417" s="7" t="s"/>
+      <x:c r="D417" s="8" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E417" s="8" t="s"/>
+      <x:c r="F417" s="9" t="s"/>
+      <x:c r="G417" s="10" t="s"/>
+      <x:c r="H417" s="10" t="s"/>
+      <x:c r="I417" s="11" t="s">
+        <x:v>723</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="418" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A418" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B418" s="6" t="s">
+        <x:v>695</x:v>
+      </x:c>
+      <x:c r="C418" s="7" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D418" s="8" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E418" s="8" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="F418" s="9" t="s"/>
+      <x:c r="G418" s="10" t="s"/>
+      <x:c r="H418" s="10" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="I418" s="11" t="s"/>
+    </x:row>
+    <x:row r="419" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A419" s="5" t="s"/>
+      <x:c r="B419" s="6" t="s"/>
+      <x:c r="C419" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D419" s="8" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E419" s="8" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F419" s="9" t="s">
+        <x:v>725</x:v>
+      </x:c>
+      <x:c r="G419" s="10" t="s"/>
+      <x:c r="H419" s="10" t="s">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="I419" s="11" t="s"/>
+    </x:row>
+    <x:row r="420" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A420" s="5" t="s"/>
+      <x:c r="B420" s="6" t="s"/>
+      <x:c r="C420" s="7" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="D420" s="8" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="E420" s="8" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="F420" s="9" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="G420" s="10" t="s"/>
+      <x:c r="H420" s="10" t="s">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c r="I420" s="11" t="s"/>
+    </x:row>
+    <x:row r="421" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A421" s="5" t="s"/>
+      <x:c r="B421" s="6" t="s"/>
+      <x:c r="C421" s="7" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="D421" s="8" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="E421" s="8" t="s">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c r="F421" s="9" t="s">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="G421" s="10" t="s"/>
+      <x:c r="H421" s="10" t="s">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c r="I421" s="11" t="s"/>
+    </x:row>
+    <x:row r="422" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A422" s="5" t="s"/>
+      <x:c r="B422" s="6" t="s"/>
+      <x:c r="C422" s="7" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="D422" s="8" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="E422" s="8" t="s">
+        <x:v>731</x:v>
+      </x:c>
+      <x:c r="F422" s="9" t="s">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="G422" s="10" t="s"/>
+      <x:c r="H422" s="10" t="s">
+        <x:v>733</x:v>
+      </x:c>
+      <x:c r="I422" s="11" t="s"/>
+    </x:row>
+    <x:row r="423" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A423" s="5" t="s"/>
+      <x:c r="B423" s="6" t="s"/>
+      <x:c r="C423" s="7" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="D423" s="8" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="E423" s="8" t="s">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c r="F423" s="9" t="s">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="G423" s="10" t="s"/>
+      <x:c r="H423" s="10" t="s">
+        <x:v>734</x:v>
+      </x:c>
+      <x:c r="I423" s="11" t="s">
+        <x:v>735</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="424" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A424" s="5" t="s"/>
+      <x:c r="B424" s="6" t="s">
+        <x:v>736</x:v>
+      </x:c>
+      <x:c r="C424" s="7" t="s">
+        <x:v>737</x:v>
+      </x:c>
+      <x:c r="D424" s="8" t="s">
+        <x:v>738</x:v>
+      </x:c>
+      <x:c r="E424" s="8" t="s">
+        <x:v>739</x:v>
+      </x:c>
+      <x:c r="F424" s="9" t="s">
+        <x:v>740</x:v>
+      </x:c>
+      <x:c r="G424" s="10" t="s">
+        <x:v>741</x:v>
+      </x:c>
+      <x:c r="H424" s="10" t="s"/>
+      <x:c r="I424" s="11" t="s"/>
+    </x:row>
+    <x:row r="425" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A425" s="5" t="s"/>
+      <x:c r="B425" s="6" t="s"/>
+      <x:c r="C425" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D425" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E425" s="8" t="s"/>
+      <x:c r="F425" s="9" t="s">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c r="G425" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H425" s="10" t="s"/>
+      <x:c r="I425" s="11" t="s"/>
+    </x:row>
+    <x:row r="426" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A426" s="5" t="s"/>
+      <x:c r="B426" s="6" t="s"/>
+      <x:c r="C426" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D426" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E426" s="8" t="s"/>
+      <x:c r="F426" s="9" t="s">
+        <x:v>743</x:v>
+      </x:c>
+      <x:c r="G426" s="10" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="H426" s="10" t="s"/>
+      <x:c r="I426" s="11" t="s"/>
+    </x:row>
+    <x:row r="427" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A427" s="5" t="s"/>
+      <x:c r="B427" s="6" t="s"/>
+      <x:c r="C427" s="7" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D427" s="8" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E427" s="8" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F427" s="9" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="G427" s="10" t="s">
+        <x:v>744</x:v>
+      </x:c>
+      <x:c r="H427" s="10" t="s"/>
+      <x:c r="I427" s="11" t="s"/>
+    </x:row>
+    <x:row r="428" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A428" s="5" t="s"/>
+      <x:c r="B428" s="6" t="s"/>
+      <x:c r="C428" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D428" s="8" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E428" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F428" s="9" t="s">
+        <x:v>745</x:v>
+      </x:c>
+      <x:c r="G428" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H428" s="10" t="s"/>
+      <x:c r="I428" s="11" t="s"/>
+    </x:row>
+    <x:row r="429" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A429" s="5" t="s"/>
+      <x:c r="B429" s="6" t="s"/>
+      <x:c r="C429" s="7" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D429" s="8" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E429" s="8" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="F429" s="9" t="s">
+        <x:v>746</x:v>
+      </x:c>
+      <x:c r="G429" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="H429" s="10" t="s"/>
+      <x:c r="I429" s="11" t="s"/>
+    </x:row>
+    <x:row r="430" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A430" s="5" t="s"/>
+      <x:c r="B430" s="6" t="s"/>
+      <x:c r="C430" s="7" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D430" s="8" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E430" s="8" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F430" s="9" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="G430" s="10" t="s">
+        <x:v>747</x:v>
+      </x:c>
+      <x:c r="H430" s="10" t="s"/>
+      <x:c r="I430" s="11" t="s"/>
+    </x:row>
+    <x:row r="431" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A431" s="5" t="s"/>
+      <x:c r="B431" s="6" t="s"/>
+      <x:c r="C431" s="7" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D431" s="8" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E431" s="8" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="F431" s="9" t="s"/>
+      <x:c r="G431" s="10" t="s"/>
+      <x:c r="H431" s="10" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I431" s="11" t="s"/>
+    </x:row>
+    <x:row r="432" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A432" s="5" t="s"/>
+      <x:c r="B432" s="6" t="s"/>
+      <x:c r="C432" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D432" s="8" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E432" s="8" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F432" s="9" t="s">
+        <x:v>748</x:v>
+      </x:c>
+      <x:c r="G432" s="10" t="s"/>
+      <x:c r="H432" s="10" t="s">
+        <x:v>749</x:v>
+      </x:c>
+      <x:c r="I432" s="11" t="s"/>
+    </x:row>
+    <x:row r="433" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A433" s="5" t="s"/>
+      <x:c r="B433" s="6" t="s"/>
+      <x:c r="C433" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D433" s="8" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E433" s="8" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F433" s="9" t="s">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c r="G433" s="10" t="s"/>
+      <x:c r="H433" s="10" t="s">
+        <x:v>751</x:v>
+      </x:c>
+      <x:c r="I433" s="11" t="s">
+        <x:v>752</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="434" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A434" s="5" t="s"/>
+      <x:c r="B434" s="6" t="s">
+        <x:v>753</x:v>
+      </x:c>
+      <x:c r="C434" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D434" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E434" s="8" t="s"/>
+      <x:c r="F434" s="9" t="s">
+        <x:v>754</x:v>
+      </x:c>
+      <x:c r="G434" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H434" s="10" t="s"/>
+      <x:c r="I434" s="11" t="s"/>
+    </x:row>
+    <x:row r="435" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A435" s="5" t="s"/>
+      <x:c r="B435" s="6" t="s"/>
+      <x:c r="C435" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D435" s="8" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E435" s="8" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F435" s="9" t="s">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c r="G435" s="10" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="H435" s="10" t="s"/>
+      <x:c r="I435" s="11" t="s"/>
+    </x:row>
+    <x:row r="436" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A436" s="5" t="s"/>
+      <x:c r="B436" s="6" t="s"/>
+      <x:c r="C436" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D436" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E436" s="8" t="s"/>
+      <x:c r="F436" s="9" t="s">
+        <x:v>756</x:v>
+      </x:c>
+      <x:c r="G436" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H436" s="10" t="s"/>
+      <x:c r="I436" s="11" t="s"/>
+    </x:row>
+    <x:row r="437" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A437" s="5" t="s"/>
+      <x:c r="B437" s="6" t="s"/>
+      <x:c r="C437" s="7" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D437" s="8" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E437" s="8" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="F437" s="9" t="s">
+        <x:v>757</x:v>
+      </x:c>
+      <x:c r="G437" s="10" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="H437" s="10" t="s"/>
+      <x:c r="I437" s="11" t="s"/>
+    </x:row>
+    <x:row r="438" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A438" s="5" t="s"/>
+      <x:c r="B438" s="6" t="s"/>
+      <x:c r="C438" s="7" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D438" s="8" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E438" s="8" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="F438" s="9" t="s">
+        <x:v>758</x:v>
+      </x:c>
+      <x:c r="G438" s="10" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H438" s="10" t="s"/>
+      <x:c r="I438" s="11" t="s"/>
+    </x:row>
+    <x:row r="439" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A439" s="5" t="s"/>
+      <x:c r="B439" s="6" t="s"/>
+      <x:c r="C439" s="7" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="D439" s="8" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="E439" s="8" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="F439" s="9" t="s">
+        <x:v>759</x:v>
+      </x:c>
+      <x:c r="G439" s="10" t="s">
+        <x:v>760</x:v>
+      </x:c>
+      <x:c r="H439" s="10" t="s"/>
+      <x:c r="I439" s="11" t="s"/>
+    </x:row>
+    <x:row r="440" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A440" s="5" t="s"/>
+      <x:c r="B440" s="6" t="s"/>
+      <x:c r="C440" s="7" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D440" s="8" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E440" s="8" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="F440" s="9" t="s"/>
+      <x:c r="G440" s="10" t="s"/>
+      <x:c r="H440" s="10" t="s">
+        <x:v>761</x:v>
+      </x:c>
+      <x:c r="I440" s="11" t="s"/>
+    </x:row>
+    <x:row r="441" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A441" s="5" t="s"/>
+      <x:c r="B441" s="6" t="s"/>
+      <x:c r="C441" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D441" s="8" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E441" s="8" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F441" s="9" t="s">
+        <x:v>762</x:v>
+      </x:c>
+      <x:c r="G441" s="10" t="s"/>
+      <x:c r="H441" s="10" t="s">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c r="I441" s="11" t="s"/>
+    </x:row>
+    <x:row r="442" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A442" s="5" t="s"/>
+      <x:c r="B442" s="6" t="s"/>
+      <x:c r="C442" s="7" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="D442" s="8" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="E442" s="8" t="s">
+        <x:v>764</x:v>
+      </x:c>
+      <x:c r="F442" s="9" t="s">
+        <x:v>447</x:v>
+      </x:c>
+      <x:c r="G442" s="10" t="s"/>
+      <x:c r="H442" s="10" t="s">
+        <x:v>765</x:v>
+      </x:c>
+      <x:c r="I442" s="11" t="s"/>
+    </x:row>
+    <x:row r="443" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A443" s="5" t="s"/>
+      <x:c r="B443" s="6" t="s"/>
+      <x:c r="C443" s="7" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D443" s="8" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="E443" s="8" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="F443" s="9" t="s">
+        <x:v>766</x:v>
+      </x:c>
+      <x:c r="G443" s="10" t="s"/>
+      <x:c r="H443" s="10" t="s">
+        <x:v>767</x:v>
+      </x:c>
+      <x:c r="I443" s="11" t="s"/>
+    </x:row>
+    <x:row r="444" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A444" s="5" t="s"/>
+      <x:c r="B444" s="6" t="s"/>
+      <x:c r="C444" s="7" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D444" s="8" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E444" s="8" t="s">
+        <x:v>768</x:v>
+      </x:c>
+      <x:c r="F444" s="9" t="s">
+        <x:v>769</x:v>
+      </x:c>
+      <x:c r="G444" s="10" t="s"/>
+      <x:c r="H444" s="10" t="s">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="I444" s="11" t="s"/>
+    </x:row>
+    <x:row r="445" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A445" s="5" t="s"/>
+      <x:c r="B445" s="6" t="s"/>
+      <x:c r="C445" s="7" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D445" s="8" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E445" s="8" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F445" s="9" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="G445" s="10" t="s"/>
+      <x:c r="H445" s="10" t="s">
+        <x:v>771</x:v>
+      </x:c>
+      <x:c r="I445" s="11" t="s">
+        <x:v>772</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="446" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A446" s="5" t="s"/>
+      <x:c r="B446" s="6" t="s">
+        <x:v>773</x:v>
+      </x:c>
+      <x:c r="C446" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D446" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E446" s="8" t="s"/>
+      <x:c r="F446" s="9" t="s">
+        <x:v>774</x:v>
+      </x:c>
+      <x:c r="G446" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H446" s="10" t="s"/>
+      <x:c r="I446" s="11" t="s"/>
+    </x:row>
+    <x:row r="447" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A447" s="5" t="s"/>
+      <x:c r="B447" s="6" t="s"/>
+      <x:c r="C447" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D447" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E447" s="8" t="s"/>
+      <x:c r="F447" s="9" t="s">
+        <x:v>774</x:v>
+      </x:c>
+      <x:c r="G447" s="10" t="s">
+        <x:v>775</x:v>
+      </x:c>
+      <x:c r="H447" s="10" t="s"/>
+      <x:c r="I447" s="11" t="s"/>
+    </x:row>
+    <x:row r="448" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A448" s="5" t="s"/>
+      <x:c r="B448" s="6" t="s"/>
+      <x:c r="C448" s="7" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D448" s="8" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E448" s="8" t="s">
+        <x:v>776</x:v>
+      </x:c>
+      <x:c r="F448" s="9" t="s">
+        <x:v>777</x:v>
+      </x:c>
+      <x:c r="G448" s="10" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="H448" s="10" t="s"/>
+      <x:c r="I448" s="11" t="s"/>
+    </x:row>
+    <x:row r="449" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A449" s="5" t="s"/>
+      <x:c r="B449" s="6" t="s"/>
+      <x:c r="C449" s="7" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D449" s="8" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E449" s="8" t="s">
+        <x:v>778</x:v>
+      </x:c>
+      <x:c r="F449" s="9" t="s">
+        <x:v>779</x:v>
+      </x:c>
+      <x:c r="G449" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H449" s="10" t="s"/>
+      <x:c r="I449" s="11" t="s"/>
+    </x:row>
+    <x:row r="450" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A450" s="5" t="s"/>
+      <x:c r="B450" s="6" t="s"/>
+      <x:c r="C450" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D450" s="8" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E450" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F450" s="9" t="s">
+        <x:v>780</x:v>
+      </x:c>
+      <x:c r="G450" s="10" t="s">
+        <x:v>665</x:v>
+      </x:c>
+      <x:c r="H450" s="10" t="s"/>
+      <x:c r="I450" s="11" t="s"/>
+    </x:row>
+    <x:row r="451" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A451" s="5" t="s"/>
+      <x:c r="B451" s="6" t="s"/>
+      <x:c r="C451" s="7" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D451" s="8" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E451" s="8" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F451" s="9" t="s">
+        <x:v>781</x:v>
+      </x:c>
+      <x:c r="G451" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H451" s="10" t="s"/>
+      <x:c r="I451" s="11" t="s"/>
+    </x:row>
+    <x:row r="452" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A452" s="5" t="s"/>
+      <x:c r="B452" s="6" t="s"/>
+      <x:c r="C452" s="7" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D452" s="8" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E452" s="8" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="F452" s="9" t="s">
+        <x:v>782</x:v>
+      </x:c>
+      <x:c r="G452" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="H452" s="10" t="s"/>
+      <x:c r="I452" s="11" t="s"/>
+    </x:row>
+    <x:row r="453" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A453" s="5" t="s"/>
+      <x:c r="B453" s="6" t="s"/>
+      <x:c r="C453" s="7" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D453" s="8" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E453" s="8" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="F453" s="9" t="s"/>
+      <x:c r="G453" s="10" t="s"/>
+      <x:c r="H453" s="10" t="s">
+        <x:v>783</x:v>
+      </x:c>
+      <x:c r="I453" s="11" t="s"/>
+    </x:row>
+    <x:row r="454" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A454" s="5" t="s"/>
+      <x:c r="B454" s="6" t="s"/>
+      <x:c r="C454" s="7" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D454" s="8" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E454" s="8" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="F454" s="9" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G454" s="10" t="s"/>
+      <x:c r="H454" s="10" t="s">
+        <x:v>784</x:v>
+      </x:c>
+      <x:c r="I454" s="11" t="s"/>
+    </x:row>
+    <x:row r="455" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A455" s="5" t="s"/>
+      <x:c r="B455" s="6" t="s"/>
+      <x:c r="C455" s="7" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D455" s="8" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="E455" s="8" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="F455" s="9" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="G455" s="10" t="s"/>
+      <x:c r="H455" s="10" t="s">
+        <x:v>786</x:v>
+      </x:c>
+      <x:c r="I455" s="11" t="s">
+        <x:v>787</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="456" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A456" s="12" t="s"/>
+      <x:c r="B456" s="13" t="s"/>
+      <x:c r="C456" s="14" t="s"/>
+      <x:c r="D456" s="15" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E456" s="15" t="s"/>
+      <x:c r="F456" s="16" t="s"/>
+      <x:c r="G456" s="17" t="s">
+        <x:v>788</x:v>
+      </x:c>
+      <x:c r="H456" s="17" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="I456" s="18" t="s">
+        <x:v>787</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="457" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A457" s="5" t="s"/>
+      <x:c r="B457" s="6" t="s"/>
+      <x:c r="C457" s="7" t="s"/>
+      <x:c r="D457" s="8" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="E457" s="8" t="s"/>
+      <x:c r="F457" s="9" t="s"/>
+      <x:c r="G457" s="10" t="s"/>
+      <x:c r="H457" s="10" t="s"/>
+      <x:c r="I457" s="11" t="s">
+        <x:v>787</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="458" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="459" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="460" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>
-  <x:mergeCells count="36">
+  <x:mergeCells count="40">
     <x:mergeCell ref="A1:G1"/>
     <x:mergeCell ref="H1:I1"/>
     <x:mergeCell ref="A2:B2"/>
@@ -11376,6 +12588,10 @@
     <x:mergeCell ref="H369:I369"/>
     <x:mergeCell ref="A370:B370"/>
     <x:mergeCell ref="E370:F370"/>
+    <x:mergeCell ref="A415:G415"/>
+    <x:mergeCell ref="H415:I415"/>
+    <x:mergeCell ref="A416:B416"/>
+    <x:mergeCell ref="E416:F416"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.27559" right="0.27559" top="0.3937" bottom="0.3937" header="0.5" footer="0.19685"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="791">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="803">
   <x:si>
     <x:t>令和 3 年</x:t>
   </x:si>
   <x:si>
-    <x:t>発行 : R3.10.28 林飛</x:t>
+    <x:t>発行 : R3.10.29 林飛</x:t>
   </x:si>
   <x:si>
     <x:t>日付</x:t>
@@ -2380,10 +2380,46 @@
     <x:t>711,184</x:t>
   </x:si>
   <x:si>
-    <x:t>32,969,525</x:t>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>鈴木家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>酒他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>澤本家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33,335,025</x:t>
   </x:si>
   <x:si>
     <x:t>32,904,424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,076,684</x:t>
+  </x:si>
+  <x:si>
+    <x:t>永井家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>澤本家他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>773,644</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33,356,025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33,228,464</x:t>
   </x:si>
   <x:si>
     <x:t>翌月へ繰越</x:t>
@@ -3105,7 +3141,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I460"/>
+  <x:dimension ref="A1:I506"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -12513,45 +12549,325 @@
       </x:c>
     </x:row>
     <x:row r="456" spans="1:9" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A456" s="12" t="s"/>
-      <x:c r="B456" s="13" t="s"/>
-      <x:c r="C456" s="14" t="s"/>
-      <x:c r="D456" s="15" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="E456" s="15" t="s"/>
-      <x:c r="F456" s="16" t="s"/>
-      <x:c r="G456" s="17" t="s">
+      <x:c r="A456" s="5" t="s"/>
+      <x:c r="B456" s="6" t="s">
         <x:v>788</x:v>
       </x:c>
-      <x:c r="H456" s="17" t="s">
+      <x:c r="C456" s="7" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D456" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E456" s="8" t="s"/>
+      <x:c r="F456" s="9" t="s">
         <x:v>789</x:v>
       </x:c>
-      <x:c r="I456" s="18" t="s">
-        <x:v>787</x:v>
-      </x:c>
+      <x:c r="G456" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H456" s="10" t="s"/>
+      <x:c r="I456" s="11" t="s"/>
     </x:row>
     <x:row r="457" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A457" s="5" t="s"/>
       <x:c r="B457" s="6" t="s"/>
-      <x:c r="C457" s="7" t="s"/>
+      <x:c r="C457" s="7" t="s">
+        <x:v>67</x:v>
+      </x:c>
       <x:c r="D457" s="8" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E457" s="8" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="F457" s="9" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="G457" s="10" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="H457" s="10" t="s"/>
+      <x:c r="I457" s="11" t="s"/>
+    </x:row>
+    <x:row r="458" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A458" s="5" t="s"/>
+      <x:c r="B458" s="6" t="s"/>
+      <x:c r="C458" s="7" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D458" s="8" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E458" s="8" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F458" s="9" t="s">
         <x:v>790</x:v>
       </x:c>
-      <x:c r="E457" s="8" t="s"/>
-      <x:c r="F457" s="9" t="s"/>
-      <x:c r="G457" s="10" t="s"/>
-      <x:c r="H457" s="10" t="s"/>
-      <x:c r="I457" s="11" t="s">
-        <x:v>787</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="458" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="459" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="460" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+      <x:c r="G458" s="10" t="s">
+        <x:v>791</x:v>
+      </x:c>
+      <x:c r="H458" s="10" t="s"/>
+      <x:c r="I458" s="11" t="s"/>
+    </x:row>
+    <x:row r="459" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A459" s="5" t="s"/>
+      <x:c r="B459" s="6" t="s"/>
+      <x:c r="C459" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D459" s="8" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E459" s="8" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F459" s="9" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="G459" s="10" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="H459" s="10" t="s"/>
+      <x:c r="I459" s="11" t="s"/>
+    </x:row>
+    <x:row r="460" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A460" s="12" t="s"/>
+      <x:c r="B460" s="13" t="s"/>
+      <x:c r="C460" s="14" t="s"/>
+      <x:c r="D460" s="15" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E460" s="15" t="s"/>
+      <x:c r="F460" s="16" t="s"/>
+      <x:c r="G460" s="17" t="s">
+        <x:v>793</x:v>
+      </x:c>
+      <x:c r="H460" s="17" t="s">
+        <x:v>794</x:v>
+      </x:c>
+      <x:c r="I460" s="18" t="s">
+        <x:v>795</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="461" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A461" s="19" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B461" s="19" t="s"/>
+      <x:c r="C461" s="19" t="s"/>
+      <x:c r="D461" s="19" t="s"/>
+      <x:c r="E461" s="19" t="s"/>
+      <x:c r="F461" s="19" t="s"/>
+      <x:c r="G461" s="19" t="s"/>
+      <x:c r="H461" s="20" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I461" s="21" t="s"/>
+    </x:row>
+    <x:row r="462" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A462" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B462" s="6" t="s"/>
+      <x:c r="C462" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D462" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E462" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F462" s="9" t="s"/>
+      <x:c r="G462" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H462" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I462" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="463" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A463" s="5" t="s"/>
+      <x:c r="B463" s="6" t="s"/>
+      <x:c r="C463" s="7" t="s"/>
+      <x:c r="D463" s="8" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E463" s="8" t="s"/>
+      <x:c r="F463" s="9" t="s"/>
+      <x:c r="G463" s="10" t="s"/>
+      <x:c r="H463" s="10" t="s"/>
+      <x:c r="I463" s="11" t="s">
+        <x:v>795</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="464" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A464" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B464" s="6" t="s">
+        <x:v>788</x:v>
+      </x:c>
+      <x:c r="C464" s="7" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D464" s="8" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E464" s="8" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F464" s="9" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="G464" s="10" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H464" s="10" t="s"/>
+      <x:c r="I464" s="11" t="s"/>
+    </x:row>
+    <x:row r="465" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A465" s="5" t="s"/>
+      <x:c r="B465" s="6" t="s"/>
+      <x:c r="C465" s="7" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D465" s="8" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E465" s="8" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="F465" s="9" t="s">
+        <x:v>797</x:v>
+      </x:c>
+      <x:c r="G465" s="10" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="H465" s="10" t="s"/>
+      <x:c r="I465" s="11" t="s"/>
+    </x:row>
+    <x:row r="466" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A466" s="5" t="s"/>
+      <x:c r="B466" s="6" t="s"/>
+      <x:c r="C466" s="7" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D466" s="8" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E466" s="8" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="F466" s="9" t="s"/>
+      <x:c r="G466" s="10" t="s"/>
+      <x:c r="H466" s="10" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="I466" s="11" t="s"/>
+    </x:row>
+    <x:row r="467" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A467" s="5" t="s"/>
+      <x:c r="B467" s="6" t="s"/>
+      <x:c r="C467" s="7" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="D467" s="8" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="E467" s="8" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="F467" s="9" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="G467" s="10" t="s"/>
+      <x:c r="H467" s="10" t="s">
+        <x:v>798</x:v>
+      </x:c>
+      <x:c r="I467" s="11" t="s">
+        <x:v>799</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="468" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A468" s="12" t="s"/>
+      <x:c r="B468" s="13" t="s"/>
+      <x:c r="C468" s="14" t="s"/>
+      <x:c r="D468" s="15" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E468" s="15" t="s"/>
+      <x:c r="F468" s="16" t="s"/>
+      <x:c r="G468" s="17" t="s">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="H468" s="17" t="s">
+        <x:v>801</x:v>
+      </x:c>
+      <x:c r="I468" s="18" t="s">
+        <x:v>799</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="469" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A469" s="5" t="s"/>
+      <x:c r="B469" s="6" t="s"/>
+      <x:c r="C469" s="7" t="s"/>
+      <x:c r="D469" s="8" t="s">
+        <x:v>802</x:v>
+      </x:c>
+      <x:c r="E469" s="8" t="s"/>
+      <x:c r="F469" s="9" t="s"/>
+      <x:c r="G469" s="10" t="s"/>
+      <x:c r="H469" s="10" t="s"/>
+      <x:c r="I469" s="11" t="s">
+        <x:v>799</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="470" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="471" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="472" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="473" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="474" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="475" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="476" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="477" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="478" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="479" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="480" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="481" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="482" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="483" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="484" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="485" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="486" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="487" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="488" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="489" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="490" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="491" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="492" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="493" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="494" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="495" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="496" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="497" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="498" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="499" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="500" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="501" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="502" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="503" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="504" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="505" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="506" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>
-  <x:mergeCells count="40">
+  <x:mergeCells count="44">
     <x:mergeCell ref="A1:G1"/>
     <x:mergeCell ref="H1:I1"/>
     <x:mergeCell ref="A2:B2"/>
@@ -12592,6 +12908,10 @@
     <x:mergeCell ref="H415:I415"/>
     <x:mergeCell ref="A416:B416"/>
     <x:mergeCell ref="E416:F416"/>
+    <x:mergeCell ref="A461:G461"/>
+    <x:mergeCell ref="H461:I461"/>
+    <x:mergeCell ref="A462:B462"/>
+    <x:mergeCell ref="E462:F462"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.27559" right="0.27559" top="0.3937" bottom="0.3937" header="0.5" footer="0.19685"/>

--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,46 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <x:si>
-    <x:t>収支日報</x:t>
-  </x:si>
-  <x:si>
-    <x:t>令和3年11月19日（金）</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(株)ワイズ・コア</x:t>
-  </x:si>
-  <x:si>
-    <x:t>承認印</x:t>
-  </x:si>
-  <x:si>
-    <x:t>経理印</x:t>
-  </x:si>
-  <x:si>
-    <x:t>係印</x:t>
-  </x:si>
-  <x:si>
-    <x:t>横浜銀行残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22,233,507 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>林飛</x:t>
-  </x:si>
-  <x:si>
-    <x:t>春秋苑仮払金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>860,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>内訳</x:t>
-  </x:si>
-  <x:si>
-    <x:t>前日より
-繰越</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+  <x:si>
+    <x:t>令和 4 年</x:t>
+  </x:si>
+  <x:si>
+    <x:t>発行 : R4.1.2 林飛</x:t>
+  </x:si>
+  <x:si>
+    <x:t>日付</x:t>
+  </x:si>
+  <x:si>
+    <x:t>コード</x:t>
+  </x:si>
+  <x:si>
+    <x:t>勘定科目</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内容</x:t>
   </x:si>
   <x:si>
     <x:t>入金</x:t>
@@ -62,86 +40,250 @@
     <x:t>出金</x:t>
   </x:si>
   <x:si>
-    <x:t>銀行振替</x:t>
-  </x:si>
-  <x:si>
-    <x:t>春秋苑
-仮払金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>残高</x:t>
-  </x:si>
-  <x:si>
-    <x:t>蓮華庵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>282,922 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283,404 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26,780 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>360,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179,546 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>春秋庵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46,733 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>346,219 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67,839 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125,113 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>香華</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55,053 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>515,600 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300,000 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90,653 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>現金合計</x:t>
-  </x:si>
-  <x:si>
-    <x:t>384,708 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,145,223 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94,619 円</x:t>
-  </x:si>
-  <x:si>
-    <x:t>395,312 円</x:t>
+    <x:t>差引残高</x:t>
+  </x:si>
+  <x:si>
+    <x:t>前月より繰越</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,937,951</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>813</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法事冥加</x:t>
+  </x:si>
+  <x:si>
+    <x:t>特別参拝室</x:t>
+  </x:si>
+  <x:si>
+    <x:t>高橋家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>821</x:t>
+  </x:si>
+  <x:si>
+    <x:t>墓域清掃料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>プランター契約</x:t>
+  </x:si>
+  <x:si>
+    <x:t>黛 多計治071361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>874</x:t>
+  </x:si>
+  <x:si>
+    <x:t>その他茶所収入</x:t>
+  </x:si>
+  <x:si>
+    <x:t>物販</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ビール他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>日本酒</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2件他3件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>822</x:t>
+  </x:si>
+  <x:si>
+    <x:t>その他冥加金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>鐘打懇志</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>懇志読経料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>古物預かり</x:t>
+  </x:si>
+  <x:si>
+    <x:t>穂積秀二</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>除夜会法要</x:t>
+  </x:si>
+  <x:si>
+    <x:t>株式会社ネクストコム 代表取締役 加藤公庸他9件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55,147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>元旦会法要</x:t>
+  </x:si>
+  <x:si>
+    <x:t>安藤登美子他2件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>仮払金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>違算金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>複合勘定</x:t>
+  </x:si>
+  <x:si>
+    <x:t>アルバイト</x:t>
+  </x:si>
+  <x:si>
+    <x:t>運転手アルバイト 矢仲進他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26,860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612</x:t>
+  </x:si>
+  <x:si>
+    <x:t>福利厚生費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>お弁当</x:t>
+  </x:si>
+  <x:si>
+    <x:t>和い寿</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88,992</x:t>
+  </x:si>
+  <x:si>
+    <x:t>お礼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>関口郷子他7件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>302,730</x:t>
+  </x:si>
+  <x:si>
+    <x:t>737</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法要費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>着付け 田中ヨシ子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,673,716</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理料</x:t>
+  </x:si>
+  <x:si>
+    <x:t>大光寺 康 2021,2022年度分</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20,320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ライター</x:t>
+  </x:si>
+  <x:si>
+    <x:t>他2件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>藤沢佳文他9件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>後藤他9件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>不明他6件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>入谷家他8件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>交通費</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生田交通（株）関口様</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,750,846</x:t>
+  </x:si>
+  <x:si>
+    <x:t>計</x:t>
+  </x:si>
+  <x:si>
+    <x:t>241,577</x:t>
+  </x:si>
+  <x:si>
+    <x:t>428,682</x:t>
+  </x:si>
+  <x:si>
+    <x:t>翌月へ繰越</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -164,15 +306,14 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
-      <x:name val="游ゴシック"/>
+      <x:name val="ＭＳ Ｐゴシック"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
-      <x:u val="single"/>
       <x:vertAlign val="baseline"/>
-      <x:sz val="22"/>
+      <x:sz val="9"/>
       <x:color rgb="FF000000"/>
-      <x:name val="游ゴシック"/>
+      <x:name val="ＭＳ Ｐゴシック"/>
       <x:family val="2"/>
     </x:font>
   </x:fonts>
@@ -184,7 +325,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="3">
+  <x:borders count="13">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -206,7 +347,7 @@
       <x:left style="thin">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="thin">
+      <x:right style="dashed">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
@@ -220,13 +361,183 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
+      <x:left style="dashed">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="none">
+      <x:right style="double">
         <x:color rgb="FF000000"/>
       </x:right>
-      <x:top style="none">
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="double">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="double">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="dashed">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="dashed">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="double">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="double">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="double">
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
@@ -237,7 +548,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -253,58 +564,112 @@
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="19">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -602,225 +967,575 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I12"/>
+  <x:dimension ref="A1:I46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="4.850625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="7.420625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="6.850625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="5.420625" style="1" customWidth="1"/>
-    <x:col min="6" max="9" width="12.280625" style="1" customWidth="1"/>
     <x:col min="10" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="2.850625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="5.420625" style="1" customWidth="1"/>
+    <x:col min="4" max="5" width="13.570625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="14.280625" style="1" customWidth="1"/>
+    <x:col min="7" max="9" width="10.570625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:9" customFormat="1" ht="42" customHeight="1">
+    <x:row r="1" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:9" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="H2" s="3" t="s">
+      <x:c r="B1" s="2" t="s"/>
+      <x:c r="C1" s="2" t="s"/>
+      <x:c r="D1" s="2" t="s"/>
+      <x:c r="E1" s="2" t="s"/>
+      <x:c r="F1" s="2" t="s"/>
+      <x:c r="G1" s="2" t="s"/>
+      <x:c r="H1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:9" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="H3" s="3" t="s">
+      <x:c r="I1" s="4" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A2" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="G4" s="4" t="s">
+      <x:c r="B2" s="6" t="s"/>
+      <x:c r="C2" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H4" s="4" t="s">
+      <x:c r="D2" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="I4" s="4" t="s">
+      <x:c r="E2" s="8" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:9" customFormat="1" ht="55.5" customHeight="1">
-      <x:c r="A5" s="5" t="s">
+      <x:c r="F2" s="9" t="s"/>
+      <x:c r="G2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="H2" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I2" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A3" s="5" t="s"/>
+      <x:c r="B3" s="6" t="s"/>
+      <x:c r="C3" s="7" t="s"/>
+      <x:c r="D3" s="8" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E3" s="8" t="s"/>
+      <x:c r="F3" s="9" t="s"/>
+      <x:c r="G3" s="10" t="s"/>
+      <x:c r="H3" s="10" t="s"/>
+      <x:c r="I3" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A4" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B4" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="8" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F4" s="9" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G4" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H4" s="10" t="s"/>
+      <x:c r="I4" s="11" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A5" s="5" t="s"/>
       <x:c r="B5" s="6" t="s"/>
       <x:c r="C5" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D5" s="6" t="s"/>
-      <x:c r="E5" s="6" t="s"/>
-      <x:c r="G5" s="4" t="s"/>
-      <x:c r="H5" s="4" t="s"/>
-      <x:c r="I5" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:9" customFormat="1" ht="18.75" customHeight="1">
-      <x:c r="A6" s="8" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B6" s="9" t="s"/>
-      <x:c r="C6" s="10" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D6" s="6" t="s"/>
-      <x:c r="E6" s="6" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:9" customFormat="1" ht="18.75" customHeight="1"/>
-    <x:row r="8" spans="1:9" customFormat="1" ht="41.25" customHeight="1">
-      <x:c r="A8" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B8" s="11" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C8" s="4" t="s"/>
-      <x:c r="D8" s="4" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E8" s="4" t="s"/>
-      <x:c r="F8" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G8" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H8" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I8" s="4" t="s">
         <x:v>17</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:9" customFormat="1" ht="45" customHeight="1">
-      <x:c r="A9" s="4" t="s">
+      <x:c r="D5" s="8" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B9" s="12" t="s">
+      <x:c r="E5" s="8" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C9" s="12" t="s"/>
-      <x:c r="D9" s="12" t="s">
+      <x:c r="F5" s="9" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E9" s="12" t="s"/>
-      <x:c r="F9" s="12" t="s">
+      <x:c r="G5" s="10" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="G9" s="12" t="s">
+      <x:c r="H5" s="10" t="s"/>
+      <x:c r="I5" s="11" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A6" s="5" t="s"/>
+      <x:c r="B6" s="6" t="s"/>
+      <x:c r="C6" s="7" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="H9" s="12" t="s">
+      <x:c r="D6" s="8" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="I9" s="12" t="s">
+      <x:c r="E6" s="8" t="s">
         <x:v>24</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:9" customFormat="1" ht="45" customHeight="1">
-      <x:c r="A10" s="4" t="s">
+      <x:c r="F6" s="9" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B10" s="12" t="s">
+      <x:c r="G6" s="10" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C10" s="12" t="s"/>
-      <x:c r="D10" s="12" t="s">
+      <x:c r="H6" s="10" t="s"/>
+      <x:c r="I6" s="11" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A7" s="5" t="s"/>
+      <x:c r="B7" s="6" t="s"/>
+      <x:c r="C7" s="7" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D7" s="8" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E7" s="8" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E10" s="12" t="s"/>
-      <x:c r="F10" s="12" t="s">
+      <x:c r="F7" s="9" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="G10" s="12" t="s">
+      <x:c r="G7" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H7" s="10" t="s"/>
+      <x:c r="I7" s="11" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A8" s="5" t="s"/>
+      <x:c r="B8" s="6" t="s"/>
+      <x:c r="C8" s="7" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D8" s="8" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E8" s="8" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F8" s="9" t="s"/>
+      <x:c r="G8" s="10" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H8" s="10" t="s"/>
+      <x:c r="I8" s="11" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A9" s="5" t="s"/>
+      <x:c r="B9" s="6" t="s"/>
+      <x:c r="C9" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D9" s="8" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E9" s="8" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F9" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G9" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H9" s="10" t="s"/>
+      <x:c r="I9" s="11" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A10" s="5" t="s"/>
+      <x:c r="B10" s="6" t="s"/>
+      <x:c r="C10" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D10" s="8" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E10" s="8" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F10" s="9" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G10" s="10" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H10" s="10" t="s"/>
+      <x:c r="I10" s="11" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A11" s="5" t="s"/>
+      <x:c r="B11" s="6" t="s"/>
+      <x:c r="C11" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D11" s="8" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E11" s="8" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F11" s="9" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G11" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H11" s="10" t="s"/>
+      <x:c r="I11" s="11" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A12" s="5" t="s"/>
+      <x:c r="B12" s="6" t="s"/>
+      <x:c r="C12" s="7" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D12" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E12" s="8" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F12" s="9" t="s"/>
+      <x:c r="G12" s="10" t="s"/>
+      <x:c r="H12" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I12" s="11" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A13" s="5" t="s"/>
+      <x:c r="B13" s="6" t="s"/>
+      <x:c r="C13" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D13" s="8" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E13" s="8" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F13" s="9" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G13" s="10" t="s"/>
+      <x:c r="H13" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I13" s="11" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A14" s="5" t="s"/>
+      <x:c r="B14" s="6" t="s"/>
+      <x:c r="C14" s="7" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D14" s="8" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E14" s="8" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F14" s="9" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G14" s="10" t="s"/>
+      <x:c r="H14" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I14" s="11" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A15" s="5" t="s"/>
+      <x:c r="B15" s="6" t="s"/>
+      <x:c r="C15" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D15" s="8" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E15" s="8" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F15" s="9" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G15" s="10" t="s"/>
+      <x:c r="H15" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I15" s="11" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A16" s="5" t="s"/>
+      <x:c r="B16" s="6" t="s"/>
+      <x:c r="C16" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D16" s="8" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E16" s="8" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F16" s="9" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G16" s="10" t="s"/>
+      <x:c r="H16" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I16" s="11" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A17" s="5" t="s"/>
+      <x:c r="B17" s="6" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C17" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D17" s="8" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E17" s="8" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F17" s="9" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G17" s="10" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H17" s="10" t="s"/>
+      <x:c r="I17" s="11" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A18" s="5" t="s"/>
+      <x:c r="B18" s="6" t="s"/>
+      <x:c r="C18" s="7" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="H10" s="12" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I10" s="12" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:9" customFormat="1" ht="45" customHeight="1">
-      <x:c r="A11" s="4" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B11" s="12" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C11" s="12" t="s"/>
-      <x:c r="D11" s="12" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E11" s="12" t="s"/>
-      <x:c r="F11" s="12" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G11" s="12" t="s">
+      <x:c r="D18" s="8" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E18" s="8" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F18" s="9" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G18" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H18" s="10" t="s"/>
+      <x:c r="I18" s="11" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A19" s="5" t="s"/>
+      <x:c r="B19" s="6" t="s"/>
+      <x:c r="C19" s="7" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="H11" s="12" t="s">
+      <x:c r="D19" s="8" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="I11" s="12" t="s">
+      <x:c r="E19" s="8" t="s">
         <x:v>36</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:9" customFormat="1" ht="45" customHeight="1">
-      <x:c r="A12" s="4" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B12" s="12" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C12" s="12" t="s"/>
-      <x:c r="D12" s="12" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E12" s="12" t="s"/>
-      <x:c r="F12" s="12" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G12" s="12" t="s">
+      <x:c r="F19" s="9" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G19" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H19" s="10" t="s"/>
+      <x:c r="I19" s="11" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A20" s="5" t="s"/>
+      <x:c r="B20" s="6" t="s"/>
+      <x:c r="C20" s="7" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="H12" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I12" s="12" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="D20" s="8" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E20" s="8" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F20" s="9" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G20" s="10" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H20" s="10" t="s"/>
+      <x:c r="I20" s="11" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A21" s="5" t="s"/>
+      <x:c r="B21" s="6" t="s"/>
+      <x:c r="C21" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D21" s="8" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E21" s="8" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F21" s="9" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G21" s="10" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="H21" s="10" t="s"/>
+      <x:c r="I21" s="11" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A22" s="5" t="s"/>
+      <x:c r="B22" s="6" t="s"/>
+      <x:c r="C22" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D22" s="8" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E22" s="8" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F22" s="9" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G22" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H22" s="10" t="s"/>
+      <x:c r="I22" s="11" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A23" s="5" t="s"/>
+      <x:c r="B23" s="6" t="s"/>
+      <x:c r="C23" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D23" s="8" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E23" s="8" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F23" s="9" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G23" s="10" t="s"/>
+      <x:c r="H23" s="10" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I23" s="11" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A24" s="12" t="s"/>
+      <x:c r="B24" s="13" t="s"/>
+      <x:c r="C24" s="14" t="s"/>
+      <x:c r="D24" s="15" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E24" s="15" t="s"/>
+      <x:c r="F24" s="16" t="s"/>
+      <x:c r="G24" s="17" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H24" s="17" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I24" s="18" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A25" s="5" t="s"/>
+      <x:c r="B25" s="6" t="s"/>
+      <x:c r="C25" s="7" t="s"/>
+      <x:c r="D25" s="8" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E25" s="8" t="s"/>
+      <x:c r="F25" s="9" t="s"/>
+      <x:c r="G25" s="10" t="s"/>
+      <x:c r="H25" s="10" t="s"/>
+      <x:c r="I25" s="11" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="27" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="28" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="29" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="30" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="31" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="32" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="33" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="34" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="35" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="36" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="37" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="38" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="39" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="40" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="41" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="42" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="43" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="44" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="45" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="46" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>
-  <x:mergeCells count="17">
-    <x:mergeCell ref="A1:I1"/>
-    <x:mergeCell ref="H2:I2"/>
-    <x:mergeCell ref="H3:I3"/>
-    <x:mergeCell ref="A5:B5"/>
-    <x:mergeCell ref="C5:E5"/>
-    <x:mergeCell ref="A6:B6"/>
-    <x:mergeCell ref="C6:E6"/>
-    <x:mergeCell ref="B8:C8"/>
-    <x:mergeCell ref="D8:E8"/>
-    <x:mergeCell ref="B9:C9"/>
-    <x:mergeCell ref="D9:E9"/>
-    <x:mergeCell ref="B10:C10"/>
-    <x:mergeCell ref="D10:E10"/>
-    <x:mergeCell ref="B11:C11"/>
-    <x:mergeCell ref="D11:E11"/>
-    <x:mergeCell ref="B12:C12"/>
-    <x:mergeCell ref="D12:E12"/>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="A1:G1"/>
+    <x:mergeCell ref="H1:I1"/>
+    <x:mergeCell ref="A2:B2"/>
+    <x:mergeCell ref="E2:F2"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.31496" right="0.31496" top="0.74803" bottom="0.74803" header="0.5" footer="0.75"/>
+  <x:pageMargins left="0.27559" right="0.27559" top="0.3937" bottom="0.3937" header="0.5" footer="0.19685"/>
   <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader/>
+    <x:oddFooter>&amp;C&amp;09令和4年1 月 - &amp;P </x:oddFooter>
+    <x:evenHeader/>
+    <x:evenFooter>&amp;C&amp;09令和4年1 月 - &amp;P </x:evenFooter>
+    <x:firstHeader/>
+    <x:firstFooter>&amp;C&amp;09令和4年1 月 - &amp;P </x:firstFooter>
+  </x:headerFooter>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/WPF/bin/Debug/files/AccountingProcessFile.xlsx
+++ b/WPF/bin/Debug/files/AccountingProcessFile.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <x:si>
     <x:t>令和 4 年</x:t>
   </x:si>
   <x:si>
-    <x:t>発行 : R4.1.2 林飛</x:t>
+    <x:t>発行 : R4.2.23 林飛</x:t>
   </x:si>
   <x:si>
     <x:t>日付</x:t>
@@ -46,241 +46,334 @@
     <x:t>前月より繰越</x:t>
   </x:si>
   <x:si>
-    <x:t>1,937,951</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
+    <x:t>110,713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>諸口</x:t>
+  </x:si>
+  <x:si>
+    <x:t>春秋苑</x:t>
+  </x:si>
+  <x:si>
+    <x:t>和野内 昭彦(1/25)代参他2件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>前受金</x:t>
+  </x:si>
+  <x:si>
+    <x:t>墓地花</x:t>
+  </x:si>
+  <x:si>
+    <x:t>熊倉 千砂子 3/2分</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>811</x:t>
+  </x:si>
+  <x:si>
+    <x:t>墓地花売上</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 件他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 件他4件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 件他3件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 件他3件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 件他2件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 件他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/5芦田家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>812</x:t>
+  </x:si>
+  <x:si>
+    <x:t>供花売上</x:t>
+  </x:si>
+  <x:si>
+    <x:t>籠花</x:t>
+  </x:si>
+  <x:si>
+    <x:t>佐藤家 3300×2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,600</x:t>
   </x:si>
   <x:si>
     <x:t>813</x:t>
   </x:si>
   <x:si>
-    <x:t>法事冥加</x:t>
-  </x:si>
-  <x:si>
-    <x:t>特別参拝室</x:t>
-  </x:si>
-  <x:si>
-    <x:t>高橋家</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>821</x:t>
-  </x:si>
-  <x:si>
-    <x:t>墓域清掃料</x:t>
-  </x:si>
-  <x:si>
-    <x:t>プランター契約</x:t>
-  </x:si>
-  <x:si>
-    <x:t>黛 多計治071361</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>874</x:t>
-  </x:si>
-  <x:si>
-    <x:t>その他茶所収入</x:t>
-  </x:si>
-  <x:si>
-    <x:t>物販</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ビール他1件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>日本酒</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2件他3件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>822</x:t>
-  </x:si>
-  <x:si>
-    <x:t>その他冥加金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>鐘打懇志</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>831</x:t>
-  </x:si>
-  <x:si>
-    <x:t>懇志読経料</x:t>
-  </x:si>
-  <x:si>
-    <x:t>古物預かり</x:t>
-  </x:si>
-  <x:si>
-    <x:t>穂積秀二</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>除夜会法要</x:t>
-  </x:si>
-  <x:si>
-    <x:t>株式会社ネクストコム 代表取締役 加藤公庸他9件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55,147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>元旦会法要</x:t>
-  </x:si>
-  <x:si>
-    <x:t>安藤登美子他2件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>仮払金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>違算金</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>527</x:t>
-  </x:si>
-  <x:si>
-    <x:t>複合勘定</x:t>
-  </x:si>
-  <x:si>
-    <x:t>アルバイト</x:t>
-  </x:si>
-  <x:si>
-    <x:t>運転手アルバイト 矢仲進他1件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26,860</x:t>
-  </x:si>
-  <x:si>
-    <x:t>612</x:t>
-  </x:si>
-  <x:si>
-    <x:t>福利厚生費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>お弁当</x:t>
-  </x:si>
-  <x:si>
-    <x:t>和い寿</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88,992</x:t>
-  </x:si>
-  <x:si>
-    <x:t>お礼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>関口郷子他7件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>302,730</x:t>
-  </x:si>
-  <x:si>
-    <x:t>737</x:t>
-  </x:si>
-  <x:si>
-    <x:t>法要費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>着付け 田中ヨシ子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,673,716</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>管理料</x:t>
-  </x:si>
-  <x:si>
-    <x:t>大光寺 康 2021,2022年度分</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20,320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ライター</x:t>
-  </x:si>
-  <x:si>
-    <x:t>他2件</x:t>
+    <x:t>線香売上</x:t>
+  </x:si>
+  <x:si>
+    <x:t>線香</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>828</x:t>
+  </x:si>
+  <x:si>
+    <x:t>その他売上</x:t>
+  </x:si>
+  <x:si>
+    <x:t>榊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222,663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>上花</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 件他3件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14,550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21,400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 件他4件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35,200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 件他3件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31,800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 件他3件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26,900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 件他3件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21,600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 件他3件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>増田家 2,200、5,500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>供花</x:t>
+  </x:si>
+  <x:si>
+    <x:t>石垣家他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小野田家他3件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>前田家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>武田家他5件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74,800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>橋本家</x:t>
   </x:si>
   <x:si>
     <x:t>5,500</x:t>
   </x:si>
   <x:si>
-    <x:t>藤沢佳文他9件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>後藤他9件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9,200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>不明他6件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>入谷家他8件</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33,000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>交通費</x:t>
-  </x:si>
-  <x:si>
-    <x:t>生田交通（株）関口様</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,750,846</x:t>
+    <x:t>14 件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34 件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>700</x:t>
   </x:si>
   <x:si>
     <x:t>計</x:t>
   </x:si>
   <x:si>
-    <x:t>241,577</x:t>
-  </x:si>
-  <x:si>
-    <x:t>428,682</x:t>
+    <x:t>470,700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>581,413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>前頁より繰越</x:t>
+  </x:si>
+  <x:si>
+    <x:t>421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>本部勘定</x:t>
+  </x:si>
+  <x:si>
+    <x:t>横浜銀行生田支店</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/8他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>490,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91,413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>特花</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 件他1件</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16,300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115,813</x:t>
+  </x:si>
+  <x:si>
+    <x:t>495,100</x:t>
   </x:si>
   <x:si>
     <x:t>翌月へ繰越</x:t>
@@ -325,7 +418,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="13">
+  <x:borders count="14">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -547,8 +640,25 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="15">
+  <x:cellStyleXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -594,8 +704,14 @@
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="19">
+  <x:cellXfs count="22">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -670,6 +786,18 @@
     </x:xf>
     <x:xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -967,7 +1095,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I46"/>
+  <x:dimension ref="A1:I92"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1041,22 +1169,22 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="8" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E4" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F4" s="9" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G4" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H4" s="10" t="s"/>
       <x:c r="I4" s="11" t="s"/>
@@ -1065,19 +1193,19 @@
       <x:c r="A5" s="5" t="s"/>
       <x:c r="B5" s="6" t="s"/>
       <x:c r="C5" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D5" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E5" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F5" s="9" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G5" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H5" s="10" t="s"/>
       <x:c r="I5" s="11" t="s"/>
@@ -1086,13 +1214,13 @@
       <x:c r="A6" s="5" t="s"/>
       <x:c r="B6" s="6" t="s"/>
       <x:c r="C6" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E6" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F6" s="9" t="s">
         <x:v>25</x:v>
@@ -1107,19 +1235,19 @@
       <x:c r="A7" s="5" t="s"/>
       <x:c r="B7" s="6" t="s"/>
       <x:c r="C7" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E7" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F7" s="9" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F7" s="9" t="s">
+      <x:c r="G7" s="10" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="G7" s="10" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="H7" s="10" t="s"/>
       <x:c r="I7" s="11" t="s"/>
@@ -1128,17 +1256,19 @@
       <x:c r="A8" s="5" t="s"/>
       <x:c r="B8" s="6" t="s"/>
       <x:c r="C8" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D8" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E8" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F8" s="9" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G8" s="10" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="D8" s="8" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E8" s="8" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F8" s="9" t="s"/>
-      <x:c r="G8" s="10" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="H8" s="10" t="s"/>
       <x:c r="I8" s="11" t="s"/>
@@ -1147,19 +1277,19 @@
       <x:c r="A9" s="5" t="s"/>
       <x:c r="B9" s="6" t="s"/>
       <x:c r="C9" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F9" s="9" t="s">
-        <x:v>37</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G9" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H9" s="10" t="s"/>
       <x:c r="I9" s="11" t="s"/>
@@ -1168,19 +1298,19 @@
       <x:c r="A10" s="5" t="s"/>
       <x:c r="B10" s="6" t="s"/>
       <x:c r="C10" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D10" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E10" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F10" s="9" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G10" s="10" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="D10" s="8" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E10" s="8" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F10" s="9" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G10" s="10" t="s">
-        <x:v>41</x:v>
       </x:c>
       <x:c r="H10" s="10" t="s"/>
       <x:c r="I10" s="11" t="s"/>
@@ -1189,19 +1319,19 @@
       <x:c r="A11" s="5" t="s"/>
       <x:c r="B11" s="6" t="s"/>
       <x:c r="C11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E11" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F11" s="9" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="E11" s="8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F11" s="9" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="G11" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H11" s="10" t="s"/>
       <x:c r="I11" s="11" t="s"/>
@@ -1210,126 +1340,124 @@
       <x:c r="A12" s="5" t="s"/>
       <x:c r="B12" s="6" t="s"/>
       <x:c r="C12" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D12" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F12" s="9" t="s"/>
-      <x:c r="G12" s="10" t="s"/>
-      <x:c r="H12" s="10" t="s">
-        <x:v>48</x:v>
-      </x:c>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F12" s="9" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G12" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H12" s="10" t="s"/>
       <x:c r="I12" s="11" t="s"/>
     </x:row>
     <x:row r="13" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A13" s="5" t="s"/>
       <x:c r="B13" s="6" t="s"/>
       <x:c r="C13" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F13" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G13" s="10" t="s"/>
-      <x:c r="H13" s="10" t="s">
-        <x:v>53</x:v>
-      </x:c>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G13" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H13" s="10" t="s"/>
       <x:c r="I13" s="11" t="s"/>
     </x:row>
     <x:row r="14" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A14" s="5" t="s"/>
       <x:c r="B14" s="6" t="s"/>
       <x:c r="C14" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D14" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E14" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F14" s="9" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="G14" s="10" t="s"/>
-      <x:c r="H14" s="10" t="s">
-        <x:v>58</x:v>
-      </x:c>
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G14" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H14" s="10" t="s"/>
       <x:c r="I14" s="11" t="s"/>
     </x:row>
     <x:row r="15" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A15" s="5" t="s"/>
       <x:c r="B15" s="6" t="s"/>
       <x:c r="C15" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D15" s="8" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E15" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F15" s="9" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="D15" s="8" t="s">
+      <x:c r="G15" s="10" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="E15" s="8" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="F15" s="9" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G15" s="10" t="s"/>
-      <x:c r="H15" s="10" t="s">
-        <x:v>61</x:v>
-      </x:c>
+      <x:c r="H15" s="10" t="s"/>
       <x:c r="I15" s="11" t="s"/>
     </x:row>
     <x:row r="16" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A16" s="5" t="s"/>
       <x:c r="B16" s="6" t="s"/>
       <x:c r="C16" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D16" s="8" t="s">
-        <x:v>63</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E16" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F16" s="9" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="F16" s="9" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="G16" s="10" t="s"/>
-      <x:c r="H16" s="10" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="I16" s="11" t="s">
-        <x:v>66</x:v>
-      </x:c>
+      <x:c r="G16" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H16" s="10" t="s"/>
+      <x:c r="I16" s="11" t="s"/>
     </x:row>
     <x:row r="17" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A17" s="5" t="s"/>
-      <x:c r="B17" s="6" t="s">
-        <x:v>67</x:v>
-      </x:c>
+      <x:c r="B17" s="6" t="s"/>
       <x:c r="C17" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D17" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E17" s="8" t="s">
-        <x:v>68</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F17" s="9" t="s">
-        <x:v>69</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G17" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H17" s="10" t="s"/>
       <x:c r="I17" s="11" t="s"/>
@@ -1338,19 +1466,19 @@
       <x:c r="A18" s="5" t="s"/>
       <x:c r="B18" s="6" t="s"/>
       <x:c r="C18" s="7" t="s">
-        <x:v>22</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D18" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E18" s="8" t="s">
-        <x:v>71</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F18" s="9" t="s">
-        <x:v>72</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G18" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H18" s="10" t="s"/>
       <x:c r="I18" s="11" t="s"/>
@@ -1359,19 +1487,19 @@
       <x:c r="A19" s="5" t="s"/>
       <x:c r="B19" s="6" t="s"/>
       <x:c r="C19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D19" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E19" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F19" s="9" t="s">
-        <x:v>74</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G19" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H19" s="10" t="s"/>
       <x:c r="I19" s="11" t="s"/>
@@ -1380,19 +1508,19 @@
       <x:c r="A20" s="5" t="s"/>
       <x:c r="B20" s="6" t="s"/>
       <x:c r="C20" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D20" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E20" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F20" s="9" t="s">
-        <x:v>76</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G20" s="10" t="s">
-        <x:v>77</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H20" s="10" t="s"/>
       <x:c r="I20" s="11" t="s"/>
@@ -1401,40 +1529,44 @@
       <x:c r="A21" s="5" t="s"/>
       <x:c r="B21" s="6" t="s"/>
       <x:c r="C21" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D21" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E21" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F21" s="9" t="s">
-        <x:v>78</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G21" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H21" s="10" t="s"/>
-      <x:c r="I21" s="11" t="s"/>
+      <x:c r="I21" s="11" t="s">
+        <x:v>63</x:v>
+      </x:c>
     </x:row>
     <x:row r="22" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A22" s="5" t="s"/>
-      <x:c r="B22" s="6" t="s"/>
+      <x:c r="B22" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D22" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E22" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F22" s="9" t="s">
-        <x:v>80</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G22" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H22" s="10" t="s"/>
       <x:c r="I22" s="11" t="s"/>
@@ -1443,98 +1575,766 @@
       <x:c r="A23" s="5" t="s"/>
       <x:c r="B23" s="6" t="s"/>
       <x:c r="C23" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D23" s="8" t="s">
-        <x:v>63</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E23" s="8" t="s">
-        <x:v>82</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F23" s="9" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="G23" s="10" t="s"/>
-      <x:c r="H23" s="10" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="I23" s="11" t="s">
-        <x:v>85</x:v>
-      </x:c>
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="H23" s="10" t="s"/>
+      <x:c r="I23" s="11" t="s"/>
     </x:row>
     <x:row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A24" s="12" t="s"/>
-      <x:c r="B24" s="13" t="s"/>
-      <x:c r="C24" s="14" t="s"/>
-      <x:c r="D24" s="15" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="E24" s="15" t="s"/>
-      <x:c r="F24" s="16" t="s"/>
-      <x:c r="G24" s="17" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="H24" s="17" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="I24" s="18" t="s">
-        <x:v>85</x:v>
-      </x:c>
+      <x:c r="A24" s="5" t="s"/>
+      <x:c r="B24" s="6" t="s"/>
+      <x:c r="C24" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D24" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E24" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F24" s="9" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G24" s="10" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H24" s="10" t="s"/>
+      <x:c r="I24" s="11" t="s"/>
     </x:row>
     <x:row r="25" spans="1:9" customFormat="1" ht="15" customHeight="1">
       <x:c r="A25" s="5" t="s"/>
       <x:c r="B25" s="6" t="s"/>
-      <x:c r="C25" s="7" t="s"/>
+      <x:c r="C25" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
       <x:c r="D25" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E25" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F25" s="9" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G25" s="10" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="H25" s="10" t="s"/>
+      <x:c r="I25" s="11" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A26" s="5" t="s"/>
+      <x:c r="B26" s="6" t="s"/>
+      <x:c r="C26" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D26" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E26" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F26" s="9" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G26" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H26" s="10" t="s"/>
+      <x:c r="I26" s="11" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A27" s="5" t="s"/>
+      <x:c r="B27" s="6" t="s"/>
+      <x:c r="C27" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D27" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E27" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F27" s="9" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G27" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H27" s="10" t="s"/>
+      <x:c r="I27" s="11" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A28" s="5" t="s"/>
+      <x:c r="B28" s="6" t="s"/>
+      <x:c r="C28" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D28" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E28" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F28" s="9" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G28" s="10" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H28" s="10" t="s"/>
+      <x:c r="I28" s="11" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A29" s="5" t="s"/>
+      <x:c r="B29" s="6" t="s"/>
+      <x:c r="C29" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D29" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E29" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F29" s="9" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G29" s="10" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="H29" s="10" t="s"/>
+      <x:c r="I29" s="11" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A30" s="5" t="s"/>
+      <x:c r="B30" s="6" t="s"/>
+      <x:c r="C30" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D30" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E30" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F30" s="9" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G30" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H30" s="10" t="s"/>
+      <x:c r="I30" s="11" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A31" s="5" t="s"/>
+      <x:c r="B31" s="6" t="s"/>
+      <x:c r="C31" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D31" s="8" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E31" s="8" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F31" s="9" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G31" s="10" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H31" s="10" t="s"/>
+      <x:c r="I31" s="11" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A32" s="5" t="s"/>
+      <x:c r="B32" s="6" t="s"/>
+      <x:c r="C32" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D32" s="8" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E32" s="8" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F32" s="9" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G32" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H32" s="10" t="s"/>
+      <x:c r="I32" s="11" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A33" s="5" t="s"/>
+      <x:c r="B33" s="6" t="s"/>
+      <x:c r="C33" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D33" s="8" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E33" s="8" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F33" s="9" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G33" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="H33" s="10" t="s"/>
+      <x:c r="I33" s="11" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A34" s="5" t="s"/>
+      <x:c r="B34" s="6" t="s"/>
+      <x:c r="C34" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D34" s="8" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E34" s="8" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F34" s="9" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="E25" s="8" t="s"/>
-      <x:c r="F25" s="9" t="s"/>
-      <x:c r="G25" s="10" t="s"/>
-      <x:c r="H25" s="10" t="s"/>
-      <x:c r="I25" s="11" t="s">
-        <x:v>85</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="27" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="28" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="29" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="30" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="31" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="32" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="33" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="34" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="35" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="36" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="37" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="38" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="39" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="40" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="41" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="42" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="43" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="44" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="45" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
-    <x:row r="46" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+      <x:c r="G34" s="10" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H34" s="10" t="s"/>
+      <x:c r="I34" s="11" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A35" s="5" t="s"/>
+      <x:c r="B35" s="6" t="s"/>
+      <x:c r="C35" s="7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D35" s="8" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E35" s="8" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F35" s="9" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G35" s="10" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H35" s="10" t="s"/>
+      <x:c r="I35" s="11" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A36" s="5" t="s"/>
+      <x:c r="B36" s="6" t="s"/>
+      <x:c r="C36" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D36" s="8" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E36" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F36" s="9" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G36" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H36" s="10" t="s"/>
+      <x:c r="I36" s="11" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A37" s="5" t="s"/>
+      <x:c r="B37" s="6" t="s"/>
+      <x:c r="C37" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D37" s="8" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E37" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F37" s="9" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G37" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H37" s="10" t="s"/>
+      <x:c r="I37" s="11" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A38" s="5" t="s"/>
+      <x:c r="B38" s="6" t="s"/>
+      <x:c r="C38" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D38" s="8" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E38" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F38" s="9" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G38" s="10" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H38" s="10" t="s"/>
+      <x:c r="I38" s="11" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A39" s="5" t="s"/>
+      <x:c r="B39" s="6" t="s"/>
+      <x:c r="C39" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D39" s="8" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E39" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F39" s="9" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G39" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H39" s="10" t="s"/>
+      <x:c r="I39" s="11" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A40" s="5" t="s"/>
+      <x:c r="B40" s="6" t="s"/>
+      <x:c r="C40" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D40" s="8" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E40" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F40" s="9" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G40" s="10" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H40" s="10" t="s"/>
+      <x:c r="I40" s="11" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A41" s="5" t="s"/>
+      <x:c r="B41" s="6" t="s"/>
+      <x:c r="C41" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D41" s="8" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E41" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F41" s="9" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G41" s="10" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="H41" s="10" t="s"/>
+      <x:c r="I41" s="11" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A42" s="5" t="s"/>
+      <x:c r="B42" s="6" t="s"/>
+      <x:c r="C42" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D42" s="8" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E42" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F42" s="9" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G42" s="10" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H42" s="10" t="s"/>
+      <x:c r="I42" s="11" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A43" s="5" t="s"/>
+      <x:c r="B43" s="6" t="s"/>
+      <x:c r="C43" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D43" s="8" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E43" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F43" s="9" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="G43" s="10" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H43" s="10" t="s"/>
+      <x:c r="I43" s="11" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A44" s="5" t="s"/>
+      <x:c r="B44" s="6" t="s"/>
+      <x:c r="C44" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D44" s="8" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E44" s="8" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F44" s="9" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G44" s="10" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H44" s="10" t="s"/>
+      <x:c r="I44" s="11" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A45" s="5" t="s"/>
+      <x:c r="B45" s="6" t="s"/>
+      <x:c r="C45" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D45" s="8" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E45" s="8" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F45" s="9" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G45" s="10" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H45" s="10" t="s"/>
+      <x:c r="I45" s="11" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A46" s="12" t="s"/>
+      <x:c r="B46" s="13" t="s"/>
+      <x:c r="C46" s="14" t="s"/>
+      <x:c r="D46" s="15" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E46" s="15" t="s"/>
+      <x:c r="F46" s="16" t="s"/>
+      <x:c r="G46" s="17" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="H46" s="17" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="I46" s="18" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A47" s="19" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="19" t="s"/>
+      <x:c r="C47" s="19" t="s"/>
+      <x:c r="D47" s="19" t="s"/>
+      <x:c r="E47" s="19" t="s"/>
+      <x:c r="F47" s="19" t="s"/>
+      <x:c r="G47" s="19" t="s"/>
+      <x:c r="H47" s="20" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I47" s="21" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A48" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B48" s="6" t="s"/>
+      <x:c r="C48" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D48" s="8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E48" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F48" s="9" t="s"/>
+      <x:c r="G48" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H48" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I48" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A49" s="5" t="s"/>
+      <x:c r="B49" s="6" t="s"/>
+      <x:c r="C49" s="7" t="s"/>
+      <x:c r="D49" s="8" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E49" s="8" t="s"/>
+      <x:c r="F49" s="9" t="s"/>
+      <x:c r="G49" s="10" t="s"/>
+      <x:c r="H49" s="10" t="s"/>
+      <x:c r="I49" s="11" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A50" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B50" s="6" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C50" s="7" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D50" s="8" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E50" s="8" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F50" s="9" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G50" s="10" t="s"/>
+      <x:c r="H50" s="10" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I50" s="11" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A51" s="5" t="s"/>
+      <x:c r="B51" s="6" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C51" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D51" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E51" s="8" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="F51" s="9" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="G51" s="10" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="H51" s="10" t="s"/>
+      <x:c r="I51" s="11" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A52" s="5" t="s"/>
+      <x:c r="B52" s="6" t="s"/>
+      <x:c r="C52" s="7" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D52" s="8" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E52" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F52" s="9" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G52" s="10" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H52" s="10" t="s"/>
+      <x:c r="I52" s="11" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A53" s="5" t="s"/>
+      <x:c r="B53" s="6" t="s"/>
+      <x:c r="C53" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D53" s="8" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E53" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F53" s="9" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G53" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H53" s="10" t="s"/>
+      <x:c r="I53" s="11" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A54" s="5" t="s"/>
+      <x:c r="B54" s="6" t="s"/>
+      <x:c r="C54" s="7" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D54" s="8" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E54" s="8" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F54" s="9" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G54" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H54" s="10" t="s"/>
+      <x:c r="I54" s="11" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A55" s="12" t="s"/>
+      <x:c r="B55" s="13" t="s"/>
+      <x:c r="C55" s="14" t="s"/>
+      <x:c r="D55" s="15" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E55" s="15" t="s"/>
+      <x:c r="F55" s="16" t="s"/>
+      <x:c r="G55" s="17" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="H55" s="17" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I55" s="18" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:9" customFormat="1" ht="15" customHeight="1">
+      <x:c r="A56" s="5" t="s"/>
+      <x:c r="B56" s="6" t="s"/>
+      <x:c r="C56" s="7" t="s"/>
+      <x:c r="D56" s="8" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E56" s="8" t="s"/>
+      <x:c r="F56" s="9" t="s"/>
+      <x:c r="G56" s="10" t="s"/>
+      <x:c r="H56" s="10" t="s"/>
+      <x:c r="I56" s="11" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="58" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="59" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="60" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="61" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="62" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="63" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="64" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="65" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="66" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="67" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="68" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="69" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="70" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="71" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="72" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="73" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="74" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="75" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="76" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="77" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="78" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="79" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="80" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="81" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="82" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="83" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="84" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="85" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="86" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="87" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="88" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="89" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="90" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="91" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="92" spans="1:9" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:sheetProtection password="C7AC" sheet="1" objects="1"/>
-  <x:mergeCells count="4">
+  <x:mergeCells count="8">
     <x:mergeCell ref="A1:G1"/>
     <x:mergeCell ref="H1:I1"/>
     <x:mergeCell ref="A2:B2"/>
     <x:mergeCell ref="E2:F2"/>
+    <x:mergeCell ref="A47:G47"/>
+    <x:mergeCell ref="H47:I47"/>
+    <x:mergeCell ref="A48:B48"/>
+    <x:mergeCell ref="E48:F48"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.27559" right="0.27559" top="0.3937" bottom="0.3937" header="0.5" footer="0.19685"/>
   <x:pageSetup paperSize="13" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
     <x:oddHeader/>
-    <x:oddFooter>&amp;C&amp;09令和4年1 月 - &amp;P </x:oddFooter>
+    <x:oddFooter>&amp;C&amp;09令和4年2 月 - &amp;P </x:oddFooter>
     <x:evenHeader/>
-    <x:evenFooter>&amp;C&amp;09令和4年1 月 - &amp;P </x:evenFooter>
+    <x:evenFooter>&amp;C&amp;09令和4年2 月 - &amp;P </x:evenFooter>
     <x:firstHeader/>
-    <x:firstFooter>&amp;C&amp;09令和4年1 月 - &amp;P </x:firstFooter>
+    <x:firstFooter>&amp;C&amp;09令和4年2 月 - &amp;P </x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="0"/>
 </x:worksheet>
